--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Scripts\Divide-BiS\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A068819-17A3-431A-97B1-90B52A500688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="119">
   <si>
     <t>player</t>
   </si>
@@ -37,33 +31,33 @@
     <t>received</t>
   </si>
   <si>
+    <t>Ninnah</t>
+  </si>
+  <si>
     <t>Queriss</t>
   </si>
   <si>
-    <t>Ninnah</t>
-  </si>
-  <si>
     <t>Aelvå</t>
   </si>
   <si>
+    <t>Ørly</t>
+  </si>
+  <si>
+    <t>Pamage</t>
+  </si>
+  <si>
+    <t>Pyrobifle</t>
+  </si>
+  <si>
     <t>Warloquë</t>
   </si>
   <si>
-    <t>Pamage</t>
-  </si>
-  <si>
-    <t>Ørly</t>
-  </si>
-  <si>
-    <t>Pyrobifle</t>
+    <t>Gosseyn</t>
   </si>
   <si>
     <t>Iryastra</t>
   </si>
   <si>
-    <t>Gosseyn</t>
-  </si>
-  <si>
     <t>Skotia</t>
   </si>
   <si>
@@ -376,14 +370,14 @@
     <t>Emblems of Conquest</t>
   </si>
   <si>
-    <t>x</t>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,14 +440,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -500,7 +486,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -532,27 +518,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -584,24 +552,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -777,22 +727,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -809,7 +751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -822,11 +764,8 @@
       <c r="D2" t="s">
         <v>108</v>
       </c>
-      <c r="E2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -840,7 +779,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -854,7 +793,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -867,11 +806,8 @@
       <c r="D5" t="s">
         <v>108</v>
       </c>
-      <c r="E5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -885,7 +821,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -899,7 +835,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -913,7 +849,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -927,7 +863,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -941,9 +877,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>45135</v>
@@ -955,7 +891,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -969,9 +905,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>45137</v>
@@ -983,9 +919,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <v>45139</v>
@@ -997,9 +933,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15">
         <v>45145</v>
@@ -1011,7 +947,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1025,7 +961,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1039,9 +975,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18">
         <v>45241</v>
@@ -1053,9 +989,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B19">
         <v>45241</v>
@@ -1067,9 +1003,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20">
         <v>45242</v>
@@ -1081,9 +1017,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21">
         <v>45242</v>
@@ -1095,9 +1031,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22">
         <v>45242</v>
@@ -1109,7 +1045,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1123,7 +1059,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1137,9 +1073,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25">
         <v>45247</v>
@@ -1151,9 +1087,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>45250</v>
@@ -1165,9 +1101,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27">
         <v>45294</v>
@@ -1179,9 +1115,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28">
         <v>45294</v>
@@ -1193,7 +1129,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1207,7 +1143,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1221,9 +1157,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31">
         <v>45326</v>
@@ -1235,9 +1171,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B32">
         <v>45442</v>
@@ -1249,9 +1185,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B33">
         <v>45442</v>
@@ -1263,9 +1199,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B34">
         <v>45442</v>
@@ -1277,9 +1213,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B35">
         <v>45446</v>
@@ -1291,9 +1227,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B36">
         <v>45446</v>
@@ -1305,9 +1241,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B37">
         <v>45446</v>
@@ -1319,9 +1255,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B38">
         <v>45446</v>
@@ -1333,7 +1269,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -1347,7 +1283,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -1361,7 +1297,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -1375,7 +1311,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -1389,7 +1325,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -1403,7 +1339,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1417,9 +1353,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B45">
         <v>45466</v>
@@ -1431,9 +1367,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B46">
         <v>45466</v>
@@ -1445,7 +1381,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1459,9 +1395,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B48">
         <v>45466</v>
@@ -1473,9 +1409,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B49">
         <v>45471</v>
@@ -1487,9 +1423,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B50">
         <v>45471</v>
@@ -1501,9 +1437,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B51">
         <v>45472</v>
@@ -1515,7 +1451,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -1529,9 +1465,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B53">
         <v>45481</v>
@@ -1543,9 +1479,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B54">
         <v>45485</v>
@@ -1557,9 +1493,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B55">
         <v>45485</v>
@@ -1571,7 +1507,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -1585,7 +1521,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -1599,9 +1535,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B58">
         <v>45488</v>
@@ -1613,9 +1549,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B59">
         <v>45495</v>
@@ -1627,9 +1563,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B60">
         <v>45495</v>
@@ -1641,9 +1577,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B61">
         <v>45495</v>
@@ -1655,9 +1591,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B62">
         <v>45495</v>
@@ -1669,7 +1605,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -1683,7 +1619,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -1697,7 +1633,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -1711,9 +1647,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B66">
         <v>45497</v>
@@ -1725,7 +1661,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -1739,7 +1675,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -1753,9 +1689,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B69">
         <v>45518</v>
@@ -1767,9 +1703,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B70">
         <v>45518</v>
@@ -1781,9 +1717,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B71">
         <v>45518</v>
@@ -1795,9 +1731,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B72">
         <v>45518</v>
@@ -1809,7 +1745,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -1823,7 +1759,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>12</v>
       </c>
@@ -1837,7 +1773,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -1851,7 +1787,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>14</v>
       </c>
@@ -1865,7 +1801,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>15</v>
       </c>
@@ -1879,9 +1815,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B78">
         <v>45537</v>
@@ -1893,9 +1829,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B79">
         <v>45537</v>
@@ -1907,7 +1843,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -1921,9 +1857,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B81">
         <v>45587</v>
@@ -1935,9 +1871,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B82">
         <v>45587</v>
@@ -1949,9 +1885,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B83">
         <v>45594</v>
@@ -1963,9 +1899,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B84">
         <v>45594</v>
@@ -1977,9 +1913,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B85">
         <v>45599</v>
@@ -1991,9 +1927,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B86">
         <v>45599</v>
@@ -2005,9 +1941,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B87">
         <v>45609</v>
@@ -2019,7 +1955,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>15</v>
       </c>
@@ -2033,7 +1969,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -2047,7 +1983,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -2061,7 +1997,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -2075,7 +2011,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>15</v>
       </c>
@@ -2089,7 +2025,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>14</v>
       </c>
@@ -2103,9 +2039,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B94">
         <v>45617</v>
@@ -2117,7 +2053,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -2131,7 +2067,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>11</v>
       </c>
@@ -2145,9 +2081,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B97">
         <v>45617</v>
@@ -2159,7 +2095,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -2173,9 +2109,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B99">
         <v>45619</v>
@@ -2187,7 +2123,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -2201,9 +2137,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B101">
         <v>45619</v>
@@ -2215,9 +2151,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B102">
         <v>45620</v>
@@ -2229,9 +2165,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B103">
         <v>45620</v>
@@ -2243,9 +2179,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B104">
         <v>45620</v>
@@ -2257,9 +2193,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B105">
         <v>45620</v>
@@ -2271,9 +2207,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B106">
         <v>45632</v>
@@ -2285,7 +2221,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -2299,7 +2235,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>10</v>
       </c>
@@ -2313,7 +2249,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -2327,9 +2263,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B110">
         <v>45634</v>
@@ -2341,9 +2277,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B111">
         <v>45634</v>
@@ -2355,9 +2291,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B112">
         <v>45634</v>
@@ -2369,9 +2305,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B113">
         <v>45638</v>
@@ -2383,9 +2319,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B114">
         <v>45639</v>
@@ -2397,9 +2333,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B115">
         <v>45640</v>
@@ -2411,9 +2347,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B116">
         <v>45640</v>
@@ -2425,9 +2361,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B117">
         <v>45640</v>
@@ -2439,7 +2375,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>14</v>
       </c>
@@ -2453,9 +2389,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B119">
         <v>45640</v>
@@ -2467,7 +2403,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>15</v>
       </c>
@@ -2481,7 +2417,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -2495,7 +2431,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>14</v>
       </c>
@@ -2509,9 +2445,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B123">
         <v>45643</v>
@@ -2523,7 +2459,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>15</v>
       </c>
@@ -2537,7 +2473,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -2551,9 +2487,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B126">
         <v>45655</v>
@@ -2565,9 +2501,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B127">
         <v>45655</v>
@@ -2579,9 +2515,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B128">
         <v>45655</v>
@@ -2593,7 +2529,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>14</v>
       </c>
@@ -2607,9 +2543,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B130">
         <v>45656</v>
@@ -2621,9 +2557,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B131">
         <v>45656</v>
@@ -2635,7 +2571,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -2649,9 +2585,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B133">
         <v>45657</v>
@@ -2663,7 +2599,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>9</v>
       </c>
@@ -2677,9 +2613,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B135">
         <v>45658</v>
@@ -2691,9 +2627,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B136">
         <v>45658</v>
@@ -2705,7 +2641,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>14</v>
       </c>
@@ -2719,9 +2655,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B138">
         <v>45658</v>
@@ -2733,9 +2669,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B139">
         <v>45658</v>
@@ -2747,7 +2683,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>13</v>
       </c>
@@ -2761,7 +2697,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>12</v>
       </c>
@@ -2775,7 +2711,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>9</v>
       </c>
@@ -2789,7 +2725,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>8</v>
       </c>
@@ -2803,9 +2739,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B144">
         <v>45665</v>
@@ -2817,9 +2753,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B145">
         <v>45665</v>
@@ -2831,7 +2767,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>14</v>
       </c>
@@ -2845,7 +2781,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>15</v>
       </c>
@@ -2859,7 +2795,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>14</v>
       </c>
@@ -2873,9 +2809,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B149">
         <v>45931</v>
@@ -2887,7 +2823,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>15</v>
       </c>
@@ -2901,7 +2837,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>14</v>
       </c>
@@ -2915,9 +2851,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B152">
         <v>45947</v>
@@ -2929,7 +2865,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>6</v>
       </c>
@@ -2943,7 +2879,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>5</v>
       </c>
@@ -2957,7 +2893,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -2971,7 +2907,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>5</v>
       </c>
@@ -2985,7 +2921,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>6</v>
       </c>
@@ -2999,9 +2935,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B158">
         <v>46032</v>
@@ -3013,7 +2949,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>15</v>
       </c>
@@ -3027,7 +2963,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -3041,9 +2977,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B161">
         <v>46039</v>
@@ -3055,9 +2991,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B162">
         <v>46039</v>
@@ -3069,7 +3005,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>11</v>
       </c>
@@ -3083,7 +3019,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>8</v>
       </c>
@@ -3097,7 +3033,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>9</v>
       </c>
@@ -3111,7 +3047,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>10</v>
       </c>
@@ -3125,7 +3061,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -3139,7 +3075,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>15</v>
       </c>
@@ -3153,9 +3089,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B169">
         <v>46053</v>
@@ -3167,7 +3103,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>14</v>
       </c>
@@ -3181,9 +3117,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B171">
         <v>46053</v>
@@ -3195,9 +3131,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B172">
         <v>46053</v>
@@ -3209,7 +3145,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>15</v>
       </c>
@@ -3223,7 +3159,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>15</v>
       </c>
@@ -3237,9 +3173,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B175">
         <v>46097</v>
@@ -3251,9 +3187,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B176">
         <v>46097</v>
@@ -3265,7 +3201,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5">
       <c r="A177" t="s">
         <v>7</v>
       </c>
@@ -3279,9 +3215,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B178">
         <v>40207</v>
@@ -3292,10 +3228,13 @@
       <c r="D178" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E178" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B179">
         <v>40207</v>
@@ -3306,8 +3245,11 @@
       <c r="D179" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E179" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180" t="s">
         <v>14</v>
       </c>
@@ -3320,8 +3262,11 @@
       <c r="D180" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E180" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181" t="s">
         <v>15</v>
       </c>
@@ -3334,8 +3279,11 @@
       <c r="D181" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E181" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -3349,9 +3297,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B183">
         <v>42987</v>
@@ -3362,10 +3310,13 @@
       <c r="D183" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E183" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B184">
         <v>42987</v>
@@ -3376,8 +3327,11 @@
       <c r="D184" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E184" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -3391,7 +3345,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5">
       <c r="A186" t="s">
         <v>15</v>
       </c>
@@ -3405,9 +3359,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B187">
         <v>45825</v>

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Scripts\Divide-BiS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFF8836-05E6-4E19-9FCF-971D64C1C97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E544AB5A-DABA-4C15-A3ED-DCE675DCC0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="118">
   <si>
     <t>player</t>
   </si>
@@ -374,9 +374,6 @@
   </si>
   <si>
     <t>Emblems of Conquest</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
 </sst>
 </file>
@@ -780,7 +777,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="E163" sqref="E163"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1464,7 +1463,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -1478,7 +1477,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -1492,7 +1491,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -1506,7 +1505,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1519,11 +1518,8 @@
       <c r="D52" t="s">
         <v>115</v>
       </c>
-      <c r="E52" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -1536,11 +1532,8 @@
       <c r="D53" t="s">
         <v>115</v>
       </c>
-      <c r="E53" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -1554,7 +1547,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -1568,7 +1561,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -1582,7 +1575,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -1596,7 +1589,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -1610,7 +1603,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1624,7 +1617,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -1638,7 +1631,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -1652,7 +1645,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -1666,7 +1659,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -1680,7 +1673,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>12</v>
       </c>
@@ -1918,7 +1911,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -1932,7 +1925,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -1946,7 +1939,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>14</v>
       </c>
@@ -1960,7 +1953,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -1974,7 +1967,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -1988,7 +1981,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>12</v>
       </c>
@@ -2002,7 +1995,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -2016,7 +2009,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -2030,7 +2023,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>12</v>
       </c>
@@ -2044,7 +2037,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -2058,7 +2051,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>12</v>
       </c>
@@ -2072,7 +2065,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -2086,7 +2079,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -2099,11 +2092,8 @@
       <c r="D93" t="s">
         <v>115</v>
       </c>
-      <c r="E93" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -2116,11 +2106,8 @@
       <c r="D94" t="s">
         <v>115</v>
       </c>
-      <c r="E94" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>10</v>
       </c>
@@ -2134,7 +2121,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -3044,7 +3031,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>9</v>
       </c>
@@ -3058,7 +3045,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>6</v>
       </c>
@@ -3071,11 +3058,8 @@
       <c r="D162" t="s">
         <v>115</v>
       </c>
-      <c r="E162" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>5</v>
       </c>
@@ -3088,11 +3072,8 @@
       <c r="D163" t="s">
         <v>115</v>
       </c>
-      <c r="E163" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>11</v>
       </c>
@@ -3106,7 +3087,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>6</v>
       </c>
@@ -3120,7 +3101,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>6</v>
       </c>
@@ -3134,7 +3115,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>11</v>
       </c>
@@ -3148,7 +3129,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>7</v>
       </c>
@@ -3162,7 +3143,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>9</v>
       </c>
@@ -3176,7 +3157,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>9</v>
       </c>
@@ -3190,7 +3171,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>15</v>
       </c>
@@ -3204,7 +3185,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>13</v>
       </c>
@@ -3218,7 +3199,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>14</v>
       </c>
@@ -3232,7 +3213,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>10</v>
       </c>
@@ -3246,7 +3227,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>13</v>
       </c>
@@ -3260,7 +3241,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>14</v>
       </c>

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="124">
   <si>
     <t>player</t>
   </si>
@@ -31,42 +31,45 @@
     <t>received</t>
   </si>
   <si>
+    <t>Gosseyn</t>
+  </si>
+  <si>
     <t>Iryastra</t>
   </si>
   <si>
-    <t>Gosseyn</t>
-  </si>
-  <si>
     <t>Nweysa</t>
   </si>
   <si>
     <t>Aelvå</t>
   </si>
   <si>
+    <t>Euphemià</t>
+  </si>
+  <si>
+    <t>Warloquë</t>
+  </si>
+  <si>
     <t>Skotia</t>
   </si>
   <si>
-    <t>Euphemià</t>
-  </si>
-  <si>
-    <t>Warloquë</t>
-  </si>
-  <si>
     <t>Queriss</t>
   </si>
   <si>
     <t>Ninnah</t>
   </si>
   <si>
+    <t>Nordton</t>
+  </si>
+  <si>
     <t>Pyrobifle</t>
   </si>
   <si>
+    <t>Pamage</t>
+  </si>
+  <si>
     <t>Ørly</t>
   </si>
   <si>
-    <t>Pamage</t>
-  </si>
-  <si>
     <t>Armbands of Bedlam</t>
   </si>
   <si>
@@ -307,6 +310,9 @@
     <t>Signet of the Earthshaker</t>
   </si>
   <si>
+    <t>Solar Bindings</t>
+  </si>
+  <si>
     <t>Sorthalis, Hammer of the Watchers</t>
   </si>
   <si>
@@ -334,34 +340,40 @@
     <t>Treads of the False Oracle</t>
   </si>
   <si>
+    <t>Twirling Blades</t>
+  </si>
+  <si>
     <t>Veranus' Bane</t>
   </si>
   <si>
     <t>Vestments of the Blind Denizen</t>
   </si>
   <si>
+    <t>Voldrethar, Dark Blade of Oblivion</t>
+  </si>
+  <si>
     <t>Warhelm of the Champion</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Craft</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>6</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
   <si>
     <t>P1</t>
@@ -731,7 +743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E204"/>
+  <dimension ref="A1:E221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -762,10 +774,10 @@
         <v>45663</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -776,10 +788,10 @@
         <v>45663</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -790,38 +802,38 @@
         <v>46048</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>45241</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>45241</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -832,10 +844,10 @@
         <v>45553</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -846,10 +858,10 @@
         <v>45460</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -860,10 +872,10 @@
         <v>45135</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -874,10 +886,10 @@
         <v>45135</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -888,10 +900,10 @@
         <v>45135</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -902,10 +914,10 @@
         <v>45610</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -916,10 +928,10 @@
         <v>46039</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -930,66 +942,66 @@
         <v>46039</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>45632</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>45633</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B17">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B18">
         <v>45634</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1000,10 +1012,10 @@
         <v>45634</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1014,52 +1026,52 @@
         <v>45634</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21">
         <v>45634</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B22">
         <v>45634</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B23">
-        <v>45485</v>
+        <v>45634</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1070,10 +1082,10 @@
         <v>45485</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1081,13 +1093,13 @@
         <v>12</v>
       </c>
       <c r="B25">
-        <v>45587</v>
+        <v>45485</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1098,52 +1110,52 @@
         <v>45587</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B27">
-        <v>46097</v>
+        <v>45587</v>
       </c>
       <c r="C27" t="s">
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28">
         <v>46097</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B29">
         <v>46097</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1151,111 +1163,111 @@
         <v>8</v>
       </c>
       <c r="B30">
-        <v>45609</v>
+        <v>46097</v>
       </c>
       <c r="C30" t="s">
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31">
         <v>45609</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B32">
         <v>45609</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B33">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C33" t="s">
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B34">
         <v>45495</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B35">
         <v>45495</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B36">
         <v>45495</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B37">
         <v>45495</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D37" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1266,38 +1278,38 @@
         <v>45495</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B39">
-        <v>45612</v>
+        <v>45495</v>
       </c>
       <c r="C39" t="s">
         <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B40">
-        <v>45617</v>
+        <v>45612</v>
       </c>
       <c r="C40" t="s">
         <v>34</v>
       </c>
       <c r="D40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1308,7 +1320,7 @@
         <v>45617</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D41" t="s">
         <v>114</v>
@@ -1316,433 +1328,433 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B42">
         <v>45617</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B43">
         <v>45617</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B44">
         <v>45617</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B45">
-        <v>45250</v>
+        <v>45617</v>
       </c>
       <c r="C45" t="s">
         <v>35</v>
       </c>
       <c r="D45" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B46">
-        <v>45497</v>
+        <v>45250</v>
       </c>
       <c r="C46" t="s">
         <v>36</v>
       </c>
       <c r="D46" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B47">
         <v>45497</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D47" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B48">
-        <v>45638</v>
+        <v>45497</v>
       </c>
       <c r="C48" t="s">
         <v>37</v>
       </c>
       <c r="D48" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B49">
-        <v>45639</v>
+        <v>45638</v>
       </c>
       <c r="C49" t="s">
         <v>38</v>
       </c>
       <c r="D49" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B50">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="C50" t="s">
         <v>39</v>
       </c>
       <c r="D50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B51">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="C51" t="s">
         <v>39</v>
       </c>
       <c r="D51" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B52">
         <v>45640</v>
       </c>
       <c r="C52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D52" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B53">
         <v>45640</v>
       </c>
       <c r="C53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D53" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B54">
         <v>45640</v>
       </c>
       <c r="C54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D54" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B55">
         <v>45640</v>
       </c>
       <c r="C55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D55" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B56">
-        <v>46038</v>
+        <v>45640</v>
       </c>
       <c r="C56" t="s">
         <v>40</v>
       </c>
       <c r="D56" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B57">
-        <v>42987</v>
+        <v>45640</v>
       </c>
       <c r="C57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D57" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B58">
-        <v>42987</v>
+        <v>46038</v>
       </c>
       <c r="C58" t="s">
         <v>41</v>
       </c>
       <c r="D58" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B59">
-        <v>45139</v>
+        <v>42987</v>
       </c>
       <c r="C59" t="s">
         <v>42</v>
       </c>
       <c r="D59" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B60">
-        <v>45461</v>
+        <v>42987</v>
       </c>
       <c r="C60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D60" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B61">
-        <v>45242</v>
+        <v>42987</v>
       </c>
       <c r="C61" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D61" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B62">
-        <v>45242</v>
+        <v>45139</v>
       </c>
       <c r="C62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D62" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B63">
-        <v>45242</v>
+        <v>45461</v>
       </c>
       <c r="C63" t="s">
         <v>44</v>
       </c>
       <c r="D63" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B64">
-        <v>46032</v>
+        <v>45242</v>
       </c>
       <c r="C64" t="s">
         <v>45</v>
       </c>
       <c r="D64" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B65">
-        <v>46032</v>
+        <v>45242</v>
       </c>
       <c r="C65" t="s">
         <v>45</v>
       </c>
       <c r="D65" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B66">
-        <v>45613</v>
+        <v>45242</v>
       </c>
       <c r="C66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D66" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B67">
-        <v>45473</v>
+        <v>46032</v>
       </c>
       <c r="C67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D67" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B68">
-        <v>45471</v>
+        <v>46032</v>
       </c>
       <c r="C68" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D68" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B69">
-        <v>45471</v>
+        <v>46032</v>
       </c>
       <c r="C69" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D69" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B70">
-        <v>45946</v>
+        <v>45613</v>
       </c>
       <c r="C70" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D70" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B71">
-        <v>45518</v>
+        <v>45473</v>
       </c>
       <c r="C71" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D71" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B72">
-        <v>45518</v>
+        <v>45471</v>
       </c>
       <c r="C72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D72" t="s">
         <v>114</v>
@@ -1750,142 +1762,142 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B73">
-        <v>45518</v>
+        <v>45471</v>
       </c>
       <c r="C73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D73" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B74">
-        <v>45518</v>
+        <v>45946</v>
       </c>
       <c r="C74" t="s">
         <v>50</v>
       </c>
       <c r="D74" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B75">
         <v>45518</v>
       </c>
       <c r="C75" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D75" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B76">
-        <v>45869</v>
+        <v>45518</v>
       </c>
       <c r="C76" t="s">
         <v>51</v>
       </c>
       <c r="D76" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B77">
-        <v>45564</v>
+        <v>45518</v>
       </c>
       <c r="C77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D77" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B78">
-        <v>45459</v>
+        <v>45518</v>
       </c>
       <c r="C78" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D78" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B79">
-        <v>45459</v>
+        <v>45518</v>
       </c>
       <c r="C79" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D79" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B80">
-        <v>42608</v>
+        <v>45869</v>
       </c>
       <c r="C80" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D80" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B81">
-        <v>45481</v>
+        <v>45564</v>
       </c>
       <c r="C81" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D81" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B82">
-        <v>45642</v>
+        <v>45459</v>
       </c>
       <c r="C82" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D82" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1893,374 +1905,374 @@
         <v>6</v>
       </c>
       <c r="B83">
-        <v>45643</v>
+        <v>45459</v>
       </c>
       <c r="C83" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D83" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B84">
-        <v>45643</v>
+        <v>42608</v>
       </c>
       <c r="C84" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D84" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B85">
-        <v>45643</v>
+        <v>45481</v>
       </c>
       <c r="C85" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D85" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B86">
-        <v>45132</v>
+        <v>45642</v>
       </c>
       <c r="C86" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D86" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B87">
-        <v>45446</v>
+        <v>45642</v>
       </c>
       <c r="C87" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D87" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B88">
-        <v>45446</v>
+        <v>45643</v>
       </c>
       <c r="C88" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D88" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B89">
-        <v>45446</v>
+        <v>45643</v>
       </c>
       <c r="C89" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D89" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B90">
-        <v>45446</v>
+        <v>45643</v>
       </c>
       <c r="C90" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D90" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B91">
-        <v>45446</v>
+        <v>45132</v>
       </c>
       <c r="C91" t="s">
         <v>59</v>
       </c>
       <c r="D91" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B92">
         <v>45446</v>
       </c>
       <c r="C92" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D92" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B93">
-        <v>45988</v>
+        <v>45446</v>
       </c>
       <c r="C93" t="s">
         <v>60</v>
       </c>
       <c r="D93" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B94">
-        <v>45988</v>
+        <v>45446</v>
       </c>
       <c r="C94" t="s">
         <v>60</v>
       </c>
       <c r="D94" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B95">
-        <v>45487</v>
+        <v>45446</v>
       </c>
       <c r="C95" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D95" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B96">
-        <v>45487</v>
+        <v>45446</v>
       </c>
       <c r="C96" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D96" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B97">
-        <v>45158</v>
+        <v>45446</v>
       </c>
       <c r="C97" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D97" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B98">
-        <v>45158</v>
+        <v>45988</v>
       </c>
       <c r="C98" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D98" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B99">
-        <v>45886</v>
+        <v>45988</v>
       </c>
       <c r="C99" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D99" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B100">
-        <v>40342</v>
+        <v>45487</v>
       </c>
       <c r="C100" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D100" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B101">
-        <v>40713</v>
+        <v>45487</v>
       </c>
       <c r="C101" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D101" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B102">
-        <v>45488</v>
+        <v>45158</v>
       </c>
       <c r="C102" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D102" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B103">
-        <v>45488</v>
+        <v>45158</v>
       </c>
       <c r="C103" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D103" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B104">
-        <v>45536</v>
+        <v>45886</v>
       </c>
       <c r="C104" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D104" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B105">
-        <v>45594</v>
+        <v>40342</v>
       </c>
       <c r="C105" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D105" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B106">
-        <v>45594</v>
+        <v>40713</v>
       </c>
       <c r="C106" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D106" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B107">
-        <v>45654</v>
+        <v>45488</v>
       </c>
       <c r="C107" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D107" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B108">
-        <v>45655</v>
+        <v>45488</v>
       </c>
       <c r="C108" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D108" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B109">
-        <v>45655</v>
+        <v>45536</v>
       </c>
       <c r="C109" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D109" t="s">
         <v>114</v>
@@ -2268,30 +2280,30 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B110">
-        <v>45655</v>
+        <v>45536</v>
       </c>
       <c r="C110" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D110" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B111">
-        <v>45655</v>
+        <v>45594</v>
       </c>
       <c r="C111" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D111" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2299,13 +2311,13 @@
         <v>13</v>
       </c>
       <c r="B112">
-        <v>45145</v>
+        <v>45594</v>
       </c>
       <c r="C112" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D112" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2313,13 +2325,13 @@
         <v>8</v>
       </c>
       <c r="B113">
-        <v>45456</v>
+        <v>45654</v>
       </c>
       <c r="C113" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D113" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2327,108 +2339,108 @@
         <v>11</v>
       </c>
       <c r="B114">
-        <v>45656</v>
+        <v>45655</v>
       </c>
       <c r="C114" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D114" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B115">
-        <v>45656</v>
+        <v>45655</v>
       </c>
       <c r="C115" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D115" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B116">
-        <v>45657</v>
+        <v>45655</v>
       </c>
       <c r="C116" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D116" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B117">
-        <v>45657</v>
+        <v>45655</v>
       </c>
       <c r="C117" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D117" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B118">
-        <v>45658</v>
+        <v>45145</v>
       </c>
       <c r="C118" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D118" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B119">
-        <v>45658</v>
+        <v>45456</v>
       </c>
       <c r="C119" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D119" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B120">
-        <v>45658</v>
+        <v>45656</v>
       </c>
       <c r="C120" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D120" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B121">
-        <v>45658</v>
+        <v>45656</v>
       </c>
       <c r="C121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D121" t="s">
         <v>114</v>
@@ -2436,195 +2448,195 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B122">
-        <v>45658</v>
+        <v>45657</v>
       </c>
       <c r="C122" t="s">
         <v>75</v>
       </c>
       <c r="D122" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B123">
-        <v>45658</v>
+        <v>45657</v>
       </c>
       <c r="C123" t="s">
         <v>75</v>
       </c>
       <c r="D123" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B124">
-        <v>45658</v>
+        <v>45657</v>
       </c>
       <c r="C124" t="s">
         <v>75</v>
       </c>
       <c r="D124" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B125">
-        <v>45111</v>
+        <v>45658</v>
       </c>
       <c r="C125" t="s">
         <v>76</v>
       </c>
       <c r="D125" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B126">
-        <v>45111</v>
+        <v>45658</v>
       </c>
       <c r="C126" t="s">
         <v>76</v>
       </c>
       <c r="D126" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B127">
-        <v>45931</v>
+        <v>45658</v>
       </c>
       <c r="C127" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D127" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B128">
-        <v>45931</v>
+        <v>45658</v>
       </c>
       <c r="C128" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D128" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B129">
-        <v>46046</v>
+        <v>45658</v>
       </c>
       <c r="C129" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D129" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B130">
-        <v>46046</v>
+        <v>45658</v>
       </c>
       <c r="C130" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D130" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B131">
-        <v>46046</v>
+        <v>45658</v>
       </c>
       <c r="C131" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D131" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B132">
-        <v>46046</v>
+        <v>45111</v>
       </c>
       <c r="C132" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D132" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B133">
-        <v>46046</v>
+        <v>45111</v>
       </c>
       <c r="C133" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D133" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B134">
-        <v>46046</v>
+        <v>45931</v>
       </c>
       <c r="C134" t="s">
         <v>78</v>
       </c>
       <c r="D134" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B135">
-        <v>45133</v>
+        <v>45931</v>
       </c>
       <c r="C135" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D135" t="s">
         <v>114</v>
@@ -2632,128 +2644,128 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B136">
-        <v>45133</v>
+        <v>45931</v>
       </c>
       <c r="C136" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D136" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B137">
-        <v>45133</v>
+        <v>46046</v>
       </c>
       <c r="C137" t="s">
         <v>79</v>
       </c>
       <c r="D137" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B138">
-        <v>45133</v>
+        <v>46046</v>
       </c>
       <c r="C138" t="s">
         <v>79</v>
       </c>
       <c r="D138" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B139">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C139" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D139" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B140">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C140" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D140" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B141">
-        <v>45294</v>
+        <v>46046</v>
       </c>
       <c r="C141" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D141" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B142">
-        <v>45294</v>
+        <v>46046</v>
       </c>
       <c r="C142" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D142" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B143">
-        <v>45294</v>
+        <v>45133</v>
       </c>
       <c r="C143" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D143" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B144">
-        <v>45294</v>
+        <v>45133</v>
       </c>
       <c r="C144" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D144" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2761,52 +2773,52 @@
         <v>10</v>
       </c>
       <c r="B145">
-        <v>45294</v>
+        <v>45133</v>
       </c>
       <c r="C145" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D145" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B146">
-        <v>45665</v>
+        <v>45133</v>
       </c>
       <c r="C146" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D146" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B147">
-        <v>45665</v>
+        <v>45517</v>
       </c>
       <c r="C147" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D147" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B148">
-        <v>45665</v>
+        <v>45517</v>
       </c>
       <c r="C148" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D148" t="s">
         <v>114</v>
@@ -2814,83 +2826,83 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B149">
-        <v>45665</v>
+        <v>45517</v>
       </c>
       <c r="C149" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D149" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B150">
-        <v>45665</v>
+        <v>45294</v>
       </c>
       <c r="C150" t="s">
         <v>82</v>
       </c>
       <c r="D150" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B151">
-        <v>45134</v>
+        <v>45294</v>
       </c>
       <c r="C151" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D151" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B152">
-        <v>45134</v>
+        <v>45294</v>
       </c>
       <c r="C152" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D152" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B153">
-        <v>45326</v>
+        <v>45294</v>
       </c>
       <c r="C153" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D153" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B154">
-        <v>46053</v>
+        <v>45294</v>
       </c>
       <c r="C154" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D154" t="s">
         <v>113</v>
@@ -2898,55 +2910,55 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B155">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C155" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D155" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B156">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C156" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D156" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B157">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C157" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D157" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B158">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C158" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D158" t="s">
         <v>114</v>
@@ -2954,279 +2966,279 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B159">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C159" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D159" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B160">
-        <v>46021</v>
+        <v>45134</v>
       </c>
       <c r="C160" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D160" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B161">
-        <v>46021</v>
+        <v>45134</v>
       </c>
       <c r="C161" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D161" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B162">
-        <v>45599</v>
+        <v>45326</v>
       </c>
       <c r="C162" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D162" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B163">
-        <v>45599</v>
+        <v>46053</v>
       </c>
       <c r="C163" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D163" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B164">
-        <v>45243</v>
+        <v>46052</v>
       </c>
       <c r="C164" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D164" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B165">
-        <v>45243</v>
+        <v>46053</v>
       </c>
       <c r="C165" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D165" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B166">
-        <v>45466</v>
+        <v>46053</v>
       </c>
       <c r="C166" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D166" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B167">
-        <v>45466</v>
+        <v>46053</v>
       </c>
       <c r="C167" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D167" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B168">
-        <v>45466</v>
+        <v>46053</v>
       </c>
       <c r="C168" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D168" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B169">
-        <v>45466</v>
+        <v>46053</v>
       </c>
       <c r="C169" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D169" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B170">
-        <v>45466</v>
+        <v>46053</v>
       </c>
       <c r="C170" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D170" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B171">
-        <v>45534</v>
+        <v>46021</v>
       </c>
       <c r="C171" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D171" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B172">
-        <v>45534</v>
+        <v>46021</v>
       </c>
       <c r="C172" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D172" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B173">
-        <v>45947</v>
+        <v>45599</v>
       </c>
       <c r="C173" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D173" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B174">
-        <v>45825</v>
+        <v>45599</v>
       </c>
       <c r="C174" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D174" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B175">
-        <v>45245</v>
+        <v>45599</v>
       </c>
       <c r="C175" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D175" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B176">
-        <v>45535</v>
+        <v>45243</v>
       </c>
       <c r="C176" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D176" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B177">
-        <v>40207</v>
+        <v>45243</v>
       </c>
       <c r="C177" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D177" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B178">
-        <v>40207</v>
+        <v>45466</v>
       </c>
       <c r="C178" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D178" t="s">
         <v>116</v>
@@ -3234,184 +3246,184 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B179">
-        <v>45247</v>
+        <v>45466</v>
       </c>
       <c r="C179" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D179" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B180">
-        <v>45442</v>
+        <v>45466</v>
       </c>
       <c r="C180" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D180" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B181">
-        <v>45442</v>
+        <v>45466</v>
       </c>
       <c r="C181" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D181" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B182">
-        <v>45442</v>
+        <v>45466</v>
       </c>
       <c r="C182" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D182" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B183">
-        <v>46095</v>
+        <v>45534</v>
       </c>
       <c r="C183" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D183" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B184">
-        <v>45703</v>
+        <v>45534</v>
       </c>
       <c r="C184" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D184" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B185">
-        <v>45616</v>
+        <v>45947</v>
       </c>
       <c r="C185" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D185" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B186">
-        <v>45620</v>
+        <v>45825</v>
       </c>
       <c r="C186" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D186" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B187">
-        <v>45620</v>
+        <v>45245</v>
       </c>
       <c r="C187" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D187" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B188">
-        <v>45620</v>
+        <v>45535</v>
       </c>
       <c r="C188" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D188" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B189">
-        <v>45620</v>
+        <v>40207</v>
       </c>
       <c r="C189" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D189" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B190">
-        <v>45620</v>
+        <v>40207</v>
       </c>
       <c r="C190" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D190" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B191">
-        <v>45619</v>
+        <v>45247</v>
       </c>
       <c r="C191" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D191" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3419,38 +3431,38 @@
         <v>14</v>
       </c>
       <c r="B192">
-        <v>45619</v>
+        <v>45611</v>
       </c>
       <c r="C192" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D192" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B193">
-        <v>45619</v>
+        <v>45442</v>
       </c>
       <c r="C193" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D193" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B194">
-        <v>45619</v>
+        <v>45442</v>
       </c>
       <c r="C194" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D194" t="s">
         <v>114</v>
@@ -3458,142 +3470,380 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B195">
-        <v>45619</v>
+        <v>45442</v>
       </c>
       <c r="C195" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D195" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B196">
-        <v>45989</v>
+        <v>46095</v>
       </c>
       <c r="C196" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D196" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B197">
-        <v>45496</v>
+        <v>46095</v>
       </c>
       <c r="C197" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D197" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B198">
-        <v>45496</v>
+        <v>45703</v>
       </c>
       <c r="C198" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D198" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B199">
-        <v>45537</v>
+        <v>45616</v>
       </c>
       <c r="C199" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D199" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B200">
-        <v>45537</v>
+        <v>45620</v>
       </c>
       <c r="C200" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D200" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B201">
-        <v>45537</v>
+        <v>45620</v>
       </c>
       <c r="C201" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D201" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B202">
-        <v>45137</v>
+        <v>45620</v>
       </c>
       <c r="C202" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D202" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B203">
-        <v>45519</v>
+        <v>45620</v>
       </c>
       <c r="C203" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D203" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B204">
+        <v>45620</v>
+      </c>
+      <c r="C204" t="s">
+        <v>103</v>
+      </c>
+      <c r="D204" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>15</v>
+      </c>
+      <c r="B205">
+        <v>45619</v>
+      </c>
+      <c r="C205" t="s">
+        <v>104</v>
+      </c>
+      <c r="D205" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>17</v>
+      </c>
+      <c r="B206">
+        <v>45619</v>
+      </c>
+      <c r="C206" t="s">
+        <v>104</v>
+      </c>
+      <c r="D206" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>10</v>
+      </c>
+      <c r="B207">
+        <v>45619</v>
+      </c>
+      <c r="C207" t="s">
+        <v>104</v>
+      </c>
+      <c r="D207" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>16</v>
+      </c>
+      <c r="B208">
+        <v>45619</v>
+      </c>
+      <c r="C208" t="s">
+        <v>104</v>
+      </c>
+      <c r="D208" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>9</v>
+      </c>
+      <c r="B209">
+        <v>45619</v>
+      </c>
+      <c r="C209" t="s">
+        <v>104</v>
+      </c>
+      <c r="D209" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>8</v>
+      </c>
+      <c r="B210">
+        <v>45989</v>
+      </c>
+      <c r="C210" t="s">
+        <v>105</v>
+      </c>
+      <c r="D210" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>13</v>
+      </c>
+      <c r="B211">
+        <v>45496</v>
+      </c>
+      <c r="C211" t="s">
+        <v>106</v>
+      </c>
+      <c r="D211" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>12</v>
+      </c>
+      <c r="B212">
+        <v>45496</v>
+      </c>
+      <c r="C212" t="s">
+        <v>106</v>
+      </c>
+      <c r="D212" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>15</v>
+      </c>
+      <c r="B213">
+        <v>45537</v>
+      </c>
+      <c r="C213" t="s">
+        <v>107</v>
+      </c>
+      <c r="D213" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>17</v>
+      </c>
+      <c r="B214">
+        <v>45537</v>
+      </c>
+      <c r="C214" t="s">
+        <v>107</v>
+      </c>
+      <c r="D214" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>16</v>
+      </c>
+      <c r="B215">
+        <v>45537</v>
+      </c>
+      <c r="C215" t="s">
+        <v>107</v>
+      </c>
+      <c r="D215" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>14</v>
+      </c>
+      <c r="B216">
+        <v>45296</v>
+      </c>
+      <c r="C216" t="s">
+        <v>108</v>
+      </c>
+      <c r="D216" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>12</v>
+      </c>
+      <c r="B217">
+        <v>45137</v>
+      </c>
+      <c r="C217" t="s">
+        <v>109</v>
+      </c>
+      <c r="D217" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>11</v>
+      </c>
+      <c r="B218">
+        <v>45519</v>
+      </c>
+      <c r="C218" t="s">
+        <v>110</v>
+      </c>
+      <c r="D218" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>14</v>
+      </c>
+      <c r="B219">
+        <v>45516</v>
+      </c>
+      <c r="C219" t="s">
+        <v>111</v>
+      </c>
+      <c r="D219" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>14</v>
+      </c>
+      <c r="B220">
+        <v>45516</v>
+      </c>
+      <c r="C220" t="s">
+        <v>111</v>
+      </c>
+      <c r="D220" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>6</v>
+      </c>
+      <c r="B221">
         <v>45472</v>
       </c>
-      <c r="C204" t="s">
-        <v>108</v>
-      </c>
-      <c r="D204" t="s">
-        <v>110</v>
+      <c r="C221" t="s">
+        <v>112</v>
+      </c>
+      <c r="D221" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="128">
   <si>
     <t>player</t>
   </si>
@@ -31,42 +31,45 @@
     <t>received</t>
   </si>
   <si>
+    <t>Veremos</t>
+  </si>
+  <si>
+    <t>Iryastra</t>
+  </si>
+  <si>
     <t>Gosseyn</t>
   </si>
   <si>
-    <t>Iryastra</t>
-  </si>
-  <si>
     <t>Nweysa</t>
   </si>
   <si>
     <t>Aelvå</t>
   </si>
   <si>
+    <t>Skotia</t>
+  </si>
+  <si>
     <t>Euphemià</t>
   </si>
   <si>
     <t>Warloquë</t>
   </si>
   <si>
-    <t>Skotia</t>
+    <t>Ninnah</t>
   </si>
   <si>
     <t>Queriss</t>
   </si>
   <si>
-    <t>Ninnah</t>
-  </si>
-  <si>
     <t>Nordton</t>
   </si>
   <si>
+    <t>Pamage</t>
+  </si>
+  <si>
     <t>Pyrobifle</t>
   </si>
   <si>
-    <t>Pamage</t>
-  </si>
-  <si>
     <t>Ørly</t>
   </si>
   <si>
@@ -181,6 +184,9 @@
     <t>Frigid Strength of Hodir</t>
   </si>
   <si>
+    <t>Furious Gladiator's Libram of Fortitude</t>
+  </si>
+  <si>
     <t>Furious Gladiator's Totem of Indomitability</t>
   </si>
   <si>
@@ -193,6 +199,9 @@
     <t>Gauntlets of the Wayward Vanquisher</t>
   </si>
   <si>
+    <t>Gloves of the Steady Hand</t>
+  </si>
+  <si>
     <t>Golden Saronite Dragon</t>
   </si>
   <si>
@@ -355,16 +364,19 @@
     <t>Warhelm of the Champion</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Craft</t>
   </si>
   <si>
-    <t>3</t>
+    <t>6</t>
   </si>
   <si>
     <t>5</t>
@@ -373,9 +385,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>P1</t>
   </si>
   <si>
@@ -383,6 +392,9 @@
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>Emblems of Conquest</t>
@@ -743,7 +755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E221"/>
+  <dimension ref="A1:E237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -774,10 +786,10 @@
         <v>45663</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -788,10 +800,10 @@
         <v>45663</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -799,69 +811,69 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>46048</v>
+        <v>45663</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>45241</v>
+        <v>46048</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>45241</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>45553</v>
+        <v>45241</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>45460</v>
+        <v>45553</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -869,13 +881,13 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>45135</v>
+        <v>45460</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -886,10 +898,10 @@
         <v>45135</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -900,38 +912,38 @@
         <v>45135</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>45610</v>
+        <v>45135</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>46039</v>
+        <v>45610</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -942,80 +954,80 @@
         <v>46039</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>45632</v>
+        <v>46039</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>45633</v>
+        <v>45632</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>45633</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B18">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>45634</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1026,80 +1038,80 @@
         <v>45634</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>45634</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B22">
         <v>45634</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B23">
         <v>45634</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B24">
-        <v>45485</v>
+        <v>45634</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B25">
         <v>45485</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1107,66 +1119,66 @@
         <v>13</v>
       </c>
       <c r="B26">
-        <v>45587</v>
+        <v>45485</v>
       </c>
       <c r="C26" t="s">
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B27">
         <v>45587</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B28">
-        <v>46097</v>
+        <v>45587</v>
       </c>
       <c r="C28" t="s">
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B29">
         <v>46097</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B30">
         <v>46097</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s">
         <v>116</v>
@@ -1174,195 +1186,195 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B31">
-        <v>45609</v>
+        <v>46097</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B32">
         <v>45609</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B33">
         <v>45609</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B34">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C34" t="s">
         <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B35">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C35" t="s">
         <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>45495</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B37">
         <v>45495</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B38">
         <v>45495</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D38" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B39">
         <v>45495</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D39" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B40">
-        <v>45612</v>
+        <v>45495</v>
       </c>
       <c r="C40" t="s">
         <v>34</v>
       </c>
       <c r="D40" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B41">
-        <v>45617</v>
+        <v>45495</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B42">
-        <v>45617</v>
+        <v>45612</v>
       </c>
       <c r="C42" t="s">
         <v>35</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B43">
         <v>45617</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D43" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B44">
         <v>45617</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D44" t="s">
         <v>117</v>
@@ -1370,72 +1382,72 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B45">
         <v>45617</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D45" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B46">
-        <v>45250</v>
+        <v>45617</v>
       </c>
       <c r="C46" t="s">
         <v>36</v>
       </c>
       <c r="D46" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B47">
-        <v>45497</v>
+        <v>45617</v>
       </c>
       <c r="C47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B48">
-        <v>45497</v>
+        <v>45250</v>
       </c>
       <c r="C48" t="s">
         <v>37</v>
       </c>
       <c r="D48" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B49">
-        <v>45638</v>
+        <v>45497</v>
       </c>
       <c r="C49" t="s">
         <v>38</v>
       </c>
       <c r="D49" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1443,545 +1455,545 @@
         <v>12</v>
       </c>
       <c r="B50">
-        <v>45639</v>
+        <v>45497</v>
       </c>
       <c r="C50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D50" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B51">
-        <v>45639</v>
+        <v>45638</v>
       </c>
       <c r="C51" t="s">
         <v>39</v>
       </c>
       <c r="D51" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B52">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="C52" t="s">
         <v>40</v>
       </c>
       <c r="D52" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B53">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="C53" t="s">
         <v>40</v>
       </c>
       <c r="D53" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B54">
         <v>45640</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D54" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B55">
         <v>45640</v>
       </c>
       <c r="C55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D55" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B56">
         <v>45640</v>
       </c>
       <c r="C56" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D56" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B57">
         <v>45640</v>
       </c>
       <c r="C57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D57" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B58">
-        <v>46038</v>
+        <v>45640</v>
       </c>
       <c r="C58" t="s">
         <v>41</v>
       </c>
       <c r="D58" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B59">
-        <v>42987</v>
+        <v>45640</v>
       </c>
       <c r="C59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D59" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B60">
-        <v>42987</v>
+        <v>46038</v>
       </c>
       <c r="C60" t="s">
         <v>42</v>
       </c>
       <c r="D60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B61">
         <v>42987</v>
       </c>
       <c r="C61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D61" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B62">
-        <v>45139</v>
+        <v>42987</v>
       </c>
       <c r="C62" t="s">
         <v>43</v>
       </c>
       <c r="D62" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B63">
-        <v>45461</v>
+        <v>42987</v>
       </c>
       <c r="C63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D63" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B64">
-        <v>45242</v>
+        <v>42987</v>
       </c>
       <c r="C64" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B65">
-        <v>45242</v>
+        <v>45139</v>
       </c>
       <c r="C65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D65" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B66">
-        <v>45242</v>
+        <v>45461</v>
       </c>
       <c r="C66" t="s">
         <v>45</v>
       </c>
       <c r="D66" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B67">
-        <v>46032</v>
+        <v>45461</v>
       </c>
       <c r="C67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D67" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B68">
-        <v>46032</v>
+        <v>45242</v>
       </c>
       <c r="C68" t="s">
         <v>46</v>
       </c>
       <c r="D68" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B69">
-        <v>46032</v>
+        <v>45242</v>
       </c>
       <c r="C69" t="s">
         <v>46</v>
       </c>
       <c r="D69" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B70">
-        <v>45613</v>
+        <v>45242</v>
       </c>
       <c r="C70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D70" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B71">
-        <v>45473</v>
+        <v>46032</v>
       </c>
       <c r="C71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D71" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B72">
-        <v>45471</v>
+        <v>46032</v>
       </c>
       <c r="C72" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D72" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B73">
-        <v>45471</v>
+        <v>46032</v>
       </c>
       <c r="C73" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D73" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B74">
-        <v>45946</v>
+        <v>45613</v>
       </c>
       <c r="C74" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D74" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B75">
-        <v>45518</v>
+        <v>45473</v>
       </c>
       <c r="C75" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D75" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B76">
-        <v>45518</v>
+        <v>45473</v>
       </c>
       <c r="C76" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D76" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B77">
-        <v>45518</v>
+        <v>45471</v>
       </c>
       <c r="C77" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D77" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B78">
-        <v>45518</v>
+        <v>45471</v>
       </c>
       <c r="C78" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D78" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B79">
-        <v>45518</v>
+        <v>45946</v>
       </c>
       <c r="C79" t="s">
         <v>51</v>
       </c>
       <c r="D79" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B80">
-        <v>45869</v>
+        <v>45518</v>
       </c>
       <c r="C80" t="s">
         <v>52</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B81">
-        <v>45564</v>
+        <v>45518</v>
       </c>
       <c r="C81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D81" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B82">
-        <v>45459</v>
+        <v>45518</v>
       </c>
       <c r="C82" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D82" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B83">
-        <v>45459</v>
+        <v>45518</v>
       </c>
       <c r="C83" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D83" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B84">
-        <v>42608</v>
+        <v>45518</v>
       </c>
       <c r="C84" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D84" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B85">
-        <v>45481</v>
+        <v>45869</v>
       </c>
       <c r="C85" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D85" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B86">
-        <v>45642</v>
+        <v>45564</v>
       </c>
       <c r="C86" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D86" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B87">
-        <v>45642</v>
+        <v>45459</v>
       </c>
       <c r="C87" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D87" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B88">
-        <v>45643</v>
+        <v>45459</v>
       </c>
       <c r="C88" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D88" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1989,55 +2001,55 @@
         <v>5</v>
       </c>
       <c r="B89">
-        <v>45643</v>
+        <v>42853</v>
       </c>
       <c r="C89" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D89" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B90">
-        <v>45643</v>
+        <v>42608</v>
       </c>
       <c r="C90" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D90" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B91">
-        <v>45132</v>
+        <v>45481</v>
       </c>
       <c r="C91" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D91" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B92">
-        <v>45446</v>
+        <v>45642</v>
       </c>
       <c r="C92" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D92" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2045,21 +2057,21 @@
         <v>15</v>
       </c>
       <c r="B93">
-        <v>45446</v>
+        <v>45642</v>
       </c>
       <c r="C93" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D93" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B94">
-        <v>45446</v>
+        <v>45643</v>
       </c>
       <c r="C94" t="s">
         <v>60</v>
@@ -2070,198 +2082,198 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B95">
-        <v>45446</v>
+        <v>45643</v>
       </c>
       <c r="C95" t="s">
         <v>60</v>
       </c>
       <c r="D95" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B96">
-        <v>45446</v>
+        <v>45643</v>
       </c>
       <c r="C96" t="s">
         <v>60</v>
       </c>
       <c r="D96" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B97">
-        <v>45446</v>
+        <v>45444</v>
       </c>
       <c r="C97" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D97" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B98">
-        <v>45988</v>
+        <v>45132</v>
       </c>
       <c r="C98" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D98" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B99">
-        <v>45988</v>
+        <v>45446</v>
       </c>
       <c r="C99" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D99" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B100">
-        <v>45487</v>
+        <v>45446</v>
       </c>
       <c r="C100" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D100" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B101">
-        <v>45487</v>
+        <v>45446</v>
       </c>
       <c r="C101" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D101" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B102">
-        <v>45158</v>
+        <v>45446</v>
       </c>
       <c r="C102" t="s">
         <v>63</v>
       </c>
       <c r="D102" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B103">
-        <v>45158</v>
+        <v>45446</v>
       </c>
       <c r="C103" t="s">
         <v>63</v>
       </c>
       <c r="D103" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B104">
-        <v>45886</v>
+        <v>45446</v>
       </c>
       <c r="C104" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D104" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B105">
-        <v>40342</v>
+        <v>45988</v>
       </c>
       <c r="C105" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D105" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B106">
-        <v>40713</v>
+        <v>45988</v>
       </c>
       <c r="C106" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D106" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B107">
-        <v>45488</v>
+        <v>45487</v>
       </c>
       <c r="C107" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D107" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B108">
-        <v>45488</v>
+        <v>45487</v>
       </c>
       <c r="C108" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D108" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2269,55 +2281,55 @@
         <v>14</v>
       </c>
       <c r="B109">
-        <v>45536</v>
+        <v>45158</v>
       </c>
       <c r="C109" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D109" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B110">
-        <v>45536</v>
+        <v>45158</v>
       </c>
       <c r="C110" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D110" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B111">
-        <v>45594</v>
+        <v>45886</v>
       </c>
       <c r="C111" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D111" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B112">
-        <v>45594</v>
+        <v>40342</v>
       </c>
       <c r="C112" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D112" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2325,13 +2337,13 @@
         <v>8</v>
       </c>
       <c r="B113">
-        <v>45654</v>
+        <v>40713</v>
       </c>
       <c r="C113" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D113" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2339,10 +2351,10 @@
         <v>11</v>
       </c>
       <c r="B114">
-        <v>45655</v>
+        <v>45488</v>
       </c>
       <c r="C114" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D114" t="s">
         <v>118</v>
@@ -2350,44 +2362,44 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B115">
-        <v>45655</v>
+        <v>45488</v>
       </c>
       <c r="C115" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D115" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B116">
-        <v>45655</v>
+        <v>45536</v>
       </c>
       <c r="C116" t="s">
         <v>71</v>
       </c>
       <c r="D116" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B117">
-        <v>45655</v>
+        <v>45536</v>
       </c>
       <c r="C117" t="s">
         <v>71</v>
       </c>
       <c r="D117" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2395,136 +2407,136 @@
         <v>13</v>
       </c>
       <c r="B118">
-        <v>45145</v>
+        <v>45594</v>
       </c>
       <c r="C118" t="s">
         <v>72</v>
       </c>
       <c r="D118" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B119">
-        <v>45456</v>
+        <v>45594</v>
       </c>
       <c r="C119" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D119" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B120">
-        <v>45656</v>
+        <v>45654</v>
       </c>
       <c r="C120" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D120" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B121">
-        <v>45656</v>
+        <v>45655</v>
       </c>
       <c r="C121" t="s">
         <v>74</v>
       </c>
       <c r="D121" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B122">
-        <v>45657</v>
+        <v>45655</v>
       </c>
       <c r="C122" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D122" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B123">
-        <v>45657</v>
+        <v>45655</v>
       </c>
       <c r="C123" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D123" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B124">
-        <v>45657</v>
+        <v>45655</v>
       </c>
       <c r="C124" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D124" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B125">
-        <v>45658</v>
+        <v>45145</v>
       </c>
       <c r="C125" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D125" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B126">
-        <v>45658</v>
+        <v>45456</v>
       </c>
       <c r="C126" t="s">
         <v>76</v>
       </c>
       <c r="D126" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B127">
-        <v>45658</v>
+        <v>45656</v>
       </c>
       <c r="C127" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D127" t="s">
         <v>118</v>
@@ -2532,184 +2544,184 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B128">
-        <v>45658</v>
+        <v>45656</v>
       </c>
       <c r="C128" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D128" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B129">
-        <v>45658</v>
+        <v>45657</v>
       </c>
       <c r="C129" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D129" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B130">
-        <v>45658</v>
+        <v>45657</v>
       </c>
       <c r="C130" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D130" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B131">
-        <v>45658</v>
+        <v>45657</v>
       </c>
       <c r="C131" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D131" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B132">
-        <v>45111</v>
+        <v>45658</v>
       </c>
       <c r="C132" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D132" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B133">
-        <v>45111</v>
+        <v>45658</v>
       </c>
       <c r="C133" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D133" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B134">
-        <v>45931</v>
+        <v>45658</v>
       </c>
       <c r="C134" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D134" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B135">
-        <v>45931</v>
+        <v>45658</v>
       </c>
       <c r="C135" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D135" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B136">
-        <v>45931</v>
+        <v>45658</v>
       </c>
       <c r="C136" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D136" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B137">
-        <v>46046</v>
+        <v>45658</v>
       </c>
       <c r="C137" t="s">
         <v>79</v>
       </c>
       <c r="D137" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B138">
-        <v>46046</v>
+        <v>45658</v>
       </c>
       <c r="C138" t="s">
         <v>79</v>
       </c>
       <c r="D138" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B139">
-        <v>46046</v>
+        <v>45111</v>
       </c>
       <c r="C139" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D139" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B140">
-        <v>46046</v>
+        <v>45111</v>
       </c>
       <c r="C140" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D140" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2717,10 +2729,10 @@
         <v>15</v>
       </c>
       <c r="B141">
-        <v>46046</v>
+        <v>45931</v>
       </c>
       <c r="C141" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D141" t="s">
         <v>117</v>
@@ -2731,24 +2743,24 @@
         <v>8</v>
       </c>
       <c r="B142">
-        <v>46046</v>
+        <v>45931</v>
       </c>
       <c r="C142" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D142" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B143">
-        <v>45133</v>
+        <v>45931</v>
       </c>
       <c r="C143" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D143" t="s">
         <v>118</v>
@@ -2756,125 +2768,125 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B144">
-        <v>45133</v>
+        <v>46046</v>
       </c>
       <c r="C144" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D144" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B145">
-        <v>45133</v>
+        <v>46046</v>
       </c>
       <c r="C145" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D145" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B146">
-        <v>45133</v>
+        <v>46046</v>
       </c>
       <c r="C146" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D146" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B147">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C147" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D147" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B148">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C148" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D148" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B149">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C149" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D149" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B150">
-        <v>45294</v>
+        <v>45133</v>
       </c>
       <c r="C150" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D150" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B151">
-        <v>45294</v>
+        <v>45133</v>
       </c>
       <c r="C151" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D151" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B152">
-        <v>45294</v>
+        <v>45133</v>
       </c>
       <c r="C152" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D152" t="s">
         <v>116</v>
@@ -2882,69 +2894,69 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B153">
-        <v>45294</v>
+        <v>45133</v>
       </c>
       <c r="C153" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D153" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B154">
-        <v>45294</v>
+        <v>45517</v>
       </c>
       <c r="C154" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D154" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B155">
-        <v>45665</v>
+        <v>45517</v>
       </c>
       <c r="C155" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D155" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B156">
-        <v>45665</v>
+        <v>45517</v>
       </c>
       <c r="C156" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D156" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B157">
-        <v>45665</v>
+        <v>45517</v>
       </c>
       <c r="C157" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D157" t="s">
         <v>116</v>
@@ -2952,156 +2964,156 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B158">
-        <v>45665</v>
+        <v>45294</v>
       </c>
       <c r="C158" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D158" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B159">
-        <v>45665</v>
+        <v>45294</v>
       </c>
       <c r="C159" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D159" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B160">
-        <v>45134</v>
+        <v>45294</v>
       </c>
       <c r="C160" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D160" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B161">
-        <v>45134</v>
+        <v>45294</v>
       </c>
       <c r="C161" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D161" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B162">
-        <v>45326</v>
+        <v>45294</v>
       </c>
       <c r="C162" t="s">
         <v>85</v>
       </c>
       <c r="D162" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B163">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C163" t="s">
         <v>86</v>
       </c>
       <c r="D163" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B164">
-        <v>46052</v>
+        <v>45665</v>
       </c>
       <c r="C164" t="s">
         <v>86</v>
       </c>
       <c r="D164" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B165">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C165" t="s">
         <v>86</v>
       </c>
       <c r="D165" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B166">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C166" t="s">
         <v>86</v>
       </c>
       <c r="D166" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B167">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C167" t="s">
         <v>86</v>
       </c>
       <c r="D167" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B168">
-        <v>46053</v>
+        <v>45134</v>
       </c>
       <c r="C168" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D168" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3109,349 +3121,349 @@
         <v>6</v>
       </c>
       <c r="B169">
-        <v>46053</v>
+        <v>45134</v>
       </c>
       <c r="C169" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D169" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B170">
-        <v>46053</v>
+        <v>45134</v>
       </c>
       <c r="C170" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D170" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B171">
-        <v>46021</v>
+        <v>45326</v>
       </c>
       <c r="C171" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D171" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B172">
-        <v>46021</v>
+        <v>46053</v>
       </c>
       <c r="C172" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D172" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B173">
-        <v>45599</v>
+        <v>46053</v>
       </c>
       <c r="C173" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D173" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B174">
-        <v>45599</v>
+        <v>46053</v>
       </c>
       <c r="C174" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D174" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B175">
-        <v>45599</v>
+        <v>46053</v>
       </c>
       <c r="C175" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D175" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B176">
-        <v>45243</v>
+        <v>46053</v>
       </c>
       <c r="C176" t="s">
         <v>89</v>
       </c>
       <c r="D176" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B177">
-        <v>45243</v>
+        <v>46053</v>
       </c>
       <c r="C177" t="s">
         <v>89</v>
       </c>
       <c r="D177" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B178">
-        <v>45466</v>
+        <v>46052</v>
       </c>
       <c r="C178" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D178" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B179">
-        <v>45466</v>
+        <v>46053</v>
       </c>
       <c r="C179" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D179" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B180">
-        <v>45466</v>
+        <v>46053</v>
       </c>
       <c r="C180" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D180" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B181">
-        <v>45466</v>
+        <v>46021</v>
       </c>
       <c r="C181" t="s">
         <v>90</v>
       </c>
       <c r="D181" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B182">
-        <v>45466</v>
+        <v>46021</v>
       </c>
       <c r="C182" t="s">
         <v>90</v>
       </c>
       <c r="D182" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B183">
-        <v>45534</v>
+        <v>45599</v>
       </c>
       <c r="C183" t="s">
         <v>91</v>
       </c>
       <c r="D183" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B184">
-        <v>45534</v>
+        <v>45599</v>
       </c>
       <c r="C184" t="s">
         <v>91</v>
       </c>
       <c r="D184" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B185">
-        <v>45947</v>
+        <v>45599</v>
       </c>
       <c r="C185" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D185" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B186">
-        <v>45825</v>
+        <v>45599</v>
       </c>
       <c r="C186" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D186" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B187">
-        <v>45245</v>
+        <v>45243</v>
       </c>
       <c r="C187" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D187" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B188">
-        <v>45535</v>
+        <v>45243</v>
       </c>
       <c r="C188" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D188" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B189">
-        <v>40207</v>
+        <v>45466</v>
       </c>
       <c r="C189" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D189" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B190">
-        <v>40207</v>
+        <v>45466</v>
       </c>
       <c r="C190" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D190" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B191">
-        <v>45247</v>
+        <v>45466</v>
       </c>
       <c r="C191" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D191" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B192">
-        <v>45611</v>
+        <v>45466</v>
       </c>
       <c r="C192" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D192" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B193">
-        <v>45442</v>
+        <v>45466</v>
       </c>
       <c r="C193" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D193" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3459,27 +3471,27 @@
         <v>6</v>
       </c>
       <c r="B194">
-        <v>45442</v>
+        <v>45534</v>
       </c>
       <c r="C194" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D194" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B195">
-        <v>45442</v>
+        <v>45534</v>
       </c>
       <c r="C195" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D195" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3487,125 +3499,125 @@
         <v>7</v>
       </c>
       <c r="B196">
-        <v>46095</v>
+        <v>45534</v>
       </c>
       <c r="C196" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D196" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B197">
-        <v>46095</v>
+        <v>45947</v>
       </c>
       <c r="C197" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D197" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B198">
-        <v>45703</v>
+        <v>45825</v>
       </c>
       <c r="C198" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D198" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B199">
-        <v>45616</v>
+        <v>45245</v>
       </c>
       <c r="C199" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D199" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B200">
-        <v>45620</v>
+        <v>45245</v>
       </c>
       <c r="C200" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D200" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B201">
-        <v>45620</v>
+        <v>45535</v>
       </c>
       <c r="C201" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D201" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B202">
-        <v>45620</v>
+        <v>40207</v>
       </c>
       <c r="C202" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D202" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B203">
-        <v>45620</v>
+        <v>40207</v>
       </c>
       <c r="C203" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D203" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B204">
-        <v>45620</v>
+        <v>45247</v>
       </c>
       <c r="C204" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D204" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3613,10 +3625,10 @@
         <v>15</v>
       </c>
       <c r="B205">
-        <v>45619</v>
+        <v>45611</v>
       </c>
       <c r="C205" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D205" t="s">
         <v>118</v>
@@ -3624,170 +3636,170 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B206">
-        <v>45619</v>
+        <v>45442</v>
       </c>
       <c r="C206" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D206" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B207">
-        <v>45619</v>
+        <v>45442</v>
       </c>
       <c r="C207" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D207" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B208">
-        <v>45619</v>
+        <v>45442</v>
       </c>
       <c r="C208" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D208" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B209">
-        <v>45619</v>
+        <v>46095</v>
       </c>
       <c r="C209" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D209" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B210">
-        <v>45989</v>
+        <v>46095</v>
       </c>
       <c r="C210" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D210" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B211">
-        <v>45496</v>
+        <v>46095</v>
       </c>
       <c r="C211" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D211" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B212">
-        <v>45496</v>
+        <v>45703</v>
       </c>
       <c r="C212" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D212" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B213">
-        <v>45537</v>
+        <v>45616</v>
       </c>
       <c r="C213" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D213" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B214">
-        <v>45537</v>
+        <v>45620</v>
       </c>
       <c r="C214" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D214" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B215">
-        <v>45537</v>
+        <v>45620</v>
       </c>
       <c r="C215" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D215" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B216">
-        <v>45296</v>
+        <v>45620</v>
       </c>
       <c r="C216" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D216" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B217">
-        <v>45137</v>
+        <v>45620</v>
       </c>
       <c r="C217" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D217" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3795,55 +3807,279 @@
         <v>11</v>
       </c>
       <c r="B218">
-        <v>45519</v>
+        <v>45620</v>
       </c>
       <c r="C218" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D218" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B219">
-        <v>45516</v>
+        <v>45619</v>
       </c>
       <c r="C219" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D219" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B220">
-        <v>45516</v>
+        <v>45619</v>
       </c>
       <c r="C220" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D220" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
+        <v>12</v>
+      </c>
+      <c r="B221">
+        <v>45619</v>
+      </c>
+      <c r="C221" t="s">
+        <v>107</v>
+      </c>
+      <c r="D221" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>18</v>
+      </c>
+      <c r="B222">
+        <v>45619</v>
+      </c>
+      <c r="C222" t="s">
+        <v>107</v>
+      </c>
+      <c r="D222" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>17</v>
+      </c>
+      <c r="B223">
+        <v>45619</v>
+      </c>
+      <c r="C223" t="s">
+        <v>107</v>
+      </c>
+      <c r="D223" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>9</v>
+      </c>
+      <c r="B224">
+        <v>45989</v>
+      </c>
+      <c r="C224" t="s">
+        <v>108</v>
+      </c>
+      <c r="D224" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>13</v>
+      </c>
+      <c r="B225">
+        <v>45496</v>
+      </c>
+      <c r="C225" t="s">
+        <v>109</v>
+      </c>
+      <c r="D225" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>14</v>
+      </c>
+      <c r="B226">
+        <v>45496</v>
+      </c>
+      <c r="C226" t="s">
+        <v>109</v>
+      </c>
+      <c r="D226" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>16</v>
+      </c>
+      <c r="B227">
+        <v>45537</v>
+      </c>
+      <c r="C227" t="s">
+        <v>110</v>
+      </c>
+      <c r="D227" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>18</v>
+      </c>
+      <c r="B228">
+        <v>45537</v>
+      </c>
+      <c r="C228" t="s">
+        <v>110</v>
+      </c>
+      <c r="D228" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>17</v>
+      </c>
+      <c r="B229">
+        <v>45537</v>
+      </c>
+      <c r="C229" t="s">
+        <v>110</v>
+      </c>
+      <c r="D229" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>15</v>
+      </c>
+      <c r="B230">
+        <v>45296</v>
+      </c>
+      <c r="C230" t="s">
+        <v>111</v>
+      </c>
+      <c r="D230" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>14</v>
+      </c>
+      <c r="B231">
+        <v>45137</v>
+      </c>
+      <c r="C231" t="s">
+        <v>112</v>
+      </c>
+      <c r="D231" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>10</v>
+      </c>
+      <c r="B232">
+        <v>45519</v>
+      </c>
+      <c r="C232" t="s">
+        <v>113</v>
+      </c>
+      <c r="D232" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>5</v>
+      </c>
+      <c r="B233">
+        <v>45516</v>
+      </c>
+      <c r="C233" t="s">
+        <v>114</v>
+      </c>
+      <c r="D233" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>15</v>
+      </c>
+      <c r="B234">
+        <v>45516</v>
+      </c>
+      <c r="C234" t="s">
+        <v>114</v>
+      </c>
+      <c r="D234" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>15</v>
+      </c>
+      <c r="B235">
+        <v>45516</v>
+      </c>
+      <c r="C235" t="s">
+        <v>114</v>
+      </c>
+      <c r="D235" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>5</v>
+      </c>
+      <c r="B236">
+        <v>45472</v>
+      </c>
+      <c r="C236" t="s">
+        <v>115</v>
+      </c>
+      <c r="D236" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
         <v>6</v>
       </c>
-      <c r="B221">
+      <c r="B237">
         <v>45472</v>
       </c>
-      <c r="C221" t="s">
-        <v>112</v>
-      </c>
-      <c r="D221" t="s">
-        <v>113</v>
+      <c r="C237" t="s">
+        <v>115</v>
+      </c>
+      <c r="D237" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="132">
   <si>
     <t>player</t>
   </si>
@@ -31,30 +31,33 @@
     <t>received</t>
   </si>
   <si>
+    <t>Omegarone</t>
+  </si>
+  <si>
+    <t>Gosseyn</t>
+  </si>
+  <si>
+    <t>Iryastra</t>
+  </si>
+  <si>
     <t>Veremos</t>
   </si>
   <si>
-    <t>Iryastra</t>
-  </si>
-  <si>
-    <t>Gosseyn</t>
-  </si>
-  <si>
     <t>Nweysa</t>
   </si>
   <si>
     <t>Aelvå</t>
   </si>
   <si>
+    <t>Euphemià</t>
+  </si>
+  <si>
+    <t>Warloquë</t>
+  </si>
+  <si>
     <t>Skotia</t>
   </si>
   <si>
-    <t>Euphemià</t>
-  </si>
-  <si>
-    <t>Warloquë</t>
-  </si>
-  <si>
     <t>Ninnah</t>
   </si>
   <si>
@@ -64,13 +67,16 @@
     <t>Nordton</t>
   </si>
   <si>
+    <t>Ørly</t>
+  </si>
+  <si>
     <t>Pamage</t>
   </si>
   <si>
     <t>Pyrobifle</t>
   </si>
   <si>
-    <t>Ørly</t>
+    <t>Amice of Inconceivable Horror</t>
   </si>
   <si>
     <t>Armbands of Bedlam</t>
@@ -235,6 +241,9 @@
     <t>Legplates of the Endless Void</t>
   </si>
   <si>
+    <t>Legplates of the Wayward Conqueror</t>
+  </si>
+  <si>
     <t>Legplates of the Wayward Protector</t>
   </si>
   <si>
@@ -364,25 +373,28 @@
     <t>Warhelm of the Champion</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Craft</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>7</t>
   </si>
   <si>
     <t>P1</t>
@@ -391,10 +403,10 @@
     <t>PvP</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>Emblems of Conquest</t>
@@ -755,7 +767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E237"/>
+  <dimension ref="A1:E254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -783,13 +795,13 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>45663</v>
+        <v>46068</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -800,10 +812,10 @@
         <v>45663</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -814,10 +826,10 @@
         <v>45663</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -825,27 +837,27 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>46048</v>
+        <v>45663</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>45241</v>
+        <v>46048</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -856,21 +868,21 @@
         <v>45241</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>45553</v>
+        <v>45241</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
         <v>119</v>
@@ -878,16 +890,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>45460</v>
+        <v>45553</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -895,55 +907,55 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>45135</v>
+        <v>45460</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>45135</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>45135</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>45610</v>
+        <v>45135</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -951,41 +963,41 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>46039</v>
+        <v>45135</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>46039</v>
+        <v>45610</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>45632</v>
+        <v>46039</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -993,97 +1005,97 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>45633</v>
+        <v>46039</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B18">
-        <v>45633</v>
+        <v>45632</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B19">
-        <v>45634</v>
+        <v>45632</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B20">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>45634</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B23">
         <v>45634</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1094,189 +1106,189 @@
         <v>45634</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B25">
-        <v>45485</v>
+        <v>45634</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B26">
-        <v>45485</v>
+        <v>45634</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B27">
-        <v>45587</v>
+        <v>45634</v>
       </c>
       <c r="C27" t="s">
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B28">
-        <v>45587</v>
+        <v>45485</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B29">
-        <v>46097</v>
+        <v>45485</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B30">
-        <v>46097</v>
+        <v>45587</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B31">
-        <v>46097</v>
+        <v>45587</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B32">
-        <v>45609</v>
+        <v>46097</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B33">
-        <v>45609</v>
+        <v>46097</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B34">
-        <v>45609</v>
+        <v>46097</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B35">
         <v>45609</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B36">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B37">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D37" t="s">
         <v>121</v>
@@ -1284,100 +1296,100 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B38">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B39">
         <v>45495</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B40">
         <v>45495</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D40" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B41">
         <v>45495</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D41" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B42">
-        <v>45612</v>
+        <v>45495</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D42" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B43">
-        <v>45617</v>
+        <v>45495</v>
       </c>
       <c r="C43" t="s">
         <v>36</v>
       </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B44">
-        <v>45617</v>
+        <v>45495</v>
       </c>
       <c r="C44" t="s">
         <v>36</v>
       </c>
       <c r="D44" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1385,195 +1397,195 @@
         <v>12</v>
       </c>
       <c r="B45">
-        <v>45617</v>
+        <v>45495</v>
       </c>
       <c r="C45" t="s">
         <v>36</v>
       </c>
       <c r="D45" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B46">
-        <v>45617</v>
+        <v>45612</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D46" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B47">
         <v>45617</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D47" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B48">
-        <v>45250</v>
+        <v>45617</v>
       </c>
       <c r="C48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D48" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B49">
-        <v>45497</v>
+        <v>45617</v>
       </c>
       <c r="C49" t="s">
         <v>38</v>
       </c>
       <c r="D49" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B50">
-        <v>45497</v>
+        <v>45617</v>
       </c>
       <c r="C50" t="s">
         <v>38</v>
       </c>
       <c r="D50" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B51">
-        <v>45638</v>
+        <v>45617</v>
       </c>
       <c r="C51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D51" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B52">
-        <v>45639</v>
+        <v>45617</v>
       </c>
       <c r="C52" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D52" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B53">
-        <v>45639</v>
+        <v>45250</v>
       </c>
       <c r="C53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D53" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B54">
-        <v>45640</v>
+        <v>45497</v>
       </c>
       <c r="C54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D54" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B55">
-        <v>45640</v>
+        <v>45497</v>
       </c>
       <c r="C55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D55" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B56">
-        <v>45640</v>
+        <v>45497</v>
       </c>
       <c r="C56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D56" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B57">
-        <v>45640</v>
+        <v>45638</v>
       </c>
       <c r="C57" t="s">
         <v>41</v>
       </c>
       <c r="D57" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B58">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="C58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D58" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1581,77 +1593,77 @@
         <v>16</v>
       </c>
       <c r="B59">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="C59" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D59" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B60">
-        <v>46038</v>
+        <v>45640</v>
       </c>
       <c r="C60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D60" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B61">
-        <v>42987</v>
+        <v>45640</v>
       </c>
       <c r="C61" t="s">
         <v>43</v>
       </c>
       <c r="D61" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B62">
-        <v>42987</v>
+        <v>45640</v>
       </c>
       <c r="C62" t="s">
         <v>43</v>
       </c>
       <c r="D62" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B63">
-        <v>42987</v>
+        <v>45640</v>
       </c>
       <c r="C63" t="s">
         <v>43</v>
       </c>
       <c r="D63" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B64">
-        <v>42987</v>
+        <v>45640</v>
       </c>
       <c r="C64" t="s">
         <v>43</v>
@@ -1662,86 +1674,86 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B65">
-        <v>45139</v>
+        <v>45640</v>
       </c>
       <c r="C65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D65" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B66">
-        <v>45461</v>
+        <v>46038</v>
       </c>
       <c r="C66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D66" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B67">
-        <v>45461</v>
+        <v>42987</v>
       </c>
       <c r="C67" t="s">
         <v>45</v>
       </c>
       <c r="D67" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B68">
-        <v>45242</v>
+        <v>42987</v>
       </c>
       <c r="C68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D68" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B69">
-        <v>45242</v>
+        <v>42987</v>
       </c>
       <c r="C69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D69" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B70">
-        <v>45242</v>
+        <v>42987</v>
       </c>
       <c r="C70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D70" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1749,13 +1761,13 @@
         <v>15</v>
       </c>
       <c r="B71">
-        <v>46032</v>
+        <v>45139</v>
       </c>
       <c r="C71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D71" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1763,279 +1775,279 @@
         <v>8</v>
       </c>
       <c r="B72">
-        <v>46032</v>
+        <v>45461</v>
       </c>
       <c r="C72" t="s">
         <v>47</v>
       </c>
       <c r="D72" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B73">
-        <v>46032</v>
+        <v>45461</v>
       </c>
       <c r="C73" t="s">
         <v>47</v>
       </c>
       <c r="D73" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B74">
-        <v>45613</v>
+        <v>45242</v>
       </c>
       <c r="C74" t="s">
         <v>48</v>
       </c>
       <c r="D74" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B75">
-        <v>45473</v>
+        <v>45242</v>
       </c>
       <c r="C75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D75" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B76">
-        <v>45473</v>
+        <v>45242</v>
       </c>
       <c r="C76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D76" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B77">
-        <v>45471</v>
+        <v>46032</v>
       </c>
       <c r="C77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D77" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B78">
-        <v>45471</v>
+        <v>46032</v>
       </c>
       <c r="C78" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D78" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B79">
-        <v>45946</v>
+        <v>46032</v>
       </c>
       <c r="C79" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D79" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B80">
-        <v>45518</v>
+        <v>45613</v>
       </c>
       <c r="C80" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D80" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B81">
-        <v>45518</v>
+        <v>45473</v>
       </c>
       <c r="C81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D81" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B82">
-        <v>45518</v>
+        <v>45473</v>
       </c>
       <c r="C82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D82" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B83">
-        <v>45518</v>
+        <v>45471</v>
       </c>
       <c r="C83" t="s">
         <v>52</v>
       </c>
       <c r="D83" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B84">
-        <v>45518</v>
+        <v>45471</v>
       </c>
       <c r="C84" t="s">
         <v>52</v>
       </c>
       <c r="D84" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B85">
-        <v>45869</v>
+        <v>45946</v>
       </c>
       <c r="C85" t="s">
         <v>53</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B86">
-        <v>45564</v>
+        <v>45518</v>
       </c>
       <c r="C86" t="s">
         <v>54</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B87">
-        <v>45459</v>
+        <v>45518</v>
       </c>
       <c r="C87" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D87" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B88">
-        <v>45459</v>
+        <v>45518</v>
       </c>
       <c r="C88" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D88" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B89">
-        <v>42853</v>
+        <v>45518</v>
       </c>
       <c r="C89" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D89" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B90">
-        <v>42608</v>
+        <v>45518</v>
       </c>
       <c r="C90" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D90" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B91">
-        <v>45481</v>
+        <v>45518</v>
       </c>
       <c r="C91" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D91" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2043,570 +2055,570 @@
         <v>9</v>
       </c>
       <c r="B92">
-        <v>45642</v>
+        <v>45869</v>
       </c>
       <c r="C92" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D92" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B93">
-        <v>45642</v>
+        <v>45564</v>
       </c>
       <c r="C93" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D93" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B94">
-        <v>45643</v>
+        <v>45459</v>
       </c>
       <c r="C94" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D94" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B95">
-        <v>45643</v>
+        <v>45459</v>
       </c>
       <c r="C95" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D95" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B96">
-        <v>45643</v>
+        <v>42853</v>
       </c>
       <c r="C96" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D96" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B97">
-        <v>45444</v>
+        <v>42608</v>
       </c>
       <c r="C97" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D97" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B98">
-        <v>45132</v>
+        <v>45481</v>
       </c>
       <c r="C98" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D98" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B99">
-        <v>45446</v>
+        <v>45642</v>
       </c>
       <c r="C99" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D99" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B100">
-        <v>45446</v>
+        <v>45642</v>
       </c>
       <c r="C100" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D100" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B101">
-        <v>45446</v>
+        <v>45643</v>
       </c>
       <c r="C101" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D101" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B102">
-        <v>45446</v>
+        <v>45643</v>
       </c>
       <c r="C102" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D102" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B103">
-        <v>45446</v>
+        <v>45643</v>
       </c>
       <c r="C103" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D103" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B104">
-        <v>45446</v>
+        <v>45444</v>
       </c>
       <c r="C104" t="s">
         <v>63</v>
       </c>
       <c r="D104" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B105">
-        <v>45988</v>
+        <v>45132</v>
       </c>
       <c r="C105" t="s">
         <v>64</v>
       </c>
       <c r="D105" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B106">
-        <v>45988</v>
+        <v>45446</v>
       </c>
       <c r="C106" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D106" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B107">
-        <v>45487</v>
+        <v>45446</v>
       </c>
       <c r="C107" t="s">
         <v>65</v>
       </c>
       <c r="D107" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B108">
-        <v>45487</v>
+        <v>45446</v>
       </c>
       <c r="C108" t="s">
         <v>65</v>
       </c>
       <c r="D108" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B109">
-        <v>45158</v>
+        <v>45446</v>
       </c>
       <c r="C109" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D109" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B110">
-        <v>45158</v>
+        <v>45446</v>
       </c>
       <c r="C110" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D110" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B111">
-        <v>45886</v>
+        <v>45446</v>
       </c>
       <c r="C111" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D111" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B112">
-        <v>40342</v>
+        <v>45446</v>
       </c>
       <c r="C112" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D112" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B113">
-        <v>40713</v>
+        <v>45988</v>
       </c>
       <c r="C113" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D113" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B114">
-        <v>45488</v>
+        <v>45988</v>
       </c>
       <c r="C114" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D114" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B115">
-        <v>45488</v>
+        <v>45487</v>
       </c>
       <c r="C115" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D115" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B116">
-        <v>45536</v>
+        <v>45487</v>
       </c>
       <c r="C116" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D116" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B117">
-        <v>45536</v>
+        <v>45158</v>
       </c>
       <c r="C117" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D117" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B118">
-        <v>45594</v>
+        <v>45158</v>
       </c>
       <c r="C118" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D118" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B119">
-        <v>45594</v>
+        <v>45886</v>
       </c>
       <c r="C119" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D119" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B120">
-        <v>45654</v>
+        <v>40342</v>
       </c>
       <c r="C120" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D120" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B121">
-        <v>45655</v>
+        <v>40713</v>
       </c>
       <c r="C121" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D121" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B122">
-        <v>45655</v>
+        <v>45488</v>
       </c>
       <c r="C122" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D122" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B123">
-        <v>45655</v>
+        <v>45488</v>
       </c>
       <c r="C123" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D123" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B124">
-        <v>45655</v>
+        <v>45536</v>
       </c>
       <c r="C124" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D124" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B125">
-        <v>45145</v>
+        <v>45536</v>
       </c>
       <c r="C125" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D125" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B126">
-        <v>45456</v>
+        <v>45594</v>
       </c>
       <c r="C126" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D126" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B127">
-        <v>45656</v>
+        <v>45594</v>
       </c>
       <c r="C127" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D127" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B128">
-        <v>45656</v>
+        <v>45653</v>
       </c>
       <c r="C128" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D128" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B129">
-        <v>45657</v>
+        <v>45654</v>
       </c>
       <c r="C129" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D129" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B130">
-        <v>45657</v>
+        <v>45655</v>
       </c>
       <c r="C130" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D130" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B131">
-        <v>45657</v>
+        <v>45655</v>
       </c>
       <c r="C131" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D131" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B132">
-        <v>45658</v>
+        <v>45655</v>
       </c>
       <c r="C132" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D132" t="s">
         <v>121</v>
@@ -2614,940 +2626,940 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B133">
-        <v>45658</v>
+        <v>45655</v>
       </c>
       <c r="C133" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D133" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B134">
-        <v>45658</v>
+        <v>45145</v>
       </c>
       <c r="C134" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D134" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B135">
-        <v>45658</v>
+        <v>45456</v>
       </c>
       <c r="C135" t="s">
         <v>79</v>
       </c>
       <c r="D135" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B136">
-        <v>45658</v>
+        <v>45656</v>
       </c>
       <c r="C136" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D136" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B137">
-        <v>45658</v>
+        <v>45656</v>
       </c>
       <c r="C137" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D137" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B138">
-        <v>45658</v>
+        <v>45657</v>
       </c>
       <c r="C138" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D138" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B139">
-        <v>45111</v>
+        <v>45657</v>
       </c>
       <c r="C139" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D139" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B140">
-        <v>45111</v>
+        <v>45657</v>
       </c>
       <c r="C140" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D140" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B141">
-        <v>45931</v>
+        <v>45658</v>
       </c>
       <c r="C141" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D141" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B142">
-        <v>45931</v>
+        <v>45658</v>
       </c>
       <c r="C142" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D142" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B143">
-        <v>45931</v>
+        <v>45658</v>
       </c>
       <c r="C143" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D143" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B144">
-        <v>46046</v>
+        <v>45658</v>
       </c>
       <c r="C144" t="s">
         <v>82</v>
       </c>
       <c r="D144" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B145">
-        <v>46046</v>
+        <v>45658</v>
       </c>
       <c r="C145" t="s">
         <v>82</v>
       </c>
       <c r="D145" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B146">
-        <v>46046</v>
+        <v>45658</v>
       </c>
       <c r="C146" t="s">
         <v>82</v>
       </c>
       <c r="D146" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B147">
-        <v>46046</v>
+        <v>45658</v>
       </c>
       <c r="C147" t="s">
         <v>82</v>
       </c>
       <c r="D147" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B148">
-        <v>46046</v>
+        <v>45111</v>
       </c>
       <c r="C148" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D148" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B149">
-        <v>46046</v>
+        <v>45111</v>
       </c>
       <c r="C149" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D149" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B150">
-        <v>45133</v>
+        <v>45931</v>
       </c>
       <c r="C150" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D150" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B151">
-        <v>45133</v>
+        <v>45931</v>
       </c>
       <c r="C151" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D151" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B152">
-        <v>45133</v>
+        <v>45931</v>
       </c>
       <c r="C152" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D152" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B153">
-        <v>45133</v>
+        <v>46046</v>
       </c>
       <c r="C153" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D153" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B154">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C154" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D154" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B155">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C155" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D155" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B156">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C156" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D156" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B157">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C157" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D157" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B158">
-        <v>45294</v>
+        <v>46046</v>
       </c>
       <c r="C158" t="s">
         <v>85</v>
       </c>
       <c r="D158" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B159">
-        <v>45294</v>
+        <v>46046</v>
       </c>
       <c r="C159" t="s">
         <v>85</v>
       </c>
       <c r="D159" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B160">
-        <v>45294</v>
+        <v>45133</v>
       </c>
       <c r="C160" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D160" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B161">
-        <v>45294</v>
+        <v>45133</v>
       </c>
       <c r="C161" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D161" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B162">
-        <v>45294</v>
+        <v>45133</v>
       </c>
       <c r="C162" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D162" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B163">
-        <v>45665</v>
+        <v>45133</v>
       </c>
       <c r="C163" t="s">
         <v>86</v>
       </c>
       <c r="D163" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B164">
-        <v>45665</v>
+        <v>45133</v>
       </c>
       <c r="C164" t="s">
         <v>86</v>
       </c>
       <c r="D164" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B165">
-        <v>45665</v>
+        <v>45517</v>
       </c>
       <c r="C165" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D165" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B166">
-        <v>45665</v>
+        <v>45517</v>
       </c>
       <c r="C166" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D166" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B167">
-        <v>45665</v>
+        <v>45517</v>
       </c>
       <c r="C167" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D167" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B168">
-        <v>45134</v>
+        <v>45517</v>
       </c>
       <c r="C168" t="s">
         <v>87</v>
       </c>
       <c r="D168" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B169">
-        <v>45134</v>
+        <v>45294</v>
       </c>
       <c r="C169" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D169" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B170">
-        <v>45134</v>
+        <v>45294</v>
       </c>
       <c r="C170" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D170" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B171">
-        <v>45326</v>
+        <v>45294</v>
       </c>
       <c r="C171" t="s">
         <v>88</v>
       </c>
       <c r="D171" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B172">
-        <v>46053</v>
+        <v>45294</v>
       </c>
       <c r="C172" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D172" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B173">
-        <v>46053</v>
+        <v>45294</v>
       </c>
       <c r="C173" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D173" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B174">
-        <v>46053</v>
+        <v>45294</v>
       </c>
       <c r="C174" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D174" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B175">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C175" t="s">
         <v>89</v>
       </c>
       <c r="D175" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B176">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C176" t="s">
         <v>89</v>
       </c>
       <c r="D176" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B177">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C177" t="s">
         <v>89</v>
       </c>
       <c r="D177" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B178">
-        <v>46052</v>
+        <v>45665</v>
       </c>
       <c r="C178" t="s">
         <v>89</v>
       </c>
       <c r="D178" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B179">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C179" t="s">
         <v>89</v>
       </c>
       <c r="D179" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B180">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C180" t="s">
         <v>89</v>
       </c>
       <c r="D180" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B181">
-        <v>46021</v>
+        <v>45134</v>
       </c>
       <c r="C181" t="s">
         <v>90</v>
       </c>
       <c r="D181" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B182">
-        <v>46021</v>
+        <v>45134</v>
       </c>
       <c r="C182" t="s">
         <v>90</v>
       </c>
       <c r="D182" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B183">
-        <v>45599</v>
+        <v>45134</v>
       </c>
       <c r="C183" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D183" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B184">
-        <v>45599</v>
+        <v>45326</v>
       </c>
       <c r="C184" t="s">
         <v>91</v>
       </c>
       <c r="D184" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B185">
-        <v>45599</v>
+        <v>46052</v>
       </c>
       <c r="C185" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D185" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B186">
-        <v>45599</v>
+        <v>46053</v>
       </c>
       <c r="C186" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D186" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B187">
-        <v>45243</v>
+        <v>46053</v>
       </c>
       <c r="C187" t="s">
         <v>92</v>
       </c>
       <c r="D187" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B188">
-        <v>45243</v>
+        <v>46053</v>
       </c>
       <c r="C188" t="s">
         <v>92</v>
       </c>
       <c r="D188" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B189">
-        <v>45466</v>
+        <v>46053</v>
       </c>
       <c r="C189" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D189" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B190">
-        <v>45466</v>
+        <v>46053</v>
       </c>
       <c r="C190" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D190" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B191">
-        <v>45466</v>
+        <v>46053</v>
       </c>
       <c r="C191" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D191" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B192">
-        <v>45466</v>
+        <v>46053</v>
       </c>
       <c r="C192" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D192" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B193">
-        <v>45466</v>
+        <v>46053</v>
       </c>
       <c r="C193" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D193" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B194">
-        <v>45534</v>
+        <v>46053</v>
       </c>
       <c r="C194" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D194" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B195">
-        <v>45534</v>
+        <v>46021</v>
       </c>
       <c r="C195" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D195" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B196">
-        <v>45534</v>
+        <v>46021</v>
       </c>
       <c r="C196" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D196" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B197">
-        <v>45947</v>
+        <v>45599</v>
       </c>
       <c r="C197" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D197" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B198">
-        <v>45825</v>
+        <v>45599</v>
       </c>
       <c r="C198" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D198" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B199">
-        <v>45245</v>
+        <v>45599</v>
       </c>
       <c r="C199" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D199" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3555,279 +3567,279 @@
         <v>8</v>
       </c>
       <c r="B200">
-        <v>45245</v>
+        <v>45599</v>
       </c>
       <c r="C200" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D200" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B201">
-        <v>45535</v>
+        <v>45243</v>
       </c>
       <c r="C201" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D201" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B202">
-        <v>40207</v>
+        <v>45243</v>
       </c>
       <c r="C202" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D202" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B203">
-        <v>40207</v>
+        <v>45466</v>
       </c>
       <c r="C203" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D203" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B204">
-        <v>45247</v>
+        <v>45466</v>
       </c>
       <c r="C204" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D204" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B205">
-        <v>45611</v>
+        <v>45466</v>
       </c>
       <c r="C205" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D205" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B206">
-        <v>45442</v>
+        <v>45466</v>
       </c>
       <c r="C206" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D206" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B207">
-        <v>45442</v>
+        <v>45466</v>
       </c>
       <c r="C207" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D207" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B208">
-        <v>45442</v>
+        <v>45466</v>
       </c>
       <c r="C208" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D208" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B209">
-        <v>46095</v>
+        <v>45534</v>
       </c>
       <c r="C209" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D209" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B210">
-        <v>46095</v>
+        <v>45534</v>
       </c>
       <c r="C210" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D210" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B211">
-        <v>46095</v>
+        <v>45534</v>
       </c>
       <c r="C211" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D211" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B212">
-        <v>45703</v>
+        <v>45947</v>
       </c>
       <c r="C212" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D212" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B213">
-        <v>45616</v>
+        <v>45825</v>
       </c>
       <c r="C213" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D213" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B214">
-        <v>45620</v>
+        <v>45245</v>
       </c>
       <c r="C214" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D214" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B215">
-        <v>45620</v>
+        <v>45245</v>
       </c>
       <c r="C215" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D215" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B216">
-        <v>45620</v>
+        <v>45535</v>
       </c>
       <c r="C216" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D216" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B217">
-        <v>45620</v>
+        <v>40207</v>
       </c>
       <c r="C217" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D217" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B218">
-        <v>45620</v>
+        <v>40207</v>
       </c>
       <c r="C218" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D218" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B219">
-        <v>45619</v>
+        <v>45247</v>
       </c>
       <c r="C219" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D219" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3835,52 +3847,52 @@
         <v>16</v>
       </c>
       <c r="B220">
-        <v>45619</v>
+        <v>45611</v>
       </c>
       <c r="C220" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D220" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B221">
-        <v>45619</v>
+        <v>45442</v>
       </c>
       <c r="C221" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D221" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B222">
-        <v>45619</v>
+        <v>45442</v>
       </c>
       <c r="C222" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D222" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B223">
-        <v>45619</v>
+        <v>45442</v>
       </c>
       <c r="C223" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D223" t="s">
         <v>121</v>
@@ -3888,198 +3900,436 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B224">
-        <v>45989</v>
+        <v>46095</v>
       </c>
       <c r="C224" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D224" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B225">
-        <v>45496</v>
+        <v>46095</v>
       </c>
       <c r="C225" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D225" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B226">
-        <v>45496</v>
+        <v>46095</v>
       </c>
       <c r="C226" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D226" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B227">
-        <v>45537</v>
+        <v>45703</v>
       </c>
       <c r="C227" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D227" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B228">
-        <v>45537</v>
+        <v>45616</v>
       </c>
       <c r="C228" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D228" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B229">
-        <v>45537</v>
+        <v>45620</v>
       </c>
       <c r="C229" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D229" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B230">
-        <v>45296</v>
+        <v>45620</v>
       </c>
       <c r="C230" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D230" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B231">
-        <v>45137</v>
+        <v>45620</v>
       </c>
       <c r="C231" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D231" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B232">
-        <v>45519</v>
+        <v>45620</v>
       </c>
       <c r="C232" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D232" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B233">
-        <v>45516</v>
+        <v>45620</v>
       </c>
       <c r="C233" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D233" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B234">
-        <v>45516</v>
+        <v>45620</v>
       </c>
       <c r="C234" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D234" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B235">
-        <v>45516</v>
+        <v>45619</v>
       </c>
       <c r="C235" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D235" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B236">
-        <v>45472</v>
+        <v>45619</v>
       </c>
       <c r="C236" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D236" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B237">
+        <v>45619</v>
+      </c>
+      <c r="C237" t="s">
+        <v>110</v>
+      </c>
+      <c r="D237" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" t="s">
+        <v>11</v>
+      </c>
+      <c r="B238">
+        <v>45619</v>
+      </c>
+      <c r="C238" t="s">
+        <v>110</v>
+      </c>
+      <c r="D238" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" t="s">
+        <v>5</v>
+      </c>
+      <c r="B239">
+        <v>45619</v>
+      </c>
+      <c r="C239" t="s">
+        <v>110</v>
+      </c>
+      <c r="D239" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" t="s">
+        <v>19</v>
+      </c>
+      <c r="B240">
+        <v>45619</v>
+      </c>
+      <c r="C240" t="s">
+        <v>110</v>
+      </c>
+      <c r="D240" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" t="s">
+        <v>10</v>
+      </c>
+      <c r="B241">
+        <v>45989</v>
+      </c>
+      <c r="C241" t="s">
+        <v>111</v>
+      </c>
+      <c r="D241" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" t="s">
+        <v>14</v>
+      </c>
+      <c r="B242">
+        <v>45496</v>
+      </c>
+      <c r="C242" t="s">
+        <v>112</v>
+      </c>
+      <c r="D242" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" t="s">
+        <v>15</v>
+      </c>
+      <c r="B243">
+        <v>45496</v>
+      </c>
+      <c r="C243" t="s">
+        <v>112</v>
+      </c>
+      <c r="D243" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" t="s">
+        <v>19</v>
+      </c>
+      <c r="B244">
+        <v>45537</v>
+      </c>
+      <c r="C244" t="s">
+        <v>113</v>
+      </c>
+      <c r="D244" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" t="s">
+        <v>18</v>
+      </c>
+      <c r="B245">
+        <v>45537</v>
+      </c>
+      <c r="C245" t="s">
+        <v>113</v>
+      </c>
+      <c r="D245" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" t="s">
+        <v>17</v>
+      </c>
+      <c r="B246">
+        <v>45537</v>
+      </c>
+      <c r="C246" t="s">
+        <v>113</v>
+      </c>
+      <c r="D246" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" t="s">
+        <v>16</v>
+      </c>
+      <c r="B247">
+        <v>45296</v>
+      </c>
+      <c r="C247" t="s">
+        <v>114</v>
+      </c>
+      <c r="D247" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" t="s">
+        <v>15</v>
+      </c>
+      <c r="B248">
+        <v>45137</v>
+      </c>
+      <c r="C248" t="s">
+        <v>115</v>
+      </c>
+      <c r="D248" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" t="s">
+        <v>13</v>
+      </c>
+      <c r="B249">
+        <v>45519</v>
+      </c>
+      <c r="C249" t="s">
+        <v>116</v>
+      </c>
+      <c r="D249" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" t="s">
+        <v>8</v>
+      </c>
+      <c r="B250">
+        <v>45516</v>
+      </c>
+      <c r="C250" t="s">
+        <v>117</v>
+      </c>
+      <c r="D250" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" t="s">
+        <v>16</v>
+      </c>
+      <c r="B251">
+        <v>45516</v>
+      </c>
+      <c r="C251" t="s">
+        <v>117</v>
+      </c>
+      <c r="D251" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" t="s">
+        <v>16</v>
+      </c>
+      <c r="B252">
+        <v>45516</v>
+      </c>
+      <c r="C252" t="s">
+        <v>117</v>
+      </c>
+      <c r="D252" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" t="s">
+        <v>7</v>
+      </c>
+      <c r="B253">
         <v>45472</v>
       </c>
-      <c r="C237" t="s">
-        <v>115</v>
-      </c>
-      <c r="D237" t="s">
+      <c r="C253" t="s">
         <v>118</v>
+      </c>
+      <c r="D253" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" t="s">
+        <v>8</v>
+      </c>
+      <c r="B254">
+        <v>45472</v>
+      </c>
+      <c r="C254" t="s">
+        <v>118</v>
+      </c>
+      <c r="D254" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="133">
   <si>
     <t>player</t>
   </si>
@@ -37,45 +37,45 @@
     <t>Gosseyn</t>
   </si>
   <si>
+    <t>Veremos</t>
+  </si>
+  <si>
     <t>Iryastra</t>
   </si>
   <si>
-    <t>Veremos</t>
-  </si>
-  <si>
     <t>Nweysa</t>
   </si>
   <si>
     <t>Aelvå</t>
   </si>
   <si>
+    <t>Warloquë</t>
+  </si>
+  <si>
     <t>Euphemià</t>
   </si>
   <si>
-    <t>Warloquë</t>
-  </si>
-  <si>
     <t>Skotia</t>
   </si>
   <si>
+    <t>Queriss</t>
+  </si>
+  <si>
     <t>Ninnah</t>
   </si>
   <si>
-    <t>Queriss</t>
-  </si>
-  <si>
     <t>Nordton</t>
   </si>
   <si>
+    <t>Pyrobifle</t>
+  </si>
+  <si>
     <t>Ørly</t>
   </si>
   <si>
     <t>Pamage</t>
   </si>
   <si>
-    <t>Pyrobifle</t>
-  </si>
-  <si>
     <t>Amice of Inconceivable Horror</t>
   </si>
   <si>
@@ -407,6 +407,9 @@
   </si>
   <si>
     <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>Emblems of Conquest</t>
@@ -862,7 +865,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>45241</v>
@@ -876,7 +879,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>45241</v>
@@ -1016,7 +1019,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>45632</v>
@@ -1030,7 +1033,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B19">
         <v>45632</v>
@@ -1044,7 +1047,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>45633</v>
@@ -1058,7 +1061,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B21">
         <v>45633</v>
@@ -1072,7 +1075,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B22">
         <v>45634</v>
@@ -1086,7 +1089,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23">
         <v>45634</v>
@@ -1100,7 +1103,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B24">
         <v>45634</v>
@@ -1142,7 +1145,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B27">
         <v>45634</v>
@@ -1184,7 +1187,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B30">
         <v>45587</v>
@@ -1198,7 +1201,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31">
         <v>45587</v>
@@ -1310,7 +1313,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>45495</v>
@@ -1324,7 +1327,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B40">
         <v>45495</v>
@@ -1338,7 +1341,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>45495</v>
@@ -1352,7 +1355,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B42">
         <v>45495</v>
@@ -1366,7 +1369,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B43">
         <v>45495</v>
@@ -1394,7 +1397,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B45">
         <v>45495</v>
@@ -1422,7 +1425,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B47">
         <v>45617</v>
@@ -1436,7 +1439,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B48">
         <v>45617</v>
@@ -1464,7 +1467,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B50">
         <v>45617</v>
@@ -1478,7 +1481,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B51">
         <v>45617</v>
@@ -1492,7 +1495,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B52">
         <v>45617</v>
@@ -1506,7 +1509,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B53">
         <v>45250</v>
@@ -1534,7 +1537,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B55">
         <v>45497</v>
@@ -1548,7 +1551,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B56">
         <v>45497</v>
@@ -1562,7 +1565,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B57">
         <v>45638</v>
@@ -1576,7 +1579,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B58">
         <v>45639</v>
@@ -1618,7 +1621,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B61">
         <v>45640</v>
@@ -1646,7 +1649,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B63">
         <v>45640</v>
@@ -1702,7 +1705,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B67">
         <v>42987</v>
@@ -1716,7 +1719,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B68">
         <v>42987</v>
@@ -1758,7 +1761,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B71">
         <v>45139</v>
@@ -1772,7 +1775,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B72">
         <v>45461</v>
@@ -1814,7 +1817,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B75">
         <v>45242</v>
@@ -1828,7 +1831,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B76">
         <v>45242</v>
@@ -1842,7 +1845,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B77">
         <v>46032</v>
@@ -1856,7 +1859,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B78">
         <v>46032</v>
@@ -1898,7 +1901,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B81">
         <v>45473</v>
@@ -1912,7 +1915,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B82">
         <v>45473</v>
@@ -1926,7 +1929,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B83">
         <v>45471</v>
@@ -1940,7 +1943,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B84">
         <v>45471</v>
@@ -1982,7 +1985,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B87">
         <v>45518</v>
@@ -1996,7 +1999,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B88">
         <v>45518</v>
@@ -2010,7 +2013,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B89">
         <v>45518</v>
@@ -2024,7 +2027,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B90">
         <v>45518</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B94">
         <v>45459</v>
@@ -2094,7 +2097,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B95">
         <v>45459</v>
@@ -2108,7 +2111,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B96">
         <v>42853</v>
@@ -2136,7 +2139,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B98">
         <v>45481</v>
@@ -2178,7 +2181,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B101">
         <v>45643</v>
@@ -2192,7 +2195,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B102">
         <v>45643</v>
@@ -2220,7 +2223,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B104">
         <v>45444</v>
@@ -2276,7 +2279,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B108">
         <v>45446</v>
@@ -2290,7 +2293,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B109">
         <v>45446</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B111">
         <v>45446</v>
@@ -2332,7 +2335,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B112">
         <v>45446</v>
@@ -2346,7 +2349,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B113">
         <v>45988</v>
@@ -2360,7 +2363,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B114">
         <v>45988</v>
@@ -2374,7 +2377,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B115">
         <v>45487</v>
@@ -2388,7 +2391,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B116">
         <v>45487</v>
@@ -2402,7 +2405,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B117">
         <v>45158</v>
@@ -2416,7 +2419,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B118">
         <v>45158</v>
@@ -2500,7 +2503,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B124">
         <v>45536</v>
@@ -2514,7 +2517,7 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B125">
         <v>45536</v>
@@ -2612,7 +2615,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B132">
         <v>45655</v>
@@ -2621,12 +2624,12 @@
         <v>77</v>
       </c>
       <c r="D132" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B133">
         <v>45655</v>
@@ -2635,12 +2638,12 @@
         <v>77</v>
       </c>
       <c r="D133" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B134">
         <v>45145</v>
@@ -2668,7 +2671,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B136">
         <v>45656</v>
@@ -2677,12 +2680,12 @@
         <v>80</v>
       </c>
       <c r="D136" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B137">
         <v>45656</v>
@@ -2691,12 +2694,12 @@
         <v>80</v>
       </c>
       <c r="D137" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B138">
         <v>45657</v>
@@ -2705,12 +2708,12 @@
         <v>81</v>
       </c>
       <c r="D138" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B139">
         <v>45657</v>
@@ -2719,12 +2722,12 @@
         <v>81</v>
       </c>
       <c r="D139" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B140">
         <v>45657</v>
@@ -2738,7 +2741,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B141">
         <v>45658</v>
@@ -2747,12 +2750,12 @@
         <v>82</v>
       </c>
       <c r="D141" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B142">
         <v>45658</v>
@@ -2761,12 +2764,12 @@
         <v>82</v>
       </c>
       <c r="D142" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B143">
         <v>45658</v>
@@ -2775,7 +2778,7 @@
         <v>82</v>
       </c>
       <c r="D143" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2789,12 +2792,12 @@
         <v>82</v>
       </c>
       <c r="D144" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B145">
         <v>45658</v>
@@ -2803,12 +2806,12 @@
         <v>82</v>
       </c>
       <c r="D145" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B146">
         <v>45658</v>
@@ -2864,7 +2867,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B150">
         <v>45931</v>
@@ -2878,7 +2881,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B151">
         <v>45931</v>
@@ -2906,7 +2909,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B153">
         <v>46046</v>
@@ -2915,12 +2918,12 @@
         <v>85</v>
       </c>
       <c r="D153" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B154">
         <v>46046</v>
@@ -2929,12 +2932,12 @@
         <v>85</v>
       </c>
       <c r="D154" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B155">
         <v>46046</v>
@@ -2943,12 +2946,12 @@
         <v>85</v>
       </c>
       <c r="D155" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B156">
         <v>46046</v>
@@ -2957,12 +2960,12 @@
         <v>85</v>
       </c>
       <c r="D156" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B157">
         <v>46046</v>
@@ -2971,7 +2974,7 @@
         <v>85</v>
       </c>
       <c r="D157" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2985,7 +2988,7 @@
         <v>85</v>
       </c>
       <c r="D158" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2993,18 +2996,18 @@
         <v>5</v>
       </c>
       <c r="B159">
-        <v>46046</v>
+        <v>45133</v>
       </c>
       <c r="C159" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D159" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B160">
         <v>45133</v>
@@ -3013,7 +3016,7 @@
         <v>86</v>
       </c>
       <c r="D160" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3027,12 +3030,12 @@
         <v>86</v>
       </c>
       <c r="D161" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B162">
         <v>45133</v>
@@ -3041,12 +3044,12 @@
         <v>86</v>
       </c>
       <c r="D162" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B163">
         <v>45133</v>
@@ -3055,26 +3058,26 @@
         <v>86</v>
       </c>
       <c r="D163" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B164">
-        <v>45133</v>
+        <v>45517</v>
       </c>
       <c r="C164" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D164" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B165">
         <v>45517</v>
@@ -3083,12 +3086,12 @@
         <v>87</v>
       </c>
       <c r="D165" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B166">
         <v>45517</v>
@@ -3097,12 +3100,12 @@
         <v>87</v>
       </c>
       <c r="D166" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B167">
         <v>45517</v>
@@ -3111,26 +3114,26 @@
         <v>87</v>
       </c>
       <c r="D167" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B168">
-        <v>45517</v>
+        <v>45294</v>
       </c>
       <c r="C168" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D168" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B169">
         <v>45294</v>
@@ -3139,12 +3142,12 @@
         <v>88</v>
       </c>
       <c r="D169" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B170">
         <v>45294</v>
@@ -3153,12 +3156,12 @@
         <v>88</v>
       </c>
       <c r="D170" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B171">
         <v>45294</v>
@@ -3167,12 +3170,12 @@
         <v>88</v>
       </c>
       <c r="D171" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B172">
         <v>45294</v>
@@ -3181,7 +3184,7 @@
         <v>88</v>
       </c>
       <c r="D172" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3195,26 +3198,26 @@
         <v>88</v>
       </c>
       <c r="D173" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B174">
-        <v>45294</v>
+        <v>45665</v>
       </c>
       <c r="C174" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D174" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B175">
         <v>45665</v>
@@ -3223,12 +3226,12 @@
         <v>89</v>
       </c>
       <c r="D175" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B176">
         <v>45665</v>
@@ -3237,12 +3240,12 @@
         <v>89</v>
       </c>
       <c r="D176" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B177">
         <v>45665</v>
@@ -3251,12 +3254,12 @@
         <v>89</v>
       </c>
       <c r="D177" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B178">
         <v>45665</v>
@@ -3265,12 +3268,12 @@
         <v>89</v>
       </c>
       <c r="D178" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B179">
         <v>45665</v>
@@ -3279,26 +3282,26 @@
         <v>89</v>
       </c>
       <c r="D179" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B180">
-        <v>45665</v>
+        <v>45134</v>
       </c>
       <c r="C180" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D180" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B181">
         <v>45134</v>
@@ -3307,12 +3310,12 @@
         <v>90</v>
       </c>
       <c r="D181" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B182">
         <v>45134</v>
@@ -3321,32 +3324,32 @@
         <v>90</v>
       </c>
       <c r="D182" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B183">
-        <v>45134</v>
+        <v>45326</v>
       </c>
       <c r="C183" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D183" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B184">
-        <v>45326</v>
+        <v>46053</v>
       </c>
       <c r="C184" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D184" t="s">
         <v>119</v>
@@ -3354,21 +3357,21 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B185">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="C185" t="s">
         <v>92</v>
       </c>
       <c r="D185" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B186">
         <v>46053</v>
@@ -3396,21 +3399,21 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B188">
-        <v>46053</v>
+        <v>46052</v>
       </c>
       <c r="C188" t="s">
         <v>92</v>
       </c>
       <c r="D188" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B189">
         <v>46053</v>
@@ -3419,12 +3422,12 @@
         <v>92</v>
       </c>
       <c r="D189" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B190">
         <v>46053</v>
@@ -3433,12 +3436,12 @@
         <v>92</v>
       </c>
       <c r="D190" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B191">
         <v>46053</v>
@@ -3447,12 +3450,12 @@
         <v>92</v>
       </c>
       <c r="D191" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B192">
         <v>46053</v>
@@ -3461,12 +3464,12 @@
         <v>92</v>
       </c>
       <c r="D192" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B193">
         <v>46053</v>
@@ -3475,12 +3478,12 @@
         <v>92</v>
       </c>
       <c r="D193" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B194">
         <v>46053</v>
@@ -3489,12 +3492,12 @@
         <v>92</v>
       </c>
       <c r="D194" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B195">
         <v>46021</v>
@@ -3508,7 +3511,7 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B196">
         <v>46021</v>
@@ -3522,7 +3525,7 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B197">
         <v>45599</v>
@@ -3536,7 +3539,7 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B198">
         <v>45599</v>
@@ -3564,7 +3567,7 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B200">
         <v>45599</v>
@@ -3578,7 +3581,7 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B201">
         <v>45243</v>
@@ -3606,7 +3609,7 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B203">
         <v>45466</v>
@@ -3615,12 +3618,12 @@
         <v>96</v>
       </c>
       <c r="D203" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B204">
         <v>45466</v>
@@ -3629,12 +3632,12 @@
         <v>96</v>
       </c>
       <c r="D204" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B205">
         <v>45466</v>
@@ -3643,12 +3646,12 @@
         <v>96</v>
       </c>
       <c r="D205" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B206">
         <v>45466</v>
@@ -3657,12 +3660,12 @@
         <v>96</v>
       </c>
       <c r="D206" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B207">
         <v>45466</v>
@@ -3671,12 +3674,12 @@
         <v>96</v>
       </c>
       <c r="D207" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B208">
         <v>45466</v>
@@ -3685,12 +3688,12 @@
         <v>96</v>
       </c>
       <c r="D208" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B209">
         <v>45534</v>
@@ -3704,7 +3707,7 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B210">
         <v>45534</v>
@@ -3718,7 +3721,7 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B211">
         <v>45534</v>
@@ -3732,7 +3735,7 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B212">
         <v>45947</v>
@@ -3746,7 +3749,7 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B213">
         <v>45825</v>
@@ -3755,12 +3758,12 @@
         <v>99</v>
       </c>
       <c r="D213" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B214">
         <v>45245</v>
@@ -3774,7 +3777,7 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B215">
         <v>45245</v>
@@ -3802,7 +3805,7 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B217">
         <v>40207</v>
@@ -3830,7 +3833,7 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B219">
         <v>45247</v>
@@ -3858,7 +3861,7 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B221">
         <v>45442</v>
@@ -3872,7 +3875,7 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B222">
         <v>45442</v>
@@ -3886,7 +3889,7 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B223">
         <v>45442</v>
@@ -3914,7 +3917,7 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B225">
         <v>46095</v>
@@ -3970,7 +3973,7 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B229">
         <v>45620</v>
@@ -3998,7 +4001,7 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B231">
         <v>45620</v>
@@ -4012,7 +4015,7 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B232">
         <v>45620</v>
@@ -4026,7 +4029,7 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B233">
         <v>45620</v>
@@ -4054,7 +4057,7 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B235">
         <v>45619</v>
@@ -4068,7 +4071,7 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B236">
         <v>45619</v>
@@ -4082,7 +4085,7 @@
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B237">
         <v>45619</v>
@@ -4110,7 +4113,7 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B239">
         <v>45619</v>
@@ -4124,7 +4127,7 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B240">
         <v>45619</v>
@@ -4152,7 +4155,7 @@
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B242">
         <v>45496</v>
@@ -4166,7 +4169,7 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B243">
         <v>45496</v>
@@ -4194,7 +4197,7 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B245">
         <v>45537</v>
@@ -4208,7 +4211,7 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B246">
         <v>45537</v>
@@ -4236,7 +4239,7 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B248">
         <v>45137</v>
@@ -4264,7 +4267,7 @@
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B250">
         <v>45516</v>
@@ -4306,7 +4309,7 @@
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B253">
         <v>45472</v>
@@ -4320,7 +4323,7 @@
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B254">
         <v>45472</v>

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="140">
   <si>
     <t>player</t>
   </si>
@@ -34,18 +34,21 @@
     <t>Omegarone</t>
   </si>
   <si>
+    <t>Veremos</t>
+  </si>
+  <si>
+    <t>Iryastra</t>
+  </si>
+  <si>
     <t>Gosseyn</t>
   </si>
   <si>
-    <t>Veremos</t>
-  </si>
-  <si>
-    <t>Iryastra</t>
-  </si>
-  <si>
     <t>Nweysa</t>
   </si>
   <si>
+    <t>Drikato</t>
+  </si>
+  <si>
     <t>Aelvå</t>
   </si>
   <si>
@@ -58,24 +61,27 @@
     <t>Skotia</t>
   </si>
   <si>
+    <t>Ninnah</t>
+  </si>
+  <si>
     <t>Queriss</t>
   </si>
   <si>
-    <t>Ninnah</t>
-  </si>
-  <si>
     <t>Nordton</t>
   </si>
   <si>
+    <t>Pamage</t>
+  </si>
+  <si>
+    <t>Hedra</t>
+  </si>
+  <si>
+    <t>Ørly</t>
+  </si>
+  <si>
     <t>Pyrobifle</t>
   </si>
   <si>
-    <t>Ørly</t>
-  </si>
-  <si>
-    <t>Pamage</t>
-  </si>
-  <si>
     <t>Amice of Inconceivable Horror</t>
   </si>
   <si>
@@ -94,6 +100,9 @@
     <t>Bindings of Winter Gale</t>
   </si>
   <si>
+    <t>Bladetwister</t>
+  </si>
+  <si>
     <t>Boots of Fiery Resolution</t>
   </si>
   <si>
@@ -232,6 +241,9 @@
     <t>Idol of the Ravenous Beast</t>
   </si>
   <si>
+    <t>Idol of the Shooting Star</t>
+  </si>
+  <si>
     <t>Leggings of the Enslaved Idol</t>
   </si>
   <si>
@@ -277,6 +289,9 @@
     <t>Pendant of Fiery Havoc</t>
   </si>
   <si>
+    <t>Pendant of the Shallow Grave</t>
+  </si>
+  <si>
     <t>Pendulum of Infinity</t>
   </si>
   <si>
@@ -328,6 +343,9 @@
     <t>Signet of the Earthshaker</t>
   </si>
   <si>
+    <t>Skyforge Crossbow</t>
+  </si>
+  <si>
     <t>Solar Bindings</t>
   </si>
   <si>
@@ -376,12 +394,12 @@
     <t>1</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>Craft</t>
   </si>
   <si>
@@ -397,13 +415,16 @@
     <t>7</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>P1</t>
   </si>
   <si>
     <t>PvP</t>
   </si>
   <si>
-    <t>8</t>
+    <t>11</t>
   </si>
   <si>
     <t>9</t>
@@ -770,7 +791,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E254"/>
+  <dimension ref="A1:E288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -801,10 +822,10 @@
         <v>46068</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -815,10 +836,10 @@
         <v>45663</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -829,10 +850,10 @@
         <v>45663</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -843,10 +864,10 @@
         <v>45663</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -857,164 +878,164 @@
         <v>46048</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>45241</v>
+        <v>46048</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>45241</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>45553</v>
+        <v>45241</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>45460</v>
+        <v>45553</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>45135</v>
+        <v>45460</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>45135</v>
+        <v>45484</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>45135</v>
+        <v>45484</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>45135</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>45610</v>
+        <v>45135</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B16">
-        <v>46039</v>
+        <v>45135</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>46039</v>
+        <v>45135</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1022,27 +1043,27 @@
         <v>11</v>
       </c>
       <c r="B18">
-        <v>45632</v>
+        <v>45610</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B19">
-        <v>45632</v>
+        <v>46039</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1050,223 +1071,223 @@
         <v>16</v>
       </c>
       <c r="B20">
-        <v>45633</v>
+        <v>46039</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B21">
-        <v>45633</v>
+        <v>45632</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B22">
-        <v>45634</v>
+        <v>45632</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25">
         <v>45634</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B26">
         <v>45634</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B27">
         <v>45634</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28">
-        <v>45485</v>
+        <v>45634</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B29">
-        <v>45485</v>
+        <v>45634</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>45587</v>
+        <v>45634</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B31">
-        <v>45587</v>
+        <v>45634</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B32">
-        <v>46097</v>
+        <v>45485</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B33">
-        <v>46097</v>
+        <v>45485</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B34">
-        <v>46097</v>
+        <v>45587</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B35">
-        <v>45609</v>
+        <v>45587</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1274,41 +1295,41 @@
         <v>8</v>
       </c>
       <c r="B36">
-        <v>45609</v>
+        <v>46097</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B37">
-        <v>45609</v>
+        <v>46097</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B38">
-        <v>45609</v>
+        <v>46097</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1316,66 +1337,66 @@
         <v>11</v>
       </c>
       <c r="B39">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B40">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B41">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B42">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B43">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C43" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D43" t="s">
         <v>125</v>
@@ -1383,125 +1404,125 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B44">
         <v>45495</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D44" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B45">
         <v>45495</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D45" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B46">
-        <v>45612</v>
+        <v>45495</v>
       </c>
       <c r="C46" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D46" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B47">
-        <v>45617</v>
+        <v>45495</v>
       </c>
       <c r="C47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D47" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B48">
-        <v>45617</v>
+        <v>45495</v>
       </c>
       <c r="C48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D48" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B49">
-        <v>45617</v>
+        <v>45495</v>
       </c>
       <c r="C49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D49" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B50">
-        <v>45617</v>
+        <v>45495</v>
       </c>
       <c r="C50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D50" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B51">
-        <v>45617</v>
+        <v>45495</v>
       </c>
       <c r="C51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D51" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B52">
-        <v>45617</v>
+        <v>45612</v>
       </c>
       <c r="C52" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D52" t="s">
         <v>125</v>
@@ -1509,209 +1530,209 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B53">
-        <v>45250</v>
+        <v>45617</v>
       </c>
       <c r="C53" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D53" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B54">
-        <v>45497</v>
+        <v>45617</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D54" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B55">
-        <v>45497</v>
+        <v>45617</v>
       </c>
       <c r="C55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D55" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B56">
-        <v>45497</v>
+        <v>45617</v>
       </c>
       <c r="C56" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D56" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B57">
-        <v>45638</v>
+        <v>45617</v>
       </c>
       <c r="C57" t="s">
         <v>41</v>
       </c>
       <c r="D57" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B58">
-        <v>45639</v>
+        <v>45617</v>
       </c>
       <c r="C58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D58" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B59">
-        <v>45639</v>
+        <v>45617</v>
       </c>
       <c r="C59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D59" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B60">
-        <v>45640</v>
+        <v>45250</v>
       </c>
       <c r="C60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D60" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B61">
-        <v>45640</v>
+        <v>45497</v>
       </c>
       <c r="C61" t="s">
         <v>43</v>
       </c>
       <c r="D61" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B62">
-        <v>45640</v>
+        <v>45497</v>
       </c>
       <c r="C62" t="s">
         <v>43</v>
       </c>
       <c r="D62" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B63">
-        <v>45640</v>
+        <v>45497</v>
       </c>
       <c r="C63" t="s">
         <v>43</v>
       </c>
       <c r="D63" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B64">
-        <v>45640</v>
+        <v>45638</v>
       </c>
       <c r="C64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D64" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B65">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="C65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D65" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B66">
-        <v>46038</v>
+        <v>45639</v>
       </c>
       <c r="C66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D66" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B67">
-        <v>42987</v>
+        <v>45640</v>
       </c>
       <c r="C67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D67" t="s">
         <v>127</v>
@@ -1719,265 +1740,265 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B68">
-        <v>42987</v>
+        <v>45640</v>
       </c>
       <c r="C68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B69">
-        <v>42987</v>
+        <v>45640</v>
       </c>
       <c r="C69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D69" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B70">
-        <v>42987</v>
+        <v>45640</v>
       </c>
       <c r="C70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D70" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B71">
-        <v>45139</v>
+        <v>45640</v>
       </c>
       <c r="C71" t="s">
         <v>46</v>
       </c>
       <c r="D71" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B72">
-        <v>45461</v>
+        <v>45640</v>
       </c>
       <c r="C72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D72" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B73">
-        <v>45461</v>
+        <v>45640</v>
       </c>
       <c r="C73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D73" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B74">
-        <v>45242</v>
+        <v>45640</v>
       </c>
       <c r="C74" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D74" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B75">
-        <v>45242</v>
+        <v>46038</v>
       </c>
       <c r="C75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D75" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B76">
-        <v>45242</v>
+        <v>46038</v>
       </c>
       <c r="C76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D76" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B77">
-        <v>46032</v>
+        <v>42987</v>
       </c>
       <c r="C77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D77" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B78">
-        <v>46032</v>
+        <v>42987</v>
       </c>
       <c r="C78" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D78" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B79">
-        <v>46032</v>
+        <v>42987</v>
       </c>
       <c r="C79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D79" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B80">
-        <v>45613</v>
+        <v>42987</v>
       </c>
       <c r="C80" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D80" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B81">
-        <v>45473</v>
+        <v>45139</v>
       </c>
       <c r="C81" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D81" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B82">
-        <v>45473</v>
+        <v>45461</v>
       </c>
       <c r="C82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D82" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B83">
-        <v>45471</v>
+        <v>45461</v>
       </c>
       <c r="C83" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D83" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B84">
-        <v>45471</v>
+        <v>45461</v>
       </c>
       <c r="C84" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D84" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B85">
-        <v>45946</v>
+        <v>45242</v>
       </c>
       <c r="C85" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D85" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B86">
-        <v>45518</v>
+        <v>45242</v>
       </c>
       <c r="C86" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D86" t="s">
         <v>125</v>
@@ -1985,72 +2006,72 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B87">
-        <v>45518</v>
+        <v>45242</v>
       </c>
       <c r="C87" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D87" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B88">
-        <v>45518</v>
+        <v>45242</v>
       </c>
       <c r="C88" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D88" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B89">
-        <v>45518</v>
+        <v>46032</v>
       </c>
       <c r="C89" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D89" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B90">
-        <v>45518</v>
+        <v>46032</v>
       </c>
       <c r="C90" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D90" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B91">
-        <v>45518</v>
+        <v>46032</v>
       </c>
       <c r="C91" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D91" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2058,363 +2079,363 @@
         <v>9</v>
       </c>
       <c r="B92">
-        <v>45869</v>
+        <v>45613</v>
       </c>
       <c r="C92" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D92" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B93">
-        <v>45564</v>
+        <v>45473</v>
       </c>
       <c r="C93" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D93" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B94">
-        <v>45459</v>
+        <v>45473</v>
       </c>
       <c r="C94" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D94" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B95">
-        <v>45459</v>
+        <v>45473</v>
       </c>
       <c r="C95" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D95" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B96">
-        <v>42853</v>
+        <v>45471</v>
       </c>
       <c r="C96" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B97">
-        <v>42608</v>
+        <v>45471</v>
       </c>
       <c r="C97" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D97" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B98">
-        <v>45481</v>
+        <v>45946</v>
       </c>
       <c r="C98" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D98" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B99">
-        <v>45642</v>
+        <v>45518</v>
       </c>
       <c r="C99" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D99" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B100">
-        <v>45642</v>
+        <v>45518</v>
       </c>
       <c r="C100" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D100" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B101">
-        <v>45643</v>
+        <v>45518</v>
       </c>
       <c r="C101" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D101" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B102">
-        <v>45643</v>
+        <v>45518</v>
       </c>
       <c r="C102" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D102" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B103">
-        <v>45643</v>
+        <v>45518</v>
       </c>
       <c r="C103" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D103" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B104">
-        <v>45444</v>
+        <v>45518</v>
       </c>
       <c r="C104" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D104" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B105">
-        <v>45132</v>
+        <v>45518</v>
       </c>
       <c r="C105" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D105" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B106">
-        <v>45446</v>
+        <v>45869</v>
       </c>
       <c r="C106" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D106" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B107">
-        <v>45446</v>
+        <v>45564</v>
       </c>
       <c r="C107" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D107" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B108">
-        <v>45446</v>
+        <v>45564</v>
       </c>
       <c r="C108" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D108" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B109">
-        <v>45446</v>
+        <v>45459</v>
       </c>
       <c r="C109" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D109" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B110">
-        <v>45446</v>
+        <v>45459</v>
       </c>
       <c r="C110" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D110" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B111">
-        <v>45446</v>
+        <v>42853</v>
       </c>
       <c r="C111" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D111" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B112">
-        <v>45446</v>
+        <v>42608</v>
       </c>
       <c r="C112" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D112" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B113">
-        <v>45988</v>
+        <v>45481</v>
       </c>
       <c r="C113" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D113" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B114">
-        <v>45988</v>
+        <v>45642</v>
       </c>
       <c r="C114" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D114" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B115">
-        <v>45487</v>
+        <v>45642</v>
       </c>
       <c r="C115" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D115" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B116">
-        <v>45487</v>
+        <v>45643</v>
       </c>
       <c r="C116" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D116" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B117">
-        <v>45158</v>
+        <v>45643</v>
       </c>
       <c r="C117" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D117" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2422,139 +2443,139 @@
         <v>14</v>
       </c>
       <c r="B118">
-        <v>45158</v>
+        <v>45643</v>
       </c>
       <c r="C118" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D118" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B119">
-        <v>45886</v>
+        <v>45643</v>
       </c>
       <c r="C119" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D119" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B120">
-        <v>40342</v>
+        <v>45444</v>
       </c>
       <c r="C120" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D120" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B121">
-        <v>40713</v>
+        <v>45132</v>
       </c>
       <c r="C121" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D121" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B122">
-        <v>45488</v>
+        <v>45446</v>
       </c>
       <c r="C122" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D122" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B123">
-        <v>45488</v>
+        <v>45446</v>
       </c>
       <c r="C123" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D123" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B124">
-        <v>45536</v>
+        <v>45446</v>
       </c>
       <c r="C124" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D124" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B125">
-        <v>45536</v>
+        <v>45446</v>
       </c>
       <c r="C125" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D125" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B126">
-        <v>45594</v>
+        <v>45446</v>
       </c>
       <c r="C126" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D126" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B127">
-        <v>45594</v>
+        <v>45446</v>
       </c>
       <c r="C127" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D127" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2562,209 +2583,209 @@
         <v>5</v>
       </c>
       <c r="B128">
-        <v>45653</v>
+        <v>45446</v>
       </c>
       <c r="C128" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D128" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B129">
-        <v>45654</v>
+        <v>45446</v>
       </c>
       <c r="C129" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D129" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B130">
-        <v>45655</v>
+        <v>45988</v>
       </c>
       <c r="C130" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D130" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B131">
-        <v>45655</v>
+        <v>45988</v>
       </c>
       <c r="C131" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D131" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B132">
-        <v>45655</v>
+        <v>45487</v>
       </c>
       <c r="C132" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D132" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B133">
-        <v>45655</v>
+        <v>45487</v>
       </c>
       <c r="C133" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D133" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B134">
-        <v>45145</v>
+        <v>45158</v>
       </c>
       <c r="C134" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D134" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B135">
-        <v>45456</v>
+        <v>45158</v>
       </c>
       <c r="C135" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D135" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B136">
-        <v>45656</v>
+        <v>45886</v>
       </c>
       <c r="C136" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D136" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B137">
-        <v>45656</v>
+        <v>40342</v>
       </c>
       <c r="C137" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D137" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B138">
-        <v>45657</v>
+        <v>40713</v>
       </c>
       <c r="C138" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D138" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B139">
-        <v>45657</v>
+        <v>40321</v>
       </c>
       <c r="C139" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D139" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B140">
-        <v>45657</v>
+        <v>45488</v>
       </c>
       <c r="C140" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D140" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B141">
-        <v>45658</v>
+        <v>45488</v>
       </c>
       <c r="C141" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D141" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B142">
-        <v>45658</v>
+        <v>45536</v>
       </c>
       <c r="C142" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D142" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2772,237 +2793,237 @@
         <v>17</v>
       </c>
       <c r="B143">
-        <v>45658</v>
+        <v>45536</v>
       </c>
       <c r="C143" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D143" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B144">
-        <v>45658</v>
+        <v>45536</v>
       </c>
       <c r="C144" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D144" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B145">
-        <v>45658</v>
+        <v>45594</v>
       </c>
       <c r="C145" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D145" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B146">
-        <v>45658</v>
+        <v>45594</v>
       </c>
       <c r="C146" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D146" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B147">
-        <v>45658</v>
+        <v>45653</v>
       </c>
       <c r="C147" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D147" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B148">
-        <v>45111</v>
+        <v>45654</v>
       </c>
       <c r="C148" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D148" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B149">
-        <v>45111</v>
+        <v>45655</v>
       </c>
       <c r="C149" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D149" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B150">
-        <v>45931</v>
+        <v>45655</v>
       </c>
       <c r="C150" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D150" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B151">
-        <v>45931</v>
+        <v>45655</v>
       </c>
       <c r="C151" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D151" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B152">
-        <v>45931</v>
+        <v>45655</v>
       </c>
       <c r="C152" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D152" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B153">
-        <v>46046</v>
+        <v>45655</v>
       </c>
       <c r="C153" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D153" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B154">
-        <v>46046</v>
+        <v>45145</v>
       </c>
       <c r="C154" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D154" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B155">
-        <v>46046</v>
+        <v>45456</v>
       </c>
       <c r="C155" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D155" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B156">
-        <v>46046</v>
+        <v>45656</v>
       </c>
       <c r="C156" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D156" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B157">
-        <v>46046</v>
+        <v>45656</v>
       </c>
       <c r="C157" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D157" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B158">
-        <v>46046</v>
+        <v>45657</v>
       </c>
       <c r="C158" t="s">
         <v>85</v>
       </c>
       <c r="D158" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B159">
-        <v>45133</v>
+        <v>45657</v>
       </c>
       <c r="C159" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D159" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3010,189 +3031,189 @@
         <v>17</v>
       </c>
       <c r="B160">
-        <v>45133</v>
+        <v>45657</v>
       </c>
       <c r="C160" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D160" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B161">
-        <v>45133</v>
+        <v>45658</v>
       </c>
       <c r="C161" t="s">
         <v>86</v>
       </c>
       <c r="D161" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B162">
-        <v>45133</v>
+        <v>45658</v>
       </c>
       <c r="C162" t="s">
         <v>86</v>
       </c>
       <c r="D162" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B163">
-        <v>45133</v>
+        <v>45658</v>
       </c>
       <c r="C163" t="s">
         <v>86</v>
       </c>
       <c r="D163" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B164">
-        <v>45517</v>
+        <v>45658</v>
       </c>
       <c r="C164" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D164" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B165">
-        <v>45517</v>
+        <v>45658</v>
       </c>
       <c r="C165" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D165" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B166">
-        <v>45517</v>
+        <v>45658</v>
       </c>
       <c r="C166" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D166" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B167">
-        <v>45517</v>
+        <v>45658</v>
       </c>
       <c r="C167" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D167" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B168">
-        <v>45294</v>
+        <v>45658</v>
       </c>
       <c r="C168" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D168" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B169">
-        <v>45294</v>
+        <v>45111</v>
       </c>
       <c r="C169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D169" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B170">
-        <v>45294</v>
+        <v>45111</v>
       </c>
       <c r="C170" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D170" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B171">
-        <v>45294</v>
+        <v>45931</v>
       </c>
       <c r="C171" t="s">
         <v>88</v>
       </c>
       <c r="D171" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B172">
-        <v>45294</v>
+        <v>45931</v>
       </c>
       <c r="C172" t="s">
         <v>88</v>
       </c>
       <c r="D172" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B173">
-        <v>45294</v>
+        <v>45931</v>
       </c>
       <c r="C173" t="s">
         <v>88</v>
@@ -3203,226 +3224,226 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B174">
-        <v>45665</v>
+        <v>46046</v>
       </c>
       <c r="C174" t="s">
         <v>89</v>
       </c>
       <c r="D174" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B175">
-        <v>45665</v>
+        <v>46046</v>
       </c>
       <c r="C175" t="s">
         <v>89</v>
       </c>
       <c r="D175" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B176">
-        <v>45665</v>
+        <v>46046</v>
       </c>
       <c r="C176" t="s">
         <v>89</v>
       </c>
       <c r="D176" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B177">
-        <v>45665</v>
+        <v>46046</v>
       </c>
       <c r="C177" t="s">
         <v>89</v>
       </c>
       <c r="D177" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B178">
-        <v>45665</v>
+        <v>46046</v>
       </c>
       <c r="C178" t="s">
         <v>89</v>
       </c>
       <c r="D178" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B179">
-        <v>45665</v>
+        <v>46046</v>
       </c>
       <c r="C179" t="s">
         <v>89</v>
       </c>
       <c r="D179" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B180">
-        <v>45134</v>
+        <v>46046</v>
       </c>
       <c r="C180" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D180" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B181">
-        <v>45134</v>
+        <v>45133</v>
       </c>
       <c r="C181" t="s">
         <v>90</v>
       </c>
       <c r="D181" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B182">
-        <v>45134</v>
+        <v>45133</v>
       </c>
       <c r="C182" t="s">
         <v>90</v>
       </c>
       <c r="D182" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B183">
-        <v>45326</v>
+        <v>45133</v>
       </c>
       <c r="C183" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D183" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B184">
-        <v>46053</v>
+        <v>45133</v>
       </c>
       <c r="C184" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D184" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B185">
-        <v>46053</v>
+        <v>45133</v>
       </c>
       <c r="C185" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D185" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B186">
-        <v>46053</v>
+        <v>45933</v>
       </c>
       <c r="C186" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D186" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B187">
-        <v>46053</v>
+        <v>45517</v>
       </c>
       <c r="C187" t="s">
         <v>92</v>
       </c>
       <c r="D187" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B188">
-        <v>46052</v>
+        <v>45517</v>
       </c>
       <c r="C188" t="s">
         <v>92</v>
       </c>
       <c r="D188" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B189">
-        <v>46053</v>
+        <v>45517</v>
       </c>
       <c r="C189" t="s">
         <v>92</v>
       </c>
       <c r="D189" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3430,52 +3451,52 @@
         <v>11</v>
       </c>
       <c r="B190">
-        <v>46053</v>
+        <v>45517</v>
       </c>
       <c r="C190" t="s">
         <v>92</v>
       </c>
       <c r="D190" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B191">
-        <v>46053</v>
+        <v>45517</v>
       </c>
       <c r="C191" t="s">
         <v>92</v>
       </c>
       <c r="D191" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B192">
-        <v>46053</v>
+        <v>45294</v>
       </c>
       <c r="C192" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D192" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B193">
-        <v>46053</v>
+        <v>45294</v>
       </c>
       <c r="C193" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D193" t="s">
         <v>130</v>
@@ -3483,240 +3504,240 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B194">
-        <v>46053</v>
+        <v>45294</v>
       </c>
       <c r="C194" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D194" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B195">
-        <v>46021</v>
+        <v>45294</v>
       </c>
       <c r="C195" t="s">
         <v>93</v>
       </c>
       <c r="D195" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B196">
-        <v>46021</v>
+        <v>45294</v>
       </c>
       <c r="C196" t="s">
         <v>93</v>
       </c>
       <c r="D196" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B197">
-        <v>45599</v>
+        <v>45294</v>
       </c>
       <c r="C197" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D197" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B198">
-        <v>45599</v>
+        <v>45665</v>
       </c>
       <c r="C198" t="s">
         <v>94</v>
       </c>
       <c r="D198" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B199">
-        <v>45599</v>
+        <v>45665</v>
       </c>
       <c r="C199" t="s">
         <v>94</v>
       </c>
       <c r="D199" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B200">
-        <v>45599</v>
+        <v>45665</v>
       </c>
       <c r="C200" t="s">
         <v>94</v>
       </c>
       <c r="D200" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B201">
-        <v>45243</v>
+        <v>45665</v>
       </c>
       <c r="C201" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D201" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B202">
-        <v>45243</v>
+        <v>45665</v>
       </c>
       <c r="C202" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D202" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B203">
-        <v>45466</v>
+        <v>45665</v>
       </c>
       <c r="C203" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D203" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B204">
-        <v>45466</v>
+        <v>45665</v>
       </c>
       <c r="C204" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D204" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B205">
-        <v>45466</v>
+        <v>45134</v>
       </c>
       <c r="C205" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D205" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B206">
-        <v>45466</v>
+        <v>45134</v>
       </c>
       <c r="C206" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D206" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B207">
-        <v>45466</v>
+        <v>45134</v>
       </c>
       <c r="C207" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D207" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B208">
-        <v>45466</v>
+        <v>45326</v>
       </c>
       <c r="C208" t="s">
         <v>96</v>
       </c>
       <c r="D208" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B209">
-        <v>45534</v>
+        <v>46053</v>
       </c>
       <c r="C209" t="s">
         <v>97</v>
       </c>
       <c r="D209" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B210">
-        <v>45534</v>
+        <v>46053</v>
       </c>
       <c r="C210" t="s">
         <v>97</v>
       </c>
       <c r="D210" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3724,69 +3745,69 @@
         <v>7</v>
       </c>
       <c r="B211">
-        <v>45534</v>
+        <v>46053</v>
       </c>
       <c r="C211" t="s">
         <v>97</v>
       </c>
       <c r="D211" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B212">
-        <v>45947</v>
+        <v>46053</v>
       </c>
       <c r="C212" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D212" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B213">
-        <v>45825</v>
+        <v>46053</v>
       </c>
       <c r="C213" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D213" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B214">
-        <v>45245</v>
+        <v>46053</v>
       </c>
       <c r="C214" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D214" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B215">
-        <v>45245</v>
+        <v>46053</v>
       </c>
       <c r="C215" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D215" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3794,167 +3815,167 @@
         <v>13</v>
       </c>
       <c r="B216">
-        <v>45535</v>
+        <v>46053</v>
       </c>
       <c r="C216" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D216" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B217">
-        <v>40207</v>
+        <v>46052</v>
       </c>
       <c r="C217" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D217" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B218">
-        <v>40207</v>
+        <v>46053</v>
       </c>
       <c r="C218" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D218" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B219">
-        <v>45247</v>
+        <v>46053</v>
       </c>
       <c r="C219" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D219" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B220">
-        <v>45611</v>
+        <v>46053</v>
       </c>
       <c r="C220" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D220" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B221">
-        <v>45442</v>
+        <v>46021</v>
       </c>
       <c r="C221" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D221" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B222">
-        <v>45442</v>
+        <v>46021</v>
       </c>
       <c r="C222" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D222" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B223">
-        <v>45442</v>
+        <v>45599</v>
       </c>
       <c r="C223" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D223" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B224">
-        <v>46095</v>
+        <v>45599</v>
       </c>
       <c r="C224" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D224" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B225">
-        <v>46095</v>
+        <v>45599</v>
       </c>
       <c r="C225" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D225" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B226">
-        <v>46095</v>
+        <v>45599</v>
       </c>
       <c r="C226" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D226" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B227">
-        <v>45703</v>
+        <v>45243</v>
       </c>
       <c r="C227" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D227" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3962,83 +3983,83 @@
         <v>13</v>
       </c>
       <c r="B228">
-        <v>45616</v>
+        <v>45243</v>
       </c>
       <c r="C228" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D228" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B229">
-        <v>45620</v>
+        <v>45466</v>
       </c>
       <c r="C229" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D229" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B230">
-        <v>45620</v>
+        <v>45466</v>
       </c>
       <c r="C230" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D230" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B231">
-        <v>45620</v>
+        <v>45466</v>
       </c>
       <c r="C231" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D231" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B232">
-        <v>45620</v>
+        <v>45466</v>
       </c>
       <c r="C232" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D232" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B233">
-        <v>45620</v>
+        <v>45466</v>
       </c>
       <c r="C233" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D233" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4046,80 +4067,80 @@
         <v>19</v>
       </c>
       <c r="B234">
-        <v>45620</v>
+        <v>45466</v>
       </c>
       <c r="C234" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D234" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B235">
-        <v>45619</v>
+        <v>45466</v>
       </c>
       <c r="C235" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D235" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B236">
-        <v>45619</v>
+        <v>45534</v>
       </c>
       <c r="C236" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D236" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B237">
-        <v>45619</v>
+        <v>45534</v>
       </c>
       <c r="C237" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D237" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B238">
-        <v>45619</v>
+        <v>45534</v>
       </c>
       <c r="C238" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D238" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B239">
-        <v>45619</v>
+        <v>45947</v>
       </c>
       <c r="C239" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D239" t="s">
         <v>125</v>
@@ -4127,100 +4148,100 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B240">
-        <v>45619</v>
+        <v>45825</v>
       </c>
       <c r="C240" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D240" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B241">
-        <v>45989</v>
+        <v>45245</v>
       </c>
       <c r="C241" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D241" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B242">
-        <v>45496</v>
+        <v>45245</v>
       </c>
       <c r="C242" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D242" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B243">
-        <v>45496</v>
+        <v>45245</v>
       </c>
       <c r="C243" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D243" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B244">
-        <v>45537</v>
+        <v>45535</v>
       </c>
       <c r="C244" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D244" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B245">
-        <v>45537</v>
+        <v>40207</v>
       </c>
       <c r="C245" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D245" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B246">
-        <v>45537</v>
+        <v>40207</v>
       </c>
       <c r="C246" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D246" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4228,69 +4249,69 @@
         <v>16</v>
       </c>
       <c r="B247">
-        <v>45296</v>
+        <v>45247</v>
       </c>
       <c r="C247" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D247" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B248">
-        <v>45137</v>
+        <v>45570</v>
       </c>
       <c r="C248" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D248" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B249">
-        <v>45519</v>
+        <v>45611</v>
       </c>
       <c r="C249" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D249" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B250">
-        <v>45516</v>
+        <v>45611</v>
       </c>
       <c r="C250" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D250" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B251">
-        <v>45516</v>
+        <v>45442</v>
       </c>
       <c r="C251" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D251" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4298,41 +4319,517 @@
         <v>16</v>
       </c>
       <c r="B252">
-        <v>45516</v>
+        <v>45442</v>
       </c>
       <c r="C252" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D252" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B253">
-        <v>45472</v>
+        <v>45442</v>
       </c>
       <c r="C253" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D253" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
+        <v>10</v>
+      </c>
+      <c r="B254">
+        <v>46095</v>
+      </c>
+      <c r="C254" t="s">
+        <v>112</v>
+      </c>
+      <c r="D254" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" t="s">
+        <v>6</v>
+      </c>
+      <c r="B255">
+        <v>46095</v>
+      </c>
+      <c r="C255" t="s">
+        <v>112</v>
+      </c>
+      <c r="D255" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" t="s">
+        <v>17</v>
+      </c>
+      <c r="B256">
+        <v>46095</v>
+      </c>
+      <c r="C256" t="s">
+        <v>112</v>
+      </c>
+      <c r="D256" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" t="s">
+        <v>9</v>
+      </c>
+      <c r="B257">
+        <v>46095</v>
+      </c>
+      <c r="C257" t="s">
+        <v>112</v>
+      </c>
+      <c r="D257" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" t="s">
+        <v>14</v>
+      </c>
+      <c r="B258">
+        <v>45703</v>
+      </c>
+      <c r="C258" t="s">
+        <v>113</v>
+      </c>
+      <c r="D258" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" t="s">
+        <v>14</v>
+      </c>
+      <c r="B259">
+        <v>45616</v>
+      </c>
+      <c r="C259" t="s">
+        <v>114</v>
+      </c>
+      <c r="D259" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" t="s">
+        <v>20</v>
+      </c>
+      <c r="B260">
+        <v>45620</v>
+      </c>
+      <c r="C260" t="s">
+        <v>115</v>
+      </c>
+      <c r="D260" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" t="s">
+        <v>19</v>
+      </c>
+      <c r="B261">
+        <v>45620</v>
+      </c>
+      <c r="C261" t="s">
+        <v>115</v>
+      </c>
+      <c r="D261" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" t="s">
+        <v>18</v>
+      </c>
+      <c r="B262">
+        <v>45620</v>
+      </c>
+      <c r="C262" t="s">
+        <v>115</v>
+      </c>
+      <c r="D262" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" t="s">
+        <v>21</v>
+      </c>
+      <c r="B263">
+        <v>45620</v>
+      </c>
+      <c r="C263" t="s">
+        <v>115</v>
+      </c>
+      <c r="D263" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" t="s">
+        <v>13</v>
+      </c>
+      <c r="B264">
+        <v>45620</v>
+      </c>
+      <c r="C264" t="s">
+        <v>115</v>
+      </c>
+      <c r="D264" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" t="s">
+        <v>5</v>
+      </c>
+      <c r="B265">
+        <v>45620</v>
+      </c>
+      <c r="C265" t="s">
+        <v>115</v>
+      </c>
+      <c r="D265" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" t="s">
+        <v>12</v>
+      </c>
+      <c r="B266">
+        <v>45620</v>
+      </c>
+      <c r="C266" t="s">
+        <v>115</v>
+      </c>
+      <c r="D266" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" t="s">
+        <v>21</v>
+      </c>
+      <c r="B267">
+        <v>45619</v>
+      </c>
+      <c r="C267" t="s">
+        <v>116</v>
+      </c>
+      <c r="D267" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" t="s">
+        <v>19</v>
+      </c>
+      <c r="B268">
+        <v>45619</v>
+      </c>
+      <c r="C268" t="s">
+        <v>116</v>
+      </c>
+      <c r="D268" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" t="s">
+        <v>5</v>
+      </c>
+      <c r="B269">
+        <v>45619</v>
+      </c>
+      <c r="C269" t="s">
+        <v>116</v>
+      </c>
+      <c r="D269" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" t="s">
+        <v>13</v>
+      </c>
+      <c r="B270">
+        <v>45619</v>
+      </c>
+      <c r="C270" t="s">
+        <v>116</v>
+      </c>
+      <c r="D270" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" t="s">
+        <v>12</v>
+      </c>
+      <c r="B271">
+        <v>45619</v>
+      </c>
+      <c r="C271" t="s">
+        <v>116</v>
+      </c>
+      <c r="D271" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" t="s">
+        <v>18</v>
+      </c>
+      <c r="B272">
+        <v>45619</v>
+      </c>
+      <c r="C272" t="s">
+        <v>116</v>
+      </c>
+      <c r="D272" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" t="s">
+        <v>20</v>
+      </c>
+      <c r="B273">
+        <v>45619</v>
+      </c>
+      <c r="C273" t="s">
+        <v>116</v>
+      </c>
+      <c r="D273" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" t="s">
+        <v>11</v>
+      </c>
+      <c r="B274">
+        <v>45989</v>
+      </c>
+      <c r="C274" t="s">
+        <v>117</v>
+      </c>
+      <c r="D274" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" t="s">
+        <v>16</v>
+      </c>
+      <c r="B275">
+        <v>45496</v>
+      </c>
+      <c r="C275" t="s">
+        <v>118</v>
+      </c>
+      <c r="D275" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" t="s">
+        <v>15</v>
+      </c>
+      <c r="B276">
+        <v>45496</v>
+      </c>
+      <c r="C276" t="s">
+        <v>118</v>
+      </c>
+      <c r="D276" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" t="s">
+        <v>19</v>
+      </c>
+      <c r="B277">
+        <v>45537</v>
+      </c>
+      <c r="C277" t="s">
+        <v>119</v>
+      </c>
+      <c r="D277" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" t="s">
+        <v>18</v>
+      </c>
+      <c r="B278">
+        <v>45537</v>
+      </c>
+      <c r="C278" t="s">
+        <v>119</v>
+      </c>
+      <c r="D278" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" t="s">
+        <v>21</v>
+      </c>
+      <c r="B279">
+        <v>45537</v>
+      </c>
+      <c r="C279" t="s">
+        <v>119</v>
+      </c>
+      <c r="D279" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" t="s">
+        <v>20</v>
+      </c>
+      <c r="B280">
+        <v>45537</v>
+      </c>
+      <c r="C280" t="s">
+        <v>119</v>
+      </c>
+      <c r="D280" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" t="s">
+        <v>17</v>
+      </c>
+      <c r="B281">
+        <v>45296</v>
+      </c>
+      <c r="C281" t="s">
+        <v>120</v>
+      </c>
+      <c r="D281" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" t="s">
+        <v>16</v>
+      </c>
+      <c r="B282">
+        <v>45137</v>
+      </c>
+      <c r="C282" t="s">
+        <v>121</v>
+      </c>
+      <c r="D282" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" t="s">
+        <v>14</v>
+      </c>
+      <c r="B283">
+        <v>45519</v>
+      </c>
+      <c r="C283" t="s">
+        <v>122</v>
+      </c>
+      <c r="D283" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" t="s">
+        <v>6</v>
+      </c>
+      <c r="B284">
+        <v>45516</v>
+      </c>
+      <c r="C284" t="s">
+        <v>123</v>
+      </c>
+      <c r="D284" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" t="s">
+        <v>17</v>
+      </c>
+      <c r="B285">
+        <v>45516</v>
+      </c>
+      <c r="C285" t="s">
+        <v>123</v>
+      </c>
+      <c r="D285" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" t="s">
+        <v>17</v>
+      </c>
+      <c r="B286">
+        <v>45516</v>
+      </c>
+      <c r="C286" t="s">
+        <v>123</v>
+      </c>
+      <c r="D286" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" t="s">
         <v>7</v>
       </c>
-      <c r="B254">
+      <c r="B287">
         <v>45472</v>
       </c>
-      <c r="C254" t="s">
-        <v>118</v>
-      </c>
-      <c r="D254" t="s">
-        <v>120</v>
+      <c r="C287" t="s">
+        <v>124</v>
+      </c>
+      <c r="D287" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" t="s">
+        <v>6</v>
+      </c>
+      <c r="B288">
+        <v>45472</v>
+      </c>
+      <c r="C288" t="s">
+        <v>124</v>
+      </c>
+      <c r="D288" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="157">
   <si>
     <t>player</t>
   </si>
@@ -34,13 +34,16 @@
     <t>Omegarone</t>
   </si>
   <si>
+    <t>Gosseyn</t>
+  </si>
+  <si>
     <t>Veremos</t>
   </si>
   <si>
     <t>Iryastra</t>
   </si>
   <si>
-    <t>Gosseyn</t>
+    <t>Csamain</t>
   </si>
   <si>
     <t>Nweysa</t>
@@ -52,6 +55,9 @@
     <t>Aelvå</t>
   </si>
   <si>
+    <t>Wølafi</t>
+  </si>
+  <si>
     <t>Warloquë</t>
   </si>
   <si>
@@ -61,27 +67,30 @@
     <t>Skotia</t>
   </si>
   <si>
+    <t>Dimoncello</t>
+  </si>
+  <si>
+    <t>Queriss</t>
+  </si>
+  <si>
     <t>Ninnah</t>
   </si>
   <si>
-    <t>Queriss</t>
-  </si>
-  <si>
     <t>Nordton</t>
   </si>
   <si>
+    <t>Pyrobifle</t>
+  </si>
+  <si>
+    <t>Ørly</t>
+  </si>
+  <si>
     <t>Pamage</t>
   </si>
   <si>
     <t>Hedra</t>
   </si>
   <si>
-    <t>Ørly</t>
-  </si>
-  <si>
-    <t>Pyrobifle</t>
-  </si>
-  <si>
     <t>Amice of Inconceivable Horror</t>
   </si>
   <si>
@@ -97,6 +106,9 @@
     <t>Belt of Dragons</t>
   </si>
   <si>
+    <t>Belt of the Fallen Wyrm</t>
+  </si>
+  <si>
     <t>Bindings of Winter Gale</t>
   </si>
   <si>
@@ -109,6 +121,9 @@
     <t>Boundless Gaze</t>
   </si>
   <si>
+    <t>Breastplate of the Stoneshaper</t>
+  </si>
+  <si>
     <t>Breastplate of the Timeless</t>
   </si>
   <si>
@@ -130,6 +145,9 @@
     <t>Caress of Insanity</t>
   </si>
   <si>
+    <t>Charm of Meticulous Timing</t>
+  </si>
+  <si>
     <t>Comet's Trail</t>
   </si>
   <si>
@@ -175,6 +193,9 @@
     <t>Drape of the Faceless General</t>
   </si>
   <si>
+    <t>Drape of the Sullen Goddess</t>
+  </si>
+  <si>
     <t>Dreambinder</t>
   </si>
   <si>
@@ -214,6 +235,9 @@
     <t>Gauntlets of the Wayward Vanquisher</t>
   </si>
   <si>
+    <t>Gloves of the Endless Dark</t>
+  </si>
+  <si>
     <t>Gloves of the Steady Hand</t>
   </si>
   <si>
@@ -223,6 +247,9 @@
     <t>Grasps of Reason</t>
   </si>
   <si>
+    <t>Greaves of Swift Vengeance</t>
+  </si>
+  <si>
     <t>Greaves of the Iron Army</t>
   </si>
   <si>
@@ -268,6 +295,9 @@
     <t>Loop of the Agile</t>
   </si>
   <si>
+    <t>Mantle of Fiery Vengeance</t>
+  </si>
+  <si>
     <t>Mantle of the Wayward Conqueror</t>
   </si>
   <si>
@@ -277,6 +307,9 @@
     <t>Mantle of the Wayward Vanquisher</t>
   </si>
   <si>
+    <t>Mimiron's Flight Goggles</t>
+  </si>
+  <si>
     <t>Mimiron's Inferno Couplings</t>
   </si>
   <si>
@@ -301,6 +334,9 @@
     <t>Pharos Gloves</t>
   </si>
   <si>
+    <t>Planewalker Treads</t>
+  </si>
+  <si>
     <t>Plated Leggings of Ruination</t>
   </si>
   <si>
@@ -367,6 +403,9 @@
     <t>Starwatcher's Binding</t>
   </si>
   <si>
+    <t>Steamcaller's Totem</t>
+  </si>
+  <si>
     <t>Tempered Mercury Greaves</t>
   </si>
   <si>
@@ -391,15 +430,18 @@
     <t>Warhelm of the Champion</t>
   </si>
   <si>
+    <t>Wisdom's Hold</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Craft</t>
   </si>
   <si>
@@ -424,13 +466,22 @@
     <t>PvP</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
   <si>
     <t>Emblems of Conquest</t>
@@ -791,7 +842,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E288"/>
+  <dimension ref="A1:E338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -822,10 +873,10 @@
         <v>46068</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -836,10 +887,10 @@
         <v>45663</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -850,10 +901,10 @@
         <v>45663</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -864,10 +915,10 @@
         <v>45663</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -878,10 +929,10 @@
         <v>46048</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -892,206 +943,206 @@
         <v>46048</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>45241</v>
+        <v>46048</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>45241</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>45553</v>
+        <v>45241</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>45460</v>
+        <v>45553</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>45484</v>
+        <v>45151</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>45484</v>
+        <v>45460</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>45135</v>
+        <v>45460</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>45135</v>
+        <v>45484</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B16">
-        <v>45135</v>
+        <v>45484</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>45135</v>
+        <v>45484</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B18">
-        <v>45610</v>
+        <v>45135</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B19">
-        <v>46039</v>
+        <v>45135</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20">
-        <v>46039</v>
+        <v>45135</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B21">
-        <v>45632</v>
+        <v>45135</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1099,13 +1150,13 @@
         <v>12</v>
       </c>
       <c r="B22">
-        <v>45632</v>
+        <v>45610</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1113,27 +1164,27 @@
         <v>17</v>
       </c>
       <c r="B23">
-        <v>45633</v>
+        <v>45610</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B24">
-        <v>45633</v>
+        <v>45867</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1141,13 +1192,13 @@
         <v>18</v>
       </c>
       <c r="B25">
-        <v>45634</v>
+        <v>46039</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1155,153 +1206,153 @@
         <v>19</v>
       </c>
       <c r="B26">
-        <v>45634</v>
+        <v>46039</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B27">
-        <v>45634</v>
+        <v>45632</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B28">
-        <v>45634</v>
+        <v>45632</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B30">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B31">
         <v>45634</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B32">
-        <v>45485</v>
+        <v>45634</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B33">
-        <v>45485</v>
+        <v>45634</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34">
-        <v>45587</v>
+        <v>45634</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B35">
-        <v>45587</v>
+        <v>45634</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B36">
-        <v>46097</v>
+        <v>45634</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1309,83 +1360,83 @@
         <v>8</v>
       </c>
       <c r="B37">
-        <v>46097</v>
+        <v>45634</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B38">
-        <v>46097</v>
+        <v>45485</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B39">
-        <v>45609</v>
+        <v>45485</v>
       </c>
       <c r="C39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B40">
-        <v>45609</v>
+        <v>45587</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B41">
-        <v>45609</v>
+        <v>45587</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B42">
-        <v>45609</v>
+        <v>46097</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D42" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1393,167 +1444,167 @@
         <v>6</v>
       </c>
       <c r="B43">
-        <v>45609</v>
+        <v>46097</v>
       </c>
       <c r="C43" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B44">
-        <v>45495</v>
+        <v>46097</v>
       </c>
       <c r="C44" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D44" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B45">
-        <v>45495</v>
+        <v>45443</v>
       </c>
       <c r="C45" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B46">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C46" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B47">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C47" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D47" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B48">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C48" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D48" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B49">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C49" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D49" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B50">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C50" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D50" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B51">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C51" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D51" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B52">
-        <v>45612</v>
+        <v>45495</v>
       </c>
       <c r="C52" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D52" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B53">
-        <v>45617</v>
+        <v>45495</v>
       </c>
       <c r="C53" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D53" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B54">
-        <v>45617</v>
+        <v>45495</v>
       </c>
       <c r="C54" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D54" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1561,83 +1612,83 @@
         <v>5</v>
       </c>
       <c r="B55">
-        <v>45617</v>
+        <v>45495</v>
       </c>
       <c r="C55" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D55" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B56">
-        <v>45617</v>
+        <v>45495</v>
       </c>
       <c r="C56" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D56" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B57">
-        <v>45617</v>
+        <v>45495</v>
       </c>
       <c r="C57" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D57" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B58">
-        <v>45617</v>
+        <v>45495</v>
       </c>
       <c r="C58" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D58" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B59">
-        <v>45617</v>
+        <v>45495</v>
       </c>
       <c r="C59" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D59" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B60">
-        <v>45250</v>
+        <v>45612</v>
       </c>
       <c r="C60" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D60" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1645,111 +1696,111 @@
         <v>12</v>
       </c>
       <c r="B61">
-        <v>45497</v>
+        <v>45612</v>
       </c>
       <c r="C61" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D61" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B62">
-        <v>45497</v>
+        <v>45617</v>
       </c>
       <c r="C62" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D62" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B63">
-        <v>45497</v>
+        <v>45617</v>
       </c>
       <c r="C63" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D63" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B64">
-        <v>45638</v>
+        <v>45617</v>
       </c>
       <c r="C64" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D64" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B65">
-        <v>45639</v>
+        <v>45617</v>
       </c>
       <c r="C65" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D65" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B66">
-        <v>45639</v>
+        <v>45617</v>
       </c>
       <c r="C66" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D66" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B67">
-        <v>45640</v>
+        <v>45617</v>
       </c>
       <c r="C67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D67" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B68">
-        <v>45640</v>
+        <v>45617</v>
       </c>
       <c r="C68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D68" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1757,41 +1808,41 @@
         <v>8</v>
       </c>
       <c r="B69">
-        <v>45640</v>
+        <v>45250</v>
       </c>
       <c r="C69" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D69" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B70">
-        <v>45640</v>
+        <v>45497</v>
       </c>
       <c r="C70" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D70" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B71">
-        <v>45640</v>
+        <v>45497</v>
       </c>
       <c r="C71" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D71" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1799,125 +1850,125 @@
         <v>14</v>
       </c>
       <c r="B72">
-        <v>45640</v>
+        <v>45497</v>
       </c>
       <c r="C72" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D72" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B73">
-        <v>45640</v>
+        <v>45638</v>
       </c>
       <c r="C73" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D73" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B74">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="C74" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D74" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B75">
-        <v>46038</v>
+        <v>45639</v>
       </c>
       <c r="C75" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D75" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B76">
-        <v>46038</v>
+        <v>45639</v>
       </c>
       <c r="C76" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D76" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B77">
-        <v>42987</v>
+        <v>45640</v>
       </c>
       <c r="C77" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D77" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B78">
-        <v>42987</v>
+        <v>45640</v>
       </c>
       <c r="C78" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D78" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B79">
-        <v>42987</v>
+        <v>45640</v>
       </c>
       <c r="C79" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D79" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B80">
-        <v>42987</v>
+        <v>45640</v>
       </c>
       <c r="C80" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D80" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1925,125 +1976,125 @@
         <v>16</v>
       </c>
       <c r="B81">
-        <v>45139</v>
+        <v>45640</v>
       </c>
       <c r="C81" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D81" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B82">
-        <v>45461</v>
+        <v>45640</v>
       </c>
       <c r="C82" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D82" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B83">
-        <v>45461</v>
+        <v>45640</v>
       </c>
       <c r="C83" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D83" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B84">
-        <v>45461</v>
+        <v>45640</v>
       </c>
       <c r="C84" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D84" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B85">
-        <v>45242</v>
+        <v>46038</v>
       </c>
       <c r="C85" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D85" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B86">
-        <v>45242</v>
+        <v>46038</v>
       </c>
       <c r="C86" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D86" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B87">
-        <v>45242</v>
+        <v>46038</v>
       </c>
       <c r="C87" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D87" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B88">
-        <v>45242</v>
+        <v>46038</v>
       </c>
       <c r="C88" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D88" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B89">
-        <v>46032</v>
+        <v>42987</v>
       </c>
       <c r="C89" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D89" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2051,69 +2102,69 @@
         <v>8</v>
       </c>
       <c r="B90">
-        <v>46032</v>
+        <v>42987</v>
       </c>
       <c r="C90" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D90" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B91">
-        <v>46032</v>
+        <v>42987</v>
       </c>
       <c r="C91" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D91" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B92">
-        <v>45613</v>
+        <v>42987</v>
       </c>
       <c r="C92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D92" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B93">
-        <v>45473</v>
+        <v>45139</v>
       </c>
       <c r="C93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D93" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B94">
-        <v>45473</v>
+        <v>45461</v>
       </c>
       <c r="C94" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D94" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2121,83 +2172,83 @@
         <v>9</v>
       </c>
       <c r="B95">
-        <v>45473</v>
+        <v>45461</v>
       </c>
       <c r="C95" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D95" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B96">
-        <v>45471</v>
+        <v>45461</v>
       </c>
       <c r="C96" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D96" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B97">
-        <v>45471</v>
+        <v>45461</v>
       </c>
       <c r="C97" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D97" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B98">
-        <v>45946</v>
+        <v>45242</v>
       </c>
       <c r="C98" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D98" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B99">
-        <v>45518</v>
+        <v>45242</v>
       </c>
       <c r="C99" t="s">
         <v>57</v>
       </c>
       <c r="D99" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B100">
-        <v>45518</v>
+        <v>45242</v>
       </c>
       <c r="C100" t="s">
         <v>57</v>
       </c>
       <c r="D100" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2205,13 +2256,13 @@
         <v>21</v>
       </c>
       <c r="B101">
-        <v>45518</v>
+        <v>45242</v>
       </c>
       <c r="C101" t="s">
         <v>57</v>
       </c>
       <c r="D101" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2219,83 +2270,83 @@
         <v>20</v>
       </c>
       <c r="B102">
-        <v>45518</v>
+        <v>46032</v>
       </c>
       <c r="C102" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D102" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B103">
-        <v>45518</v>
+        <v>46032</v>
       </c>
       <c r="C103" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D103" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B104">
-        <v>45518</v>
+        <v>46032</v>
       </c>
       <c r="C104" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D104" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B105">
-        <v>45518</v>
+        <v>46032</v>
       </c>
       <c r="C105" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D105" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B106">
-        <v>45869</v>
+        <v>45486</v>
       </c>
       <c r="C106" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D106" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B107">
-        <v>45564</v>
+        <v>45613</v>
       </c>
       <c r="C107" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D107" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2303,489 +2354,489 @@
         <v>10</v>
       </c>
       <c r="B108">
-        <v>45564</v>
+        <v>45613</v>
       </c>
       <c r="C108" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D108" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B109">
-        <v>45459</v>
+        <v>45473</v>
       </c>
       <c r="C109" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D109" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B110">
-        <v>45459</v>
+        <v>45473</v>
       </c>
       <c r="C110" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D110" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B111">
-        <v>42853</v>
+        <v>45473</v>
       </c>
       <c r="C111" t="s">
         <v>61</v>
       </c>
       <c r="D111" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B112">
-        <v>42608</v>
+        <v>45473</v>
       </c>
       <c r="C112" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D112" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B113">
-        <v>45481</v>
+        <v>45473</v>
       </c>
       <c r="C113" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D113" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B114">
-        <v>45642</v>
+        <v>45471</v>
       </c>
       <c r="C114" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D114" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B115">
-        <v>45642</v>
+        <v>45471</v>
       </c>
       <c r="C115" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D115" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B116">
-        <v>45643</v>
+        <v>45946</v>
       </c>
       <c r="C116" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D116" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B117">
-        <v>45643</v>
+        <v>45518</v>
       </c>
       <c r="C117" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D117" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B118">
-        <v>45643</v>
+        <v>45518</v>
       </c>
       <c r="C118" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D118" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B119">
-        <v>45643</v>
+        <v>45518</v>
       </c>
       <c r="C119" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D119" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B120">
-        <v>45444</v>
+        <v>45518</v>
       </c>
       <c r="C120" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D120" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B121">
-        <v>45132</v>
+        <v>45518</v>
       </c>
       <c r="C121" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D121" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B122">
-        <v>45446</v>
+        <v>45518</v>
       </c>
       <c r="C122" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D122" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B123">
-        <v>45446</v>
+        <v>45518</v>
       </c>
       <c r="C123" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D123" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B124">
-        <v>45446</v>
+        <v>45869</v>
       </c>
       <c r="C124" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D124" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B125">
-        <v>45446</v>
+        <v>45869</v>
       </c>
       <c r="C125" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D125" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B126">
-        <v>45446</v>
+        <v>45564</v>
       </c>
       <c r="C126" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D126" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B127">
-        <v>45446</v>
+        <v>45564</v>
       </c>
       <c r="C127" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D127" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B128">
-        <v>45446</v>
+        <v>45564</v>
       </c>
       <c r="C128" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D128" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B129">
-        <v>45446</v>
+        <v>45459</v>
       </c>
       <c r="C129" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D129" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B130">
-        <v>45988</v>
+        <v>45459</v>
       </c>
       <c r="C130" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D130" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B131">
-        <v>45988</v>
+        <v>42853</v>
       </c>
       <c r="C131" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D131" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B132">
-        <v>45487</v>
+        <v>42608</v>
       </c>
       <c r="C132" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D132" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B133">
-        <v>45487</v>
+        <v>45481</v>
       </c>
       <c r="C133" t="s">
         <v>70</v>
       </c>
       <c r="D133" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B134">
-        <v>45158</v>
+        <v>45642</v>
       </c>
       <c r="C134" t="s">
         <v>71</v>
       </c>
       <c r="D134" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B135">
-        <v>45158</v>
+        <v>45642</v>
       </c>
       <c r="C135" t="s">
         <v>71</v>
       </c>
       <c r="D135" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B136">
-        <v>45886</v>
+        <v>45642</v>
       </c>
       <c r="C136" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D136" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B137">
-        <v>40342</v>
+        <v>45643</v>
       </c>
       <c r="C137" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D137" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B138">
-        <v>40713</v>
+        <v>45643</v>
       </c>
       <c r="C138" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D138" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B139">
-        <v>40321</v>
+        <v>45643</v>
       </c>
       <c r="C139" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D139" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B140">
-        <v>45488</v>
+        <v>45643</v>
       </c>
       <c r="C140" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D140" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B141">
-        <v>45488</v>
+        <v>46043</v>
       </c>
       <c r="C141" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D141" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B142">
-        <v>45536</v>
+        <v>45444</v>
       </c>
       <c r="C142" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D142" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2793,433 +2844,433 @@
         <v>17</v>
       </c>
       <c r="B143">
-        <v>45536</v>
+        <v>45444</v>
       </c>
       <c r="C143" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D143" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B144">
-        <v>45536</v>
+        <v>45132</v>
       </c>
       <c r="C144" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D144" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B145">
-        <v>45594</v>
+        <v>45132</v>
       </c>
       <c r="C145" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D145" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B146">
-        <v>45594</v>
+        <v>45446</v>
       </c>
       <c r="C146" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D146" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B147">
-        <v>45653</v>
+        <v>45446</v>
       </c>
       <c r="C147" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D147" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B148">
-        <v>45654</v>
+        <v>45446</v>
       </c>
       <c r="C148" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D148" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B149">
-        <v>45655</v>
+        <v>45446</v>
       </c>
       <c r="C149" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D149" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B150">
-        <v>45655</v>
+        <v>45446</v>
       </c>
       <c r="C150" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D150" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B151">
-        <v>45655</v>
+        <v>45446</v>
       </c>
       <c r="C151" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D151" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B152">
-        <v>45655</v>
+        <v>45446</v>
       </c>
       <c r="C152" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D152" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B153">
-        <v>45655</v>
+        <v>45446</v>
       </c>
       <c r="C153" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D153" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B154">
-        <v>45145</v>
+        <v>45244</v>
       </c>
       <c r="C154" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D154" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B155">
-        <v>45456</v>
+        <v>45988</v>
       </c>
       <c r="C155" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D155" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B156">
-        <v>45656</v>
+        <v>45988</v>
       </c>
       <c r="C156" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D156" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B157">
-        <v>45656</v>
+        <v>45487</v>
       </c>
       <c r="C157" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D157" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B158">
-        <v>45657</v>
+        <v>45487</v>
       </c>
       <c r="C158" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D158" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B159">
-        <v>45657</v>
+        <v>45158</v>
       </c>
       <c r="C159" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D159" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B160">
-        <v>45657</v>
+        <v>45158</v>
       </c>
       <c r="C160" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D160" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B161">
-        <v>45658</v>
+        <v>45886</v>
       </c>
       <c r="C161" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D161" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B162">
-        <v>45658</v>
+        <v>40342</v>
       </c>
       <c r="C162" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D162" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B163">
-        <v>45658</v>
+        <v>40713</v>
       </c>
       <c r="C163" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D163" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B164">
-        <v>45658</v>
+        <v>40321</v>
       </c>
       <c r="C164" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D164" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B165">
-        <v>45658</v>
+        <v>45488</v>
       </c>
       <c r="C165" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D165" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B166">
-        <v>45658</v>
+        <v>45488</v>
       </c>
       <c r="C166" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D166" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B167">
-        <v>45658</v>
+        <v>45536</v>
       </c>
       <c r="C167" t="s">
         <v>86</v>
       </c>
       <c r="D167" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B168">
-        <v>45658</v>
+        <v>45536</v>
       </c>
       <c r="C168" t="s">
         <v>86</v>
       </c>
       <c r="D168" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B169">
-        <v>45111</v>
+        <v>45536</v>
       </c>
       <c r="C169" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D169" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B170">
-        <v>45111</v>
+        <v>45536</v>
       </c>
       <c r="C170" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D170" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B171">
-        <v>45931</v>
+        <v>45536</v>
       </c>
       <c r="C171" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D171" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B172">
-        <v>45931</v>
+        <v>45594</v>
       </c>
       <c r="C172" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D172" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B173">
-        <v>45931</v>
+        <v>45594</v>
       </c>
       <c r="C173" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D173" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3227,167 +3278,167 @@
         <v>5</v>
       </c>
       <c r="B174">
-        <v>46046</v>
+        <v>45653</v>
       </c>
       <c r="C174" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D174" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B175">
-        <v>46046</v>
+        <v>45654</v>
       </c>
       <c r="C175" t="s">
         <v>89</v>
       </c>
       <c r="D175" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B176">
-        <v>46046</v>
+        <v>45654</v>
       </c>
       <c r="C176" t="s">
         <v>89</v>
       </c>
       <c r="D176" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B177">
-        <v>46046</v>
+        <v>45655</v>
       </c>
       <c r="C177" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D177" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B178">
-        <v>46046</v>
+        <v>45655</v>
       </c>
       <c r="C178" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D178" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B179">
-        <v>46046</v>
+        <v>45655</v>
       </c>
       <c r="C179" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D179" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B180">
-        <v>46046</v>
+        <v>45655</v>
       </c>
       <c r="C180" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D180" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B181">
-        <v>45133</v>
+        <v>45655</v>
       </c>
       <c r="C181" t="s">
         <v>90</v>
       </c>
       <c r="D181" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B182">
-        <v>45133</v>
+        <v>45145</v>
       </c>
       <c r="C182" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D182" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B183">
-        <v>45133</v>
+        <v>45456</v>
       </c>
       <c r="C183" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D183" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B184">
-        <v>45133</v>
+        <v>45300</v>
       </c>
       <c r="C184" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D184" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B185">
-        <v>45133</v>
+        <v>45656</v>
       </c>
       <c r="C185" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D185" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3395,111 +3446,111 @@
         <v>19</v>
       </c>
       <c r="B186">
-        <v>45933</v>
+        <v>45656</v>
       </c>
       <c r="C186" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D186" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B187">
-        <v>45517</v>
+        <v>45657</v>
       </c>
       <c r="C187" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D187" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B188">
-        <v>45517</v>
+        <v>45657</v>
       </c>
       <c r="C188" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D188" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B189">
-        <v>45517</v>
+        <v>45657</v>
       </c>
       <c r="C189" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D189" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B190">
-        <v>45517</v>
+        <v>45657</v>
       </c>
       <c r="C190" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D190" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B191">
-        <v>45517</v>
+        <v>45658</v>
       </c>
       <c r="C191" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D191" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B192">
-        <v>45294</v>
+        <v>45658</v>
       </c>
       <c r="C192" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D192" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B193">
-        <v>45294</v>
+        <v>45658</v>
       </c>
       <c r="C193" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D193" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3507,279 +3558,279 @@
         <v>21</v>
       </c>
       <c r="B194">
-        <v>45294</v>
+        <v>45658</v>
       </c>
       <c r="C194" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D194" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B195">
-        <v>45294</v>
+        <v>45658</v>
       </c>
       <c r="C195" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D195" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B196">
-        <v>45294</v>
+        <v>45658</v>
       </c>
       <c r="C196" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D196" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B197">
-        <v>45294</v>
+        <v>45658</v>
       </c>
       <c r="C197" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D197" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B198">
-        <v>45665</v>
+        <v>45658</v>
       </c>
       <c r="C198" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D198" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B199">
-        <v>45665</v>
+        <v>45993</v>
       </c>
       <c r="C199" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D199" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B200">
-        <v>45665</v>
+        <v>45111</v>
       </c>
       <c r="C200" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D200" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B201">
-        <v>45665</v>
+        <v>45111</v>
       </c>
       <c r="C201" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D201" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B202">
-        <v>45665</v>
+        <v>45931</v>
       </c>
       <c r="C202" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D202" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B203">
-        <v>45665</v>
+        <v>45931</v>
       </c>
       <c r="C203" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D203" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B204">
-        <v>45665</v>
+        <v>45931</v>
       </c>
       <c r="C204" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D204" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B205">
-        <v>45134</v>
+        <v>45931</v>
       </c>
       <c r="C205" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D205" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B206">
-        <v>45134</v>
+        <v>46046</v>
       </c>
       <c r="C206" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D206" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B207">
-        <v>45134</v>
+        <v>46046</v>
       </c>
       <c r="C207" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D207" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B208">
-        <v>45326</v>
+        <v>46046</v>
       </c>
       <c r="C208" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D208" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B209">
-        <v>46053</v>
+        <v>46046</v>
       </c>
       <c r="C209" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D209" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B210">
-        <v>46053</v>
+        <v>46046</v>
       </c>
       <c r="C210" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D210" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B211">
-        <v>46053</v>
+        <v>46046</v>
       </c>
       <c r="C211" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D211" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B212">
-        <v>46053</v>
+        <v>46046</v>
       </c>
       <c r="C212" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D212" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B213">
-        <v>46053</v>
+        <v>46046</v>
       </c>
       <c r="C213" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D213" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3787,374 +3838,374 @@
         <v>14</v>
       </c>
       <c r="B214">
-        <v>46053</v>
+        <v>45133</v>
       </c>
       <c r="C214" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D214" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B215">
-        <v>46053</v>
+        <v>45133</v>
       </c>
       <c r="C215" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D215" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B216">
-        <v>46053</v>
+        <v>45133</v>
       </c>
       <c r="C216" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D216" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B217">
-        <v>46052</v>
+        <v>45133</v>
       </c>
       <c r="C217" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D217" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B218">
-        <v>46053</v>
+        <v>45133</v>
       </c>
       <c r="C218" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D218" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B219">
-        <v>46053</v>
+        <v>45933</v>
       </c>
       <c r="C219" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D219" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B220">
-        <v>46053</v>
+        <v>45517</v>
       </c>
       <c r="C220" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D220" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B221">
-        <v>46021</v>
+        <v>45517</v>
       </c>
       <c r="C221" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D221" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B222">
-        <v>46021</v>
+        <v>45517</v>
       </c>
       <c r="C222" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D222" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B223">
-        <v>45599</v>
+        <v>45517</v>
       </c>
       <c r="C223" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D223" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B224">
-        <v>45599</v>
+        <v>45517</v>
       </c>
       <c r="C224" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D224" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B225">
-        <v>45599</v>
+        <v>45517</v>
       </c>
       <c r="C225" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D225" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B226">
-        <v>45599</v>
+        <v>45517</v>
       </c>
       <c r="C226" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D226" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B227">
-        <v>45243</v>
+        <v>45294</v>
       </c>
       <c r="C227" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D227" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B228">
-        <v>45243</v>
+        <v>45294</v>
       </c>
       <c r="C228" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D228" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B229">
-        <v>45466</v>
+        <v>45294</v>
       </c>
       <c r="C229" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D229" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B230">
-        <v>45466</v>
+        <v>45294</v>
       </c>
       <c r="C230" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D230" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B231">
-        <v>45466</v>
+        <v>45294</v>
       </c>
       <c r="C231" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D231" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B232">
-        <v>45466</v>
+        <v>45294</v>
       </c>
       <c r="C232" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D232" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B233">
-        <v>45466</v>
+        <v>45665</v>
       </c>
       <c r="C233" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D233" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B234">
-        <v>45466</v>
+        <v>45665</v>
       </c>
       <c r="C234" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D234" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B235">
-        <v>45466</v>
+        <v>45665</v>
       </c>
       <c r="C235" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D235" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B236">
-        <v>45534</v>
+        <v>45665</v>
       </c>
       <c r="C236" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D236" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B237">
-        <v>45534</v>
+        <v>45665</v>
       </c>
       <c r="C237" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D237" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B238">
-        <v>45534</v>
+        <v>45665</v>
       </c>
       <c r="C238" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D238" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B239">
-        <v>45947</v>
+        <v>45665</v>
       </c>
       <c r="C239" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D239" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B240">
-        <v>45825</v>
+        <v>45615</v>
       </c>
       <c r="C240" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D240" t="s">
         <v>139</v>
@@ -4165,209 +4216,209 @@
         <v>6</v>
       </c>
       <c r="B241">
-        <v>45245</v>
+        <v>45134</v>
       </c>
       <c r="C241" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D241" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B242">
-        <v>45245</v>
+        <v>45134</v>
       </c>
       <c r="C242" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D242" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B243">
-        <v>45245</v>
+        <v>45134</v>
       </c>
       <c r="C243" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D243" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B244">
-        <v>45535</v>
+        <v>45326</v>
       </c>
       <c r="C244" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D244" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B245">
-        <v>40207</v>
+        <v>46052</v>
       </c>
       <c r="C245" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D245" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B246">
-        <v>40207</v>
+        <v>46052</v>
       </c>
       <c r="C246" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D246" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B247">
-        <v>45247</v>
+        <v>46053</v>
       </c>
       <c r="C247" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D247" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B248">
-        <v>45570</v>
+        <v>46053</v>
       </c>
       <c r="C248" t="s">
         <v>109</v>
       </c>
       <c r="D248" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B249">
-        <v>45611</v>
+        <v>46053</v>
       </c>
       <c r="C249" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D249" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B250">
-        <v>45611</v>
+        <v>46053</v>
       </c>
       <c r="C250" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D250" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B251">
-        <v>45442</v>
+        <v>46053</v>
       </c>
       <c r="C251" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D251" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B252">
-        <v>45442</v>
+        <v>46053</v>
       </c>
       <c r="C252" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D252" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B253">
-        <v>45442</v>
+        <v>46053</v>
       </c>
       <c r="C253" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D253" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B254">
-        <v>46095</v>
+        <v>46053</v>
       </c>
       <c r="C254" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D254" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B255">
-        <v>46095</v>
+        <v>46053</v>
       </c>
       <c r="C255" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D255" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -4375,69 +4426,69 @@
         <v>17</v>
       </c>
       <c r="B256">
-        <v>46095</v>
+        <v>46053</v>
       </c>
       <c r="C256" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D256" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B257">
-        <v>46095</v>
+        <v>46053</v>
       </c>
       <c r="C257" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D257" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B258">
-        <v>45703</v>
+        <v>46053</v>
       </c>
       <c r="C258" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D258" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B259">
-        <v>45616</v>
+        <v>46053</v>
       </c>
       <c r="C259" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D259" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B260">
-        <v>45620</v>
+        <v>46053</v>
       </c>
       <c r="C260" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D260" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4445,13 +4496,13 @@
         <v>19</v>
       </c>
       <c r="B261">
-        <v>45620</v>
+        <v>46021</v>
       </c>
       <c r="C261" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D261" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4459,363 +4510,363 @@
         <v>18</v>
       </c>
       <c r="B262">
-        <v>45620</v>
+        <v>46021</v>
       </c>
       <c r="C262" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D262" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B263">
-        <v>45620</v>
+        <v>45599</v>
       </c>
       <c r="C263" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D263" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B264">
-        <v>45620</v>
+        <v>45599</v>
       </c>
       <c r="C264" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D264" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B265">
-        <v>45620</v>
+        <v>45599</v>
       </c>
       <c r="C265" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D265" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B266">
-        <v>45620</v>
+        <v>45599</v>
       </c>
       <c r="C266" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D266" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B267">
-        <v>45619</v>
+        <v>45243</v>
       </c>
       <c r="C267" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D267" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B268">
-        <v>45619</v>
+        <v>45243</v>
       </c>
       <c r="C268" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D268" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B269">
-        <v>45619</v>
+        <v>45466</v>
       </c>
       <c r="C269" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D269" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B270">
-        <v>45619</v>
+        <v>45466</v>
       </c>
       <c r="C270" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D270" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B271">
-        <v>45619</v>
+        <v>45466</v>
       </c>
       <c r="C271" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D271" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B272">
-        <v>45619</v>
+        <v>45466</v>
       </c>
       <c r="C272" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D272" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B273">
-        <v>45619</v>
+        <v>45466</v>
       </c>
       <c r="C273" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D273" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B274">
-        <v>45989</v>
+        <v>45466</v>
       </c>
       <c r="C274" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D274" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B275">
-        <v>45496</v>
+        <v>45466</v>
       </c>
       <c r="C275" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D275" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B276">
-        <v>45496</v>
+        <v>45466</v>
       </c>
       <c r="C276" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D276" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B277">
-        <v>45537</v>
+        <v>45534</v>
       </c>
       <c r="C277" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D277" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B278">
-        <v>45537</v>
+        <v>45534</v>
       </c>
       <c r="C278" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D278" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B279">
-        <v>45537</v>
+        <v>45534</v>
       </c>
       <c r="C279" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D279" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B280">
-        <v>45537</v>
+        <v>45947</v>
       </c>
       <c r="C280" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D280" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B281">
-        <v>45296</v>
+        <v>45825</v>
       </c>
       <c r="C281" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D281" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B282">
-        <v>45137</v>
+        <v>45245</v>
       </c>
       <c r="C282" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D282" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B283">
-        <v>45519</v>
+        <v>45245</v>
       </c>
       <c r="C283" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D283" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B284">
-        <v>45516</v>
+        <v>45245</v>
       </c>
       <c r="C284" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D284" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B285">
-        <v>45516</v>
+        <v>45245</v>
       </c>
       <c r="C285" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D285" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B286">
-        <v>45516</v>
+        <v>45535</v>
       </c>
       <c r="C286" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D286" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B287">
-        <v>45472</v>
+        <v>45535</v>
       </c>
       <c r="C287" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D287" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -4823,13 +4874,713 @@
         <v>6</v>
       </c>
       <c r="B288">
+        <v>40207</v>
+      </c>
+      <c r="C288" t="s">
+        <v>119</v>
+      </c>
+      <c r="D288" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" t="s">
+        <v>8</v>
+      </c>
+      <c r="B289">
+        <v>40207</v>
+      </c>
+      <c r="C289" t="s">
+        <v>119</v>
+      </c>
+      <c r="D289" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" t="s">
+        <v>18</v>
+      </c>
+      <c r="B290">
+        <v>45247</v>
+      </c>
+      <c r="C290" t="s">
+        <v>120</v>
+      </c>
+      <c r="D290" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" t="s">
+        <v>11</v>
+      </c>
+      <c r="B291">
+        <v>45570</v>
+      </c>
+      <c r="C291" t="s">
+        <v>121</v>
+      </c>
+      <c r="D291" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" t="s">
+        <v>17</v>
+      </c>
+      <c r="B292">
+        <v>45570</v>
+      </c>
+      <c r="C292" t="s">
+        <v>121</v>
+      </c>
+      <c r="D292" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" t="s">
+        <v>9</v>
+      </c>
+      <c r="B293">
+        <v>45570</v>
+      </c>
+      <c r="C293" t="s">
+        <v>121</v>
+      </c>
+      <c r="D293" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" t="s">
+        <v>11</v>
+      </c>
+      <c r="B294">
+        <v>45611</v>
+      </c>
+      <c r="C294" t="s">
+        <v>122</v>
+      </c>
+      <c r="D294" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" t="s">
+        <v>20</v>
+      </c>
+      <c r="B295">
+        <v>45611</v>
+      </c>
+      <c r="C295" t="s">
+        <v>122</v>
+      </c>
+      <c r="D295" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" t="s">
+        <v>9</v>
+      </c>
+      <c r="B296">
+        <v>45611</v>
+      </c>
+      <c r="C296" t="s">
+        <v>122</v>
+      </c>
+      <c r="D296" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" t="s">
+        <v>8</v>
+      </c>
+      <c r="B297">
+        <v>45442</v>
+      </c>
+      <c r="C297" t="s">
+        <v>123</v>
+      </c>
+      <c r="D297" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" t="s">
+        <v>8</v>
+      </c>
+      <c r="B298">
+        <v>45442</v>
+      </c>
+      <c r="C298" t="s">
+        <v>123</v>
+      </c>
+      <c r="D298" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" t="s">
+        <v>18</v>
+      </c>
+      <c r="B299">
+        <v>45442</v>
+      </c>
+      <c r="C299" t="s">
+        <v>123</v>
+      </c>
+      <c r="D299" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" t="s">
+        <v>11</v>
+      </c>
+      <c r="B300">
+        <v>46095</v>
+      </c>
+      <c r="C300" t="s">
+        <v>124</v>
+      </c>
+      <c r="D300" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" t="s">
+        <v>10</v>
+      </c>
+      <c r="B301">
+        <v>46095</v>
+      </c>
+      <c r="C301" t="s">
+        <v>124</v>
+      </c>
+      <c r="D301" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" t="s">
+        <v>7</v>
+      </c>
+      <c r="B302">
+        <v>46095</v>
+      </c>
+      <c r="C302" t="s">
+        <v>124</v>
+      </c>
+      <c r="D302" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" t="s">
+        <v>9</v>
+      </c>
+      <c r="B303">
+        <v>46095</v>
+      </c>
+      <c r="C303" t="s">
+        <v>124</v>
+      </c>
+      <c r="D303" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" t="s">
+        <v>17</v>
+      </c>
+      <c r="B304">
+        <v>46095</v>
+      </c>
+      <c r="C304" t="s">
+        <v>124</v>
+      </c>
+      <c r="D304" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" t="s">
+        <v>20</v>
+      </c>
+      <c r="B305">
+        <v>46095</v>
+      </c>
+      <c r="C305" t="s">
+        <v>124</v>
+      </c>
+      <c r="D305" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" t="s">
+        <v>16</v>
+      </c>
+      <c r="B306">
+        <v>45703</v>
+      </c>
+      <c r="C306" t="s">
+        <v>125</v>
+      </c>
+      <c r="D306" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" t="s">
+        <v>16</v>
+      </c>
+      <c r="B307">
+        <v>45616</v>
+      </c>
+      <c r="C307" t="s">
+        <v>126</v>
+      </c>
+      <c r="D307" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" t="s">
+        <v>15</v>
+      </c>
+      <c r="B308">
+        <v>45620</v>
+      </c>
+      <c r="C308" t="s">
+        <v>127</v>
+      </c>
+      <c r="D308" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" t="s">
+        <v>24</v>
+      </c>
+      <c r="B309">
+        <v>45620</v>
+      </c>
+      <c r="C309" t="s">
+        <v>127</v>
+      </c>
+      <c r="D309" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" t="s">
+        <v>23</v>
+      </c>
+      <c r="B310">
+        <v>45620</v>
+      </c>
+      <c r="C310" t="s">
+        <v>127</v>
+      </c>
+      <c r="D310" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" t="s">
+        <v>22</v>
+      </c>
+      <c r="B311">
+        <v>45620</v>
+      </c>
+      <c r="C311" t="s">
+        <v>127</v>
+      </c>
+      <c r="D311" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" t="s">
+        <v>5</v>
+      </c>
+      <c r="B312">
+        <v>45620</v>
+      </c>
+      <c r="C312" t="s">
+        <v>127</v>
+      </c>
+      <c r="D312" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" t="s">
+        <v>14</v>
+      </c>
+      <c r="B313">
+        <v>45620</v>
+      </c>
+      <c r="C313" t="s">
+        <v>127</v>
+      </c>
+      <c r="D313" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" t="s">
+        <v>21</v>
+      </c>
+      <c r="B314">
+        <v>45620</v>
+      </c>
+      <c r="C314" t="s">
+        <v>127</v>
+      </c>
+      <c r="D314" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" t="s">
+        <v>15</v>
+      </c>
+      <c r="B315">
+        <v>45619</v>
+      </c>
+      <c r="C315" t="s">
+        <v>128</v>
+      </c>
+      <c r="D315" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" t="s">
+        <v>22</v>
+      </c>
+      <c r="B316">
+        <v>45619</v>
+      </c>
+      <c r="C316" t="s">
+        <v>128</v>
+      </c>
+      <c r="D316" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" t="s">
+        <v>21</v>
+      </c>
+      <c r="B317">
+        <v>45619</v>
+      </c>
+      <c r="C317" t="s">
+        <v>128</v>
+      </c>
+      <c r="D317" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" t="s">
+        <v>14</v>
+      </c>
+      <c r="B318">
+        <v>45619</v>
+      </c>
+      <c r="C318" t="s">
+        <v>128</v>
+      </c>
+      <c r="D318" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" t="s">
+        <v>23</v>
+      </c>
+      <c r="B319">
+        <v>45619</v>
+      </c>
+      <c r="C319" t="s">
+        <v>128</v>
+      </c>
+      <c r="D319" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" t="s">
+        <v>24</v>
+      </c>
+      <c r="B320">
+        <v>45619</v>
+      </c>
+      <c r="C320" t="s">
+        <v>128</v>
+      </c>
+      <c r="D320" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" t="s">
+        <v>5</v>
+      </c>
+      <c r="B321">
+        <v>45619</v>
+      </c>
+      <c r="C321" t="s">
+        <v>128</v>
+      </c>
+      <c r="D321" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" t="s">
+        <v>13</v>
+      </c>
+      <c r="B322">
+        <v>45114</v>
+      </c>
+      <c r="C322" t="s">
+        <v>129</v>
+      </c>
+      <c r="D322" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" t="s">
+        <v>12</v>
+      </c>
+      <c r="B323">
+        <v>45989</v>
+      </c>
+      <c r="C323" t="s">
+        <v>130</v>
+      </c>
+      <c r="D323" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" t="s">
+        <v>19</v>
+      </c>
+      <c r="B324">
+        <v>45496</v>
+      </c>
+      <c r="C324" t="s">
+        <v>131</v>
+      </c>
+      <c r="D324" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" t="s">
+        <v>18</v>
+      </c>
+      <c r="B325">
+        <v>45496</v>
+      </c>
+      <c r="C325" t="s">
+        <v>131</v>
+      </c>
+      <c r="D325" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" t="s">
+        <v>24</v>
+      </c>
+      <c r="B326">
+        <v>45537</v>
+      </c>
+      <c r="C326" t="s">
+        <v>132</v>
+      </c>
+      <c r="D326" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" t="s">
+        <v>21</v>
+      </c>
+      <c r="B327">
+        <v>45537</v>
+      </c>
+      <c r="C327" t="s">
+        <v>132</v>
+      </c>
+      <c r="D327" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" t="s">
+        <v>23</v>
+      </c>
+      <c r="B328">
+        <v>45537</v>
+      </c>
+      <c r="C328" t="s">
+        <v>132</v>
+      </c>
+      <c r="D328" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" t="s">
+        <v>22</v>
+      </c>
+      <c r="B329">
+        <v>45537</v>
+      </c>
+      <c r="C329" t="s">
+        <v>132</v>
+      </c>
+      <c r="D329" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" t="s">
+        <v>20</v>
+      </c>
+      <c r="B330">
+        <v>45296</v>
+      </c>
+      <c r="C330" t="s">
+        <v>133</v>
+      </c>
+      <c r="D330" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" t="s">
+        <v>18</v>
+      </c>
+      <c r="B331">
+        <v>45137</v>
+      </c>
+      <c r="C331" t="s">
+        <v>134</v>
+      </c>
+      <c r="D331" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" t="s">
+        <v>16</v>
+      </c>
+      <c r="B332">
+        <v>45519</v>
+      </c>
+      <c r="C332" t="s">
+        <v>135</v>
+      </c>
+      <c r="D332" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" t="s">
+        <v>7</v>
+      </c>
+      <c r="B333">
+        <v>45516</v>
+      </c>
+      <c r="C333" t="s">
+        <v>136</v>
+      </c>
+      <c r="D333" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" t="s">
+        <v>20</v>
+      </c>
+      <c r="B334">
+        <v>45516</v>
+      </c>
+      <c r="C334" t="s">
+        <v>136</v>
+      </c>
+      <c r="D334" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" t="s">
+        <v>20</v>
+      </c>
+      <c r="B335">
+        <v>45516</v>
+      </c>
+      <c r="C335" t="s">
+        <v>136</v>
+      </c>
+      <c r="D335" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" t="s">
+        <v>8</v>
+      </c>
+      <c r="B336">
         <v>45472</v>
       </c>
-      <c r="C288" t="s">
-        <v>124</v>
-      </c>
-      <c r="D288" t="s">
-        <v>125</v>
+      <c r="C336" t="s">
+        <v>137</v>
+      </c>
+      <c r="D336" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" t="s">
+        <v>7</v>
+      </c>
+      <c r="B337">
+        <v>45472</v>
+      </c>
+      <c r="C337" t="s">
+        <v>137</v>
+      </c>
+      <c r="D337" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" t="s">
+        <v>13</v>
+      </c>
+      <c r="B338">
+        <v>45470</v>
+      </c>
+      <c r="C338" t="s">
+        <v>138</v>
+      </c>
+      <c r="D338" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="158">
   <si>
     <t>player</t>
   </si>
@@ -43,51 +43,54 @@
     <t>Iryastra</t>
   </si>
   <si>
+    <t>Nweysa</t>
+  </si>
+  <si>
+    <t>Drikato</t>
+  </si>
+  <si>
     <t>Csamain</t>
   </si>
   <si>
-    <t>Nweysa</t>
-  </si>
-  <si>
-    <t>Drikato</t>
-  </si>
-  <si>
     <t>Aelvå</t>
   </si>
   <si>
     <t>Wølafi</t>
   </si>
   <si>
+    <t>Euphemià</t>
+  </si>
+  <si>
+    <t>Lupusreginä</t>
+  </si>
+  <si>
     <t>Warloquë</t>
   </si>
   <si>
-    <t>Euphemià</t>
-  </si>
-  <si>
     <t>Skotia</t>
   </si>
   <si>
     <t>Dimoncello</t>
   </si>
   <si>
+    <t>Ninnah</t>
+  </si>
+  <si>
     <t>Queriss</t>
   </si>
   <si>
-    <t>Ninnah</t>
-  </si>
-  <si>
     <t>Nordton</t>
   </si>
   <si>
     <t>Pyrobifle</t>
   </si>
   <si>
+    <t>Pamage</t>
+  </si>
+  <si>
     <t>Ørly</t>
   </si>
   <si>
-    <t>Pamage</t>
-  </si>
-  <si>
     <t>Hedra</t>
   </si>
   <si>
@@ -460,13 +463,13 @@
     <t>8</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>P1</t>
   </si>
   <si>
     <t>PvP</t>
-  </si>
-  <si>
-    <t>9</t>
   </si>
   <si>
     <t>10</t>
@@ -842,7 +845,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E338"/>
+  <dimension ref="A1:E355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -873,10 +876,10 @@
         <v>46068</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -887,10 +890,10 @@
         <v>45663</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -901,10 +904,10 @@
         <v>45663</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -915,10 +918,10 @@
         <v>45663</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -929,10 +932,10 @@
         <v>46048</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -943,10 +946,10 @@
         <v>46048</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -957,10 +960,10 @@
         <v>46048</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -971,10 +974,10 @@
         <v>45241</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -985,10 +988,10 @@
         <v>45241</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -999,10 +1002,10 @@
         <v>45553</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1013,10 +1016,10 @@
         <v>45151</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1027,10 +1030,10 @@
         <v>45460</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1041,38 +1044,38 @@
         <v>45460</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>45484</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>45484</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1083,38 +1086,38 @@
         <v>45484</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B18">
         <v>45135</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>45135</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1125,10 +1128,10 @@
         <v>45135</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1139,35 +1142,35 @@
         <v>45135</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B22">
-        <v>45610</v>
+        <v>45135</v>
       </c>
       <c r="C22" t="s">
         <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23">
         <v>45610</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
         <v>140</v>
@@ -1175,30 +1178,30 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24">
-        <v>45867</v>
+        <v>45610</v>
       </c>
       <c r="C24" t="s">
         <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B25">
-        <v>46039</v>
+        <v>45867</v>
       </c>
       <c r="C25" t="s">
         <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1209,7 +1212,7 @@
         <v>46039</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
         <v>140</v>
@@ -1217,27 +1220,27 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B27">
-        <v>45632</v>
+        <v>46039</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B28">
         <v>45632</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
         <v>140</v>
@@ -1245,86 +1248,86 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B29">
-        <v>45633</v>
+        <v>45632</v>
       </c>
       <c r="C29" t="s">
         <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B30">
-        <v>45633</v>
+        <v>45632</v>
       </c>
       <c r="C30" t="s">
         <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B31">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C31" t="s">
         <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B32">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33">
         <v>45634</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>45634</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1335,80 +1338,80 @@
         <v>45634</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B36">
         <v>45634</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B37">
         <v>45634</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B38">
-        <v>45485</v>
+        <v>45634</v>
       </c>
       <c r="C38" t="s">
         <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B39">
-        <v>45485</v>
+        <v>45634</v>
       </c>
       <c r="C39" t="s">
         <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B40">
-        <v>45587</v>
+        <v>45485</v>
       </c>
       <c r="C40" t="s">
         <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1416,41 +1419,41 @@
         <v>19</v>
       </c>
       <c r="B41">
-        <v>45587</v>
+        <v>45485</v>
       </c>
       <c r="C41" t="s">
         <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B42">
-        <v>46097</v>
+        <v>45587</v>
       </c>
       <c r="C42" t="s">
         <v>42</v>
       </c>
       <c r="D42" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B43">
-        <v>46097</v>
+        <v>45587</v>
       </c>
       <c r="C43" t="s">
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1461,46 +1464,46 @@
         <v>46097</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B45">
-        <v>45443</v>
+        <v>46097</v>
       </c>
       <c r="C45" t="s">
         <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B46">
-        <v>45609</v>
+        <v>46097</v>
       </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D46" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B47">
-        <v>45609</v>
+        <v>45443</v>
       </c>
       <c r="C47" t="s">
         <v>44</v>
@@ -1511,220 +1514,220 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B48">
         <v>45609</v>
       </c>
       <c r="C48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B49">
         <v>45609</v>
       </c>
       <c r="C49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D49" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B50">
         <v>45609</v>
       </c>
       <c r="C50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D50" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B51">
         <v>45609</v>
       </c>
       <c r="C51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B52">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C52" t="s">
         <v>45</v>
       </c>
       <c r="D52" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B53">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C53" t="s">
         <v>45</v>
       </c>
       <c r="D53" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B54">
         <v>45495</v>
       </c>
       <c r="C54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B55">
         <v>45495</v>
       </c>
       <c r="C55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D55" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B56">
         <v>45495</v>
       </c>
       <c r="C56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D56" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B57">
         <v>45495</v>
       </c>
       <c r="C57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B58">
         <v>45495</v>
       </c>
       <c r="C58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B59">
         <v>45495</v>
       </c>
       <c r="C59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B60">
-        <v>45612</v>
+        <v>45495</v>
       </c>
       <c r="C60" t="s">
         <v>46</v>
       </c>
       <c r="D60" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B61">
-        <v>45612</v>
+        <v>45495</v>
       </c>
       <c r="C61" t="s">
         <v>46</v>
       </c>
       <c r="D61" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B62">
-        <v>45617</v>
+        <v>45495</v>
       </c>
       <c r="C62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D62" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B63">
-        <v>45617</v>
+        <v>45612</v>
       </c>
       <c r="C63" t="s">
         <v>47</v>
@@ -1735,10 +1738,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B64">
-        <v>45617</v>
+        <v>45612</v>
       </c>
       <c r="C64" t="s">
         <v>47</v>
@@ -1755,332 +1758,332 @@
         <v>45617</v>
       </c>
       <c r="C65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D65" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B66">
         <v>45617</v>
       </c>
       <c r="C66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D66" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B67">
         <v>45617</v>
       </c>
       <c r="C67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D67" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B68">
         <v>45617</v>
       </c>
       <c r="C68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D68" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B69">
-        <v>45250</v>
+        <v>45617</v>
       </c>
       <c r="C69" t="s">
         <v>48</v>
       </c>
       <c r="D69" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B70">
-        <v>45497</v>
+        <v>45617</v>
       </c>
       <c r="C70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D70" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B71">
-        <v>45497</v>
+        <v>45617</v>
       </c>
       <c r="C71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D71" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B72">
-        <v>45497</v>
+        <v>45617</v>
       </c>
       <c r="C72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D72" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B73">
-        <v>45638</v>
+        <v>45250</v>
       </c>
       <c r="C73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D73" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B74">
-        <v>45639</v>
+        <v>45497</v>
       </c>
       <c r="C74" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D74" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B75">
-        <v>45639</v>
+        <v>45497</v>
       </c>
       <c r="C75" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D75" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B76">
-        <v>45639</v>
+        <v>45497</v>
       </c>
       <c r="C76" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D76" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B77">
-        <v>45640</v>
+        <v>45638</v>
       </c>
       <c r="C77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D77" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B78">
-        <v>45640</v>
+        <v>45638</v>
       </c>
       <c r="C78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D78" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B79">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="C79" t="s">
         <v>52</v>
       </c>
       <c r="D79" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B80">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="C80" t="s">
         <v>52</v>
       </c>
       <c r="D80" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B81">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="C81" t="s">
         <v>52</v>
       </c>
       <c r="D81" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B82">
         <v>45640</v>
       </c>
       <c r="C82" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D82" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B83">
         <v>45640</v>
       </c>
       <c r="C83" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D83" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B84">
         <v>45640</v>
       </c>
       <c r="C84" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D84" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B85">
-        <v>46038</v>
+        <v>45640</v>
       </c>
       <c r="C85" t="s">
         <v>53</v>
       </c>
       <c r="D85" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B86">
-        <v>46038</v>
+        <v>45640</v>
       </c>
       <c r="C86" t="s">
         <v>53</v>
       </c>
       <c r="D86" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B87">
-        <v>46038</v>
+        <v>45640</v>
       </c>
       <c r="C87" t="s">
         <v>53</v>
       </c>
       <c r="D87" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B88">
-        <v>46038</v>
+        <v>45640</v>
       </c>
       <c r="C88" t="s">
         <v>53</v>
       </c>
       <c r="D88" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2088,10 +2091,10 @@
         <v>6</v>
       </c>
       <c r="B89">
-        <v>42987</v>
+        <v>45640</v>
       </c>
       <c r="C89" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D89" t="s">
         <v>148</v>
@@ -2099,44 +2102,44 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B90">
-        <v>42987</v>
+        <v>46038</v>
       </c>
       <c r="C90" t="s">
         <v>54</v>
       </c>
       <c r="D90" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B91">
-        <v>42987</v>
+        <v>46038</v>
       </c>
       <c r="C91" t="s">
         <v>54</v>
       </c>
       <c r="D91" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B92">
-        <v>42987</v>
+        <v>46038</v>
       </c>
       <c r="C92" t="s">
         <v>54</v>
       </c>
       <c r="D92" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2144,94 +2147,94 @@
         <v>18</v>
       </c>
       <c r="B93">
-        <v>45139</v>
+        <v>46038</v>
       </c>
       <c r="C93" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D93" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B94">
-        <v>45461</v>
+        <v>42987</v>
       </c>
       <c r="C94" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D94" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B95">
-        <v>45461</v>
+        <v>42987</v>
       </c>
       <c r="C95" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D95" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B96">
-        <v>45461</v>
+        <v>42987</v>
       </c>
       <c r="C96" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D96" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B97">
-        <v>45461</v>
+        <v>42987</v>
       </c>
       <c r="C97" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D97" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B98">
-        <v>45242</v>
+        <v>44253</v>
       </c>
       <c r="C98" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D98" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B99">
-        <v>45242</v>
+        <v>45139</v>
       </c>
       <c r="C99" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D99" t="s">
         <v>140</v>
@@ -2239,212 +2242,212 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B100">
-        <v>45242</v>
+        <v>45461</v>
       </c>
       <c r="C100" t="s">
         <v>57</v>
       </c>
       <c r="D100" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B101">
-        <v>45242</v>
+        <v>45461</v>
       </c>
       <c r="C101" t="s">
         <v>57</v>
       </c>
       <c r="D101" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B102">
-        <v>46032</v>
+        <v>45461</v>
       </c>
       <c r="C102" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D102" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B103">
-        <v>46032</v>
+        <v>45461</v>
       </c>
       <c r="C103" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D103" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B104">
-        <v>46032</v>
+        <v>45242</v>
       </c>
       <c r="C104" t="s">
         <v>58</v>
       </c>
       <c r="D104" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B105">
-        <v>46032</v>
+        <v>45242</v>
       </c>
       <c r="C105" t="s">
         <v>58</v>
       </c>
       <c r="D105" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B106">
-        <v>45486</v>
+        <v>45242</v>
       </c>
       <c r="C106" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D106" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B107">
-        <v>45613</v>
+        <v>45242</v>
       </c>
       <c r="C107" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D107" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B108">
-        <v>45613</v>
+        <v>45242</v>
       </c>
       <c r="C108" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D108" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B109">
-        <v>45473</v>
+        <v>46032</v>
       </c>
       <c r="C109" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D109" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B110">
-        <v>45473</v>
+        <v>46032</v>
       </c>
       <c r="C110" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D110" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B111">
-        <v>45473</v>
+        <v>46032</v>
       </c>
       <c r="C111" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D111" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B112">
-        <v>45473</v>
+        <v>46032</v>
       </c>
       <c r="C112" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D112" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B113">
-        <v>45473</v>
+        <v>45486</v>
       </c>
       <c r="C113" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D113" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B114">
-        <v>45471</v>
+        <v>45613</v>
       </c>
       <c r="C114" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D114" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2452,164 +2455,164 @@
         <v>18</v>
       </c>
       <c r="B115">
-        <v>45471</v>
+        <v>45613</v>
       </c>
       <c r="C115" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D115" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B116">
-        <v>45946</v>
+        <v>45473</v>
       </c>
       <c r="C116" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D116" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B117">
-        <v>45518</v>
+        <v>45473</v>
       </c>
       <c r="C117" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D117" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B118">
-        <v>45518</v>
+        <v>45473</v>
       </c>
       <c r="C118" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D118" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B119">
-        <v>45518</v>
+        <v>45473</v>
       </c>
       <c r="C119" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D119" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B120">
-        <v>45518</v>
+        <v>45473</v>
       </c>
       <c r="C120" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D120" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B121">
-        <v>45518</v>
+        <v>45471</v>
       </c>
       <c r="C121" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D121" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B122">
-        <v>45518</v>
+        <v>45471</v>
       </c>
       <c r="C122" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D122" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B123">
-        <v>45518</v>
+        <v>45946</v>
       </c>
       <c r="C123" t="s">
         <v>64</v>
       </c>
       <c r="D123" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B124">
-        <v>45869</v>
+        <v>45518</v>
       </c>
       <c r="C124" t="s">
         <v>65</v>
       </c>
       <c r="D124" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B125">
-        <v>45869</v>
+        <v>45518</v>
       </c>
       <c r="C125" t="s">
         <v>65</v>
       </c>
       <c r="D125" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B126">
-        <v>45564</v>
+        <v>45518</v>
       </c>
       <c r="C126" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D126" t="s">
         <v>142</v>
@@ -2617,265 +2620,265 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B127">
-        <v>45564</v>
+        <v>45518</v>
       </c>
       <c r="C127" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D127" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B128">
-        <v>45564</v>
+        <v>45518</v>
       </c>
       <c r="C128" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D128" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B129">
-        <v>45459</v>
+        <v>45518</v>
       </c>
       <c r="C129" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D129" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B130">
-        <v>45459</v>
+        <v>45518</v>
       </c>
       <c r="C130" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D130" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B131">
-        <v>42853</v>
+        <v>45518</v>
       </c>
       <c r="C131" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D131" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B132">
-        <v>42608</v>
+        <v>45869</v>
       </c>
       <c r="C132" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D132" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B133">
-        <v>45481</v>
+        <v>45869</v>
       </c>
       <c r="C133" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D133" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B134">
-        <v>45642</v>
+        <v>45564</v>
       </c>
       <c r="C134" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D134" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B135">
-        <v>45642</v>
+        <v>45564</v>
       </c>
       <c r="C135" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D135" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B136">
-        <v>45642</v>
+        <v>45564</v>
       </c>
       <c r="C136" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D136" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B137">
-        <v>45643</v>
+        <v>45459</v>
       </c>
       <c r="C137" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D137" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B138">
-        <v>45643</v>
+        <v>45459</v>
       </c>
       <c r="C138" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D138" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B139">
-        <v>45643</v>
+        <v>42853</v>
       </c>
       <c r="C139" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D139" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B140">
-        <v>45643</v>
+        <v>42608</v>
       </c>
       <c r="C140" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D140" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B141">
-        <v>46043</v>
+        <v>45481</v>
       </c>
       <c r="C141" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D141" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B142">
-        <v>45444</v>
+        <v>45642</v>
       </c>
       <c r="C142" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D142" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B143">
-        <v>45444</v>
+        <v>45642</v>
       </c>
       <c r="C143" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D143" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B144">
-        <v>45132</v>
+        <v>45642</v>
       </c>
       <c r="C144" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D144" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B145">
-        <v>45132</v>
+        <v>45643</v>
       </c>
       <c r="C145" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D145" t="s">
         <v>140</v>
@@ -2883,293 +2886,293 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B146">
-        <v>45446</v>
+        <v>45643</v>
       </c>
       <c r="C146" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D146" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B147">
-        <v>45446</v>
+        <v>45643</v>
       </c>
       <c r="C147" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D147" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B148">
-        <v>45446</v>
+        <v>45643</v>
       </c>
       <c r="C148" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D148" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B149">
-        <v>45446</v>
+        <v>46043</v>
       </c>
       <c r="C149" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D149" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B150">
-        <v>45446</v>
+        <v>45444</v>
       </c>
       <c r="C150" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D150" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B151">
-        <v>45446</v>
+        <v>45444</v>
       </c>
       <c r="C151" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D151" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B152">
-        <v>45446</v>
+        <v>45132</v>
       </c>
       <c r="C152" t="s">
         <v>76</v>
       </c>
       <c r="D152" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B153">
-        <v>45446</v>
+        <v>45132</v>
       </c>
       <c r="C153" t="s">
         <v>76</v>
       </c>
       <c r="D153" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B154">
-        <v>45244</v>
+        <v>45446</v>
       </c>
       <c r="C154" t="s">
         <v>77</v>
       </c>
       <c r="D154" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B155">
-        <v>45988</v>
+        <v>45446</v>
       </c>
       <c r="C155" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D155" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B156">
-        <v>45988</v>
+        <v>45446</v>
       </c>
       <c r="C156" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D156" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B157">
-        <v>45487</v>
+        <v>45446</v>
       </c>
       <c r="C157" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D157" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B158">
-        <v>45487</v>
+        <v>45446</v>
       </c>
       <c r="C158" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D158" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B159">
-        <v>45158</v>
+        <v>45446</v>
       </c>
       <c r="C159" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D159" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B160">
-        <v>45158</v>
+        <v>45446</v>
       </c>
       <c r="C160" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D160" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B161">
-        <v>45886</v>
+        <v>45446</v>
       </c>
       <c r="C161" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D161" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B162">
-        <v>40342</v>
+        <v>45446</v>
       </c>
       <c r="C162" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D162" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B163">
-        <v>40713</v>
+        <v>45244</v>
       </c>
       <c r="C163" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D163" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B164">
-        <v>40321</v>
+        <v>45988</v>
       </c>
       <c r="C164" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D164" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B165">
-        <v>45488</v>
+        <v>45988</v>
       </c>
       <c r="C165" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D165" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B166">
-        <v>45488</v>
+        <v>45487</v>
       </c>
       <c r="C166" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D166" t="s">
         <v>140</v>
@@ -3177,27 +3180,27 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B167">
-        <v>45536</v>
+        <v>45487</v>
       </c>
       <c r="C167" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D167" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B168">
-        <v>45536</v>
+        <v>45158</v>
       </c>
       <c r="C168" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D168" t="s">
         <v>140</v>
@@ -3205,13 +3208,13 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B169">
-        <v>45536</v>
+        <v>45158</v>
       </c>
       <c r="C169" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D169" t="s">
         <v>141</v>
@@ -3222,94 +3225,94 @@
         <v>17</v>
       </c>
       <c r="B170">
-        <v>45536</v>
+        <v>45886</v>
       </c>
       <c r="C170" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D170" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B171">
-        <v>45536</v>
+        <v>40342</v>
       </c>
       <c r="C171" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D171" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B172">
-        <v>45594</v>
+        <v>40713</v>
       </c>
       <c r="C172" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D172" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B173">
-        <v>45594</v>
+        <v>40321</v>
       </c>
       <c r="C173" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D173" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B174">
-        <v>45653</v>
+        <v>45488</v>
       </c>
       <c r="C174" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D174" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B175">
-        <v>45654</v>
+        <v>45488</v>
       </c>
       <c r="C175" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D175" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B176">
-        <v>45654</v>
+        <v>45536</v>
       </c>
       <c r="C176" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D176" t="s">
         <v>140</v>
@@ -3317,72 +3320,72 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B177">
-        <v>45655</v>
+        <v>45536</v>
       </c>
       <c r="C177" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D177" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B178">
-        <v>45655</v>
+        <v>45536</v>
       </c>
       <c r="C178" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D178" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B179">
-        <v>45655</v>
+        <v>45536</v>
       </c>
       <c r="C179" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D179" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B180">
-        <v>45655</v>
+        <v>45536</v>
       </c>
       <c r="C180" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D180" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B181">
-        <v>45655</v>
+        <v>45594</v>
       </c>
       <c r="C181" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D181" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3390,150 +3393,150 @@
         <v>19</v>
       </c>
       <c r="B182">
-        <v>45145</v>
+        <v>45594</v>
       </c>
       <c r="C182" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D182" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B183">
-        <v>45456</v>
+        <v>45653</v>
       </c>
       <c r="C183" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D183" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B184">
-        <v>45300</v>
+        <v>45653</v>
       </c>
       <c r="C184" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D184" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B185">
-        <v>45656</v>
+        <v>45654</v>
       </c>
       <c r="C185" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D185" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B186">
-        <v>45656</v>
+        <v>45654</v>
       </c>
       <c r="C186" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D186" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B187">
-        <v>45657</v>
+        <v>45655</v>
       </c>
       <c r="C187" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D187" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B188">
-        <v>45657</v>
+        <v>45655</v>
       </c>
       <c r="C188" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D188" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B189">
-        <v>45657</v>
+        <v>45655</v>
       </c>
       <c r="C189" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D189" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B190">
-        <v>45657</v>
+        <v>45655</v>
       </c>
       <c r="C190" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D190" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B191">
-        <v>45658</v>
+        <v>45655</v>
       </c>
       <c r="C191" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D191" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B192">
-        <v>45658</v>
+        <v>45145</v>
       </c>
       <c r="C192" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D192" t="s">
         <v>140</v>
@@ -3541,30 +3544,30 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B193">
-        <v>45658</v>
+        <v>45456</v>
       </c>
       <c r="C193" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D193" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B194">
-        <v>45658</v>
+        <v>45300</v>
       </c>
       <c r="C194" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D194" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3572,13 +3575,13 @@
         <v>15</v>
       </c>
       <c r="B195">
-        <v>45658</v>
+        <v>45656</v>
       </c>
       <c r="C195" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D195" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3586,279 +3589,279 @@
         <v>16</v>
       </c>
       <c r="B196">
-        <v>45658</v>
+        <v>45656</v>
       </c>
       <c r="C196" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D196" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B197">
-        <v>45658</v>
+        <v>45656</v>
       </c>
       <c r="C197" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D197" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B198">
-        <v>45658</v>
+        <v>45657</v>
       </c>
       <c r="C198" t="s">
         <v>96</v>
       </c>
       <c r="D198" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B199">
-        <v>45993</v>
+        <v>45657</v>
       </c>
       <c r="C199" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D199" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B200">
-        <v>45111</v>
+        <v>45657</v>
       </c>
       <c r="C200" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D200" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B201">
-        <v>45111</v>
+        <v>45657</v>
       </c>
       <c r="C201" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D201" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B202">
-        <v>45931</v>
+        <v>45658</v>
       </c>
       <c r="C202" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D202" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B203">
-        <v>45931</v>
+        <v>45658</v>
       </c>
       <c r="C203" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D203" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B204">
-        <v>45931</v>
+        <v>45658</v>
       </c>
       <c r="C204" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D204" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B205">
-        <v>45931</v>
+        <v>45658</v>
       </c>
       <c r="C205" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D205" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B206">
-        <v>46046</v>
+        <v>45658</v>
       </c>
       <c r="C206" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D206" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B207">
-        <v>46046</v>
+        <v>45658</v>
       </c>
       <c r="C207" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D207" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B208">
-        <v>46046</v>
+        <v>45658</v>
       </c>
       <c r="C208" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D208" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B209">
-        <v>46046</v>
+        <v>45658</v>
       </c>
       <c r="C209" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D209" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B210">
-        <v>46046</v>
+        <v>45993</v>
       </c>
       <c r="C210" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D210" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B211">
-        <v>46046</v>
+        <v>45111</v>
       </c>
       <c r="C211" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D211" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B212">
-        <v>46046</v>
+        <v>45111</v>
       </c>
       <c r="C212" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D212" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B213">
-        <v>46046</v>
+        <v>45931</v>
       </c>
       <c r="C213" t="s">
         <v>100</v>
       </c>
       <c r="D213" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B214">
-        <v>45133</v>
+        <v>45931</v>
       </c>
       <c r="C214" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D214" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B215">
-        <v>45133</v>
+        <v>45931</v>
       </c>
       <c r="C215" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D215" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3866,251 +3869,251 @@
         <v>22</v>
       </c>
       <c r="B216">
-        <v>45133</v>
+        <v>46046</v>
       </c>
       <c r="C216" t="s">
         <v>101</v>
       </c>
       <c r="D216" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B217">
-        <v>45133</v>
+        <v>46046</v>
       </c>
       <c r="C217" t="s">
         <v>101</v>
       </c>
       <c r="D217" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B218">
-        <v>45133</v>
+        <v>46046</v>
       </c>
       <c r="C218" t="s">
         <v>101</v>
       </c>
       <c r="D218" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B219">
-        <v>45933</v>
+        <v>46046</v>
       </c>
       <c r="C219" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D219" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B220">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C220" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D220" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B221">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C221" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D221" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B222">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C222" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D222" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B223">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C223" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D223" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B224">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C224" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D224" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B225">
-        <v>45517</v>
+        <v>45133</v>
       </c>
       <c r="C225" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D225" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B226">
-        <v>45517</v>
+        <v>45133</v>
       </c>
       <c r="C226" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D226" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B227">
-        <v>45294</v>
+        <v>45133</v>
       </c>
       <c r="C227" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D227" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B228">
-        <v>45294</v>
+        <v>45133</v>
       </c>
       <c r="C228" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D228" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B229">
-        <v>45294</v>
+        <v>45133</v>
       </c>
       <c r="C229" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D229" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B230">
-        <v>45294</v>
+        <v>45933</v>
       </c>
       <c r="C230" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D230" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B231">
-        <v>45294</v>
+        <v>45517</v>
       </c>
       <c r="C231" t="s">
         <v>104</v>
       </c>
       <c r="D231" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B232">
-        <v>45294</v>
+        <v>45517</v>
       </c>
       <c r="C232" t="s">
         <v>104</v>
       </c>
       <c r="D232" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B233">
-        <v>45665</v>
+        <v>45517</v>
       </c>
       <c r="C233" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D233" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4118,181 +4121,181 @@
         <v>21</v>
       </c>
       <c r="B234">
-        <v>45665</v>
+        <v>45517</v>
       </c>
       <c r="C234" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D234" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B235">
-        <v>45665</v>
+        <v>45517</v>
       </c>
       <c r="C235" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D235" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B236">
-        <v>45665</v>
+        <v>45517</v>
       </c>
       <c r="C236" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D236" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B237">
-        <v>45665</v>
+        <v>45517</v>
       </c>
       <c r="C237" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D237" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B238">
-        <v>45665</v>
+        <v>45294</v>
       </c>
       <c r="C238" t="s">
         <v>105</v>
       </c>
       <c r="D238" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B239">
-        <v>45665</v>
+        <v>45294</v>
       </c>
       <c r="C239" t="s">
         <v>105</v>
       </c>
       <c r="D239" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B240">
-        <v>45615</v>
+        <v>45294</v>
       </c>
       <c r="C240" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D240" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B241">
-        <v>45134</v>
+        <v>45294</v>
       </c>
       <c r="C241" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D241" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B242">
-        <v>45134</v>
+        <v>45294</v>
       </c>
       <c r="C242" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D242" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B243">
-        <v>45134</v>
+        <v>45294</v>
       </c>
       <c r="C243" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D243" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B244">
-        <v>45326</v>
+        <v>45294</v>
       </c>
       <c r="C244" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D244" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B245">
-        <v>46052</v>
+        <v>45665</v>
       </c>
       <c r="C245" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D245" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B246">
-        <v>46052</v>
+        <v>45665</v>
       </c>
       <c r="C246" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D246" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4300,27 +4303,27 @@
         <v>5</v>
       </c>
       <c r="B247">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C247" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D247" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B248">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C248" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D248" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4328,486 +4331,486 @@
         <v>15</v>
       </c>
       <c r="B249">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C249" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D249" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B250">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C250" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D250" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B251">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C251" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D251" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B252">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C252" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D252" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B253">
-        <v>46053</v>
+        <v>45615</v>
       </c>
       <c r="C253" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D253" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B254">
-        <v>46053</v>
+        <v>45134</v>
       </c>
       <c r="C254" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D254" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B255">
-        <v>46053</v>
+        <v>45134</v>
       </c>
       <c r="C255" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D255" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B256">
-        <v>46053</v>
+        <v>45134</v>
       </c>
       <c r="C256" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D256" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B257">
-        <v>46053</v>
+        <v>45326</v>
       </c>
       <c r="C257" t="s">
         <v>109</v>
       </c>
       <c r="D257" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B258">
-        <v>46053</v>
+        <v>46052</v>
       </c>
       <c r="C258" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D258" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B259">
-        <v>46053</v>
+        <v>46052</v>
       </c>
       <c r="C259" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D259" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B260">
         <v>46053</v>
       </c>
       <c r="C260" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D260" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B261">
-        <v>46021</v>
+        <v>46053</v>
       </c>
       <c r="C261" t="s">
         <v>110</v>
       </c>
       <c r="D261" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B262">
-        <v>46021</v>
+        <v>46053</v>
       </c>
       <c r="C262" t="s">
         <v>110</v>
       </c>
       <c r="D262" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B263">
-        <v>45599</v>
+        <v>46053</v>
       </c>
       <c r="C263" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D263" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B264">
-        <v>45599</v>
+        <v>46053</v>
       </c>
       <c r="C264" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D264" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B265">
-        <v>45599</v>
+        <v>46053</v>
       </c>
       <c r="C265" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D265" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B266">
-        <v>45599</v>
+        <v>46053</v>
       </c>
       <c r="C266" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D266" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B267">
-        <v>45243</v>
+        <v>46053</v>
       </c>
       <c r="C267" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D267" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B268">
-        <v>45243</v>
+        <v>46053</v>
       </c>
       <c r="C268" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D268" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B269">
-        <v>45466</v>
+        <v>46053</v>
       </c>
       <c r="C269" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D269" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B270">
-        <v>45466</v>
+        <v>46053</v>
       </c>
       <c r="C270" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D270" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B271">
-        <v>45466</v>
+        <v>46053</v>
       </c>
       <c r="C271" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D271" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B272">
-        <v>45466</v>
+        <v>46053</v>
       </c>
       <c r="C272" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D272" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B273">
-        <v>45466</v>
+        <v>46053</v>
       </c>
       <c r="C273" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D273" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B274">
-        <v>45466</v>
+        <v>46021</v>
       </c>
       <c r="C274" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D274" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B275">
-        <v>45466</v>
+        <v>46021</v>
       </c>
       <c r="C275" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D275" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B276">
-        <v>45466</v>
+        <v>45599</v>
       </c>
       <c r="C276" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D276" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B277">
-        <v>45534</v>
+        <v>45599</v>
       </c>
       <c r="C277" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D277" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B278">
-        <v>45534</v>
+        <v>45599</v>
       </c>
       <c r="C278" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D278" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B279">
-        <v>45534</v>
+        <v>45599</v>
       </c>
       <c r="C279" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D279" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B280">
-        <v>45947</v>
+        <v>45243</v>
       </c>
       <c r="C280" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D280" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B281">
-        <v>45825</v>
+        <v>45243</v>
       </c>
       <c r="C281" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D281" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B282">
-        <v>45245</v>
+        <v>45243</v>
       </c>
       <c r="C282" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D282" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B283">
-        <v>45245</v>
+        <v>45466</v>
       </c>
       <c r="C283" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D283" t="s">
         <v>140</v>
@@ -4815,13 +4818,13 @@
     </row>
     <row r="284" spans="1:4">
       <c r="A284" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B284">
-        <v>45245</v>
+        <v>45466</v>
       </c>
       <c r="C284" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D284" t="s">
         <v>141</v>
@@ -4829,16 +4832,16 @@
     </row>
     <row r="285" spans="1:4">
       <c r="A285" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B285">
-        <v>45245</v>
+        <v>45466</v>
       </c>
       <c r="C285" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D285" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4846,94 +4849,94 @@
         <v>16</v>
       </c>
       <c r="B286">
-        <v>45535</v>
+        <v>45466</v>
       </c>
       <c r="C286" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D286" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B287">
-        <v>45535</v>
+        <v>45466</v>
       </c>
       <c r="C287" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D287" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B288">
-        <v>40207</v>
+        <v>45466</v>
       </c>
       <c r="C288" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D288" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B289">
-        <v>40207</v>
+        <v>45466</v>
       </c>
       <c r="C289" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D289" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B290">
-        <v>45247</v>
+        <v>45466</v>
       </c>
       <c r="C290" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D290" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B291">
-        <v>45570</v>
+        <v>45466</v>
       </c>
       <c r="C291" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D291" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B292">
-        <v>45570</v>
+        <v>45534</v>
       </c>
       <c r="C292" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D292" t="s">
         <v>140</v>
@@ -4941,13 +4944,13 @@
     </row>
     <row r="293" spans="1:4">
       <c r="A293" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B293">
-        <v>45570</v>
+        <v>45534</v>
       </c>
       <c r="C293" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D293" t="s">
         <v>141</v>
@@ -4955,27 +4958,27 @@
     </row>
     <row r="294" spans="1:4">
       <c r="A294" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B294">
-        <v>45611</v>
+        <v>45534</v>
       </c>
       <c r="C294" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D294" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B295">
-        <v>45611</v>
+        <v>45947</v>
       </c>
       <c r="C295" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D295" t="s">
         <v>140</v>
@@ -4983,83 +4986,83 @@
     </row>
     <row r="296" spans="1:4">
       <c r="A296" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B296">
-        <v>45611</v>
+        <v>45825</v>
       </c>
       <c r="C296" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D296" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B297">
-        <v>45442</v>
+        <v>45245</v>
       </c>
       <c r="C297" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D297" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B298">
-        <v>45442</v>
+        <v>45245</v>
       </c>
       <c r="C298" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D298" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B299">
-        <v>45442</v>
+        <v>45245</v>
       </c>
       <c r="C299" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D299" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B300">
-        <v>46095</v>
+        <v>45245</v>
       </c>
       <c r="C300" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D300" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B301">
-        <v>46095</v>
+        <v>45535</v>
       </c>
       <c r="C301" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D301" t="s">
         <v>140</v>
@@ -5067,13 +5070,13 @@
     </row>
     <row r="302" spans="1:4">
       <c r="A302" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B302">
-        <v>46095</v>
+        <v>45535</v>
       </c>
       <c r="C302" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D302" t="s">
         <v>141</v>
@@ -5081,30 +5084,30 @@
     </row>
     <row r="303" spans="1:4">
       <c r="A303" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B303">
-        <v>46095</v>
+        <v>40207</v>
       </c>
       <c r="C303" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D303" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B304">
-        <v>46095</v>
+        <v>40207</v>
       </c>
       <c r="C304" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D304" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -5112,66 +5115,66 @@
         <v>20</v>
       </c>
       <c r="B305">
-        <v>46095</v>
+        <v>45247</v>
       </c>
       <c r="C305" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D305" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B306">
-        <v>45703</v>
+        <v>45570</v>
       </c>
       <c r="C306" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D306" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B307">
-        <v>45616</v>
+        <v>45570</v>
       </c>
       <c r="C307" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D307" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B308">
-        <v>45620</v>
+        <v>45570</v>
       </c>
       <c r="C308" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D308" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B309">
-        <v>45620</v>
+        <v>45611</v>
       </c>
       <c r="C309" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D309" t="s">
         <v>140</v>
@@ -5179,13 +5182,13 @@
     </row>
     <row r="310" spans="1:4">
       <c r="A310" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B310">
-        <v>45620</v>
+        <v>45611</v>
       </c>
       <c r="C310" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D310" t="s">
         <v>141</v>
@@ -5193,394 +5196,632 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B311">
-        <v>45620</v>
+        <v>45611</v>
       </c>
       <c r="C311" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D311" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B312">
-        <v>45620</v>
+        <v>45442</v>
       </c>
       <c r="C312" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D312" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B313">
-        <v>45620</v>
+        <v>45442</v>
       </c>
       <c r="C313" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D313" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B314">
-        <v>45620</v>
+        <v>45442</v>
       </c>
       <c r="C314" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D314" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B315">
-        <v>45619</v>
+        <v>46095</v>
       </c>
       <c r="C315" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D315" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B316">
-        <v>45619</v>
+        <v>46095</v>
       </c>
       <c r="C316" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D316" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B317">
-        <v>45619</v>
+        <v>46095</v>
       </c>
       <c r="C317" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D317" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B318">
-        <v>45619</v>
+        <v>46095</v>
       </c>
       <c r="C318" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D318" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B319">
-        <v>45619</v>
+        <v>46095</v>
       </c>
       <c r="C319" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D319" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B320">
-        <v>45619</v>
+        <v>46095</v>
       </c>
       <c r="C320" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D320" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B321">
-        <v>45619</v>
+        <v>45703</v>
       </c>
       <c r="C321" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D321" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B322">
-        <v>45114</v>
+        <v>45616</v>
       </c>
       <c r="C322" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D322" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B323">
-        <v>45989</v>
+        <v>45620</v>
       </c>
       <c r="C323" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D323" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B324">
-        <v>45496</v>
+        <v>45620</v>
       </c>
       <c r="C324" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D324" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B325">
-        <v>45496</v>
+        <v>45620</v>
       </c>
       <c r="C325" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D325" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B326">
-        <v>45537</v>
+        <v>45620</v>
       </c>
       <c r="C326" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D326" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B327">
-        <v>45537</v>
+        <v>45620</v>
       </c>
       <c r="C327" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D327" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B328">
-        <v>45537</v>
+        <v>45620</v>
       </c>
       <c r="C328" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D328" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B329">
-        <v>45537</v>
+        <v>45620</v>
       </c>
       <c r="C329" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D329" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B330">
-        <v>45296</v>
+        <v>45620</v>
       </c>
       <c r="C330" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D330" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B331">
-        <v>45137</v>
+        <v>45619</v>
       </c>
       <c r="C331" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D331" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B332">
-        <v>45519</v>
+        <v>45619</v>
       </c>
       <c r="C332" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D332" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B333">
-        <v>45516</v>
+        <v>45619</v>
       </c>
       <c r="C333" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D333" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B334">
-        <v>45516</v>
+        <v>45619</v>
       </c>
       <c r="C334" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D334" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B335">
-        <v>45516</v>
+        <v>45619</v>
       </c>
       <c r="C335" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D335" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B336">
-        <v>45472</v>
+        <v>45619</v>
       </c>
       <c r="C336" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D336" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B337">
-        <v>45472</v>
+        <v>45619</v>
       </c>
       <c r="C337" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D337" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" t="s">
+        <v>15</v>
+      </c>
+      <c r="B338">
+        <v>45619</v>
+      </c>
+      <c r="C338" t="s">
+        <v>129</v>
+      </c>
+      <c r="D338" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" t="s">
         <v>13</v>
       </c>
-      <c r="B338">
+      <c r="B339">
+        <v>45114</v>
+      </c>
+      <c r="C339" t="s">
+        <v>130</v>
+      </c>
+      <c r="D339" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" t="s">
+        <v>12</v>
+      </c>
+      <c r="B340">
+        <v>45989</v>
+      </c>
+      <c r="C340" t="s">
+        <v>131</v>
+      </c>
+      <c r="D340" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" t="s">
+        <v>20</v>
+      </c>
+      <c r="B341">
+        <v>45496</v>
+      </c>
+      <c r="C341" t="s">
+        <v>132</v>
+      </c>
+      <c r="D341" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" t="s">
+        <v>19</v>
+      </c>
+      <c r="B342">
+        <v>45496</v>
+      </c>
+      <c r="C342" t="s">
+        <v>132</v>
+      </c>
+      <c r="D342" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" t="s">
+        <v>23</v>
+      </c>
+      <c r="B343">
+        <v>45537</v>
+      </c>
+      <c r="C343" t="s">
+        <v>133</v>
+      </c>
+      <c r="D343" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" t="s">
+        <v>22</v>
+      </c>
+      <c r="B344">
+        <v>45537</v>
+      </c>
+      <c r="C344" t="s">
+        <v>133</v>
+      </c>
+      <c r="D344" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" t="s">
+        <v>25</v>
+      </c>
+      <c r="B345">
+        <v>45537</v>
+      </c>
+      <c r="C345" t="s">
+        <v>133</v>
+      </c>
+      <c r="D345" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" t="s">
+        <v>24</v>
+      </c>
+      <c r="B346">
+        <v>45537</v>
+      </c>
+      <c r="C346" t="s">
+        <v>133</v>
+      </c>
+      <c r="D346" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" t="s">
+        <v>21</v>
+      </c>
+      <c r="B347">
+        <v>45296</v>
+      </c>
+      <c r="C347" t="s">
+        <v>134</v>
+      </c>
+      <c r="D347" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" t="s">
+        <v>20</v>
+      </c>
+      <c r="B348">
+        <v>45137</v>
+      </c>
+      <c r="C348" t="s">
+        <v>135</v>
+      </c>
+      <c r="D348" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" t="s">
+        <v>17</v>
+      </c>
+      <c r="B349">
+        <v>45519</v>
+      </c>
+      <c r="C349" t="s">
+        <v>136</v>
+      </c>
+      <c r="D349" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" t="s">
+        <v>21</v>
+      </c>
+      <c r="B350">
+        <v>45516</v>
+      </c>
+      <c r="C350" t="s">
+        <v>137</v>
+      </c>
+      <c r="D350" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" t="s">
+        <v>7</v>
+      </c>
+      <c r="B351">
+        <v>45516</v>
+      </c>
+      <c r="C351" t="s">
+        <v>137</v>
+      </c>
+      <c r="D351" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" t="s">
+        <v>21</v>
+      </c>
+      <c r="B352">
+        <v>45516</v>
+      </c>
+      <c r="C352" t="s">
+        <v>137</v>
+      </c>
+      <c r="D352" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" t="s">
+        <v>7</v>
+      </c>
+      <c r="B353">
+        <v>45472</v>
+      </c>
+      <c r="C353" t="s">
+        <v>138</v>
+      </c>
+      <c r="D353" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" t="s">
+        <v>8</v>
+      </c>
+      <c r="B354">
+        <v>45472</v>
+      </c>
+      <c r="C354" t="s">
+        <v>138</v>
+      </c>
+      <c r="D354" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" t="s">
+        <v>13</v>
+      </c>
+      <c r="B355">
         <v>45470</v>
       </c>
-      <c r="C338" t="s">
-        <v>138</v>
-      </c>
-      <c r="D338" t="s">
+      <c r="C355" t="s">
         <v>139</v>
+      </c>
+      <c r="D355" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="170">
   <si>
     <t>player</t>
   </si>
@@ -43,15 +43,18 @@
     <t>Iryastra</t>
   </si>
   <si>
+    <t>Nomys</t>
+  </si>
+  <si>
+    <t>Drikato</t>
+  </si>
+  <si>
+    <t>Csamain</t>
+  </si>
+  <si>
     <t>Nweysa</t>
   </si>
   <si>
-    <t>Drikato</t>
-  </si>
-  <si>
-    <t>Csamain</t>
-  </si>
-  <si>
     <t>Aelvå</t>
   </si>
   <si>
@@ -61,12 +64,12 @@
     <t>Euphemià</t>
   </si>
   <si>
+    <t>Warloquë</t>
+  </si>
+  <si>
     <t>Lupusreginä</t>
   </si>
   <si>
-    <t>Warloquë</t>
-  </si>
-  <si>
     <t>Skotia</t>
   </si>
   <si>
@@ -79,18 +82,21 @@
     <t>Queriss</t>
   </si>
   <si>
+    <t>Nahzerr</t>
+  </si>
+  <si>
     <t>Nordton</t>
   </si>
   <si>
+    <t>Ørly</t>
+  </si>
+  <si>
     <t>Pyrobifle</t>
   </si>
   <si>
     <t>Pamage</t>
   </si>
   <si>
-    <t>Ørly</t>
-  </si>
-  <si>
     <t>Hedra</t>
   </si>
   <si>
@@ -205,6 +211,9 @@
     <t>Embrace of the Gladiator</t>
   </si>
   <si>
+    <t>Embrace of the Leviathan</t>
+  </si>
+  <si>
     <t>Fate's Clutch</t>
   </si>
   <si>
@@ -259,6 +268,9 @@
     <t>Handguards of Revitalization</t>
   </si>
   <si>
+    <t>Handwraps of the Vigilant</t>
+  </si>
+  <si>
     <t>Heart of Iron</t>
   </si>
   <si>
@@ -274,6 +286,12 @@
     <t>Idol of the Shooting Star</t>
   </si>
   <si>
+    <t>Illustration of the Dragon Soul</t>
+  </si>
+  <si>
+    <t>Ironmender</t>
+  </si>
+  <si>
     <t>Leggings of the Enslaved Idol</t>
   </si>
   <si>
@@ -361,24 +379,36 @@
     <t>Scale of Fates</t>
   </si>
   <si>
+    <t>Scepter of Lost Souls</t>
+  </si>
+  <si>
     <t>Seal of the Betrayed King</t>
   </si>
   <si>
     <t>Serilas, Blood Blade of Invar One-Arm</t>
   </si>
   <si>
+    <t>Shackles of the Odalisque</t>
+  </si>
+  <si>
     <t>Shieldwarder Girdle</t>
   </si>
   <si>
     <t>Shoulderpads of the Intruder</t>
   </si>
   <si>
+    <t>Shoulderplates of the Celestial Watch</t>
+  </si>
+  <si>
     <t>Show of Faith</t>
   </si>
   <si>
     <t>Sigil of Awareness</t>
   </si>
   <si>
+    <t>Signet of Soft Lament</t>
+  </si>
+  <si>
     <t>Signet of the Earthshaker</t>
   </si>
   <si>
@@ -400,6 +430,9 @@
     <t>Star-beaded Clutch</t>
   </si>
   <si>
+    <t>Starlight Treads</t>
+  </si>
+  <si>
     <t>Starshard Edge</t>
   </si>
   <si>
@@ -445,12 +478,12 @@
     <t>3</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>Craft</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -485,6 +518,9 @@
   </si>
   <si>
     <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
   <si>
     <t>Emblems of Conquest</t>
@@ -845,7 +881,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E355"/>
+  <dimension ref="A1:E388"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -876,10 +912,10 @@
         <v>46068</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -890,10 +926,10 @@
         <v>45663</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -904,10 +940,10 @@
         <v>45663</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -918,10 +954,10 @@
         <v>45663</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -929,13 +965,13 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>46048</v>
+        <v>45663</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -946,10 +982,10 @@
         <v>46048</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -960,346 +996,346 @@
         <v>46048</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>45241</v>
+        <v>46048</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>45241</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>45553</v>
+        <v>45241</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>45151</v>
+        <v>45241</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>45460</v>
+        <v>45553</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>45460</v>
+        <v>45151</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>45484</v>
+        <v>45460</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>45484</v>
+        <v>45460</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>45484</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B18">
-        <v>45135</v>
+        <v>45484</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B19">
-        <v>45135</v>
+        <v>45484</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B20">
         <v>45135</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21">
         <v>45135</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22">
         <v>45135</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23">
-        <v>45610</v>
+        <v>45135</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B24">
-        <v>45610</v>
+        <v>45135</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B25">
-        <v>45867</v>
+        <v>45610</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B26">
-        <v>46039</v>
+        <v>45610</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B27">
-        <v>46039</v>
+        <v>45867</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B28">
-        <v>45632</v>
+        <v>46039</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B29">
-        <v>45632</v>
+        <v>46039</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B30">
         <v>45632</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B31">
-        <v>45633</v>
+        <v>45632</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B32">
-        <v>45633</v>
+        <v>45632</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1307,1623 +1343,1623 @@
         <v>22</v>
       </c>
       <c r="B33">
-        <v>45634</v>
+        <v>45632</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B34">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B35">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B36">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B37">
         <v>45634</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B38">
         <v>45634</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B39">
         <v>45634</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B40">
-        <v>45485</v>
+        <v>45634</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B41">
-        <v>45485</v>
+        <v>45634</v>
       </c>
       <c r="C41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D41" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B42">
-        <v>45587</v>
+        <v>45634</v>
       </c>
       <c r="C42" t="s">
         <v>42</v>
       </c>
       <c r="D42" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B43">
-        <v>45587</v>
+        <v>45634</v>
       </c>
       <c r="C43" t="s">
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B44">
-        <v>46097</v>
+        <v>45485</v>
       </c>
       <c r="C44" t="s">
         <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B45">
-        <v>46097</v>
+        <v>45485</v>
       </c>
       <c r="C45" t="s">
         <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B46">
-        <v>46097</v>
+        <v>45587</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B47">
-        <v>45443</v>
+        <v>45587</v>
       </c>
       <c r="C47" t="s">
         <v>44</v>
       </c>
       <c r="D47" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B48">
-        <v>45609</v>
+        <v>46097</v>
       </c>
       <c r="C48" t="s">
         <v>45</v>
       </c>
       <c r="D48" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B49">
-        <v>45609</v>
+        <v>46097</v>
       </c>
       <c r="C49" t="s">
         <v>45</v>
       </c>
       <c r="D49" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B50">
-        <v>45609</v>
+        <v>46097</v>
       </c>
       <c r="C50" t="s">
         <v>45</v>
       </c>
       <c r="D50" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B51">
-        <v>45609</v>
+        <v>45443</v>
       </c>
       <c r="C51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D51" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B52">
-        <v>45609</v>
+        <v>45443</v>
       </c>
       <c r="C52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D52" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B53">
         <v>45609</v>
       </c>
       <c r="C53" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D53" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B54">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D54" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B55">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D55" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B56">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D56" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B57">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D57" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B58">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D58" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B59">
         <v>45495</v>
       </c>
       <c r="C59" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D59" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B60">
         <v>45495</v>
       </c>
       <c r="C60" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D60" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B61">
         <v>45495</v>
       </c>
       <c r="C61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D61" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B62">
         <v>45495</v>
       </c>
       <c r="C62" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D62" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B63">
-        <v>45612</v>
+        <v>45495</v>
       </c>
       <c r="C63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D63" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B64">
-        <v>45612</v>
+        <v>45495</v>
       </c>
       <c r="C64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D64" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B65">
-        <v>45617</v>
+        <v>45495</v>
       </c>
       <c r="C65" t="s">
         <v>48</v>
       </c>
       <c r="D65" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B66">
-        <v>45617</v>
+        <v>45495</v>
       </c>
       <c r="C66" t="s">
         <v>48</v>
       </c>
       <c r="D66" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B67">
-        <v>45617</v>
+        <v>45495</v>
       </c>
       <c r="C67" t="s">
         <v>48</v>
       </c>
       <c r="D67" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B68">
-        <v>45617</v>
+        <v>45612</v>
       </c>
       <c r="C68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D68" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B69">
-        <v>45617</v>
+        <v>45612</v>
       </c>
       <c r="C69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D69" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B70">
-        <v>45617</v>
+        <v>45612</v>
       </c>
       <c r="C70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D70" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B71">
         <v>45617</v>
       </c>
       <c r="C71" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D71" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B72">
         <v>45617</v>
       </c>
       <c r="C72" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D72" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B73">
-        <v>45250</v>
+        <v>45617</v>
       </c>
       <c r="C73" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D73" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B74">
-        <v>45497</v>
+        <v>45617</v>
       </c>
       <c r="C74" t="s">
         <v>50</v>
       </c>
       <c r="D74" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B75">
-        <v>45497</v>
+        <v>45617</v>
       </c>
       <c r="C75" t="s">
         <v>50</v>
       </c>
       <c r="D75" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B76">
-        <v>45497</v>
+        <v>45617</v>
       </c>
       <c r="C76" t="s">
         <v>50</v>
       </c>
       <c r="D76" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B77">
-        <v>45638</v>
+        <v>45617</v>
       </c>
       <c r="C77" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D77" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B78">
-        <v>45638</v>
+        <v>45617</v>
       </c>
       <c r="C78" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D78" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B79">
-        <v>45639</v>
+        <v>45250</v>
       </c>
       <c r="C79" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D79" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B80">
-        <v>45639</v>
+        <v>45497</v>
       </c>
       <c r="C80" t="s">
         <v>52</v>
       </c>
       <c r="D80" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B81">
-        <v>45639</v>
+        <v>45497</v>
       </c>
       <c r="C81" t="s">
         <v>52</v>
       </c>
       <c r="D81" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B82">
-        <v>45640</v>
+        <v>45497</v>
       </c>
       <c r="C82" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D82" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B83">
-        <v>45640</v>
+        <v>45638</v>
       </c>
       <c r="C83" t="s">
         <v>53</v>
       </c>
       <c r="D83" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B84">
-        <v>45640</v>
+        <v>45638</v>
       </c>
       <c r="C84" t="s">
         <v>53</v>
       </c>
       <c r="D84" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B85">
-        <v>45640</v>
+        <v>45638</v>
       </c>
       <c r="C85" t="s">
         <v>53</v>
       </c>
       <c r="D85" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B86">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="C86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D86" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B87">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="C87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D87" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B88">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="C88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D88" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B89">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="C89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D89" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B90">
-        <v>46038</v>
+        <v>45640</v>
       </c>
       <c r="C90" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D90" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B91">
-        <v>46038</v>
+        <v>45640</v>
       </c>
       <c r="C91" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D91" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B92">
-        <v>46038</v>
+        <v>45640</v>
       </c>
       <c r="C92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D92" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B93">
-        <v>46038</v>
+        <v>45640</v>
       </c>
       <c r="C93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D93" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B94">
-        <v>42987</v>
+        <v>45640</v>
       </c>
       <c r="C94" t="s">
         <v>55</v>
       </c>
       <c r="D94" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B95">
-        <v>42987</v>
+        <v>45640</v>
       </c>
       <c r="C95" t="s">
         <v>55</v>
       </c>
       <c r="D95" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B96">
-        <v>42987</v>
+        <v>45640</v>
       </c>
       <c r="C96" t="s">
         <v>55</v>
       </c>
       <c r="D96" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B97">
-        <v>42987</v>
+        <v>45640</v>
       </c>
       <c r="C97" t="s">
         <v>55</v>
       </c>
       <c r="D97" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B98">
-        <v>44253</v>
+        <v>46038</v>
       </c>
       <c r="C98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D98" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B99">
-        <v>45139</v>
+        <v>46038</v>
       </c>
       <c r="C99" t="s">
         <v>56</v>
       </c>
       <c r="D99" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B100">
-        <v>45461</v>
+        <v>46038</v>
       </c>
       <c r="C100" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D100" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B101">
-        <v>45461</v>
+        <v>46038</v>
       </c>
       <c r="C101" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D101" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B102">
-        <v>45461</v>
+        <v>46038</v>
       </c>
       <c r="C102" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D102" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B103">
-        <v>45461</v>
+        <v>42987</v>
       </c>
       <c r="C103" t="s">
         <v>57</v>
       </c>
       <c r="D103" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B104">
-        <v>45242</v>
+        <v>42987</v>
       </c>
       <c r="C104" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D104" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B105">
-        <v>45242</v>
+        <v>42987</v>
       </c>
       <c r="C105" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D105" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B106">
-        <v>45242</v>
+        <v>42987</v>
       </c>
       <c r="C106" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D106" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B107">
-        <v>45242</v>
+        <v>44253</v>
       </c>
       <c r="C107" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D107" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B108">
-        <v>45242</v>
+        <v>45139</v>
       </c>
       <c r="C108" t="s">
         <v>58</v>
       </c>
       <c r="D108" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B109">
-        <v>46032</v>
+        <v>45461</v>
       </c>
       <c r="C109" t="s">
         <v>59</v>
       </c>
       <c r="D109" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B110">
-        <v>46032</v>
+        <v>45461</v>
       </c>
       <c r="C110" t="s">
         <v>59</v>
       </c>
       <c r="D110" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B111">
-        <v>46032</v>
+        <v>45461</v>
       </c>
       <c r="C111" t="s">
         <v>59</v>
       </c>
       <c r="D111" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B112">
-        <v>46032</v>
+        <v>45461</v>
       </c>
       <c r="C112" t="s">
         <v>59</v>
       </c>
       <c r="D112" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B113">
-        <v>45486</v>
+        <v>45242</v>
       </c>
       <c r="C113" t="s">
         <v>60</v>
       </c>
       <c r="D113" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B114">
-        <v>45613</v>
+        <v>45242</v>
       </c>
       <c r="C114" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D114" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B115">
-        <v>45613</v>
+        <v>45242</v>
       </c>
       <c r="C115" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D115" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B116">
-        <v>45473</v>
+        <v>45242</v>
       </c>
       <c r="C116" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D116" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B117">
-        <v>45473</v>
+        <v>45242</v>
       </c>
       <c r="C117" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D117" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B118">
-        <v>45473</v>
+        <v>46032</v>
       </c>
       <c r="C118" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D118" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B119">
-        <v>45473</v>
+        <v>46032</v>
       </c>
       <c r="C119" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D119" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B120">
-        <v>45473</v>
+        <v>46032</v>
       </c>
       <c r="C120" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D120" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B121">
-        <v>45471</v>
+        <v>46032</v>
       </c>
       <c r="C121" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D121" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B122">
-        <v>45471</v>
+        <v>46032</v>
       </c>
       <c r="C122" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D122" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B123">
-        <v>45946</v>
+        <v>45486</v>
       </c>
       <c r="C123" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D123" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B124">
-        <v>45518</v>
+        <v>45486</v>
       </c>
       <c r="C124" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D124" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B125">
-        <v>45518</v>
+        <v>45613</v>
       </c>
       <c r="C125" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D125" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B126">
-        <v>45518</v>
+        <v>45613</v>
       </c>
       <c r="C126" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D126" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B127">
-        <v>45518</v>
+        <v>45473</v>
       </c>
       <c r="C127" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D127" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B128">
-        <v>45518</v>
+        <v>45473</v>
       </c>
       <c r="C128" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D128" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B129">
-        <v>45518</v>
+        <v>45473</v>
       </c>
       <c r="C129" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D129" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B130">
-        <v>45518</v>
+        <v>45473</v>
       </c>
       <c r="C130" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D130" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B131">
-        <v>45518</v>
+        <v>45473</v>
       </c>
       <c r="C131" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D131" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B132">
-        <v>45869</v>
+        <v>45119</v>
       </c>
       <c r="C132" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D132" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B133">
-        <v>45869</v>
+        <v>45471</v>
       </c>
       <c r="C133" t="s">
         <v>66</v>
       </c>
       <c r="D133" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B134">
-        <v>45564</v>
+        <v>45471</v>
       </c>
       <c r="C134" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D134" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B135">
-        <v>45564</v>
+        <v>45946</v>
       </c>
       <c r="C135" t="s">
         <v>67</v>
       </c>
       <c r="D135" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B136">
-        <v>45564</v>
+        <v>45946</v>
       </c>
       <c r="C136" t="s">
         <v>67</v>
       </c>
       <c r="D136" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B137">
-        <v>45459</v>
+        <v>45518</v>
       </c>
       <c r="C137" t="s">
         <v>68</v>
       </c>
       <c r="D137" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B138">
-        <v>45459</v>
+        <v>45518</v>
       </c>
       <c r="C138" t="s">
         <v>68</v>
       </c>
       <c r="D138" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B139">
-        <v>42853</v>
+        <v>45518</v>
       </c>
       <c r="C139" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D139" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B140">
-        <v>42608</v>
+        <v>45518</v>
       </c>
       <c r="C140" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D140" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B141">
-        <v>45481</v>
+        <v>45518</v>
       </c>
       <c r="C141" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D141" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B142">
-        <v>45642</v>
+        <v>45518</v>
       </c>
       <c r="C142" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D142" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B143">
-        <v>45642</v>
+        <v>45518</v>
       </c>
       <c r="C143" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D143" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B144">
-        <v>45642</v>
+        <v>45518</v>
       </c>
       <c r="C144" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D144" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B145">
-        <v>45643</v>
+        <v>45869</v>
       </c>
       <c r="C145" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D145" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B146">
-        <v>45643</v>
+        <v>45869</v>
       </c>
       <c r="C146" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D146" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B147">
-        <v>45643</v>
+        <v>45564</v>
       </c>
       <c r="C147" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D147" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B148">
-        <v>45643</v>
+        <v>45564</v>
       </c>
       <c r="C148" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D148" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2931,307 +2967,307 @@
         <v>11</v>
       </c>
       <c r="B149">
-        <v>46043</v>
+        <v>45564</v>
       </c>
       <c r="C149" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D149" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B150">
-        <v>45444</v>
+        <v>45459</v>
       </c>
       <c r="C150" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D150" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B151">
-        <v>45444</v>
+        <v>45459</v>
       </c>
       <c r="C151" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D151" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B152">
-        <v>45132</v>
+        <v>45459</v>
       </c>
       <c r="C152" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D152" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B153">
-        <v>45132</v>
+        <v>42853</v>
       </c>
       <c r="C153" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D153" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B154">
-        <v>45446</v>
+        <v>42608</v>
       </c>
       <c r="C154" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D154" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B155">
-        <v>45446</v>
+        <v>45481</v>
       </c>
       <c r="C155" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D155" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B156">
-        <v>45446</v>
+        <v>45642</v>
       </c>
       <c r="C156" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D156" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B157">
-        <v>45446</v>
+        <v>45642</v>
       </c>
       <c r="C157" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D157" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B158">
-        <v>45446</v>
+        <v>45642</v>
       </c>
       <c r="C158" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D158" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B159">
-        <v>45446</v>
+        <v>45643</v>
       </c>
       <c r="C159" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D159" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B160">
-        <v>45446</v>
+        <v>45643</v>
       </c>
       <c r="C160" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D160" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B161">
-        <v>45446</v>
+        <v>45643</v>
       </c>
       <c r="C161" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D161" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B162">
-        <v>45446</v>
+        <v>45643</v>
       </c>
       <c r="C162" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D162" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B163">
-        <v>45244</v>
+        <v>46043</v>
       </c>
       <c r="C163" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D163" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B164">
-        <v>45988</v>
+        <v>45444</v>
       </c>
       <c r="C164" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D164" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B165">
-        <v>45988</v>
+        <v>45444</v>
       </c>
       <c r="C165" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D165" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B166">
-        <v>45487</v>
+        <v>45444</v>
       </c>
       <c r="C166" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D166" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B167">
-        <v>45487</v>
+        <v>45132</v>
       </c>
       <c r="C167" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D167" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B168">
-        <v>45158</v>
+        <v>45132</v>
       </c>
       <c r="C168" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D168" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B169">
-        <v>45158</v>
+        <v>45446</v>
       </c>
       <c r="C169" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D169" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B170">
-        <v>45886</v>
+        <v>45446</v>
       </c>
       <c r="C170" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D170" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3239,83 +3275,83 @@
         <v>17</v>
       </c>
       <c r="B171">
-        <v>40342</v>
+        <v>45446</v>
       </c>
       <c r="C171" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D171" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B172">
-        <v>40713</v>
+        <v>45446</v>
       </c>
       <c r="C172" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D172" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B173">
-        <v>40321</v>
+        <v>45446</v>
       </c>
       <c r="C173" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D173" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B174">
-        <v>45488</v>
+        <v>45446</v>
       </c>
       <c r="C174" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D174" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B175">
-        <v>45488</v>
+        <v>45446</v>
       </c>
       <c r="C175" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D175" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B176">
-        <v>45536</v>
+        <v>45446</v>
       </c>
       <c r="C176" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D176" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3323,335 +3359,335 @@
         <v>18</v>
       </c>
       <c r="B177">
-        <v>45536</v>
+        <v>45446</v>
       </c>
       <c r="C177" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D177" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B178">
-        <v>45536</v>
+        <v>45244</v>
       </c>
       <c r="C178" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D178" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B179">
-        <v>45536</v>
+        <v>45988</v>
       </c>
       <c r="C179" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D179" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B180">
-        <v>45536</v>
+        <v>45988</v>
       </c>
       <c r="C180" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D180" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B181">
-        <v>45594</v>
+        <v>45487</v>
       </c>
       <c r="C181" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D181" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B182">
-        <v>45594</v>
+        <v>45487</v>
       </c>
       <c r="C182" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D182" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B183">
-        <v>45653</v>
+        <v>45520</v>
       </c>
       <c r="C183" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D183" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B184">
-        <v>45653</v>
+        <v>45158</v>
       </c>
       <c r="C184" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D184" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B185">
-        <v>45654</v>
+        <v>45158</v>
       </c>
       <c r="C185" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D185" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B186">
-        <v>45654</v>
+        <v>45886</v>
       </c>
       <c r="C186" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D186" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B187">
-        <v>45655</v>
+        <v>40342</v>
       </c>
       <c r="C187" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D187" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B188">
-        <v>45655</v>
+        <v>40713</v>
       </c>
       <c r="C188" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D188" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B189">
-        <v>45655</v>
+        <v>40321</v>
       </c>
       <c r="C189" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D189" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B190">
-        <v>45655</v>
+        <v>40432</v>
       </c>
       <c r="C190" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D190" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B191">
-        <v>45655</v>
+        <v>45271</v>
       </c>
       <c r="C191" t="s">
         <v>91</v>
       </c>
       <c r="D191" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B192">
-        <v>45145</v>
+        <v>45488</v>
       </c>
       <c r="C192" t="s">
         <v>92</v>
       </c>
       <c r="D192" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B193">
-        <v>45456</v>
+        <v>45488</v>
       </c>
       <c r="C193" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D193" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B194">
-        <v>45300</v>
+        <v>45536</v>
       </c>
       <c r="C194" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D194" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B195">
-        <v>45656</v>
+        <v>45536</v>
       </c>
       <c r="C195" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D195" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B196">
-        <v>45656</v>
+        <v>45536</v>
       </c>
       <c r="C196" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D196" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B197">
-        <v>45656</v>
+        <v>45536</v>
       </c>
       <c r="C197" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D197" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B198">
-        <v>45657</v>
+        <v>45536</v>
       </c>
       <c r="C198" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D198" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B199">
-        <v>45657</v>
+        <v>45536</v>
       </c>
       <c r="C199" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D199" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B200">
-        <v>45657</v>
+        <v>45594</v>
       </c>
       <c r="C200" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D200" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3659,517 +3695,517 @@
         <v>20</v>
       </c>
       <c r="B201">
-        <v>45657</v>
+        <v>45594</v>
       </c>
       <c r="C201" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D201" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B202">
-        <v>45658</v>
+        <v>45653</v>
       </c>
       <c r="C202" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D202" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B203">
-        <v>45658</v>
+        <v>45653</v>
       </c>
       <c r="C203" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D203" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B204">
-        <v>45658</v>
+        <v>45653</v>
       </c>
       <c r="C204" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D204" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B205">
-        <v>45658</v>
+        <v>45654</v>
       </c>
       <c r="C205" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D205" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B206">
-        <v>45658</v>
+        <v>45654</v>
       </c>
       <c r="C206" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D206" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B207">
-        <v>45658</v>
+        <v>45655</v>
       </c>
       <c r="C207" t="s">
         <v>97</v>
       </c>
       <c r="D207" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B208">
-        <v>45658</v>
+        <v>45655</v>
       </c>
       <c r="C208" t="s">
         <v>97</v>
       </c>
       <c r="D208" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B209">
-        <v>45658</v>
+        <v>45655</v>
       </c>
       <c r="C209" t="s">
         <v>97</v>
       </c>
       <c r="D209" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B210">
-        <v>45993</v>
+        <v>45655</v>
       </c>
       <c r="C210" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D210" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B211">
-        <v>45111</v>
+        <v>45655</v>
       </c>
       <c r="C211" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D211" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B212">
-        <v>45111</v>
+        <v>45145</v>
       </c>
       <c r="C212" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D212" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B213">
-        <v>45931</v>
+        <v>45456</v>
       </c>
       <c r="C213" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D213" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B214">
-        <v>45931</v>
+        <v>45300</v>
       </c>
       <c r="C214" t="s">
         <v>100</v>
       </c>
       <c r="D214" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B215">
-        <v>45931</v>
+        <v>45656</v>
       </c>
       <c r="C215" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D215" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B216">
-        <v>46046</v>
+        <v>45656</v>
       </c>
       <c r="C216" t="s">
         <v>101</v>
       </c>
       <c r="D216" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B217">
-        <v>46046</v>
+        <v>45656</v>
       </c>
       <c r="C217" t="s">
         <v>101</v>
       </c>
       <c r="D217" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B218">
-        <v>46046</v>
+        <v>45656</v>
       </c>
       <c r="C218" t="s">
         <v>101</v>
       </c>
       <c r="D218" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B219">
-        <v>46046</v>
+        <v>45657</v>
       </c>
       <c r="C219" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D219" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B220">
-        <v>46046</v>
+        <v>45657</v>
       </c>
       <c r="C220" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D220" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B221">
-        <v>46046</v>
+        <v>45657</v>
       </c>
       <c r="C221" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D221" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B222">
-        <v>46046</v>
+        <v>45657</v>
       </c>
       <c r="C222" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D222" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B223">
-        <v>46046</v>
+        <v>45658</v>
       </c>
       <c r="C223" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D223" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B224">
-        <v>46046</v>
+        <v>45658</v>
       </c>
       <c r="C224" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D224" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B225">
-        <v>45133</v>
+        <v>45658</v>
       </c>
       <c r="C225" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D225" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B226">
-        <v>45133</v>
+        <v>45658</v>
       </c>
       <c r="C226" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D226" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B227">
-        <v>45133</v>
+        <v>45658</v>
       </c>
       <c r="C227" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D227" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B228">
-        <v>45133</v>
+        <v>45658</v>
       </c>
       <c r="C228" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D228" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B229">
-        <v>45133</v>
+        <v>45658</v>
       </c>
       <c r="C229" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D229" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B230">
-        <v>45933</v>
+        <v>45658</v>
       </c>
       <c r="C230" t="s">
         <v>103</v>
       </c>
       <c r="D230" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B231">
-        <v>45517</v>
+        <v>45993</v>
       </c>
       <c r="C231" t="s">
         <v>104</v>
       </c>
       <c r="D231" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B232">
-        <v>45517</v>
+        <v>45111</v>
       </c>
       <c r="C232" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D232" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B233">
-        <v>45517</v>
+        <v>45111</v>
       </c>
       <c r="C233" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D233" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B234">
-        <v>45517</v>
+        <v>45931</v>
       </c>
       <c r="C234" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D234" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B235">
-        <v>45517</v>
+        <v>45931</v>
       </c>
       <c r="C235" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D235" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B236">
-        <v>45517</v>
+        <v>45931</v>
       </c>
       <c r="C236" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D236" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B237">
-        <v>45517</v>
+        <v>45931</v>
       </c>
       <c r="C237" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D237" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4177,55 +4213,55 @@
         <v>15</v>
       </c>
       <c r="B238">
-        <v>45294</v>
+        <v>46046</v>
       </c>
       <c r="C238" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D238" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B239">
-        <v>45294</v>
+        <v>46046</v>
       </c>
       <c r="C239" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D239" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B240">
-        <v>45294</v>
+        <v>46046</v>
       </c>
       <c r="C240" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D240" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B241">
-        <v>45294</v>
+        <v>46046</v>
       </c>
       <c r="C241" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D241" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4233,181 +4269,181 @@
         <v>5</v>
       </c>
       <c r="B242">
-        <v>45294</v>
+        <v>46046</v>
       </c>
       <c r="C242" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D242" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B243">
-        <v>45294</v>
+        <v>46046</v>
       </c>
       <c r="C243" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D243" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B244">
-        <v>45294</v>
+        <v>46046</v>
       </c>
       <c r="C244" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D244" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B245">
-        <v>45665</v>
+        <v>46046</v>
       </c>
       <c r="C245" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D245" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B246">
-        <v>45665</v>
+        <v>46046</v>
       </c>
       <c r="C246" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D246" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B247">
-        <v>45665</v>
+        <v>45133</v>
       </c>
       <c r="C247" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D247" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B248">
-        <v>45665</v>
+        <v>45133</v>
       </c>
       <c r="C248" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D248" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B249">
-        <v>45665</v>
+        <v>45133</v>
       </c>
       <c r="C249" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D249" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B250">
-        <v>45665</v>
+        <v>45133</v>
       </c>
       <c r="C250" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D250" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B251">
-        <v>45665</v>
+        <v>45133</v>
       </c>
       <c r="C251" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D251" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B252">
-        <v>45665</v>
+        <v>45933</v>
       </c>
       <c r="C252" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D252" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B253">
-        <v>45615</v>
+        <v>45517</v>
       </c>
       <c r="C253" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D253" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B254">
-        <v>45134</v>
+        <v>45517</v>
       </c>
       <c r="C254" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D254" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -4415,405 +4451,405 @@
         <v>7</v>
       </c>
       <c r="B255">
-        <v>45134</v>
+        <v>45517</v>
       </c>
       <c r="C255" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D255" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B256">
-        <v>45134</v>
+        <v>45517</v>
       </c>
       <c r="C256" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D256" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B257">
-        <v>45326</v>
+        <v>45517</v>
       </c>
       <c r="C257" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D257" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B258">
-        <v>46052</v>
+        <v>45517</v>
       </c>
       <c r="C258" t="s">
         <v>110</v>
       </c>
       <c r="D258" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B259">
-        <v>46052</v>
+        <v>45517</v>
       </c>
       <c r="C259" t="s">
         <v>110</v>
       </c>
       <c r="D259" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B260">
-        <v>46053</v>
+        <v>45294</v>
       </c>
       <c r="C260" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D260" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B261">
-        <v>46053</v>
+        <v>45294</v>
       </c>
       <c r="C261" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D261" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B262">
-        <v>46053</v>
+        <v>45294</v>
       </c>
       <c r="C262" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D262" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B263">
-        <v>46053</v>
+        <v>45294</v>
       </c>
       <c r="C263" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D263" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B264">
-        <v>46053</v>
+        <v>45294</v>
       </c>
       <c r="C264" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D264" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B265">
-        <v>46053</v>
+        <v>45294</v>
       </c>
       <c r="C265" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D265" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B266">
-        <v>46053</v>
+        <v>45294</v>
       </c>
       <c r="C266" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D266" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B267">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C267" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D267" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B268">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C268" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D268" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B269">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C269" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D269" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B270">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C270" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D270" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B271">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C271" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D271" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B272">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C272" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D272" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B273">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C273" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D273" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B274">
-        <v>46021</v>
+        <v>45665</v>
       </c>
       <c r="C274" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D274" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B275">
-        <v>46021</v>
+        <v>45615</v>
       </c>
       <c r="C275" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D275" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B276">
-        <v>45599</v>
+        <v>45134</v>
       </c>
       <c r="C276" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D276" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B277">
-        <v>45599</v>
+        <v>45134</v>
       </c>
       <c r="C277" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D277" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B278">
-        <v>45599</v>
+        <v>45134</v>
       </c>
       <c r="C278" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D278" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B279">
-        <v>45599</v>
+        <v>45326</v>
       </c>
       <c r="C279" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D279" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B280">
-        <v>45243</v>
+        <v>46052</v>
       </c>
       <c r="C280" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D280" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B281">
-        <v>45243</v>
+        <v>46052</v>
       </c>
       <c r="C281" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D281" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B282">
-        <v>45243</v>
+        <v>46053</v>
       </c>
       <c r="C282" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D282" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B283">
-        <v>45466</v>
+        <v>46053</v>
       </c>
       <c r="C283" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D283" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4821,97 +4857,97 @@
         <v>5</v>
       </c>
       <c r="B284">
-        <v>45466</v>
+        <v>46053</v>
       </c>
       <c r="C284" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D284" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B285">
-        <v>45466</v>
+        <v>46053</v>
       </c>
       <c r="C285" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D285" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B286">
-        <v>45466</v>
+        <v>46053</v>
       </c>
       <c r="C286" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D286" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B287">
-        <v>45466</v>
+        <v>46053</v>
       </c>
       <c r="C287" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D287" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B288">
-        <v>45466</v>
+        <v>46053</v>
       </c>
       <c r="C288" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D288" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B289">
-        <v>45466</v>
+        <v>46053</v>
       </c>
       <c r="C289" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D289" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B290">
-        <v>45466</v>
+        <v>46053</v>
       </c>
       <c r="C290" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D290" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -4919,209 +4955,209 @@
         <v>13</v>
       </c>
       <c r="B291">
-        <v>45466</v>
+        <v>46053</v>
       </c>
       <c r="C291" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D291" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B292">
-        <v>45534</v>
+        <v>46053</v>
       </c>
       <c r="C292" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D292" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B293">
-        <v>45534</v>
+        <v>46053</v>
       </c>
       <c r="C293" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D293" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B294">
-        <v>45534</v>
+        <v>46053</v>
       </c>
       <c r="C294" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D294" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B295">
-        <v>45947</v>
+        <v>46053</v>
       </c>
       <c r="C295" t="s">
         <v>116</v>
       </c>
       <c r="D295" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B296">
-        <v>45825</v>
+        <v>46053</v>
       </c>
       <c r="C296" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D296" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B297">
-        <v>45245</v>
+        <v>46021</v>
       </c>
       <c r="C297" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D297" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B298">
-        <v>45245</v>
+        <v>46021</v>
       </c>
       <c r="C298" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D298" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B299">
-        <v>45245</v>
+        <v>45599</v>
       </c>
       <c r="C299" t="s">
         <v>118</v>
       </c>
       <c r="D299" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B300">
-        <v>45245</v>
+        <v>45599</v>
       </c>
       <c r="C300" t="s">
         <v>118</v>
       </c>
       <c r="D300" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B301">
-        <v>45535</v>
+        <v>45599</v>
       </c>
       <c r="C301" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D301" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B302">
-        <v>45535</v>
+        <v>45599</v>
       </c>
       <c r="C302" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D302" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B303">
-        <v>40207</v>
+        <v>45599</v>
       </c>
       <c r="C303" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D303" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B304">
-        <v>40207</v>
+        <v>45243</v>
       </c>
       <c r="C304" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D304" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B305">
-        <v>45247</v>
+        <v>45243</v>
       </c>
       <c r="C305" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D305" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -5129,167 +5165,167 @@
         <v>18</v>
       </c>
       <c r="B306">
-        <v>45570</v>
+        <v>45243</v>
       </c>
       <c r="C306" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D306" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B307">
-        <v>45570</v>
+        <v>45466</v>
       </c>
       <c r="C307" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D307" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B308">
-        <v>45570</v>
+        <v>45466</v>
       </c>
       <c r="C308" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D308" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B309">
-        <v>45611</v>
+        <v>45466</v>
       </c>
       <c r="C309" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D309" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B310">
-        <v>45611</v>
+        <v>45466</v>
       </c>
       <c r="C310" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D310" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B311">
-        <v>45611</v>
+        <v>45466</v>
       </c>
       <c r="C311" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D311" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B312">
-        <v>45442</v>
+        <v>45466</v>
       </c>
       <c r="C312" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D312" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B313">
-        <v>45442</v>
+        <v>45466</v>
       </c>
       <c r="C313" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D313" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B314">
-        <v>45442</v>
+        <v>45466</v>
       </c>
       <c r="C314" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D314" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B315">
-        <v>46095</v>
+        <v>45466</v>
       </c>
       <c r="C315" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D315" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B316">
-        <v>46095</v>
+        <v>45511</v>
       </c>
       <c r="C316" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D316" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B317">
-        <v>46095</v>
+        <v>45534</v>
       </c>
       <c r="C317" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D317" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -5297,531 +5333,993 @@
         <v>7</v>
       </c>
       <c r="B318">
-        <v>46095</v>
+        <v>45534</v>
       </c>
       <c r="C318" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D318" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B319">
-        <v>46095</v>
+        <v>45534</v>
       </c>
       <c r="C319" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D319" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B320">
-        <v>46095</v>
+        <v>45534</v>
       </c>
       <c r="C320" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D320" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B321">
-        <v>45703</v>
+        <v>45947</v>
       </c>
       <c r="C321" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D321" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B322">
-        <v>45616</v>
+        <v>45146</v>
       </c>
       <c r="C322" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D322" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B323">
-        <v>45620</v>
+        <v>45825</v>
       </c>
       <c r="C323" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D323" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B324">
-        <v>45620</v>
+        <v>45245</v>
       </c>
       <c r="C324" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D324" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B325">
-        <v>45620</v>
+        <v>45245</v>
       </c>
       <c r="C325" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D325" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B326">
-        <v>45620</v>
+        <v>45245</v>
       </c>
       <c r="C326" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D326" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B327">
-        <v>45620</v>
+        <v>45245</v>
       </c>
       <c r="C327" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D327" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B328">
-        <v>45620</v>
+        <v>46037</v>
       </c>
       <c r="C328" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D328" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B329">
-        <v>45620</v>
+        <v>45535</v>
       </c>
       <c r="C329" t="s">
         <v>128</v>
       </c>
       <c r="D329" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B330">
-        <v>45620</v>
+        <v>45535</v>
       </c>
       <c r="C330" t="s">
         <v>128</v>
       </c>
       <c r="D330" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B331">
-        <v>45619</v>
+        <v>45535</v>
       </c>
       <c r="C331" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D331" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B332">
-        <v>45619</v>
+        <v>40207</v>
       </c>
       <c r="C332" t="s">
         <v>129</v>
       </c>
       <c r="D332" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B333">
-        <v>45619</v>
+        <v>40207</v>
       </c>
       <c r="C333" t="s">
         <v>129</v>
       </c>
       <c r="D333" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B334">
-        <v>45619</v>
+        <v>46096</v>
       </c>
       <c r="C334" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D334" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B335">
-        <v>45619</v>
+        <v>45247</v>
       </c>
       <c r="C335" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D335" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B336">
-        <v>45619</v>
+        <v>45570</v>
       </c>
       <c r="C336" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D336" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B337">
-        <v>45619</v>
+        <v>45570</v>
       </c>
       <c r="C337" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D337" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B338">
-        <v>45619</v>
+        <v>45570</v>
       </c>
       <c r="C338" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D338" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B339">
-        <v>45114</v>
+        <v>45611</v>
       </c>
       <c r="C339" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D339" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B340">
-        <v>45989</v>
+        <v>45611</v>
       </c>
       <c r="C340" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D340" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B341">
-        <v>45496</v>
+        <v>45611</v>
       </c>
       <c r="C341" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D341" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B342">
-        <v>45496</v>
+        <v>45442</v>
       </c>
       <c r="C342" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D342" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B343">
-        <v>45537</v>
+        <v>45442</v>
       </c>
       <c r="C343" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D343" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B344">
-        <v>45537</v>
+        <v>45442</v>
       </c>
       <c r="C344" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D344" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B345">
-        <v>45537</v>
+        <v>46095</v>
       </c>
       <c r="C345" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D345" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B346">
-        <v>45537</v>
+        <v>46095</v>
       </c>
       <c r="C346" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D346" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B347">
-        <v>45296</v>
+        <v>46095</v>
       </c>
       <c r="C347" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D347" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B348">
-        <v>45137</v>
+        <v>46095</v>
       </c>
       <c r="C348" t="s">
         <v>135</v>
       </c>
       <c r="D348" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B349">
-        <v>45519</v>
+        <v>46095</v>
       </c>
       <c r="C349" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D349" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B350">
-        <v>45516</v>
+        <v>46095</v>
       </c>
       <c r="C350" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D350" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B351">
-        <v>45516</v>
+        <v>45703</v>
       </c>
       <c r="C351" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D351" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B352">
-        <v>45516</v>
+        <v>45616</v>
       </c>
       <c r="C352" t="s">
         <v>137</v>
       </c>
       <c r="D352" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B353">
-        <v>45472</v>
+        <v>46050</v>
       </c>
       <c r="C353" t="s">
         <v>138</v>
       </c>
       <c r="D353" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B354">
-        <v>45472</v>
+        <v>45620</v>
       </c>
       <c r="C354" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D354" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B355">
-        <v>45470</v>
+        <v>45620</v>
       </c>
       <c r="C355" t="s">
         <v>139</v>
       </c>
       <c r="D355" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" t="s">
+        <v>15</v>
+      </c>
+      <c r="B356">
+        <v>45620</v>
+      </c>
+      <c r="C356" t="s">
+        <v>139</v>
+      </c>
+      <c r="D356" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" t="s">
+        <v>24</v>
+      </c>
+      <c r="B357">
+        <v>45620</v>
+      </c>
+      <c r="C357" t="s">
+        <v>139</v>
+      </c>
+      <c r="D357" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" t="s">
+        <v>16</v>
+      </c>
+      <c r="B358">
+        <v>45620</v>
+      </c>
+      <c r="C358" t="s">
+        <v>139</v>
+      </c>
+      <c r="D358" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" t="s">
+        <v>5</v>
+      </c>
+      <c r="B359">
+        <v>45620</v>
+      </c>
+      <c r="C359" t="s">
+        <v>139</v>
+      </c>
+      <c r="D359" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" t="s">
+        <v>27</v>
+      </c>
+      <c r="B360">
+        <v>45620</v>
+      </c>
+      <c r="C360" t="s">
+        <v>139</v>
+      </c>
+      <c r="D360" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" t="s">
+        <v>17</v>
+      </c>
+      <c r="B361">
+        <v>45620</v>
+      </c>
+      <c r="C361" t="s">
+        <v>139</v>
+      </c>
+      <c r="D361" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" t="s">
+        <v>27</v>
+      </c>
+      <c r="B362">
+        <v>45619</v>
+      </c>
+      <c r="C362" t="s">
         <v>140</v>
+      </c>
+      <c r="D362" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" t="s">
+        <v>24</v>
+      </c>
+      <c r="B363">
+        <v>45619</v>
+      </c>
+      <c r="C363" t="s">
+        <v>140</v>
+      </c>
+      <c r="D363" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" t="s">
+        <v>25</v>
+      </c>
+      <c r="B364">
+        <v>45619</v>
+      </c>
+      <c r="C364" t="s">
+        <v>140</v>
+      </c>
+      <c r="D364" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" t="s">
+        <v>5</v>
+      </c>
+      <c r="B365">
+        <v>45619</v>
+      </c>
+      <c r="C365" t="s">
+        <v>140</v>
+      </c>
+      <c r="D365" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" t="s">
+        <v>16</v>
+      </c>
+      <c r="B366">
+        <v>45619</v>
+      </c>
+      <c r="C366" t="s">
+        <v>140</v>
+      </c>
+      <c r="D366" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" t="s">
+        <v>15</v>
+      </c>
+      <c r="B367">
+        <v>45619</v>
+      </c>
+      <c r="C367" t="s">
+        <v>140</v>
+      </c>
+      <c r="D367" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" t="s">
+        <v>17</v>
+      </c>
+      <c r="B368">
+        <v>45619</v>
+      </c>
+      <c r="C368" t="s">
+        <v>140</v>
+      </c>
+      <c r="D368" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" t="s">
+        <v>26</v>
+      </c>
+      <c r="B369">
+        <v>45619</v>
+      </c>
+      <c r="C369" t="s">
+        <v>140</v>
+      </c>
+      <c r="D369" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" t="s">
+        <v>14</v>
+      </c>
+      <c r="B370">
+        <v>45114</v>
+      </c>
+      <c r="C370" t="s">
+        <v>141</v>
+      </c>
+      <c r="D370" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" t="s">
+        <v>13</v>
+      </c>
+      <c r="B371">
+        <v>45989</v>
+      </c>
+      <c r="C371" t="s">
+        <v>142</v>
+      </c>
+      <c r="D371" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" t="s">
+        <v>21</v>
+      </c>
+      <c r="B372">
+        <v>45496</v>
+      </c>
+      <c r="C372" t="s">
+        <v>143</v>
+      </c>
+      <c r="D372" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" t="s">
+        <v>20</v>
+      </c>
+      <c r="B373">
+        <v>45496</v>
+      </c>
+      <c r="C373" t="s">
+        <v>143</v>
+      </c>
+      <c r="D373" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" t="s">
+        <v>26</v>
+      </c>
+      <c r="B374">
+        <v>45537</v>
+      </c>
+      <c r="C374" t="s">
+        <v>144</v>
+      </c>
+      <c r="D374" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" t="s">
+        <v>27</v>
+      </c>
+      <c r="B375">
+        <v>45537</v>
+      </c>
+      <c r="C375" t="s">
+        <v>144</v>
+      </c>
+      <c r="D375" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" t="s">
+        <v>24</v>
+      </c>
+      <c r="B376">
+        <v>45537</v>
+      </c>
+      <c r="C376" t="s">
+        <v>144</v>
+      </c>
+      <c r="D376" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" t="s">
+        <v>25</v>
+      </c>
+      <c r="B377">
+        <v>45537</v>
+      </c>
+      <c r="C377" t="s">
+        <v>144</v>
+      </c>
+      <c r="D377" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" t="s">
+        <v>9</v>
+      </c>
+      <c r="B378">
+        <v>45296</v>
+      </c>
+      <c r="C378" t="s">
+        <v>145</v>
+      </c>
+      <c r="D378" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" t="s">
+        <v>23</v>
+      </c>
+      <c r="B379">
+        <v>45296</v>
+      </c>
+      <c r="C379" t="s">
+        <v>145</v>
+      </c>
+      <c r="D379" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" t="s">
+        <v>21</v>
+      </c>
+      <c r="B380">
+        <v>45137</v>
+      </c>
+      <c r="C380" t="s">
+        <v>146</v>
+      </c>
+      <c r="D380" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" t="s">
+        <v>18</v>
+      </c>
+      <c r="B381">
+        <v>45519</v>
+      </c>
+      <c r="C381" t="s">
+        <v>147</v>
+      </c>
+      <c r="D381" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" t="s">
+        <v>7</v>
+      </c>
+      <c r="B382">
+        <v>45516</v>
+      </c>
+      <c r="C382" t="s">
+        <v>148</v>
+      </c>
+      <c r="D382" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" t="s">
+        <v>23</v>
+      </c>
+      <c r="B383">
+        <v>45516</v>
+      </c>
+      <c r="C383" t="s">
+        <v>148</v>
+      </c>
+      <c r="D383" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" t="s">
+        <v>9</v>
+      </c>
+      <c r="B384">
+        <v>45516</v>
+      </c>
+      <c r="C384" t="s">
+        <v>148</v>
+      </c>
+      <c r="D384" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" t="s">
+        <v>23</v>
+      </c>
+      <c r="B385">
+        <v>45516</v>
+      </c>
+      <c r="C385" t="s">
+        <v>148</v>
+      </c>
+      <c r="D385" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" t="s">
+        <v>8</v>
+      </c>
+      <c r="B386">
+        <v>45472</v>
+      </c>
+      <c r="C386" t="s">
+        <v>149</v>
+      </c>
+      <c r="D386" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" t="s">
+        <v>7</v>
+      </c>
+      <c r="B387">
+        <v>45472</v>
+      </c>
+      <c r="C387" t="s">
+        <v>149</v>
+      </c>
+      <c r="D387" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" t="s">
+        <v>14</v>
+      </c>
+      <c r="B388">
+        <v>45470</v>
+      </c>
+      <c r="C388" t="s">
+        <v>150</v>
+      </c>
+      <c r="D388" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="171">
   <si>
     <t>player</t>
   </si>
@@ -34,66 +34,69 @@
     <t>Omegarone</t>
   </si>
   <si>
+    <t>Veremos</t>
+  </si>
+  <si>
+    <t>Iryastra</t>
+  </si>
+  <si>
     <t>Gosseyn</t>
   </si>
   <si>
-    <t>Veremos</t>
-  </si>
-  <si>
-    <t>Iryastra</t>
-  </si>
-  <si>
     <t>Nomys</t>
   </si>
   <si>
+    <t>Nweysa</t>
+  </si>
+  <si>
+    <t>Csamain</t>
+  </si>
+  <si>
     <t>Drikato</t>
   </si>
   <si>
-    <t>Csamain</t>
-  </si>
-  <si>
-    <t>Nweysa</t>
-  </si>
-  <si>
     <t>Aelvå</t>
   </si>
   <si>
     <t>Wølafi</t>
   </si>
   <si>
+    <t>Lulia</t>
+  </si>
+  <si>
+    <t>Lupusreginä</t>
+  </si>
+  <si>
     <t>Euphemià</t>
   </si>
   <si>
     <t>Warloquë</t>
   </si>
   <si>
-    <t>Lupusreginä</t>
-  </si>
-  <si>
     <t>Skotia</t>
   </si>
   <si>
     <t>Dimoncello</t>
   </si>
   <si>
+    <t>Queriss</t>
+  </si>
+  <si>
     <t>Ninnah</t>
   </si>
   <si>
-    <t>Queriss</t>
-  </si>
-  <si>
     <t>Nahzerr</t>
   </si>
   <si>
     <t>Nordton</t>
   </si>
   <si>
+    <t>Pyrobifle</t>
+  </si>
+  <si>
     <t>Ørly</t>
   </si>
   <si>
-    <t>Pyrobifle</t>
-  </si>
-  <si>
     <t>Pamage</t>
   </si>
   <si>
@@ -499,13 +502,13 @@
     <t>9</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>P1</t>
   </si>
   <si>
     <t>PvP</t>
-  </si>
-  <si>
-    <t>10</t>
   </si>
   <si>
     <t>11</t>
@@ -881,7 +884,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E388"/>
+  <dimension ref="A1:E405"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -912,10 +915,10 @@
         <v>46068</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -926,10 +929,10 @@
         <v>45663</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -940,10 +943,10 @@
         <v>45663</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -954,10 +957,10 @@
         <v>45663</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -968,10 +971,10 @@
         <v>45663</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -982,10 +985,10 @@
         <v>46048</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -996,10 +999,10 @@
         <v>46048</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1010,52 +1013,52 @@
         <v>46048</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>45241</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>45241</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>45241</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1066,10 +1069,10 @@
         <v>45553</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1080,10 +1083,10 @@
         <v>45151</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1094,10 +1097,10 @@
         <v>45460</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1108,80 +1111,80 @@
         <v>45460</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>45484</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>45484</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B19">
         <v>45484</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B20">
         <v>45135</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B21">
         <v>45135</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1192,10 +1195,10 @@
         <v>45135</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1206,10 +1209,10 @@
         <v>45135</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1220,10 +1223,10 @@
         <v>45135</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1231,13 +1234,13 @@
         <v>19</v>
       </c>
       <c r="B25">
-        <v>45610</v>
+        <v>45135</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1248,7 +1251,7 @@
         <v>45610</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
         <v>152</v>
@@ -1256,30 +1259,30 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B27">
-        <v>45867</v>
+        <v>45610</v>
       </c>
       <c r="C27" t="s">
         <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B28">
-        <v>46039</v>
+        <v>45867</v>
       </c>
       <c r="C28" t="s">
         <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1290,7 +1293,7 @@
         <v>46039</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
         <v>152</v>
@@ -1298,27 +1301,27 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B30">
-        <v>45632</v>
+        <v>46039</v>
       </c>
       <c r="C30" t="s">
         <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B31">
         <v>45632</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
         <v>152</v>
@@ -1326,13 +1329,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32">
         <v>45632</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
         <v>153</v>
@@ -1340,13 +1343,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B33">
         <v>45632</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
         <v>154</v>
@@ -1354,72 +1357,72 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B34">
-        <v>45633</v>
+        <v>45632</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B35">
-        <v>45633</v>
+        <v>45632</v>
       </c>
       <c r="C35" t="s">
         <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B36">
         <v>45633</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B37">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C37" t="s">
         <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B38">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C38" t="s">
         <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1430,94 +1433,94 @@
         <v>45634</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B40">
         <v>45634</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41">
         <v>45634</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B42">
         <v>45634</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B43">
         <v>45634</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B44">
-        <v>45485</v>
+        <v>45634</v>
       </c>
       <c r="C44" t="s">
         <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B45">
-        <v>45485</v>
+        <v>45634</v>
       </c>
       <c r="C45" t="s">
         <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1525,447 +1528,447 @@
         <v>21</v>
       </c>
       <c r="B46">
-        <v>45587</v>
+        <v>45485</v>
       </c>
       <c r="C46" t="s">
         <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B47">
-        <v>45587</v>
+        <v>45485</v>
       </c>
       <c r="C47" t="s">
         <v>44</v>
       </c>
       <c r="D47" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B48">
-        <v>46097</v>
+        <v>45587</v>
       </c>
       <c r="C48" t="s">
         <v>45</v>
       </c>
       <c r="D48" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B49">
-        <v>46097</v>
+        <v>45587</v>
       </c>
       <c r="C49" t="s">
         <v>45</v>
       </c>
       <c r="D49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B50">
         <v>46097</v>
       </c>
       <c r="C50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B51">
-        <v>45443</v>
+        <v>46097</v>
       </c>
       <c r="C51" t="s">
         <v>46</v>
       </c>
       <c r="D51" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B52">
-        <v>45443</v>
+        <v>46097</v>
       </c>
       <c r="C52" t="s">
         <v>46</v>
       </c>
       <c r="D52" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B53">
-        <v>45609</v>
+        <v>45443</v>
       </c>
       <c r="C53" t="s">
         <v>47</v>
       </c>
       <c r="D53" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B54">
-        <v>45609</v>
+        <v>45443</v>
       </c>
       <c r="C54" t="s">
         <v>47</v>
       </c>
       <c r="D54" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B55">
         <v>45609</v>
       </c>
       <c r="C55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B56">
         <v>45609</v>
       </c>
       <c r="C56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B57">
         <v>45609</v>
       </c>
       <c r="C57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D57" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B58">
         <v>45609</v>
       </c>
       <c r="C58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B59">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C59" t="s">
         <v>48</v>
       </c>
       <c r="D59" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B60">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C60" t="s">
         <v>48</v>
       </c>
       <c r="D60" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B61">
         <v>45495</v>
       </c>
       <c r="C61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B62">
         <v>45495</v>
       </c>
       <c r="C62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D62" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B63">
         <v>45495</v>
       </c>
       <c r="C63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D63" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B64">
         <v>45495</v>
       </c>
       <c r="C64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D64" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B65">
         <v>45495</v>
       </c>
       <c r="C65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D65" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B66">
         <v>45495</v>
       </c>
       <c r="C66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D66" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B67">
         <v>45495</v>
       </c>
       <c r="C67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D67" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B68">
-        <v>45612</v>
+        <v>45495</v>
       </c>
       <c r="C68" t="s">
         <v>49</v>
       </c>
       <c r="D68" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B69">
-        <v>45612</v>
+        <v>45495</v>
       </c>
       <c r="C69" t="s">
         <v>49</v>
       </c>
       <c r="D69" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B70">
-        <v>45612</v>
+        <v>45495</v>
       </c>
       <c r="C70" t="s">
         <v>49</v>
       </c>
       <c r="D70" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B71">
-        <v>45617</v>
+        <v>45612</v>
       </c>
       <c r="C71" t="s">
         <v>50</v>
       </c>
       <c r="D71" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B72">
-        <v>45617</v>
+        <v>45612</v>
       </c>
       <c r="C72" t="s">
         <v>50</v>
       </c>
       <c r="D72" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B73">
-        <v>45617</v>
+        <v>45612</v>
       </c>
       <c r="C73" t="s">
         <v>50</v>
       </c>
       <c r="D73" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B74">
         <v>45617</v>
       </c>
       <c r="C74" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D74" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B75">
         <v>45617</v>
       </c>
       <c r="C75" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D75" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B76">
         <v>45617</v>
       </c>
       <c r="C76" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D76" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B77">
         <v>45617</v>
       </c>
       <c r="C77" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D77" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1976,88 +1979,88 @@
         <v>45617</v>
       </c>
       <c r="C78" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D78" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B79">
-        <v>45250</v>
+        <v>45617</v>
       </c>
       <c r="C79" t="s">
         <v>51</v>
       </c>
       <c r="D79" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B80">
-        <v>45497</v>
+        <v>45617</v>
       </c>
       <c r="C80" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D80" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B81">
-        <v>45497</v>
+        <v>45617</v>
       </c>
       <c r="C81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D81" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B82">
-        <v>45497</v>
+        <v>45617</v>
       </c>
       <c r="C82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D82" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B83">
-        <v>45638</v>
+        <v>45250</v>
       </c>
       <c r="C83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D83" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B84">
-        <v>45638</v>
+        <v>45497</v>
       </c>
       <c r="C84" t="s">
         <v>53</v>
@@ -2068,10 +2071,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B85">
-        <v>45638</v>
+        <v>45497</v>
       </c>
       <c r="C85" t="s">
         <v>53</v>
@@ -2082,24 +2085,24 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B86">
-        <v>45639</v>
+        <v>45497</v>
       </c>
       <c r="C86" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D86" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B87">
-        <v>45639</v>
+        <v>45638</v>
       </c>
       <c r="C87" t="s">
         <v>54</v>
@@ -2110,10 +2113,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B88">
-        <v>45639</v>
+        <v>45638</v>
       </c>
       <c r="C88" t="s">
         <v>54</v>
@@ -2124,10 +2127,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B89">
-        <v>45639</v>
+        <v>45638</v>
       </c>
       <c r="C89" t="s">
         <v>54</v>
@@ -2138,24 +2141,24 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B90">
-        <v>45640</v>
+        <v>45638</v>
       </c>
       <c r="C90" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D90" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B91">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="C91" t="s">
         <v>55</v>
@@ -2166,10 +2169,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B92">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="C92" t="s">
         <v>55</v>
@@ -2180,10 +2183,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B93">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="C93" t="s">
         <v>55</v>
@@ -2194,290 +2197,290 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B94">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="C94" t="s">
         <v>55</v>
       </c>
       <c r="D94" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B95">
         <v>45640</v>
       </c>
       <c r="C95" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D95" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B96">
         <v>45640</v>
       </c>
       <c r="C96" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D96" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B97">
         <v>45640</v>
       </c>
       <c r="C97" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D97" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B98">
-        <v>46038</v>
+        <v>45640</v>
       </c>
       <c r="C98" t="s">
         <v>56</v>
       </c>
       <c r="D98" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B99">
-        <v>46038</v>
+        <v>45640</v>
       </c>
       <c r="C99" t="s">
         <v>56</v>
       </c>
       <c r="D99" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B100">
-        <v>46038</v>
+        <v>45640</v>
       </c>
       <c r="C100" t="s">
         <v>56</v>
       </c>
       <c r="D100" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B101">
-        <v>46038</v>
+        <v>45640</v>
       </c>
       <c r="C101" t="s">
         <v>56</v>
       </c>
       <c r="D101" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B102">
-        <v>46038</v>
+        <v>45640</v>
       </c>
       <c r="C102" t="s">
         <v>56</v>
       </c>
       <c r="D102" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B103">
-        <v>42987</v>
+        <v>46038</v>
       </c>
       <c r="C103" t="s">
         <v>57</v>
       </c>
       <c r="D103" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B104">
-        <v>42987</v>
+        <v>46038</v>
       </c>
       <c r="C104" t="s">
         <v>57</v>
       </c>
       <c r="D104" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B105">
-        <v>42987</v>
+        <v>46038</v>
       </c>
       <c r="C105" t="s">
         <v>57</v>
       </c>
       <c r="D105" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B106">
-        <v>42987</v>
+        <v>46038</v>
       </c>
       <c r="C106" t="s">
         <v>57</v>
       </c>
       <c r="D106" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B107">
-        <v>44253</v>
+        <v>46038</v>
       </c>
       <c r="C107" t="s">
         <v>57</v>
       </c>
       <c r="D107" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B108">
-        <v>45139</v>
+        <v>42987</v>
       </c>
       <c r="C108" t="s">
         <v>58</v>
       </c>
       <c r="D108" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B109">
-        <v>45461</v>
+        <v>42987</v>
       </c>
       <c r="C109" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D109" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B110">
-        <v>45461</v>
+        <v>42987</v>
       </c>
       <c r="C110" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D110" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B111">
-        <v>45461</v>
+        <v>42987</v>
       </c>
       <c r="C111" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D111" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B112">
-        <v>45461</v>
+        <v>44253</v>
       </c>
       <c r="C112" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D112" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B113">
-        <v>45242</v>
+        <v>45139</v>
       </c>
       <c r="C113" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D113" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B114">
-        <v>45242</v>
+        <v>45461</v>
       </c>
       <c r="C114" t="s">
         <v>60</v>
@@ -2488,10 +2491,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B115">
-        <v>45242</v>
+        <v>45461</v>
       </c>
       <c r="C115" t="s">
         <v>60</v>
@@ -2502,10 +2505,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B116">
-        <v>45242</v>
+        <v>45461</v>
       </c>
       <c r="C116" t="s">
         <v>60</v>
@@ -2516,108 +2519,108 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B117">
-        <v>45242</v>
+        <v>45461</v>
       </c>
       <c r="C117" t="s">
         <v>60</v>
       </c>
       <c r="D117" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B118">
-        <v>46032</v>
+        <v>45242</v>
       </c>
       <c r="C118" t="s">
         <v>61</v>
       </c>
       <c r="D118" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B119">
-        <v>46032</v>
+        <v>45242</v>
       </c>
       <c r="C119" t="s">
         <v>61</v>
       </c>
       <c r="D119" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B120">
-        <v>46032</v>
+        <v>45242</v>
       </c>
       <c r="C120" t="s">
         <v>61</v>
       </c>
       <c r="D120" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B121">
-        <v>46032</v>
+        <v>45242</v>
       </c>
       <c r="C121" t="s">
         <v>61</v>
       </c>
       <c r="D121" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B122">
-        <v>46032</v>
+        <v>45242</v>
       </c>
       <c r="C122" t="s">
         <v>61</v>
       </c>
       <c r="D122" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B123">
-        <v>45486</v>
+        <v>45242</v>
       </c>
       <c r="C123" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D123" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B124">
-        <v>45486</v>
+        <v>46032</v>
       </c>
       <c r="C124" t="s">
         <v>62</v>
@@ -2628,195 +2631,195 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B125">
-        <v>45613</v>
+        <v>46032</v>
       </c>
       <c r="C125" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D125" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B126">
-        <v>45613</v>
+        <v>46032</v>
       </c>
       <c r="C126" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D126" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B127">
-        <v>45473</v>
+        <v>46032</v>
       </c>
       <c r="C127" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D127" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B128">
-        <v>45473</v>
+        <v>46032</v>
       </c>
       <c r="C128" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D128" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B129">
-        <v>45473</v>
+        <v>45486</v>
       </c>
       <c r="C129" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D129" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B130">
-        <v>45473</v>
+        <v>45486</v>
       </c>
       <c r="C130" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D130" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B131">
-        <v>45473</v>
+        <v>45613</v>
       </c>
       <c r="C131" t="s">
         <v>64</v>
       </c>
       <c r="D131" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B132">
-        <v>45119</v>
+        <v>45613</v>
       </c>
       <c r="C132" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D132" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B133">
-        <v>45471</v>
+        <v>45473</v>
       </c>
       <c r="C133" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D133" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B134">
-        <v>45471</v>
+        <v>45473</v>
       </c>
       <c r="C134" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D134" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B135">
-        <v>45946</v>
+        <v>45473</v>
       </c>
       <c r="C135" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D135" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B136">
-        <v>45946</v>
+        <v>45473</v>
       </c>
       <c r="C136" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D136" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B137">
-        <v>45518</v>
+        <v>45473</v>
       </c>
       <c r="C137" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D137" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B138">
-        <v>45518</v>
+        <v>45119</v>
       </c>
       <c r="C138" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D138" t="s">
         <v>152</v>
@@ -2824,265 +2827,265 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B139">
-        <v>45518</v>
+        <v>45471</v>
       </c>
       <c r="C139" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D139" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B140">
-        <v>45518</v>
+        <v>45471</v>
       </c>
       <c r="C140" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D140" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B141">
-        <v>45518</v>
+        <v>45946</v>
       </c>
       <c r="C141" t="s">
         <v>68</v>
       </c>
       <c r="D141" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B142">
-        <v>45518</v>
+        <v>45946</v>
       </c>
       <c r="C142" t="s">
         <v>68</v>
       </c>
       <c r="D142" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B143">
         <v>45518</v>
       </c>
       <c r="C143" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D143" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B144">
         <v>45518</v>
       </c>
       <c r="C144" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D144" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B145">
-        <v>45869</v>
+        <v>45518</v>
       </c>
       <c r="C145" t="s">
         <v>69</v>
       </c>
       <c r="D145" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B146">
-        <v>45869</v>
+        <v>45518</v>
       </c>
       <c r="C146" t="s">
         <v>69</v>
       </c>
       <c r="D146" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B147">
-        <v>45564</v>
+        <v>45518</v>
       </c>
       <c r="C147" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D147" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B148">
-        <v>45564</v>
+        <v>45518</v>
       </c>
       <c r="C148" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D148" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B149">
-        <v>45564</v>
+        <v>45518</v>
       </c>
       <c r="C149" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D149" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B150">
-        <v>45459</v>
+        <v>45518</v>
       </c>
       <c r="C150" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D150" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B151">
-        <v>45459</v>
+        <v>45518</v>
       </c>
       <c r="C151" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D151" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B152">
-        <v>45459</v>
+        <v>45869</v>
       </c>
       <c r="C152" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D152" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B153">
-        <v>42853</v>
+        <v>45869</v>
       </c>
       <c r="C153" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D153" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B154">
-        <v>42608</v>
+        <v>45564</v>
       </c>
       <c r="C154" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D154" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B155">
-        <v>45481</v>
+        <v>45564</v>
       </c>
       <c r="C155" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D155" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B156">
-        <v>45642</v>
+        <v>45564</v>
       </c>
       <c r="C156" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D156" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B157">
-        <v>45642</v>
+        <v>45459</v>
       </c>
       <c r="C157" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D157" t="s">
         <v>152</v>
@@ -3090,13 +3093,13 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B158">
-        <v>45642</v>
+        <v>45459</v>
       </c>
       <c r="C158" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D158" t="s">
         <v>153</v>
@@ -3104,167 +3107,167 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B159">
-        <v>45643</v>
+        <v>45459</v>
       </c>
       <c r="C159" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D159" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B160">
-        <v>45643</v>
+        <v>42853</v>
       </c>
       <c r="C160" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D160" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B161">
-        <v>45643</v>
+        <v>42608</v>
       </c>
       <c r="C161" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D161" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B162">
-        <v>45643</v>
+        <v>45481</v>
       </c>
       <c r="C162" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D162" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B163">
-        <v>46043</v>
+        <v>45642</v>
       </c>
       <c r="C163" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D163" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B164">
-        <v>45444</v>
+        <v>45642</v>
       </c>
       <c r="C164" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D164" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B165">
-        <v>45444</v>
+        <v>45642</v>
       </c>
       <c r="C165" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D165" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B166">
-        <v>45444</v>
+        <v>45643</v>
       </c>
       <c r="C166" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D166" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B167">
-        <v>45132</v>
+        <v>45643</v>
       </c>
       <c r="C167" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D167" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B168">
-        <v>45132</v>
+        <v>45643</v>
       </c>
       <c r="C168" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D168" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B169">
-        <v>45446</v>
+        <v>45643</v>
       </c>
       <c r="C169" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D169" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B170">
-        <v>45446</v>
+        <v>46043</v>
       </c>
       <c r="C170" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D170" t="s">
         <v>152</v>
@@ -3272,72 +3275,72 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B171">
-        <v>45446</v>
+        <v>45444</v>
       </c>
       <c r="C171" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D171" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B172">
-        <v>45446</v>
+        <v>45444</v>
       </c>
       <c r="C172" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D172" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B173">
-        <v>45446</v>
+        <v>45444</v>
       </c>
       <c r="C173" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D173" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B174">
-        <v>45446</v>
+        <v>45132</v>
       </c>
       <c r="C174" t="s">
         <v>80</v>
       </c>
       <c r="D174" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B175">
-        <v>45446</v>
+        <v>45132</v>
       </c>
       <c r="C175" t="s">
         <v>80</v>
       </c>
       <c r="D175" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3348,455 +3351,455 @@
         <v>45446</v>
       </c>
       <c r="C176" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D176" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B177">
         <v>45446</v>
       </c>
       <c r="C177" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D177" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B178">
-        <v>45244</v>
+        <v>45446</v>
       </c>
       <c r="C178" t="s">
         <v>81</v>
       </c>
       <c r="D178" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B179">
-        <v>45988</v>
+        <v>45446</v>
       </c>
       <c r="C179" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D179" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B180">
-        <v>45988</v>
+        <v>45446</v>
       </c>
       <c r="C180" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D180" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B181">
-        <v>45487</v>
+        <v>45446</v>
       </c>
       <c r="C181" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D181" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B182">
-        <v>45487</v>
+        <v>45446</v>
       </c>
       <c r="C182" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D182" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B183">
-        <v>45520</v>
+        <v>45446</v>
       </c>
       <c r="C183" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D183" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B184">
-        <v>45158</v>
+        <v>45446</v>
       </c>
       <c r="C184" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D184" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B185">
-        <v>45158</v>
+        <v>45446</v>
       </c>
       <c r="C185" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D185" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B186">
-        <v>45886</v>
+        <v>45244</v>
       </c>
       <c r="C186" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D186" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B187">
-        <v>40342</v>
+        <v>45988</v>
       </c>
       <c r="C187" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D187" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B188">
-        <v>40713</v>
+        <v>45988</v>
       </c>
       <c r="C188" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D188" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B189">
-        <v>40321</v>
+        <v>45487</v>
       </c>
       <c r="C189" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D189" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B190">
-        <v>40432</v>
+        <v>45487</v>
       </c>
       <c r="C190" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D190" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B191">
-        <v>45271</v>
+        <v>45520</v>
       </c>
       <c r="C191" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D191" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B192">
-        <v>45488</v>
+        <v>45158</v>
       </c>
       <c r="C192" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D192" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B193">
-        <v>45488</v>
+        <v>45158</v>
       </c>
       <c r="C193" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D193" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B194">
-        <v>45536</v>
+        <v>45886</v>
       </c>
       <c r="C194" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D194" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B195">
-        <v>45536</v>
+        <v>40342</v>
       </c>
       <c r="C195" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D195" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B196">
-        <v>45536</v>
+        <v>40713</v>
       </c>
       <c r="C196" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D196" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B197">
-        <v>45536</v>
+        <v>40321</v>
       </c>
       <c r="C197" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D197" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B198">
-        <v>45536</v>
+        <v>40432</v>
       </c>
       <c r="C198" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D198" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B199">
-        <v>45536</v>
+        <v>45271</v>
       </c>
       <c r="C199" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D199" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B200">
-        <v>45594</v>
+        <v>45488</v>
       </c>
       <c r="C200" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D200" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B201">
-        <v>45594</v>
+        <v>45488</v>
       </c>
       <c r="C201" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D201" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B202">
-        <v>45653</v>
+        <v>45536</v>
       </c>
       <c r="C202" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D202" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B203">
-        <v>45653</v>
+        <v>45536</v>
       </c>
       <c r="C203" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D203" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B204">
-        <v>45653</v>
+        <v>45536</v>
       </c>
       <c r="C204" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D204" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B205">
-        <v>45654</v>
+        <v>45536</v>
       </c>
       <c r="C205" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D205" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B206">
-        <v>45654</v>
+        <v>45536</v>
       </c>
       <c r="C206" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D206" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B207">
-        <v>45655</v>
+        <v>45536</v>
       </c>
       <c r="C207" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D207" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B208">
-        <v>45655</v>
+        <v>45594</v>
       </c>
       <c r="C208" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D208" t="s">
         <v>152</v>
@@ -3804,13 +3807,13 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B209">
-        <v>45655</v>
+        <v>45594</v>
       </c>
       <c r="C209" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D209" t="s">
         <v>153</v>
@@ -3818,97 +3821,97 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B210">
-        <v>45655</v>
+        <v>45653</v>
       </c>
       <c r="C210" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D210" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B211">
-        <v>45655</v>
+        <v>45653</v>
       </c>
       <c r="C211" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D211" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B212">
-        <v>45145</v>
+        <v>45653</v>
       </c>
       <c r="C212" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D212" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B213">
-        <v>45456</v>
+        <v>45653</v>
       </c>
       <c r="C213" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D213" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B214">
-        <v>45300</v>
+        <v>45654</v>
       </c>
       <c r="C214" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D214" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B215">
-        <v>45656</v>
+        <v>45654</v>
       </c>
       <c r="C215" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D215" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B216">
-        <v>45656</v>
+        <v>45655</v>
       </c>
       <c r="C216" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D216" t="s">
         <v>152</v>
@@ -3916,13 +3919,13 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B217">
-        <v>45656</v>
+        <v>45655</v>
       </c>
       <c r="C217" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D217" t="s">
         <v>153</v>
@@ -3930,13 +3933,13 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B218">
-        <v>45656</v>
+        <v>45655</v>
       </c>
       <c r="C218" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D218" t="s">
         <v>154</v>
@@ -3944,83 +3947,83 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B219">
-        <v>45657</v>
+        <v>45655</v>
       </c>
       <c r="C219" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D219" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B220">
-        <v>45657</v>
+        <v>45655</v>
       </c>
       <c r="C220" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D220" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B221">
-        <v>45657</v>
+        <v>45145</v>
       </c>
       <c r="C221" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D221" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B222">
-        <v>45657</v>
+        <v>45456</v>
       </c>
       <c r="C222" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D222" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B223">
-        <v>45658</v>
+        <v>45300</v>
       </c>
       <c r="C223" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D223" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B224">
-        <v>45658</v>
+        <v>45656</v>
       </c>
       <c r="C224" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D224" t="s">
         <v>152</v>
@@ -4028,13 +4031,13 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B225">
-        <v>45658</v>
+        <v>45656</v>
       </c>
       <c r="C225" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D225" t="s">
         <v>153</v>
@@ -4042,13 +4045,13 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B226">
-        <v>45658</v>
+        <v>45656</v>
       </c>
       <c r="C226" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D226" t="s">
         <v>154</v>
@@ -4056,27 +4059,27 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B227">
-        <v>45658</v>
+        <v>45656</v>
       </c>
       <c r="C227" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D227" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B228">
-        <v>45658</v>
+        <v>45656</v>
       </c>
       <c r="C228" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D228" t="s">
         <v>157</v>
@@ -4084,44 +4087,44 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B229">
-        <v>45658</v>
+        <v>45657</v>
       </c>
       <c r="C229" t="s">
         <v>103</v>
       </c>
       <c r="D229" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B230">
-        <v>45658</v>
+        <v>45657</v>
       </c>
       <c r="C230" t="s">
         <v>103</v>
       </c>
       <c r="D230" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B231">
-        <v>45993</v>
+        <v>45657</v>
       </c>
       <c r="C231" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D231" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4129,24 +4132,24 @@
         <v>21</v>
       </c>
       <c r="B232">
-        <v>45111</v>
+        <v>45657</v>
       </c>
       <c r="C232" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D232" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B233">
-        <v>45111</v>
+        <v>45658</v>
       </c>
       <c r="C233" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D233" t="s">
         <v>152</v>
@@ -4154,184 +4157,184 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B234">
-        <v>45931</v>
+        <v>45658</v>
       </c>
       <c r="C234" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D234" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B235">
-        <v>45931</v>
+        <v>45658</v>
       </c>
       <c r="C235" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D235" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B236">
-        <v>45931</v>
+        <v>45658</v>
       </c>
       <c r="C236" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D236" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B237">
-        <v>45931</v>
+        <v>45658</v>
       </c>
       <c r="C237" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D237" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B238">
-        <v>46046</v>
+        <v>45658</v>
       </c>
       <c r="C238" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D238" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B239">
-        <v>46046</v>
+        <v>45658</v>
       </c>
       <c r="C239" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D239" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B240">
-        <v>46046</v>
+        <v>45658</v>
       </c>
       <c r="C240" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D240" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B241">
-        <v>46046</v>
+        <v>45993</v>
       </c>
       <c r="C241" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D241" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B242">
-        <v>46046</v>
+        <v>45111</v>
       </c>
       <c r="C242" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D242" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B243">
-        <v>46046</v>
+        <v>45111</v>
       </c>
       <c r="C243" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D243" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B244">
-        <v>46046</v>
+        <v>45931</v>
       </c>
       <c r="C244" t="s">
         <v>107</v>
       </c>
       <c r="D244" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B245">
-        <v>46046</v>
+        <v>45931</v>
       </c>
       <c r="C245" t="s">
         <v>107</v>
       </c>
       <c r="D245" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B246">
-        <v>46046</v>
+        <v>45931</v>
       </c>
       <c r="C246" t="s">
         <v>107</v>
       </c>
       <c r="D246" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4339,21 +4342,21 @@
         <v>24</v>
       </c>
       <c r="B247">
-        <v>45133</v>
+        <v>45931</v>
       </c>
       <c r="C247" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D247" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B248">
-        <v>45133</v>
+        <v>46046</v>
       </c>
       <c r="C248" t="s">
         <v>108</v>
@@ -4364,10 +4367,10 @@
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B249">
-        <v>45133</v>
+        <v>46046</v>
       </c>
       <c r="C249" t="s">
         <v>108</v>
@@ -4378,10 +4381,10 @@
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B250">
-        <v>45133</v>
+        <v>46046</v>
       </c>
       <c r="C250" t="s">
         <v>108</v>
@@ -4392,128 +4395,128 @@
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B251">
-        <v>45133</v>
+        <v>46046</v>
       </c>
       <c r="C251" t="s">
         <v>108</v>
       </c>
       <c r="D251" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B252">
-        <v>45933</v>
+        <v>46046</v>
       </c>
       <c r="C252" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D252" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B253">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C253" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D253" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B254">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C254" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D254" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B255">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C255" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D255" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B256">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C256" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D256" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B257">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C257" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D257" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B258">
-        <v>45517</v>
+        <v>45133</v>
       </c>
       <c r="C258" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D258" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B259">
-        <v>45517</v>
+        <v>45133</v>
       </c>
       <c r="C259" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D259" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4521,195 +4524,195 @@
         <v>25</v>
       </c>
       <c r="B260">
-        <v>45294</v>
+        <v>45133</v>
       </c>
       <c r="C260" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D260" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B261">
-        <v>45294</v>
+        <v>45133</v>
       </c>
       <c r="C261" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D261" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B262">
-        <v>45294</v>
+        <v>45133</v>
       </c>
       <c r="C262" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D262" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B263">
-        <v>45294</v>
+        <v>45933</v>
       </c>
       <c r="C263" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D263" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B264">
-        <v>45294</v>
+        <v>45517</v>
       </c>
       <c r="C264" t="s">
         <v>111</v>
       </c>
       <c r="D264" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B265">
-        <v>45294</v>
+        <v>45517</v>
       </c>
       <c r="C265" t="s">
         <v>111</v>
       </c>
       <c r="D265" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B266">
-        <v>45294</v>
+        <v>45517</v>
       </c>
       <c r="C266" t="s">
         <v>111</v>
       </c>
       <c r="D266" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B267">
-        <v>45665</v>
+        <v>45517</v>
       </c>
       <c r="C267" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D267" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B268">
-        <v>45665</v>
+        <v>45517</v>
       </c>
       <c r="C268" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D268" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B269">
-        <v>45665</v>
+        <v>45517</v>
       </c>
       <c r="C269" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D269" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B270">
-        <v>45665</v>
+        <v>45517</v>
       </c>
       <c r="C270" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D270" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B271">
-        <v>45665</v>
+        <v>45294</v>
       </c>
       <c r="C271" t="s">
         <v>112</v>
       </c>
       <c r="D271" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B272">
-        <v>45665</v>
+        <v>45294</v>
       </c>
       <c r="C272" t="s">
         <v>112</v>
       </c>
       <c r="D272" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B273">
-        <v>45665</v>
+        <v>45294</v>
       </c>
       <c r="C273" t="s">
         <v>112</v>
       </c>
       <c r="D273" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -4717,349 +4720,349 @@
         <v>27</v>
       </c>
       <c r="B274">
-        <v>45665</v>
+        <v>45294</v>
       </c>
       <c r="C274" t="s">
         <v>112</v>
       </c>
       <c r="D274" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B275">
-        <v>45615</v>
+        <v>45294</v>
       </c>
       <c r="C275" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D275" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B276">
-        <v>45134</v>
+        <v>45294</v>
       </c>
       <c r="C276" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D276" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B277">
-        <v>45134</v>
+        <v>45294</v>
       </c>
       <c r="C277" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D277" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B278">
-        <v>45134</v>
+        <v>45294</v>
       </c>
       <c r="C278" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D278" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B279">
-        <v>45326</v>
+        <v>45665</v>
       </c>
       <c r="C279" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D279" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B280">
-        <v>46052</v>
+        <v>45665</v>
       </c>
       <c r="C280" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D280" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B281">
-        <v>46052</v>
+        <v>45665</v>
       </c>
       <c r="C281" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D281" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B282">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C282" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D282" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B283">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C283" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D283" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B284">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C284" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D284" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B285">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C285" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D285" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B286">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C286" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D286" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B287">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C287" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D287" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B288">
-        <v>46053</v>
+        <v>45615</v>
       </c>
       <c r="C288" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D288" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B289">
-        <v>46053</v>
+        <v>45134</v>
       </c>
       <c r="C289" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D289" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B290">
-        <v>46053</v>
+        <v>45134</v>
       </c>
       <c r="C290" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D290" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B291">
-        <v>46053</v>
+        <v>45134</v>
       </c>
       <c r="C291" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D291" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B292">
-        <v>46053</v>
+        <v>45326</v>
       </c>
       <c r="C292" t="s">
         <v>116</v>
       </c>
       <c r="D292" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B293">
-        <v>46053</v>
+        <v>46052</v>
       </c>
       <c r="C293" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D293" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B294">
-        <v>46053</v>
+        <v>46052</v>
       </c>
       <c r="C294" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D294" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B295">
         <v>46053</v>
       </c>
       <c r="C295" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D295" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B296">
         <v>46053</v>
       </c>
       <c r="C296" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D296" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B297">
-        <v>46021</v>
+        <v>46053</v>
       </c>
       <c r="C297" t="s">
         <v>117</v>
       </c>
       <c r="D297" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B298">
-        <v>46021</v>
+        <v>46053</v>
       </c>
       <c r="C298" t="s">
         <v>117</v>
       </c>
       <c r="D298" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5067,419 +5070,419 @@
         <v>9</v>
       </c>
       <c r="B299">
-        <v>45599</v>
+        <v>46053</v>
       </c>
       <c r="C299" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D299" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B300">
-        <v>45599</v>
+        <v>46053</v>
       </c>
       <c r="C300" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D300" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B301">
-        <v>45599</v>
+        <v>46053</v>
       </c>
       <c r="C301" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D301" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B302">
-        <v>45599</v>
+        <v>46053</v>
       </c>
       <c r="C302" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D302" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B303">
-        <v>45599</v>
+        <v>46053</v>
       </c>
       <c r="C303" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D303" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B304">
-        <v>45243</v>
+        <v>46053</v>
       </c>
       <c r="C304" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D304" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B305">
-        <v>45243</v>
+        <v>46053</v>
       </c>
       <c r="C305" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D305" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B306">
-        <v>45243</v>
+        <v>46053</v>
       </c>
       <c r="C306" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D306" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B307">
-        <v>45466</v>
+        <v>46053</v>
       </c>
       <c r="C307" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D307" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B308">
-        <v>45466</v>
+        <v>46053</v>
       </c>
       <c r="C308" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D308" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B309">
-        <v>45466</v>
+        <v>46053</v>
       </c>
       <c r="C309" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D309" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B310">
-        <v>45466</v>
+        <v>46021</v>
       </c>
       <c r="C310" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D310" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B311">
-        <v>45466</v>
+        <v>46021</v>
       </c>
       <c r="C311" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D311" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B312">
-        <v>45466</v>
+        <v>45599</v>
       </c>
       <c r="C312" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D312" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B313">
-        <v>45466</v>
+        <v>45599</v>
       </c>
       <c r="C313" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D313" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B314">
-        <v>45466</v>
+        <v>45599</v>
       </c>
       <c r="C314" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D314" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B315">
-        <v>45466</v>
+        <v>45599</v>
       </c>
       <c r="C315" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D315" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B316">
-        <v>45511</v>
+        <v>45599</v>
       </c>
       <c r="C316" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D316" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B317">
-        <v>45534</v>
+        <v>45243</v>
       </c>
       <c r="C317" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D317" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B318">
-        <v>45534</v>
+        <v>45243</v>
       </c>
       <c r="C318" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D318" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B319">
-        <v>45534</v>
+        <v>45243</v>
       </c>
       <c r="C319" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D319" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B320">
-        <v>45534</v>
+        <v>45243</v>
       </c>
       <c r="C320" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D320" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B321">
-        <v>45947</v>
+        <v>45466</v>
       </c>
       <c r="C321" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D321" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B322">
-        <v>45146</v>
+        <v>45466</v>
       </c>
       <c r="C322" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D322" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B323">
-        <v>45825</v>
+        <v>45466</v>
       </c>
       <c r="C323" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D323" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B324">
-        <v>45245</v>
+        <v>45466</v>
       </c>
       <c r="C324" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D324" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B325">
-        <v>45245</v>
+        <v>45466</v>
       </c>
       <c r="C325" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D325" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B326">
-        <v>45245</v>
+        <v>45466</v>
       </c>
       <c r="C326" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D326" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B327">
-        <v>45245</v>
+        <v>45466</v>
       </c>
       <c r="C327" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D327" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B328">
-        <v>46037</v>
+        <v>45466</v>
       </c>
       <c r="C328" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D328" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -5487,13 +5490,13 @@
         <v>18</v>
       </c>
       <c r="B329">
-        <v>45535</v>
+        <v>45466</v>
       </c>
       <c r="C329" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D329" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -5501,27 +5504,27 @@
         <v>14</v>
       </c>
       <c r="B330">
-        <v>45535</v>
+        <v>45466</v>
       </c>
       <c r="C330" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D330" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B331">
-        <v>45535</v>
+        <v>45511</v>
       </c>
       <c r="C331" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D331" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -5529,13 +5532,13 @@
         <v>6</v>
       </c>
       <c r="B332">
-        <v>40207</v>
+        <v>45534</v>
       </c>
       <c r="C332" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D332" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5543,66 +5546,66 @@
         <v>8</v>
       </c>
       <c r="B333">
-        <v>40207</v>
+        <v>45534</v>
       </c>
       <c r="C333" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D333" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B334">
-        <v>46096</v>
+        <v>45534</v>
       </c>
       <c r="C334" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D334" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B335">
-        <v>45247</v>
+        <v>45534</v>
       </c>
       <c r="C335" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D335" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B336">
-        <v>45570</v>
+        <v>45947</v>
       </c>
       <c r="C336" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D336" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B337">
-        <v>45570</v>
+        <v>45146</v>
       </c>
       <c r="C337" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D337" t="s">
         <v>152</v>
@@ -5610,83 +5613,83 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B338">
-        <v>45570</v>
+        <v>45825</v>
       </c>
       <c r="C338" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D338" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B339">
-        <v>45611</v>
+        <v>45245</v>
       </c>
       <c r="C339" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D339" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B340">
-        <v>45611</v>
+        <v>45245</v>
       </c>
       <c r="C340" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D340" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B341">
-        <v>45611</v>
+        <v>45245</v>
       </c>
       <c r="C341" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D341" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B342">
-        <v>45442</v>
+        <v>45245</v>
       </c>
       <c r="C342" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D342" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B343">
-        <v>45442</v>
+        <v>46037</v>
       </c>
       <c r="C343" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D343" t="s">
         <v>152</v>
@@ -5694,615 +5697,615 @@
     </row>
     <row r="344" spans="1:4">
       <c r="A344" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B344">
-        <v>45442</v>
+        <v>45535</v>
       </c>
       <c r="C344" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D344" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B345">
-        <v>46095</v>
+        <v>45535</v>
       </c>
       <c r="C345" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D345" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B346">
-        <v>46095</v>
+        <v>45535</v>
       </c>
       <c r="C346" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D346" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B347">
-        <v>46095</v>
+        <v>40207</v>
       </c>
       <c r="C347" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D347" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B348">
-        <v>46095</v>
+        <v>40207</v>
       </c>
       <c r="C348" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D348" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B349">
-        <v>46095</v>
+        <v>46096</v>
       </c>
       <c r="C349" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D349" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B350">
-        <v>46095</v>
+        <v>45247</v>
       </c>
       <c r="C350" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D350" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B351">
-        <v>45703</v>
+        <v>45570</v>
       </c>
       <c r="C351" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D351" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B352">
-        <v>45616</v>
+        <v>45570</v>
       </c>
       <c r="C352" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D352" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B353">
-        <v>46050</v>
+        <v>45570</v>
       </c>
       <c r="C353" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D353" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B354">
-        <v>45620</v>
+        <v>45611</v>
       </c>
       <c r="C354" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D354" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B355">
-        <v>45620</v>
+        <v>45611</v>
       </c>
       <c r="C355" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D355" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B356">
-        <v>45620</v>
+        <v>45611</v>
       </c>
       <c r="C356" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D356" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B357">
-        <v>45620</v>
+        <v>45442</v>
       </c>
       <c r="C357" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D357" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B358">
-        <v>45620</v>
+        <v>45442</v>
       </c>
       <c r="C358" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D358" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B359">
-        <v>45620</v>
+        <v>45442</v>
       </c>
       <c r="C359" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D359" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B360">
-        <v>45620</v>
+        <v>46095</v>
       </c>
       <c r="C360" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D360" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B361">
-        <v>45620</v>
+        <v>46095</v>
       </c>
       <c r="C361" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D361" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B362">
-        <v>45619</v>
+        <v>46095</v>
       </c>
       <c r="C362" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D362" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B363">
-        <v>45619</v>
+        <v>46095</v>
       </c>
       <c r="C363" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D363" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B364">
-        <v>45619</v>
+        <v>46095</v>
       </c>
       <c r="C364" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D364" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B365">
-        <v>45619</v>
+        <v>46095</v>
       </c>
       <c r="C365" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D365" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B366">
-        <v>45619</v>
+        <v>45703</v>
       </c>
       <c r="C366" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D366" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B367">
-        <v>45619</v>
+        <v>45616</v>
       </c>
       <c r="C367" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D367" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B368">
-        <v>45619</v>
+        <v>46050</v>
       </c>
       <c r="C368" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D368" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B369">
-        <v>45619</v>
+        <v>45620</v>
       </c>
       <c r="C369" t="s">
         <v>140</v>
       </c>
       <c r="D369" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B370">
-        <v>45114</v>
+        <v>45620</v>
       </c>
       <c r="C370" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D370" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B371">
-        <v>45989</v>
+        <v>45620</v>
       </c>
       <c r="C371" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D371" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B372">
-        <v>45496</v>
+        <v>45620</v>
       </c>
       <c r="C372" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D372" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B373">
-        <v>45496</v>
+        <v>45620</v>
       </c>
       <c r="C373" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D373" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B374">
-        <v>45537</v>
+        <v>45620</v>
       </c>
       <c r="C374" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D374" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B375">
-        <v>45537</v>
+        <v>45620</v>
       </c>
       <c r="C375" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D375" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B376">
-        <v>45537</v>
+        <v>45620</v>
       </c>
       <c r="C376" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D376" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B377">
-        <v>45537</v>
+        <v>45620</v>
       </c>
       <c r="C377" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D377" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B378">
-        <v>45296</v>
+        <v>45619</v>
       </c>
       <c r="C378" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D378" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B379">
-        <v>45296</v>
+        <v>45619</v>
       </c>
       <c r="C379" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D379" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B380">
-        <v>45137</v>
+        <v>45619</v>
       </c>
       <c r="C380" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D380" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B381">
-        <v>45519</v>
+        <v>45619</v>
       </c>
       <c r="C381" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D381" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B382">
-        <v>45516</v>
+        <v>45619</v>
       </c>
       <c r="C382" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D382" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B383">
-        <v>45516</v>
+        <v>45619</v>
       </c>
       <c r="C383" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D383" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B384">
-        <v>45516</v>
+        <v>45619</v>
       </c>
       <c r="C384" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D384" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B385">
-        <v>45516</v>
+        <v>45619</v>
       </c>
       <c r="C385" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D385" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B386">
-        <v>45472</v>
+        <v>45619</v>
       </c>
       <c r="C386" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D386" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B387">
-        <v>45472</v>
+        <v>45114</v>
       </c>
       <c r="C387" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D387" t="s">
         <v>152</v>
@@ -6310,16 +6313,254 @@
     </row>
     <row r="388" spans="1:4">
       <c r="A388" t="s">
+        <v>13</v>
+      </c>
+      <c r="B388">
+        <v>45989</v>
+      </c>
+      <c r="C388" t="s">
+        <v>143</v>
+      </c>
+      <c r="D388" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" t="s">
+        <v>21</v>
+      </c>
+      <c r="B389">
+        <v>45496</v>
+      </c>
+      <c r="C389" t="s">
+        <v>144</v>
+      </c>
+      <c r="D389" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" t="s">
+        <v>22</v>
+      </c>
+      <c r="B390">
+        <v>45496</v>
+      </c>
+      <c r="C390" t="s">
+        <v>144</v>
+      </c>
+      <c r="D390" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" t="s">
+        <v>27</v>
+      </c>
+      <c r="B391">
+        <v>45537</v>
+      </c>
+      <c r="C391" t="s">
+        <v>145</v>
+      </c>
+      <c r="D391" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" t="s">
+        <v>25</v>
+      </c>
+      <c r="B392">
+        <v>45537</v>
+      </c>
+      <c r="C392" t="s">
+        <v>145</v>
+      </c>
+      <c r="D392" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" t="s">
+        <v>28</v>
+      </c>
+      <c r="B393">
+        <v>45537</v>
+      </c>
+      <c r="C393" t="s">
+        <v>145</v>
+      </c>
+      <c r="D393" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" t="s">
+        <v>26</v>
+      </c>
+      <c r="B394">
+        <v>45537</v>
+      </c>
+      <c r="C394" t="s">
+        <v>145</v>
+      </c>
+      <c r="D394" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" t="s">
+        <v>9</v>
+      </c>
+      <c r="B395">
+        <v>45296</v>
+      </c>
+      <c r="C395" t="s">
+        <v>146</v>
+      </c>
+      <c r="D395" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" t="s">
+        <v>24</v>
+      </c>
+      <c r="B396">
+        <v>45296</v>
+      </c>
+      <c r="C396" t="s">
+        <v>146</v>
+      </c>
+      <c r="D396" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" t="s">
+        <v>21</v>
+      </c>
+      <c r="B397">
+        <v>45137</v>
+      </c>
+      <c r="C397" t="s">
+        <v>147</v>
+      </c>
+      <c r="D397" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" t="s">
+        <v>19</v>
+      </c>
+      <c r="B398">
+        <v>45519</v>
+      </c>
+      <c r="C398" t="s">
+        <v>148</v>
+      </c>
+      <c r="D398" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" t="s">
+        <v>24</v>
+      </c>
+      <c r="B399">
+        <v>45516</v>
+      </c>
+      <c r="C399" t="s">
+        <v>149</v>
+      </c>
+      <c r="D399" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" t="s">
+        <v>24</v>
+      </c>
+      <c r="B400">
+        <v>45516</v>
+      </c>
+      <c r="C400" t="s">
+        <v>149</v>
+      </c>
+      <c r="D400" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" t="s">
+        <v>9</v>
+      </c>
+      <c r="B401">
+        <v>45516</v>
+      </c>
+      <c r="C401" t="s">
+        <v>149</v>
+      </c>
+      <c r="D401" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" t="s">
+        <v>6</v>
+      </c>
+      <c r="B402">
+        <v>45516</v>
+      </c>
+      <c r="C402" t="s">
+        <v>149</v>
+      </c>
+      <c r="D402" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" t="s">
+        <v>7</v>
+      </c>
+      <c r="B403">
+        <v>45472</v>
+      </c>
+      <c r="C403" t="s">
+        <v>150</v>
+      </c>
+      <c r="D403" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" t="s">
+        <v>6</v>
+      </c>
+      <c r="B404">
+        <v>45472</v>
+      </c>
+      <c r="C404" t="s">
+        <v>150</v>
+      </c>
+      <c r="D404" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" t="s">
         <v>14</v>
       </c>
-      <c r="B388">
+      <c r="B405">
         <v>45470</v>
       </c>
-      <c r="C388" t="s">
-        <v>150</v>
-      </c>
-      <c r="D388" t="s">
+      <c r="C405" t="s">
         <v>151</v>
+      </c>
+      <c r="D405" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="176">
   <si>
     <t>player</t>
   </si>
@@ -34,75 +34,78 @@
     <t>Omegarone</t>
   </si>
   <si>
+    <t>Iryastra</t>
+  </si>
+  <si>
+    <t>Nomys</t>
+  </si>
+  <si>
+    <t>Gosseyn</t>
+  </si>
+  <si>
     <t>Veremos</t>
   </si>
   <si>
-    <t>Iryastra</t>
-  </si>
-  <si>
-    <t>Gosseyn</t>
-  </si>
-  <si>
-    <t>Nomys</t>
+    <t>Csamain</t>
   </si>
   <si>
     <t>Nweysa</t>
   </si>
   <si>
-    <t>Csamain</t>
-  </si>
-  <si>
     <t>Drikato</t>
   </si>
   <si>
     <t>Aelvå</t>
   </si>
   <si>
+    <t>Aurallia</t>
+  </si>
+  <si>
     <t>Wølafi</t>
   </si>
   <si>
+    <t>Lupusreginä</t>
+  </si>
+  <si>
+    <t>Warloquë</t>
+  </si>
+  <si>
+    <t>Euphemià</t>
+  </si>
+  <si>
     <t>Lulia</t>
   </si>
   <si>
-    <t>Lupusreginä</t>
-  </si>
-  <si>
-    <t>Euphemià</t>
-  </si>
-  <si>
-    <t>Warloquë</t>
-  </si>
-  <si>
     <t>Skotia</t>
   </si>
   <si>
     <t>Dimoncello</t>
   </si>
   <si>
+    <t>Ninnah</t>
+  </si>
+  <si>
     <t>Queriss</t>
   </si>
   <si>
-    <t>Ninnah</t>
-  </si>
-  <si>
     <t>Nahzerr</t>
   </si>
   <si>
     <t>Nordton</t>
   </si>
   <si>
+    <t>Ørly</t>
+  </si>
+  <si>
+    <t>Hedra</t>
+  </si>
+  <si>
     <t>Pyrobifle</t>
   </si>
   <si>
-    <t>Ørly</t>
-  </si>
-  <si>
     <t>Pamage</t>
   </si>
   <si>
-    <t>Hedra</t>
-  </si>
-  <si>
     <t>Amice of Inconceivable Horror</t>
   </si>
   <si>
@@ -118,6 +121,9 @@
     <t>Belt of Dragons</t>
   </si>
   <si>
+    <t>Belt of the Betrayed</t>
+  </si>
+  <si>
     <t>Belt of the Fallen Wyrm</t>
   </si>
   <si>
@@ -235,6 +241,9 @@
     <t>Frigid Strength of Hodir</t>
   </si>
   <si>
+    <t>Frost-bound Chain Bracers</t>
+  </si>
+  <si>
     <t>Furious Gladiator's Libram of Fortitude</t>
   </si>
   <si>
@@ -319,6 +328,9 @@
     <t>Loop of the Agile</t>
   </si>
   <si>
+    <t>Lotrafen, Spear of the Damned</t>
+  </si>
+  <si>
     <t>Mantle of Fiery Vengeance</t>
   </si>
   <si>
@@ -524,6 +536,9 @@
   </si>
   <si>
     <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
   <si>
     <t>Emblems of Conquest</t>
@@ -884,7 +899,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E405"/>
+  <dimension ref="A1:E421"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -915,10 +930,10 @@
         <v>46068</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -929,10 +944,10 @@
         <v>45663</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -943,10 +958,10 @@
         <v>45663</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -957,10 +972,10 @@
         <v>45663</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -971,10 +986,10 @@
         <v>45663</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -985,10 +1000,10 @@
         <v>46048</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -999,10 +1014,10 @@
         <v>46048</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1013,10 +1028,10 @@
         <v>46048</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1027,38 +1042,38 @@
         <v>45241</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>45241</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>45241</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1069,10 +1084,10 @@
         <v>45553</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1080,97 +1095,97 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>45151</v>
+        <v>45467</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>45460</v>
+        <v>45151</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>45460</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>45484</v>
+        <v>45460</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18">
         <v>45484</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <v>45484</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B20">
-        <v>45135</v>
+        <v>45484</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1181,10 +1196,10 @@
         <v>45135</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1195,10 +1210,10 @@
         <v>45135</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1209,10 +1224,10 @@
         <v>45135</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1223,10 +1238,10 @@
         <v>45135</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1237,192 +1252,192 @@
         <v>45135</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B26">
-        <v>45610</v>
+        <v>45135</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B27">
         <v>45610</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28">
-        <v>45867</v>
+        <v>45610</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B29">
-        <v>46039</v>
+        <v>45610</v>
       </c>
       <c r="C29" t="s">
         <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B30">
-        <v>46039</v>
+        <v>45867</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B31">
-        <v>45632</v>
+        <v>46039</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B32">
-        <v>45632</v>
+        <v>46039</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B33">
         <v>45632</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B34">
         <v>45632</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B35">
         <v>45632</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D35" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B36">
-        <v>45633</v>
+        <v>45632</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B37">
-        <v>45633</v>
+        <v>45632</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D37" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B38">
         <v>45633</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D38" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1430,66 +1445,66 @@
         <v>25</v>
       </c>
       <c r="B39">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D39" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B40">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D40" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B41">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B42">
         <v>45634</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B43">
         <v>45634</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D43" t="s">
         <v>157</v>
@@ -1497,13 +1512,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B44">
         <v>45634</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D44" t="s">
         <v>158</v>
@@ -1511,13 +1526,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B45">
         <v>45634</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D45" t="s">
         <v>159</v>
@@ -1525,195 +1540,195 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B46">
-        <v>45485</v>
+        <v>45634</v>
       </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B47">
-        <v>45485</v>
+        <v>45634</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B48">
-        <v>45587</v>
+        <v>45634</v>
       </c>
       <c r="C48" t="s">
         <v>45</v>
       </c>
       <c r="D48" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B49">
-        <v>45587</v>
+        <v>45485</v>
       </c>
       <c r="C49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D49" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B50">
-        <v>46097</v>
+        <v>45485</v>
       </c>
       <c r="C50" t="s">
         <v>46</v>
       </c>
       <c r="D50" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B51">
-        <v>46097</v>
+        <v>45587</v>
       </c>
       <c r="C51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B52">
-        <v>46097</v>
+        <v>45587</v>
       </c>
       <c r="C52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D52" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B53">
-        <v>45443</v>
+        <v>46097</v>
       </c>
       <c r="C53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D53" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B54">
-        <v>45443</v>
+        <v>46097</v>
       </c>
       <c r="C54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D54" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B55">
-        <v>45609</v>
+        <v>46097</v>
       </c>
       <c r="C55" t="s">
         <v>48</v>
       </c>
       <c r="D55" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B56">
-        <v>45609</v>
+        <v>45443</v>
       </c>
       <c r="C56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D56" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B57">
-        <v>45609</v>
+        <v>45443</v>
       </c>
       <c r="C57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D57" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B58">
         <v>45609</v>
       </c>
       <c r="C58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D58" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B59">
         <v>45609</v>
       </c>
       <c r="C59" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D59" t="s">
         <v>157</v>
@@ -1721,13 +1736,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B60">
         <v>45609</v>
       </c>
       <c r="C60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D60" t="s">
         <v>158</v>
@@ -1735,69 +1750,69 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B61">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D61" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B62">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D62" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B63">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D63" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B64">
         <v>45495</v>
       </c>
       <c r="C64" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D64" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B65">
         <v>45495</v>
       </c>
       <c r="C65" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D65" t="s">
         <v>157</v>
@@ -1805,13 +1820,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B66">
         <v>45495</v>
       </c>
       <c r="C66" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D66" t="s">
         <v>158</v>
@@ -1819,13 +1834,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B67">
         <v>45495</v>
       </c>
       <c r="C67" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D67" t="s">
         <v>159</v>
@@ -1833,86 +1848,86 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B68">
         <v>45495</v>
       </c>
       <c r="C68" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D68" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B69">
         <v>45495</v>
       </c>
       <c r="C69" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D69" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B70">
         <v>45495</v>
       </c>
       <c r="C70" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D70" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B71">
-        <v>45612</v>
+        <v>45495</v>
       </c>
       <c r="C71" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D71" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B72">
-        <v>45612</v>
+        <v>45495</v>
       </c>
       <c r="C72" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D72" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B73">
-        <v>45612</v>
+        <v>45495</v>
       </c>
       <c r="C73" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D73" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1920,66 +1935,66 @@
         <v>15</v>
       </c>
       <c r="B74">
-        <v>45617</v>
+        <v>45612</v>
       </c>
       <c r="C74" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D74" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B75">
-        <v>45617</v>
+        <v>45612</v>
       </c>
       <c r="C75" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D75" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B76">
-        <v>45617</v>
+        <v>45612</v>
       </c>
       <c r="C76" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D76" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B77">
         <v>45617</v>
       </c>
       <c r="C77" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D77" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B78">
         <v>45617</v>
       </c>
       <c r="C78" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D78" t="s">
         <v>157</v>
@@ -1987,13 +2002,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B79">
         <v>45617</v>
       </c>
       <c r="C79" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D79" t="s">
         <v>158</v>
@@ -2001,13 +2016,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B80">
         <v>45617</v>
       </c>
       <c r="C80" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D80" t="s">
         <v>159</v>
@@ -2015,265 +2030,265 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B81">
         <v>45617</v>
       </c>
       <c r="C81" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D81" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B82">
         <v>45617</v>
       </c>
       <c r="C82" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D82" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B83">
-        <v>45250</v>
+        <v>45617</v>
       </c>
       <c r="C83" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D83" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B84">
-        <v>45497</v>
+        <v>45617</v>
       </c>
       <c r="C84" t="s">
         <v>53</v>
       </c>
       <c r="D84" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B85">
-        <v>45497</v>
+        <v>45617</v>
       </c>
       <c r="C85" t="s">
         <v>53</v>
       </c>
       <c r="D85" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B86">
-        <v>45497</v>
+        <v>45250</v>
       </c>
       <c r="C86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D86" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B87">
-        <v>45638</v>
+        <v>45497</v>
       </c>
       <c r="C87" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D87" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B88">
-        <v>45638</v>
+        <v>45497</v>
       </c>
       <c r="C88" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D88" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B89">
-        <v>45638</v>
+        <v>45497</v>
       </c>
       <c r="C89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D89" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B90">
         <v>45638</v>
       </c>
       <c r="C90" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D90" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B91">
-        <v>45639</v>
+        <v>45638</v>
       </c>
       <c r="C91" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D91" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B92">
-        <v>45639</v>
+        <v>45638</v>
       </c>
       <c r="C92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D92" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B93">
-        <v>45639</v>
+        <v>45638</v>
       </c>
       <c r="C93" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D93" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B94">
         <v>45639</v>
       </c>
       <c r="C94" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D94" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B95">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="C95" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D95" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B96">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="C96" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D96" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B97">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="C97" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D97" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B98">
         <v>45640</v>
       </c>
       <c r="C98" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D98" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B99">
         <v>45640</v>
       </c>
       <c r="C99" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D99" t="s">
         <v>157</v>
@@ -2281,13 +2296,13 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B100">
         <v>45640</v>
       </c>
       <c r="C100" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D100" t="s">
         <v>158</v>
@@ -2295,13 +2310,13 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B101">
         <v>45640</v>
       </c>
       <c r="C101" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D101" t="s">
         <v>159</v>
@@ -2309,83 +2324,83 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B102">
         <v>45640</v>
       </c>
       <c r="C102" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D102" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B103">
-        <v>46038</v>
+        <v>45640</v>
       </c>
       <c r="C103" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D103" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B104">
-        <v>46038</v>
+        <v>45640</v>
       </c>
       <c r="C104" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D104" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B105">
-        <v>46038</v>
+        <v>45640</v>
       </c>
       <c r="C105" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D105" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B106">
         <v>46038</v>
       </c>
       <c r="C106" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D106" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B107">
         <v>46038</v>
       </c>
       <c r="C107" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D107" t="s">
         <v>157</v>
@@ -2393,408 +2408,408 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B108">
-        <v>42987</v>
+        <v>46038</v>
       </c>
       <c r="C108" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D108" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B109">
-        <v>42987</v>
+        <v>46038</v>
       </c>
       <c r="C109" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D109" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B110">
-        <v>42987</v>
+        <v>46038</v>
       </c>
       <c r="C110" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D110" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B111">
-        <v>42987</v>
+        <v>46038</v>
       </c>
       <c r="C111" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D111" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B112">
-        <v>44253</v>
+        <v>42987</v>
       </c>
       <c r="C112" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D112" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B113">
-        <v>45139</v>
+        <v>42987</v>
       </c>
       <c r="C113" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D113" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B114">
-        <v>45461</v>
+        <v>42987</v>
       </c>
       <c r="C114" t="s">
         <v>60</v>
       </c>
       <c r="D114" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B115">
-        <v>45461</v>
+        <v>42987</v>
       </c>
       <c r="C115" t="s">
         <v>60</v>
       </c>
       <c r="D115" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B116">
-        <v>45461</v>
+        <v>44253</v>
       </c>
       <c r="C116" t="s">
         <v>60</v>
       </c>
       <c r="D116" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B117">
-        <v>45461</v>
+        <v>45139</v>
       </c>
       <c r="C117" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D117" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B118">
-        <v>45242</v>
+        <v>45461</v>
       </c>
       <c r="C118" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D118" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B119">
-        <v>45242</v>
+        <v>45461</v>
       </c>
       <c r="C119" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D119" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B120">
-        <v>45242</v>
+        <v>45461</v>
       </c>
       <c r="C120" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D120" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B121">
-        <v>45242</v>
+        <v>45461</v>
       </c>
       <c r="C121" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D121" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B122">
         <v>45242</v>
       </c>
       <c r="C122" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D122" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B123">
         <v>45242</v>
       </c>
       <c r="C123" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D123" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B124">
-        <v>46032</v>
+        <v>45242</v>
       </c>
       <c r="C124" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D124" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B125">
-        <v>46032</v>
+        <v>45242</v>
       </c>
       <c r="C125" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D125" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B126">
-        <v>46032</v>
+        <v>45242</v>
       </c>
       <c r="C126" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D126" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B127">
-        <v>46032</v>
+        <v>45242</v>
       </c>
       <c r="C127" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D127" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B128">
         <v>46032</v>
       </c>
       <c r="C128" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D128" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B129">
-        <v>45486</v>
+        <v>46032</v>
       </c>
       <c r="C129" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D129" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B130">
-        <v>45486</v>
+        <v>46032</v>
       </c>
       <c r="C130" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D130" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B131">
-        <v>45613</v>
+        <v>46032</v>
       </c>
       <c r="C131" t="s">
         <v>64</v>
       </c>
       <c r="D131" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B132">
-        <v>45613</v>
+        <v>46032</v>
       </c>
       <c r="C132" t="s">
         <v>64</v>
       </c>
       <c r="D132" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B133">
-        <v>45473</v>
+        <v>46032</v>
       </c>
       <c r="C133" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D133" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B134">
-        <v>45473</v>
+        <v>45486</v>
       </c>
       <c r="C134" t="s">
         <v>65</v>
       </c>
       <c r="D134" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B135">
-        <v>45473</v>
+        <v>45486</v>
       </c>
       <c r="C135" t="s">
         <v>65</v>
       </c>
       <c r="D135" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B136">
-        <v>45473</v>
+        <v>45613</v>
       </c>
       <c r="C136" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D136" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2802,10 +2817,10 @@
         <v>11</v>
       </c>
       <c r="B137">
-        <v>45473</v>
+        <v>45613</v>
       </c>
       <c r="C137" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D137" t="s">
         <v>157</v>
@@ -2813,139 +2828,139 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B138">
-        <v>45119</v>
+        <v>45473</v>
       </c>
       <c r="C138" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D138" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B139">
-        <v>45471</v>
+        <v>45473</v>
       </c>
       <c r="C139" t="s">
         <v>67</v>
       </c>
       <c r="D139" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B140">
-        <v>45471</v>
+        <v>45473</v>
       </c>
       <c r="C140" t="s">
         <v>67</v>
       </c>
       <c r="D140" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B141">
-        <v>45946</v>
+        <v>45473</v>
       </c>
       <c r="C141" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D141" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B142">
-        <v>45946</v>
+        <v>45473</v>
       </c>
       <c r="C142" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D142" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B143">
-        <v>45518</v>
+        <v>45119</v>
       </c>
       <c r="C143" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D143" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B144">
-        <v>45518</v>
+        <v>45471</v>
       </c>
       <c r="C144" t="s">
         <v>69</v>
       </c>
       <c r="D144" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B145">
-        <v>45518</v>
+        <v>45471</v>
       </c>
       <c r="C145" t="s">
         <v>69</v>
       </c>
       <c r="D145" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B146">
-        <v>45518</v>
+        <v>45946</v>
       </c>
       <c r="C146" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D146" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B147">
-        <v>45518</v>
+        <v>45946</v>
       </c>
       <c r="C147" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D147" t="s">
         <v>157</v>
@@ -2953,240 +2968,240 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B148">
         <v>45518</v>
       </c>
       <c r="C148" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D148" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B149">
         <v>45518</v>
       </c>
       <c r="C149" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D149" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B150">
         <v>45518</v>
       </c>
       <c r="C150" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D150" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B151">
         <v>45518</v>
       </c>
       <c r="C151" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D151" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B152">
-        <v>45869</v>
+        <v>45518</v>
       </c>
       <c r="C152" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D152" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B153">
-        <v>45869</v>
+        <v>45518</v>
       </c>
       <c r="C153" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D153" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B154">
-        <v>45564</v>
+        <v>45518</v>
       </c>
       <c r="C154" t="s">
         <v>71</v>
       </c>
       <c r="D154" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B155">
-        <v>45564</v>
+        <v>45518</v>
       </c>
       <c r="C155" t="s">
         <v>71</v>
       </c>
       <c r="D155" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B156">
-        <v>45564</v>
+        <v>45518</v>
       </c>
       <c r="C156" t="s">
         <v>71</v>
       </c>
       <c r="D156" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B157">
-        <v>45459</v>
+        <v>45869</v>
       </c>
       <c r="C157" t="s">
         <v>72</v>
       </c>
       <c r="D157" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B158">
-        <v>45459</v>
+        <v>45869</v>
       </c>
       <c r="C158" t="s">
         <v>72</v>
       </c>
       <c r="D158" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B159">
-        <v>45459</v>
+        <v>45564</v>
       </c>
       <c r="C159" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D159" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B160">
-        <v>42853</v>
+        <v>45564</v>
       </c>
       <c r="C160" t="s">
         <v>73</v>
       </c>
       <c r="D160" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B161">
-        <v>42608</v>
+        <v>45564</v>
       </c>
       <c r="C161" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D161" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B162">
-        <v>45481</v>
+        <v>45459</v>
       </c>
       <c r="C162" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D162" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B163">
-        <v>45642</v>
+        <v>45459</v>
       </c>
       <c r="C163" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D163" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B164">
-        <v>45642</v>
+        <v>45459</v>
       </c>
       <c r="C164" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D164" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3194,97 +3209,97 @@
         <v>14</v>
       </c>
       <c r="B165">
-        <v>45642</v>
+        <v>45454</v>
       </c>
       <c r="C165" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D165" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B166">
-        <v>45643</v>
+        <v>42853</v>
       </c>
       <c r="C166" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D166" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B167">
-        <v>45643</v>
+        <v>42608</v>
       </c>
       <c r="C167" t="s">
         <v>77</v>
       </c>
       <c r="D167" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B168">
-        <v>45643</v>
+        <v>45481</v>
       </c>
       <c r="C168" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D168" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B169">
-        <v>45643</v>
+        <v>45642</v>
       </c>
       <c r="C169" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D169" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B170">
-        <v>46043</v>
+        <v>45642</v>
       </c>
       <c r="C170" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D170" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B171">
-        <v>45444</v>
+        <v>45642</v>
       </c>
       <c r="C171" t="s">
         <v>79</v>
       </c>
       <c r="D171" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3292,27 +3307,27 @@
         <v>20</v>
       </c>
       <c r="B172">
-        <v>45444</v>
+        <v>45643</v>
       </c>
       <c r="C172" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D172" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B173">
-        <v>45444</v>
+        <v>45643</v>
       </c>
       <c r="C173" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D173" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3320,139 +3335,139 @@
         <v>11</v>
       </c>
       <c r="B174">
-        <v>45132</v>
+        <v>45643</v>
       </c>
       <c r="C174" t="s">
         <v>80</v>
       </c>
       <c r="D174" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B175">
-        <v>45132</v>
+        <v>45643</v>
       </c>
       <c r="C175" t="s">
         <v>80</v>
       </c>
       <c r="D175" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B176">
-        <v>45446</v>
+        <v>46043</v>
       </c>
       <c r="C176" t="s">
         <v>81</v>
       </c>
       <c r="D176" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B177">
-        <v>45446</v>
+        <v>45444</v>
       </c>
       <c r="C177" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D177" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B178">
-        <v>45446</v>
+        <v>45444</v>
       </c>
       <c r="C178" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D178" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B179">
-        <v>45446</v>
+        <v>45444</v>
       </c>
       <c r="C179" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D179" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B180">
-        <v>45446</v>
+        <v>45444</v>
       </c>
       <c r="C180" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D180" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B181">
-        <v>45446</v>
+        <v>45132</v>
       </c>
       <c r="C181" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D181" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B182">
-        <v>45446</v>
+        <v>45132</v>
       </c>
       <c r="C182" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D182" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B183">
         <v>45446</v>
       </c>
       <c r="C183" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D183" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3463,304 +3478,304 @@
         <v>45446</v>
       </c>
       <c r="C184" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D184" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B185">
         <v>45446</v>
       </c>
       <c r="C185" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D185" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B186">
-        <v>45244</v>
+        <v>45446</v>
       </c>
       <c r="C186" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D186" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B187">
-        <v>45988</v>
+        <v>45446</v>
       </c>
       <c r="C187" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D187" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B188">
-        <v>45988</v>
+        <v>45446</v>
       </c>
       <c r="C188" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D188" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B189">
-        <v>45487</v>
+        <v>45446</v>
       </c>
       <c r="C189" t="s">
         <v>84</v>
       </c>
       <c r="D189" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B190">
-        <v>45487</v>
+        <v>45446</v>
       </c>
       <c r="C190" t="s">
         <v>84</v>
       </c>
       <c r="D190" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B191">
-        <v>45520</v>
+        <v>45446</v>
       </c>
       <c r="C191" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D191" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B192">
-        <v>45158</v>
+        <v>45446</v>
       </c>
       <c r="C192" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D192" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B193">
-        <v>45158</v>
+        <v>45244</v>
       </c>
       <c r="C193" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D193" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B194">
-        <v>45886</v>
+        <v>45244</v>
       </c>
       <c r="C194" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D194" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B195">
-        <v>40342</v>
+        <v>45988</v>
       </c>
       <c r="C195" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D195" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B196">
-        <v>40713</v>
+        <v>45988</v>
       </c>
       <c r="C196" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D196" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B197">
-        <v>40321</v>
+        <v>45487</v>
       </c>
       <c r="C197" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D197" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B198">
-        <v>40432</v>
+        <v>45487</v>
       </c>
       <c r="C198" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D198" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B199">
-        <v>45271</v>
+        <v>45520</v>
       </c>
       <c r="C199" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D199" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B200">
-        <v>45488</v>
+        <v>45158</v>
       </c>
       <c r="C200" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D200" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B201">
-        <v>45488</v>
+        <v>45158</v>
       </c>
       <c r="C201" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D201" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B202">
-        <v>45536</v>
+        <v>45886</v>
       </c>
       <c r="C202" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D202" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B203">
-        <v>45536</v>
+        <v>40342</v>
       </c>
       <c r="C203" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D203" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B204">
-        <v>45536</v>
+        <v>40713</v>
       </c>
       <c r="C204" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D204" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B205">
-        <v>45536</v>
+        <v>40321</v>
       </c>
       <c r="C205" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D205" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3768,223 +3783,223 @@
         <v>24</v>
       </c>
       <c r="B206">
-        <v>45536</v>
+        <v>40432</v>
       </c>
       <c r="C206" t="s">
         <v>94</v>
       </c>
       <c r="D206" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B207">
-        <v>45536</v>
+        <v>45271</v>
       </c>
       <c r="C207" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D207" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B208">
-        <v>45594</v>
+        <v>45488</v>
       </c>
       <c r="C208" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D208" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B209">
-        <v>45594</v>
+        <v>45488</v>
       </c>
       <c r="C209" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D209" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B210">
-        <v>45653</v>
+        <v>45536</v>
       </c>
       <c r="C210" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D210" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B211">
-        <v>45653</v>
+        <v>45536</v>
       </c>
       <c r="C211" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D211" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B212">
-        <v>45653</v>
+        <v>45536</v>
       </c>
       <c r="C212" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D212" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B213">
-        <v>45653</v>
+        <v>45536</v>
       </c>
       <c r="C213" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D213" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B214">
-        <v>45654</v>
+        <v>45536</v>
       </c>
       <c r="C214" t="s">
         <v>97</v>
       </c>
       <c r="D214" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B215">
-        <v>45654</v>
+        <v>45536</v>
       </c>
       <c r="C215" t="s">
         <v>97</v>
       </c>
       <c r="D215" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B216">
-        <v>45655</v>
+        <v>45594</v>
       </c>
       <c r="C216" t="s">
         <v>98</v>
       </c>
       <c r="D216" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B217">
-        <v>45655</v>
+        <v>45594</v>
       </c>
       <c r="C217" t="s">
         <v>98</v>
       </c>
       <c r="D217" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B218">
-        <v>45655</v>
+        <v>45653</v>
       </c>
       <c r="C218" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D218" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B219">
-        <v>45655</v>
+        <v>45653</v>
       </c>
       <c r="C219" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D219" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B220">
-        <v>45655</v>
+        <v>45653</v>
       </c>
       <c r="C220" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D220" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B221">
-        <v>45145</v>
+        <v>45653</v>
       </c>
       <c r="C221" t="s">
         <v>99</v>
       </c>
       <c r="D221" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3992,1049 +4007,1049 @@
         <v>13</v>
       </c>
       <c r="B222">
-        <v>45456</v>
+        <v>45654</v>
       </c>
       <c r="C222" t="s">
         <v>100</v>
       </c>
       <c r="D222" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B223">
-        <v>45300</v>
+        <v>45654</v>
       </c>
       <c r="C223" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D223" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B224">
-        <v>45656</v>
+        <v>45654</v>
       </c>
       <c r="C224" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D224" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B225">
-        <v>45656</v>
+        <v>45655</v>
       </c>
       <c r="C225" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D225" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B226">
-        <v>45656</v>
+        <v>45655</v>
       </c>
       <c r="C226" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D226" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B227">
-        <v>45656</v>
+        <v>45655</v>
       </c>
       <c r="C227" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D227" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B228">
-        <v>45656</v>
+        <v>45655</v>
       </c>
       <c r="C228" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D228" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B229">
-        <v>45657</v>
+        <v>45655</v>
       </c>
       <c r="C229" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D229" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B230">
-        <v>45657</v>
+        <v>45145</v>
       </c>
       <c r="C230" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D230" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B231">
-        <v>45657</v>
+        <v>45456</v>
       </c>
       <c r="C231" t="s">
         <v>103</v>
       </c>
       <c r="D231" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B232">
-        <v>45657</v>
+        <v>45498</v>
       </c>
       <c r="C232" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D232" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B233">
-        <v>45658</v>
+        <v>45300</v>
       </c>
       <c r="C233" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D233" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B234">
-        <v>45658</v>
+        <v>45300</v>
       </c>
       <c r="C234" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D234" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B235">
-        <v>45658</v>
+        <v>45656</v>
       </c>
       <c r="C235" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D235" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B236">
-        <v>45658</v>
+        <v>45656</v>
       </c>
       <c r="C236" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D236" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B237">
-        <v>45658</v>
+        <v>45656</v>
       </c>
       <c r="C237" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D237" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B238">
-        <v>45658</v>
+        <v>45656</v>
       </c>
       <c r="C238" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D238" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B239">
-        <v>45658</v>
+        <v>45656</v>
       </c>
       <c r="C239" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D239" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B240">
-        <v>45658</v>
+        <v>45657</v>
       </c>
       <c r="C240" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D240" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B241">
-        <v>45993</v>
+        <v>45657</v>
       </c>
       <c r="C241" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D241" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B242">
-        <v>45111</v>
+        <v>45657</v>
       </c>
       <c r="C242" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D242" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B243">
-        <v>45111</v>
+        <v>45657</v>
       </c>
       <c r="C243" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D243" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B244">
-        <v>45931</v>
+        <v>45658</v>
       </c>
       <c r="C244" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D244" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B245">
-        <v>45931</v>
+        <v>45658</v>
       </c>
       <c r="C245" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D245" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B246">
-        <v>45931</v>
+        <v>45658</v>
       </c>
       <c r="C246" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D246" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B247">
-        <v>45931</v>
+        <v>45658</v>
       </c>
       <c r="C247" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D247" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B248">
-        <v>46046</v>
+        <v>45658</v>
       </c>
       <c r="C248" t="s">
         <v>108</v>
       </c>
       <c r="D248" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B249">
-        <v>46046</v>
+        <v>45658</v>
       </c>
       <c r="C249" t="s">
         <v>108</v>
       </c>
       <c r="D249" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B250">
-        <v>46046</v>
+        <v>45658</v>
       </c>
       <c r="C250" t="s">
         <v>108</v>
       </c>
       <c r="D250" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B251">
-        <v>46046</v>
+        <v>45658</v>
       </c>
       <c r="C251" t="s">
         <v>108</v>
       </c>
       <c r="D251" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B252">
-        <v>46046</v>
+        <v>45993</v>
       </c>
       <c r="C252" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D252" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B253">
-        <v>46046</v>
+        <v>45111</v>
       </c>
       <c r="C253" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D253" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B254">
-        <v>46046</v>
+        <v>45111</v>
       </c>
       <c r="C254" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D254" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B255">
-        <v>46046</v>
+        <v>45931</v>
       </c>
       <c r="C255" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D255" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B256">
-        <v>46046</v>
+        <v>45931</v>
       </c>
       <c r="C256" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D256" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B257">
-        <v>46046</v>
+        <v>45931</v>
       </c>
       <c r="C257" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D257" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B258">
-        <v>45133</v>
+        <v>45931</v>
       </c>
       <c r="C258" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D258" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B259">
-        <v>45133</v>
+        <v>45931</v>
       </c>
       <c r="C259" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D259" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B260">
-        <v>45133</v>
+        <v>46046</v>
       </c>
       <c r="C260" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D260" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B261">
-        <v>45133</v>
+        <v>46046</v>
       </c>
       <c r="C261" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D261" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B262">
-        <v>45133</v>
+        <v>46046</v>
       </c>
       <c r="C262" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D262" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B263">
-        <v>45933</v>
+        <v>46046</v>
       </c>
       <c r="C263" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D263" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B264">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C264" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D264" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B265">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C265" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D265" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B266">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C266" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D266" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B267">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C267" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D267" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B268">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C268" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D268" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B269">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C269" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D269" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B270">
-        <v>45517</v>
+        <v>45133</v>
       </c>
       <c r="C270" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D270" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B271">
-        <v>45294</v>
+        <v>45133</v>
       </c>
       <c r="C271" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D271" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B272">
-        <v>45294</v>
+        <v>45133</v>
       </c>
       <c r="C272" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D272" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B273">
-        <v>45294</v>
+        <v>45133</v>
       </c>
       <c r="C273" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D273" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B274">
-        <v>45294</v>
+        <v>45133</v>
       </c>
       <c r="C274" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D274" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B275">
-        <v>45294</v>
+        <v>45933</v>
       </c>
       <c r="C275" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D275" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B276">
-        <v>45294</v>
+        <v>45517</v>
       </c>
       <c r="C276" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D276" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B277">
-        <v>45294</v>
+        <v>45517</v>
       </c>
       <c r="C277" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D277" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B278">
-        <v>45294</v>
+        <v>45517</v>
       </c>
       <c r="C278" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D278" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B279">
-        <v>45665</v>
+        <v>45517</v>
       </c>
       <c r="C279" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D279" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B280">
-        <v>45665</v>
+        <v>45517</v>
       </c>
       <c r="C280" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D280" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B281">
-        <v>45665</v>
+        <v>45517</v>
       </c>
       <c r="C281" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D281" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B282">
-        <v>45665</v>
+        <v>45517</v>
       </c>
       <c r="C282" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D282" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B283">
-        <v>45665</v>
+        <v>45517</v>
       </c>
       <c r="C283" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D283" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B284">
-        <v>45665</v>
+        <v>45294</v>
       </c>
       <c r="C284" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D284" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B285">
-        <v>45665</v>
+        <v>45294</v>
       </c>
       <c r="C285" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D285" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B286">
-        <v>45665</v>
+        <v>45294</v>
       </c>
       <c r="C286" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D286" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B287">
-        <v>45665</v>
+        <v>45294</v>
       </c>
       <c r="C287" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D287" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B288">
-        <v>45615</v>
+        <v>45294</v>
       </c>
       <c r="C288" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D288" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B289">
-        <v>45134</v>
+        <v>45294</v>
       </c>
       <c r="C289" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D289" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B290">
-        <v>45134</v>
+        <v>45294</v>
       </c>
       <c r="C290" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D290" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B291">
-        <v>45134</v>
+        <v>45294</v>
       </c>
       <c r="C291" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D291" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B292">
-        <v>45326</v>
+        <v>45665</v>
       </c>
       <c r="C292" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D292" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B293">
-        <v>46052</v>
+        <v>45665</v>
       </c>
       <c r="C293" t="s">
         <v>117</v>
       </c>
       <c r="D293" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B294">
-        <v>46052</v>
+        <v>45665</v>
       </c>
       <c r="C294" t="s">
         <v>117</v>
       </c>
       <c r="D294" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B295">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C295" t="s">
         <v>117</v>
       </c>
       <c r="D295" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B296">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C296" t="s">
         <v>117</v>
       </c>
       <c r="D296" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5042,237 +5057,237 @@
         <v>18</v>
       </c>
       <c r="B297">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C297" t="s">
         <v>117</v>
       </c>
       <c r="D297" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B298">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C298" t="s">
         <v>117</v>
       </c>
       <c r="D298" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B299">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C299" t="s">
         <v>117</v>
       </c>
       <c r="D299" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B300">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C300" t="s">
         <v>117</v>
       </c>
       <c r="D300" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B301">
-        <v>46053</v>
+        <v>45615</v>
       </c>
       <c r="C301" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D301" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B302">
-        <v>46053</v>
+        <v>45134</v>
       </c>
       <c r="C302" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D302" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B303">
-        <v>46053</v>
+        <v>45134</v>
       </c>
       <c r="C303" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D303" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B304">
-        <v>46053</v>
+        <v>45134</v>
       </c>
       <c r="C304" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D304" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B305">
-        <v>46053</v>
+        <v>45326</v>
       </c>
       <c r="C305" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D305" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B306">
-        <v>46053</v>
+        <v>46052</v>
       </c>
       <c r="C306" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D306" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B307">
-        <v>46053</v>
+        <v>46052</v>
       </c>
       <c r="C307" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D307" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B308">
-        <v>46053</v>
+        <v>46052</v>
       </c>
       <c r="C308" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D308" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B309">
         <v>46053</v>
       </c>
       <c r="C309" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D309" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B310">
-        <v>46021</v>
+        <v>46053</v>
       </c>
       <c r="C310" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D310" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B311">
-        <v>46021</v>
+        <v>46053</v>
       </c>
       <c r="C311" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D311" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B312">
-        <v>45599</v>
+        <v>46053</v>
       </c>
       <c r="C312" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D312" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B313">
-        <v>45599</v>
+        <v>46053</v>
       </c>
       <c r="C313" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D313" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -5280,615 +5295,615 @@
         <v>9</v>
       </c>
       <c r="B314">
-        <v>45599</v>
+        <v>46053</v>
       </c>
       <c r="C314" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D314" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B315">
-        <v>45599</v>
+        <v>46053</v>
       </c>
       <c r="C315" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D315" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B316">
-        <v>45599</v>
+        <v>46053</v>
       </c>
       <c r="C316" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D316" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B317">
-        <v>45243</v>
+        <v>46053</v>
       </c>
       <c r="C317" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D317" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B318">
-        <v>45243</v>
+        <v>46053</v>
       </c>
       <c r="C318" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D318" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B319">
-        <v>45243</v>
+        <v>46053</v>
       </c>
       <c r="C319" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D319" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B320">
-        <v>45243</v>
+        <v>46053</v>
       </c>
       <c r="C320" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D320" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B321">
-        <v>45466</v>
+        <v>46053</v>
       </c>
       <c r="C321" t="s">
         <v>121</v>
       </c>
       <c r="D321" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B322">
-        <v>45466</v>
+        <v>46053</v>
       </c>
       <c r="C322" t="s">
         <v>121</v>
       </c>
       <c r="D322" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B323">
-        <v>45466</v>
+        <v>46053</v>
       </c>
       <c r="C323" t="s">
         <v>121</v>
       </c>
       <c r="D323" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B324">
-        <v>45466</v>
+        <v>46053</v>
       </c>
       <c r="C324" t="s">
         <v>121</v>
       </c>
       <c r="D324" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B325">
-        <v>45466</v>
+        <v>46021</v>
       </c>
       <c r="C325" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D325" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B326">
-        <v>45466</v>
+        <v>46021</v>
       </c>
       <c r="C326" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D326" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B327">
-        <v>45466</v>
+        <v>45599</v>
       </c>
       <c r="C327" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D327" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B328">
-        <v>45466</v>
+        <v>45599</v>
       </c>
       <c r="C328" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D328" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B329">
-        <v>45466</v>
+        <v>45599</v>
       </c>
       <c r="C329" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D329" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B330">
-        <v>45466</v>
+        <v>45599</v>
       </c>
       <c r="C330" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D330" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B331">
-        <v>45511</v>
+        <v>45599</v>
       </c>
       <c r="C331" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D331" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B332">
-        <v>45534</v>
+        <v>45243</v>
       </c>
       <c r="C332" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D332" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B333">
-        <v>45534</v>
+        <v>45243</v>
       </c>
       <c r="C333" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D333" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B334">
-        <v>45534</v>
+        <v>45243</v>
       </c>
       <c r="C334" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D334" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B335">
-        <v>45534</v>
+        <v>45243</v>
       </c>
       <c r="C335" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D335" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B336">
-        <v>45947</v>
+        <v>45466</v>
       </c>
       <c r="C336" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D336" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B337">
-        <v>45146</v>
+        <v>45466</v>
       </c>
       <c r="C337" t="s">
         <v>125</v>
       </c>
       <c r="D337" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B338">
-        <v>45825</v>
+        <v>45466</v>
       </c>
       <c r="C338" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D338" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B339">
-        <v>45245</v>
+        <v>45466</v>
       </c>
       <c r="C339" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D339" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B340">
-        <v>45245</v>
+        <v>45466</v>
       </c>
       <c r="C340" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D340" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B341">
-        <v>45245</v>
+        <v>45466</v>
       </c>
       <c r="C341" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D341" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B342">
-        <v>45245</v>
+        <v>45466</v>
       </c>
       <c r="C342" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D342" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B343">
-        <v>46037</v>
+        <v>45466</v>
       </c>
       <c r="C343" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D343" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B344">
-        <v>45535</v>
+        <v>45466</v>
       </c>
       <c r="C344" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D344" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B345">
-        <v>45535</v>
+        <v>45466</v>
       </c>
       <c r="C345" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D345" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B346">
-        <v>45535</v>
+        <v>45511</v>
       </c>
       <c r="C346" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D346" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B347">
-        <v>40207</v>
+        <v>45534</v>
       </c>
       <c r="C347" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D347" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B348">
-        <v>40207</v>
+        <v>45534</v>
       </c>
       <c r="C348" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D348" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B349">
-        <v>46096</v>
+        <v>45534</v>
       </c>
       <c r="C349" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D349" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B350">
-        <v>45247</v>
+        <v>45534</v>
       </c>
       <c r="C350" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D350" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B351">
-        <v>45570</v>
+        <v>45947</v>
       </c>
       <c r="C351" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D351" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B352">
-        <v>45570</v>
+        <v>45146</v>
       </c>
       <c r="C352" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D352" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B353">
-        <v>45570</v>
+        <v>45825</v>
       </c>
       <c r="C353" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D353" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B354">
-        <v>45611</v>
+        <v>45245</v>
       </c>
       <c r="C354" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D354" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B355">
-        <v>45611</v>
+        <v>45245</v>
       </c>
       <c r="C355" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D355" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B356">
-        <v>45611</v>
+        <v>45245</v>
       </c>
       <c r="C356" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D356" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B357">
-        <v>45442</v>
+        <v>45245</v>
       </c>
       <c r="C357" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D357" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -5896,671 +5911,895 @@
         <v>7</v>
       </c>
       <c r="B358">
-        <v>45442</v>
+        <v>46037</v>
       </c>
       <c r="C358" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D358" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B359">
-        <v>45442</v>
+        <v>45535</v>
       </c>
       <c r="C359" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D359" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B360">
-        <v>46095</v>
+        <v>45535</v>
       </c>
       <c r="C360" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D360" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B361">
-        <v>46095</v>
+        <v>45535</v>
       </c>
       <c r="C361" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D361" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B362">
-        <v>46095</v>
+        <v>40207</v>
       </c>
       <c r="C362" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D362" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B363">
-        <v>46095</v>
+        <v>40207</v>
       </c>
       <c r="C363" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D363" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B364">
-        <v>46095</v>
+        <v>46096</v>
       </c>
       <c r="C364" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D364" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B365">
-        <v>46095</v>
+        <v>45247</v>
       </c>
       <c r="C365" t="s">
         <v>136</v>
       </c>
       <c r="D365" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B366">
-        <v>45703</v>
+        <v>45570</v>
       </c>
       <c r="C366" t="s">
         <v>137</v>
       </c>
       <c r="D366" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B367">
-        <v>45616</v>
+        <v>45570</v>
       </c>
       <c r="C367" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D367" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B368">
-        <v>46050</v>
+        <v>45570</v>
       </c>
       <c r="C368" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D368" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B369">
-        <v>45620</v>
+        <v>45570</v>
       </c>
       <c r="C369" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D369" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B370">
-        <v>45620</v>
+        <v>45611</v>
       </c>
       <c r="C370" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D370" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B371">
-        <v>45620</v>
+        <v>45611</v>
       </c>
       <c r="C371" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D371" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B372">
-        <v>45620</v>
+        <v>45611</v>
       </c>
       <c r="C372" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D372" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B373">
-        <v>45620</v>
+        <v>45442</v>
       </c>
       <c r="C373" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D373" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B374">
-        <v>45620</v>
+        <v>45442</v>
       </c>
       <c r="C374" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D374" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B375">
-        <v>45620</v>
+        <v>45442</v>
       </c>
       <c r="C375" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D375" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B376">
-        <v>45620</v>
+        <v>46095</v>
       </c>
       <c r="C376" t="s">
         <v>140</v>
       </c>
       <c r="D376" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B377">
-        <v>45620</v>
+        <v>46095</v>
       </c>
       <c r="C377" t="s">
         <v>140</v>
       </c>
       <c r="D377" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B378">
-        <v>45619</v>
+        <v>46095</v>
       </c>
       <c r="C378" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D378" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B379">
-        <v>45619</v>
+        <v>46095</v>
       </c>
       <c r="C379" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D379" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B380">
-        <v>45619</v>
+        <v>46095</v>
       </c>
       <c r="C380" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D380" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B381">
-        <v>45619</v>
+        <v>46095</v>
       </c>
       <c r="C381" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D381" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B382">
-        <v>45619</v>
+        <v>45703</v>
       </c>
       <c r="C382" t="s">
         <v>141</v>
       </c>
       <c r="D382" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B383">
-        <v>45619</v>
+        <v>45616</v>
       </c>
       <c r="C383" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D383" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B384">
-        <v>45619</v>
+        <v>46050</v>
       </c>
       <c r="C384" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D384" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B385">
-        <v>45619</v>
+        <v>45620</v>
       </c>
       <c r="C385" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D385" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B386">
-        <v>45619</v>
+        <v>45620</v>
       </c>
       <c r="C386" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D386" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B387">
-        <v>45114</v>
+        <v>45620</v>
       </c>
       <c r="C387" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D387" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B388">
-        <v>45989</v>
+        <v>45620</v>
       </c>
       <c r="C388" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D388" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B389">
-        <v>45496</v>
+        <v>45620</v>
       </c>
       <c r="C389" t="s">
         <v>144</v>
       </c>
       <c r="D389" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B390">
-        <v>45496</v>
+        <v>45620</v>
       </c>
       <c r="C390" t="s">
         <v>144</v>
       </c>
       <c r="D390" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B391">
-        <v>45537</v>
+        <v>45620</v>
       </c>
       <c r="C391" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D391" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B392">
-        <v>45537</v>
+        <v>45620</v>
       </c>
       <c r="C392" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D392" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B393">
-        <v>45537</v>
+        <v>45620</v>
       </c>
       <c r="C393" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D393" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B394">
-        <v>45537</v>
+        <v>45619</v>
       </c>
       <c r="C394" t="s">
         <v>145</v>
       </c>
       <c r="D394" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B395">
-        <v>45296</v>
+        <v>45619</v>
       </c>
       <c r="C395" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D395" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B396">
-        <v>45296</v>
+        <v>45619</v>
       </c>
       <c r="C396" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D396" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B397">
-        <v>45137</v>
+        <v>45619</v>
       </c>
       <c r="C397" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D397" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B398">
-        <v>45519</v>
+        <v>45619</v>
       </c>
       <c r="C398" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D398" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B399">
-        <v>45516</v>
+        <v>45619</v>
       </c>
       <c r="C399" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D399" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B400">
-        <v>45516</v>
+        <v>45619</v>
       </c>
       <c r="C400" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D400" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B401">
-        <v>45516</v>
+        <v>45619</v>
       </c>
       <c r="C401" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D401" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B402">
-        <v>45516</v>
+        <v>45619</v>
       </c>
       <c r="C402" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D402" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B403">
-        <v>45472</v>
+        <v>45114</v>
       </c>
       <c r="C403" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D403" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B404">
-        <v>45472</v>
+        <v>45989</v>
       </c>
       <c r="C404" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D404" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B405">
+        <v>45496</v>
+      </c>
+      <c r="C405" t="s">
+        <v>148</v>
+      </c>
+      <c r="D405" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" t="s">
+        <v>22</v>
+      </c>
+      <c r="B406">
+        <v>45496</v>
+      </c>
+      <c r="C406" t="s">
+        <v>148</v>
+      </c>
+      <c r="D406" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" t="s">
+        <v>27</v>
+      </c>
+      <c r="B407">
+        <v>45537</v>
+      </c>
+      <c r="C407" t="s">
+        <v>149</v>
+      </c>
+      <c r="D407" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" t="s">
+        <v>28</v>
+      </c>
+      <c r="B408">
+        <v>45537</v>
+      </c>
+      <c r="C408" t="s">
+        <v>149</v>
+      </c>
+      <c r="D408" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" t="s">
+        <v>29</v>
+      </c>
+      <c r="B409">
+        <v>45537</v>
+      </c>
+      <c r="C409" t="s">
+        <v>149</v>
+      </c>
+      <c r="D409" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" t="s">
+        <v>26</v>
+      </c>
+      <c r="B410">
+        <v>45537</v>
+      </c>
+      <c r="C410" t="s">
+        <v>149</v>
+      </c>
+      <c r="D410" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" t="s">
+        <v>7</v>
+      </c>
+      <c r="B411">
+        <v>45296</v>
+      </c>
+      <c r="C411" t="s">
+        <v>150</v>
+      </c>
+      <c r="D411" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" t="s">
+        <v>25</v>
+      </c>
+      <c r="B412">
+        <v>45296</v>
+      </c>
+      <c r="C412" t="s">
+        <v>150</v>
+      </c>
+      <c r="D412" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" t="s">
+        <v>23</v>
+      </c>
+      <c r="B413">
+        <v>45137</v>
+      </c>
+      <c r="C413" t="s">
+        <v>151</v>
+      </c>
+      <c r="D413" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" t="s">
+        <v>20</v>
+      </c>
+      <c r="B414">
+        <v>45519</v>
+      </c>
+      <c r="C414" t="s">
+        <v>152</v>
+      </c>
+      <c r="D414" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" t="s">
+        <v>25</v>
+      </c>
+      <c r="B415">
+        <v>45516</v>
+      </c>
+      <c r="C415" t="s">
+        <v>153</v>
+      </c>
+      <c r="D415" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" t="s">
+        <v>9</v>
+      </c>
+      <c r="B416">
+        <v>45516</v>
+      </c>
+      <c r="C416" t="s">
+        <v>153</v>
+      </c>
+      <c r="D416" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" t="s">
+        <v>25</v>
+      </c>
+      <c r="B417">
+        <v>45516</v>
+      </c>
+      <c r="C417" t="s">
+        <v>153</v>
+      </c>
+      <c r="D417" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" t="s">
+        <v>7</v>
+      </c>
+      <c r="B418">
+        <v>45516</v>
+      </c>
+      <c r="C418" t="s">
+        <v>153</v>
+      </c>
+      <c r="D418" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" t="s">
+        <v>9</v>
+      </c>
+      <c r="B419">
+        <v>45472</v>
+      </c>
+      <c r="C419" t="s">
+        <v>154</v>
+      </c>
+      <c r="D419" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" t="s">
+        <v>6</v>
+      </c>
+      <c r="B420">
+        <v>45472</v>
+      </c>
+      <c r="C420" t="s">
+        <v>154</v>
+      </c>
+      <c r="D420" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" t="s">
+        <v>15</v>
+      </c>
+      <c r="B421">
         <v>45470</v>
       </c>
-      <c r="C405" t="s">
-        <v>151</v>
-      </c>
-      <c r="D405" t="s">
-        <v>152</v>
+      <c r="C421" t="s">
+        <v>155</v>
+      </c>
+      <c r="D421" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Scripts\Divide-BiS\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E710C0D-B281-4365-ACF5-90575A90DB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="177">
   <si>
     <t>player</t>
   </si>
@@ -542,13 +548,16 @@
   </si>
   <si>
     <t>Emblems of Conquest</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -611,6 +620,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -657,7 +674,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -689,9 +706,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -723,6 +758,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -898,14 +951,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E421"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="6.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -922,7 +983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -936,7 +997,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -950,7 +1011,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -964,7 +1025,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -978,7 +1039,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -992,7 +1053,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1006,7 +1067,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1020,7 +1081,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1034,7 +1095,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1048,7 +1109,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1062,7 +1123,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1076,7 +1137,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1090,7 +1151,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1104,7 +1165,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1118,7 +1179,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1132,7 +1193,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1146,7 +1207,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1160,7 +1221,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1174,7 +1235,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1188,7 +1249,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1202,7 +1263,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1216,7 +1277,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1230,7 +1291,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1244,7 +1305,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1258,7 +1319,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1272,7 +1333,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1286,7 +1347,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1300,7 +1361,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1314,7 +1375,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1328,7 +1389,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -1342,7 +1403,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -1356,7 +1417,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -1370,7 +1431,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -1384,7 +1445,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1398,7 +1459,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -1412,7 +1473,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -1426,7 +1487,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -1440,7 +1501,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -1454,7 +1515,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -1468,7 +1529,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1482,7 +1543,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -1496,7 +1557,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -1510,7 +1571,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -1524,7 +1585,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -1538,7 +1599,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>29</v>
       </c>
@@ -1552,7 +1613,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1566,7 +1627,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -1580,7 +1641,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>23</v>
       </c>
@@ -1594,7 +1655,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -1608,7 +1669,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -1622,7 +1683,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -1636,7 +1697,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -1650,7 +1711,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -1664,7 +1725,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -1678,7 +1739,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -1692,7 +1753,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>24</v>
       </c>
@@ -1706,7 +1767,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -1720,7 +1781,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -1734,7 +1795,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -1748,7 +1809,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -1762,7 +1823,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -1776,7 +1837,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -1790,7 +1851,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>28</v>
       </c>
@@ -1804,7 +1865,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -1818,7 +1879,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -1832,7 +1893,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>18</v>
       </c>
@@ -1846,7 +1907,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -1860,7 +1921,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>29</v>
       </c>
@@ -1874,7 +1935,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>26</v>
       </c>
@@ -1888,7 +1949,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -1902,7 +1963,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>27</v>
       </c>
@@ -1916,7 +1977,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>20</v>
       </c>
@@ -1930,7 +1991,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -1944,7 +2005,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>24</v>
       </c>
@@ -1958,7 +2019,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -1972,7 +2033,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>29</v>
       </c>
@@ -1986,7 +2047,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>28</v>
       </c>
@@ -2000,7 +2061,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>16</v>
       </c>
@@ -2014,7 +2075,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -2028,7 +2089,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>26</v>
       </c>
@@ -2042,7 +2103,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>17</v>
       </c>
@@ -2056,7 +2117,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -2070,7 +2131,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>27</v>
       </c>
@@ -2084,7 +2145,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>18</v>
       </c>
@@ -2098,7 +2159,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -2112,7 +2173,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -2126,7 +2187,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>18</v>
       </c>
@@ -2140,7 +2201,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -2154,7 +2215,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>19</v>
       </c>
@@ -2168,7 +2229,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>16</v>
       </c>
@@ -2182,7 +2243,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>22</v>
       </c>
@@ -2196,7 +2257,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>24</v>
       </c>
@@ -2210,7 +2271,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -2224,7 +2285,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -2238,7 +2299,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>25</v>
       </c>
@@ -2252,7 +2313,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>23</v>
       </c>
@@ -2266,7 +2327,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>26</v>
       </c>
@@ -2280,7 +2341,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>28</v>
       </c>
@@ -2294,7 +2355,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>29</v>
       </c>
@@ -2308,7 +2369,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>27</v>
       </c>
@@ -2322,7 +2383,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>20</v>
       </c>
@@ -2336,7 +2397,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>12</v>
       </c>
@@ -2350,7 +2411,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>11</v>
       </c>
@@ -2364,7 +2425,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -2378,7 +2439,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>13</v>
       </c>
@@ -2392,7 +2453,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -2406,7 +2467,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>10</v>
       </c>
@@ -2420,7 +2481,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>21</v>
       </c>
@@ -2434,7 +2495,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>12</v>
       </c>
@@ -2448,7 +2509,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>14</v>
       </c>
@@ -2462,7 +2523,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>25</v>
       </c>
@@ -2476,7 +2537,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>6</v>
       </c>
@@ -2490,7 +2551,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>8</v>
       </c>
@@ -2504,7 +2565,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>9</v>
       </c>
@@ -2518,7 +2579,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>21</v>
       </c>
@@ -2532,7 +2593,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>23</v>
       </c>
@@ -2546,7 +2607,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>10</v>
       </c>
@@ -2560,7 +2621,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>12</v>
       </c>
@@ -2574,7 +2635,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>9</v>
       </c>
@@ -2588,7 +2649,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>13</v>
       </c>
@@ -2602,7 +2663,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>19</v>
       </c>
@@ -2616,7 +2677,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>26</v>
       </c>
@@ -2630,7 +2691,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>29</v>
       </c>
@@ -2644,7 +2705,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>27</v>
       </c>
@@ -2658,7 +2719,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>28</v>
       </c>
@@ -2672,7 +2733,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>16</v>
       </c>
@@ -2686,7 +2747,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>11</v>
       </c>
@@ -2700,7 +2761,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>25</v>
       </c>
@@ -2714,7 +2775,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>21</v>
       </c>
@@ -2728,7 +2789,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -2742,7 +2803,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>14</v>
       </c>
@@ -2756,7 +2817,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -2770,7 +2831,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>15</v>
       </c>
@@ -2784,7 +2845,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>24</v>
       </c>
@@ -2798,7 +2859,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>21</v>
       </c>
@@ -2812,7 +2873,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>11</v>
       </c>
@@ -2826,7 +2887,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>11</v>
       </c>
@@ -2840,7 +2901,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>10</v>
       </c>
@@ -2854,7 +2915,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>9</v>
       </c>
@@ -2868,7 +2929,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>12</v>
       </c>
@@ -2882,7 +2943,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>21</v>
       </c>
@@ -2896,7 +2957,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>24</v>
       </c>
@@ -2910,7 +2971,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>22</v>
       </c>
@@ -2924,7 +2985,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>23</v>
       </c>
@@ -2938,7 +2999,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>20</v>
       </c>
@@ -2952,7 +3013,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>24</v>
       </c>
@@ -2966,7 +3027,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>27</v>
       </c>
@@ -2980,7 +3041,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>18</v>
       </c>
@@ -2994,7 +3055,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>19</v>
       </c>
@@ -3008,7 +3069,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>29</v>
       </c>
@@ -3022,7 +3083,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>17</v>
       </c>
@@ -3036,7 +3097,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>26</v>
       </c>
@@ -3050,7 +3111,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>16</v>
       </c>
@@ -3064,7 +3125,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>28</v>
       </c>
@@ -3078,7 +3139,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>5</v>
       </c>
@@ -3092,7 +3153,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>11</v>
       </c>
@@ -3106,7 +3167,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>21</v>
       </c>
@@ -3120,7 +3181,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>12</v>
       </c>
@@ -3134,7 +3195,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>11</v>
       </c>
@@ -3148,7 +3209,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>10</v>
       </c>
@@ -3162,7 +3223,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>8</v>
       </c>
@@ -3176,7 +3237,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>6</v>
       </c>
@@ -3190,7 +3251,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -3204,7 +3265,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>14</v>
       </c>
@@ -3218,7 +3279,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>9</v>
       </c>
@@ -3232,7 +3293,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>13</v>
       </c>
@@ -3246,7 +3307,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>6</v>
       </c>
@@ -3260,7 +3321,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>25</v>
       </c>
@@ -3274,7 +3335,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>15</v>
       </c>
@@ -3288,7 +3349,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>13</v>
       </c>
@@ -3302,7 +3363,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>20</v>
       </c>
@@ -3316,7 +3377,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>12</v>
       </c>
@@ -3330,7 +3391,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>11</v>
       </c>
@@ -3344,7 +3405,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>8</v>
       </c>
@@ -3358,7 +3419,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>10</v>
       </c>
@@ -3372,7 +3433,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>7</v>
       </c>
@@ -3386,7 +3447,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>21</v>
       </c>
@@ -3400,7 +3461,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>9</v>
       </c>
@@ -3414,7 +3475,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>14</v>
       </c>
@@ -3428,7 +3489,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>10</v>
       </c>
@@ -3442,7 +3503,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>13</v>
       </c>
@@ -3456,7 +3517,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>27</v>
       </c>
@@ -3470,7 +3531,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>17</v>
       </c>
@@ -3484,7 +3545,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>26</v>
       </c>
@@ -3498,7 +3559,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>19</v>
       </c>
@@ -3512,7 +3573,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -3526,7 +3587,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>28</v>
       </c>
@@ -3540,7 +3601,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>18</v>
       </c>
@@ -3554,7 +3615,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>16</v>
       </c>
@@ -3568,7 +3629,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>29</v>
       </c>
@@ -3582,7 +3643,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>20</v>
       </c>
@@ -3596,7 +3657,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>21</v>
       </c>
@@ -3610,7 +3671,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>14</v>
       </c>
@@ -3624,7 +3685,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>22</v>
       </c>
@@ -3638,7 +3699,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>23</v>
       </c>
@@ -3652,7 +3713,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>23</v>
       </c>
@@ -3666,7 +3727,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>22</v>
       </c>
@@ -3680,7 +3741,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>24</v>
       </c>
@@ -3694,7 +3755,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>23</v>
       </c>
@@ -3708,7 +3769,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>22</v>
       </c>
@@ -3722,7 +3783,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>20</v>
       </c>
@@ -3736,7 +3797,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>20</v>
       </c>
@@ -3750,7 +3811,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>11</v>
       </c>
@@ -3764,7 +3825,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>27</v>
       </c>
@@ -3778,7 +3839,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>24</v>
       </c>
@@ -3792,7 +3853,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>24</v>
       </c>
@@ -3806,7 +3867,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>18</v>
       </c>
@@ -3820,7 +3881,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>17</v>
       </c>
@@ -3834,7 +3895,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>7</v>
       </c>
@@ -3848,7 +3909,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>11</v>
       </c>
@@ -3862,7 +3923,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>25</v>
       </c>
@@ -3876,7 +3937,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>10</v>
       </c>
@@ -3890,7 +3951,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>12</v>
       </c>
@@ -3904,7 +3965,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>21</v>
       </c>
@@ -3918,7 +3979,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>23</v>
       </c>
@@ -3932,7 +3993,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>22</v>
       </c>
@@ -3946,7 +4007,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>19</v>
       </c>
@@ -3960,7 +4021,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>5</v>
       </c>
@@ -3974,7 +4035,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>16</v>
       </c>
@@ -3988,7 +4049,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>24</v>
       </c>
@@ -4002,7 +4063,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>13</v>
       </c>
@@ -4016,7 +4077,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>14</v>
       </c>
@@ -4030,7 +4091,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>15</v>
       </c>
@@ -4044,7 +4105,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>29</v>
       </c>
@@ -4058,7 +4119,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>28</v>
       </c>
@@ -4072,7 +4133,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>27</v>
       </c>
@@ -4086,7 +4147,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>26</v>
       </c>
@@ -4100,7 +4161,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>20</v>
       </c>
@@ -4114,7 +4175,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>22</v>
       </c>
@@ -4128,7 +4189,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>13</v>
       </c>
@@ -4142,7 +4203,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>14</v>
       </c>
@@ -4156,7 +4217,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>21</v>
       </c>
@@ -4170,7 +4231,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>14</v>
       </c>
@@ -4184,7 +4245,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>19</v>
       </c>
@@ -4198,7 +4259,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>16</v>
       </c>
@@ -4212,7 +4273,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>17</v>
       </c>
@@ -4226,7 +4287,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>24</v>
       </c>
@@ -4240,7 +4301,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>22</v>
       </c>
@@ -4254,7 +4315,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>13</v>
       </c>
@@ -4268,7 +4329,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>15</v>
       </c>
@@ -4282,7 +4343,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>25</v>
       </c>
@@ -4296,7 +4357,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>23</v>
       </c>
@@ -4310,7 +4371,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>26</v>
       </c>
@@ -4324,7 +4385,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>18</v>
       </c>
@@ -4338,7 +4399,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>29</v>
       </c>
@@ -4352,7 +4413,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>27</v>
       </c>
@@ -4366,7 +4427,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>28</v>
       </c>
@@ -4380,7 +4441,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>20</v>
       </c>
@@ -4394,7 +4455,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>8</v>
       </c>
@@ -4408,7 +4469,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>6</v>
       </c>
@@ -4422,7 +4483,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>10</v>
       </c>
@@ -4436,7 +4497,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>23</v>
       </c>
@@ -4450,7 +4511,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>22</v>
       </c>
@@ -4464,7 +4525,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>14</v>
       </c>
@@ -4478,7 +4539,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>7</v>
       </c>
@@ -4492,7 +4553,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>8</v>
       </c>
@@ -4506,7 +4567,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>25</v>
       </c>
@@ -4519,8 +4580,11 @@
       <c r="D258" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="259" spans="1:4">
+      <c r="E258" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>11</v>
       </c>
@@ -4534,7 +4598,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>26</v>
       </c>
@@ -4548,7 +4612,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>16</v>
       </c>
@@ -4562,7 +4626,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>29</v>
       </c>
@@ -4576,7 +4640,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>18</v>
       </c>
@@ -4590,7 +4654,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>17</v>
       </c>
@@ -4604,7 +4668,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>19</v>
       </c>
@@ -4618,7 +4682,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>28</v>
       </c>
@@ -4632,7 +4696,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>27</v>
       </c>
@@ -4646,7 +4710,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>5</v>
       </c>
@@ -4660,7 +4724,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>15</v>
       </c>
@@ -4674,7 +4738,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>5</v>
       </c>
@@ -4688,7 +4752,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>29</v>
       </c>
@@ -4702,7 +4766,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>26</v>
       </c>
@@ -4716,7 +4780,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>17</v>
       </c>
@@ -4730,7 +4794,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>28</v>
       </c>
@@ -4744,7 +4808,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>27</v>
       </c>
@@ -4758,7 +4822,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>12</v>
       </c>
@@ -4772,7 +4836,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>25</v>
       </c>
@@ -4786,7 +4850,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>11</v>
       </c>
@@ -4800,7 +4864,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>21</v>
       </c>
@@ -4814,7 +4878,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>13</v>
       </c>
@@ -4828,7 +4892,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>10</v>
       </c>
@@ -4842,7 +4906,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>14</v>
       </c>
@@ -4856,7 +4920,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>9</v>
       </c>
@@ -4870,7 +4934,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>16</v>
       </c>
@@ -4884,7 +4948,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>5</v>
       </c>
@@ -4898,7 +4962,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>28</v>
       </c>
@@ -4912,7 +4976,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>18</v>
       </c>
@@ -4926,7 +4990,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>29</v>
       </c>
@@ -4940,7 +5004,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>19</v>
       </c>
@@ -4954,7 +5018,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>17</v>
       </c>
@@ -4968,7 +5032,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>26</v>
       </c>
@@ -4982,7 +5046,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>29</v>
       </c>
@@ -4996,7 +5060,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>5</v>
       </c>
@@ -5010,7 +5074,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>17</v>
       </c>
@@ -5024,7 +5088,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>28</v>
       </c>
@@ -5038,7 +5102,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>27</v>
       </c>
@@ -5052,7 +5116,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>18</v>
       </c>
@@ -5066,7 +5130,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>16</v>
       </c>
@@ -5080,7 +5144,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>26</v>
       </c>
@@ -5094,7 +5158,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>19</v>
       </c>
@@ -5108,7 +5172,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>15</v>
       </c>
@@ -5122,7 +5186,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>6</v>
       </c>
@@ -5136,7 +5200,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>8</v>
       </c>
@@ -5150,7 +5214,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>9</v>
       </c>
@@ -5164,7 +5228,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>22</v>
       </c>
@@ -5178,7 +5242,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>25</v>
       </c>
@@ -5192,7 +5256,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>14</v>
       </c>
@@ -5206,7 +5270,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>21</v>
       </c>
@@ -5220,7 +5284,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>5</v>
       </c>
@@ -5234,7 +5298,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>17</v>
       </c>
@@ -5248,7 +5312,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>18</v>
       </c>
@@ -5262,7 +5326,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>20</v>
       </c>
@@ -5276,7 +5340,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>25</v>
       </c>
@@ -5290,7 +5354,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>9</v>
       </c>
@@ -5304,7 +5368,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>10</v>
       </c>
@@ -5318,7 +5382,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>8</v>
       </c>
@@ -5332,7 +5396,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>13</v>
       </c>
@@ -5346,7 +5410,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>6</v>
       </c>
@@ -5360,7 +5424,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>21</v>
       </c>
@@ -5374,7 +5438,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>12</v>
       </c>
@@ -5388,7 +5452,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>11</v>
       </c>
@@ -5402,7 +5466,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>14</v>
       </c>
@@ -5416,7 +5480,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>7</v>
       </c>
@@ -5430,7 +5494,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>15</v>
       </c>
@@ -5444,7 +5508,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>23</v>
       </c>
@@ -5458,7 +5522,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>22</v>
       </c>
@@ -5472,7 +5536,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>8</v>
       </c>
@@ -5486,7 +5550,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>9</v>
       </c>
@@ -5500,7 +5564,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>7</v>
       </c>
@@ -5514,7 +5578,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>25</v>
       </c>
@@ -5528,7 +5592,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>6</v>
       </c>
@@ -5542,7 +5606,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>18</v>
       </c>
@@ -5556,7 +5620,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>19</v>
       </c>
@@ -5570,7 +5634,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>16</v>
       </c>
@@ -5584,7 +5648,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>20</v>
       </c>
@@ -5598,7 +5662,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>18</v>
       </c>
@@ -5612,7 +5676,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>16</v>
       </c>
@@ -5626,7 +5690,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>17</v>
       </c>
@@ -5640,7 +5704,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>28</v>
       </c>
@@ -5654,7 +5718,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>19</v>
       </c>
@@ -5668,7 +5732,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>27</v>
       </c>
@@ -5682,7 +5746,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>26</v>
       </c>
@@ -5696,7 +5760,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>5</v>
       </c>
@@ -5710,7 +5774,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>29</v>
       </c>
@@ -5724,7 +5788,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>15</v>
       </c>
@@ -5738,7 +5802,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>24</v>
       </c>
@@ -5752,7 +5816,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>7</v>
       </c>
@@ -5766,7 +5830,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>8</v>
       </c>
@@ -5780,7 +5844,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>6</v>
       </c>
@@ -5794,7 +5858,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>9</v>
       </c>
@@ -5808,7 +5872,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>22</v>
       </c>
@@ -5822,7 +5886,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>24</v>
       </c>
@@ -5836,7 +5900,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>22</v>
       </c>
@@ -5850,7 +5914,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>9</v>
       </c>
@@ -5864,7 +5928,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>12</v>
       </c>
@@ -5878,7 +5942,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>10</v>
       </c>
@@ -5892,7 +5956,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>11</v>
       </c>
@@ -5906,7 +5970,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>7</v>
       </c>
@@ -5920,7 +5984,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>20</v>
       </c>
@@ -5934,7 +5998,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>15</v>
       </c>
@@ -5948,7 +6012,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>24</v>
       </c>
@@ -5962,7 +6026,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>8</v>
       </c>
@@ -5976,7 +6040,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>6</v>
       </c>
@@ -5990,7 +6054,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>24</v>
       </c>
@@ -6004,7 +6068,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>23</v>
       </c>
@@ -6018,7 +6082,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>10</v>
       </c>
@@ -6032,7 +6096,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>12</v>
       </c>
@@ -6046,7 +6110,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>14</v>
       </c>
@@ -6060,7 +6124,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>21</v>
       </c>
@@ -6074,7 +6138,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>12</v>
       </c>
@@ -6088,7 +6152,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>10</v>
       </c>
@@ -6102,7 +6166,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>25</v>
       </c>
@@ -6116,7 +6180,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>6</v>
       </c>
@@ -6130,7 +6194,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>6</v>
       </c>
@@ -6144,7 +6208,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>23</v>
       </c>
@@ -6158,7 +6222,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>12</v>
       </c>
@@ -6172,7 +6236,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>9</v>
       </c>
@@ -6186,7 +6250,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>21</v>
       </c>
@@ -6200,7 +6264,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>10</v>
       </c>
@@ -6214,7 +6278,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>25</v>
       </c>
@@ -6228,7 +6292,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>11</v>
       </c>
@@ -6242,7 +6306,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>20</v>
       </c>
@@ -6256,7 +6320,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>20</v>
       </c>
@@ -6270,7 +6334,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>24</v>
       </c>
@@ -6284,7 +6348,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>26</v>
       </c>
@@ -6298,7 +6362,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>5</v>
       </c>
@@ -6312,7 +6376,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>28</v>
       </c>
@@ -6326,7 +6390,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>27</v>
       </c>
@@ -6340,7 +6404,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>16</v>
       </c>
@@ -6354,7 +6418,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>17</v>
       </c>
@@ -6368,7 +6432,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>18</v>
       </c>
@@ -6382,7 +6446,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>19</v>
       </c>
@@ -6396,7 +6460,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>29</v>
       </c>
@@ -6410,7 +6474,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>29</v>
       </c>
@@ -6424,7 +6488,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>19</v>
       </c>
@@ -6438,7 +6502,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>16</v>
       </c>
@@ -6452,7 +6516,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>26</v>
       </c>
@@ -6466,7 +6530,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>28</v>
       </c>
@@ -6480,7 +6544,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>27</v>
       </c>
@@ -6494,7 +6558,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>18</v>
       </c>
@@ -6508,7 +6572,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>5</v>
       </c>
@@ -6522,7 +6586,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>17</v>
       </c>
@@ -6536,7 +6600,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>15</v>
       </c>
@@ -6550,7 +6614,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>13</v>
       </c>
@@ -6564,7 +6628,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>23</v>
       </c>
@@ -6578,7 +6642,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>22</v>
       </c>
@@ -6592,7 +6656,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>27</v>
       </c>
@@ -6606,7 +6670,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>28</v>
       </c>
@@ -6620,7 +6684,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>29</v>
       </c>
@@ -6634,7 +6698,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>26</v>
       </c>
@@ -6648,7 +6712,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>7</v>
       </c>
@@ -6662,7 +6726,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>25</v>
       </c>
@@ -6676,7 +6740,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>23</v>
       </c>
@@ -6690,7 +6754,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>20</v>
       </c>
@@ -6704,7 +6768,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>25</v>
       </c>
@@ -6718,7 +6782,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>9</v>
       </c>
@@ -6732,7 +6796,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>25</v>
       </c>
@@ -6746,7 +6810,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>7</v>
       </c>
@@ -6760,7 +6824,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>9</v>
       </c>
@@ -6774,7 +6838,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>6</v>
       </c>
@@ -6788,7 +6852,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>15</v>
       </c>

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Scripts\Divide-BiS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E710C0D-B281-4365-ACF5-90575A90DB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2472CC4D-764A-4349-9BD9-EC5CB844A0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="177">
   <si>
     <t>player</t>
   </si>
@@ -954,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E421"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="E172" sqref="E172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1178,6 +1178,9 @@
       <c r="D15" t="s">
         <v>156</v>
       </c>
+      <c r="E15" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1417,7 +1420,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -1431,7 +1434,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -1445,7 +1448,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1459,7 +1462,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -1472,8 +1475,11 @@
       <c r="D36" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -1487,7 +1493,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -1501,7 +1507,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -1515,7 +1521,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -1529,7 +1535,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1543,7 +1549,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -1557,7 +1563,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -1571,7 +1577,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -1585,7 +1591,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -1599,7 +1605,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>29</v>
       </c>
@@ -1612,8 +1618,11 @@
       <c r="D46" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1627,7 +1636,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -2089,7 +2098,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>26</v>
       </c>
@@ -2103,7 +2112,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>17</v>
       </c>
@@ -2117,7 +2126,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -2131,7 +2140,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>27</v>
       </c>
@@ -2145,7 +2154,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>18</v>
       </c>
@@ -2159,7 +2168,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -2173,7 +2182,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -2187,7 +2196,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>18</v>
       </c>
@@ -2201,7 +2210,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -2215,7 +2224,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>19</v>
       </c>
@@ -2229,7 +2238,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>16</v>
       </c>
@@ -2243,7 +2252,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>22</v>
       </c>
@@ -2257,7 +2266,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>24</v>
       </c>
@@ -2271,7 +2280,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -2285,7 +2294,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -2299,7 +2308,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>25</v>
       </c>
@@ -2312,8 +2321,11 @@
       <c r="D96" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E96" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>23</v>
       </c>
@@ -2327,7 +2339,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>26</v>
       </c>
@@ -2340,8 +2352,11 @@
       <c r="D98" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E98" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>28</v>
       </c>
@@ -2355,7 +2370,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>29</v>
       </c>
@@ -2369,7 +2384,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>27</v>
       </c>
@@ -2383,7 +2398,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>20</v>
       </c>
@@ -2397,7 +2412,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>12</v>
       </c>
@@ -2411,7 +2426,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>11</v>
       </c>
@@ -2425,7 +2440,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -2439,7 +2454,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>13</v>
       </c>
@@ -2453,7 +2468,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -2467,7 +2482,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>10</v>
       </c>
@@ -2481,7 +2496,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>21</v>
       </c>
@@ -2495,7 +2510,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>12</v>
       </c>
@@ -2509,7 +2524,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>14</v>
       </c>
@@ -2523,7 +2538,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>25</v>
       </c>
@@ -3209,7 +3224,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>10</v>
       </c>
@@ -3223,7 +3238,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>8</v>
       </c>
@@ -3237,7 +3252,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>6</v>
       </c>
@@ -3251,7 +3266,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -3265,7 +3280,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>14</v>
       </c>
@@ -3279,7 +3294,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>9</v>
       </c>
@@ -3293,7 +3308,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>13</v>
       </c>
@@ -3307,7 +3322,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>6</v>
       </c>
@@ -3320,8 +3335,11 @@
       <c r="D168" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E168" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>25</v>
       </c>
@@ -3335,7 +3353,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>15</v>
       </c>
@@ -3349,7 +3367,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>13</v>
       </c>
@@ -3362,8 +3380,11 @@
       <c r="D171" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E171" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>20</v>
       </c>
@@ -3377,7 +3398,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>12</v>
       </c>
@@ -3390,8 +3411,11 @@
       <c r="D173" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E173" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>11</v>
       </c>
@@ -3405,7 +3429,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>8</v>
       </c>
@@ -3419,7 +3443,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>10</v>
       </c>
@@ -3657,7 +3681,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>21</v>
       </c>
@@ -3671,7 +3695,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>14</v>
       </c>
@@ -3685,7 +3709,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>22</v>
       </c>
@@ -3699,7 +3723,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>23</v>
       </c>
@@ -3713,7 +3737,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>23</v>
       </c>
@@ -3727,7 +3751,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>22</v>
       </c>
@@ -3741,7 +3765,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>24</v>
       </c>
@@ -3755,7 +3779,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>23</v>
       </c>
@@ -3769,7 +3793,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>22</v>
       </c>
@@ -3782,8 +3806,11 @@
       <c r="D201" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E201" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>20</v>
       </c>
@@ -3797,7 +3824,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>20</v>
       </c>
@@ -3811,7 +3838,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>11</v>
       </c>
@@ -3825,7 +3852,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>27</v>
       </c>
@@ -3839,7 +3866,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>24</v>
       </c>
@@ -3853,7 +3880,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>24</v>
       </c>
@@ -3867,7 +3894,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>18</v>
       </c>
@@ -4105,7 +4132,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>29</v>
       </c>
@@ -4119,7 +4146,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>28</v>
       </c>
@@ -4132,8 +4159,11 @@
       <c r="D226" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E226" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>27</v>
       </c>
@@ -4147,7 +4177,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>26</v>
       </c>
@@ -4161,7 +4191,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>20</v>
       </c>
@@ -4175,7 +4205,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>22</v>
       </c>
@@ -4189,7 +4219,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>13</v>
       </c>
@@ -4203,7 +4233,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>14</v>
       </c>
@@ -4217,7 +4247,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>21</v>
       </c>
@@ -4231,7 +4261,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>14</v>
       </c>
@@ -4245,7 +4275,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>19</v>
       </c>
@@ -4259,7 +4289,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>16</v>
       </c>
@@ -4273,7 +4303,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>17</v>
       </c>
@@ -4287,7 +4317,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>24</v>
       </c>
@@ -4301,7 +4331,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>22</v>
       </c>
@@ -4315,7 +4345,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>13</v>
       </c>
@@ -5900,7 +5930,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>22</v>
       </c>
@@ -5914,7 +5944,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>9</v>
       </c>
@@ -5928,7 +5958,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>12</v>
       </c>
@@ -5942,7 +5972,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>10</v>
       </c>
@@ -5956,7 +5986,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>11</v>
       </c>
@@ -5970,7 +6000,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>7</v>
       </c>
@@ -5984,7 +6014,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>20</v>
       </c>
@@ -5998,7 +6028,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>15</v>
       </c>
@@ -6012,7 +6042,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>24</v>
       </c>
@@ -6026,7 +6056,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>8</v>
       </c>
@@ -6040,7 +6070,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>6</v>
       </c>
@@ -6054,7 +6084,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>24</v>
       </c>
@@ -6068,7 +6098,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>23</v>
       </c>
@@ -6081,8 +6111,11 @@
       <c r="D365" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E365" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>10</v>
       </c>
@@ -6096,7 +6129,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>12</v>
       </c>
@@ -6110,7 +6143,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>14</v>
       </c>

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Scripts\Divide-BiS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2472CC4D-764A-4349-9BD9-EC5CB844A0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080638EC-3CE8-4E67-8593-23039A7CAD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="177">
   <si>
     <t>player</t>
   </si>
@@ -954,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="E172" sqref="E172"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1506,6 +1506,9 @@
       <c r="D38" t="s">
         <v>156</v>
       </c>
+      <c r="E38" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
@@ -1604,6 +1607,9 @@
       <c r="D45" t="s">
         <v>159</v>
       </c>
+      <c r="E45" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
@@ -2369,6 +2375,9 @@
       <c r="D99" t="s">
         <v>157</v>
       </c>
+      <c r="E99" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
@@ -2425,6 +2434,9 @@
       <c r="D103" t="s">
         <v>162</v>
       </c>
+      <c r="E103" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
@@ -2776,7 +2788,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>25</v>
       </c>
@@ -2790,7 +2802,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>21</v>
       </c>
@@ -2804,7 +2816,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -2818,7 +2830,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>14</v>
       </c>
@@ -2832,7 +2844,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -2846,7 +2858,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>15</v>
       </c>
@@ -2860,7 +2872,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>24</v>
       </c>
@@ -2874,7 +2886,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>21</v>
       </c>
@@ -2888,7 +2900,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>11</v>
       </c>
@@ -2902,7 +2914,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>11</v>
       </c>
@@ -2916,7 +2928,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>10</v>
       </c>
@@ -2930,7 +2942,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>9</v>
       </c>
@@ -2944,7 +2956,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>12</v>
       </c>
@@ -2958,7 +2970,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>21</v>
       </c>
@@ -2972,7 +2984,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>24</v>
       </c>
@@ -2986,7 +2998,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>22</v>
       </c>
@@ -2998,6 +3010,9 @@
       </c>
       <c r="D144" t="s">
         <v>156</v>
+      </c>
+      <c r="E144" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -3293,6 +3308,9 @@
       <c r="D165" t="s">
         <v>156</v>
       </c>
+      <c r="E165" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
@@ -3791,6 +3809,9 @@
       </c>
       <c r="D200" t="s">
         <v>156</v>
+      </c>
+      <c r="E200" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Scripts\Divide-BiS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080638EC-3CE8-4E67-8593-23039A7CAD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C7F325-5EFB-4C8D-A86A-BFBD41BABA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="178">
   <si>
     <t>player</t>
   </si>
@@ -551,6 +551,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>SOLO</t>
   </si>
 </sst>
 </file>
@@ -955,7 +958,7 @@
   <dimension ref="A1:E421"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2465,6 +2468,9 @@
       <c r="D105" t="s">
         <v>164</v>
       </c>
+      <c r="E105" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Scripts\Divide-BiS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C7F325-5EFB-4C8D-A86A-BFBD41BABA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DF6E82-0DC0-4CE5-825B-5D75F94286D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="178">
   <si>
     <t>player</t>
   </si>
@@ -957,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1526,6 +1526,9 @@
       <c r="D39" t="s">
         <v>157</v>
       </c>
+      <c r="E39" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
@@ -2422,6 +2425,9 @@
       </c>
       <c r="D102" t="s">
         <v>161</v>
+      </c>
+      <c r="E102" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Scripts\Divide-BiS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DF6E82-0DC0-4CE5-825B-5D75F94286D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF7F087-49DE-48EF-838F-D8B3FB2DB362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="178">
   <si>
     <t>player</t>
   </si>
@@ -957,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="E162" sqref="E162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1153,6 +1153,9 @@
       <c r="D13" t="s">
         <v>160</v>
       </c>
+      <c r="E13" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -3263,6 +3266,9 @@
       </c>
       <c r="D161" t="s">
         <v>160</v>
+      </c>
+      <c r="E161" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Scripts\Divide-BiS\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE23715F-F092-4914-905D-B5F410D6B70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="177">
   <si>
     <t>player</t>
   </si>
@@ -550,8 +556,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -614,6 +620,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -660,7 +674,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -692,9 +706,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -726,6 +758,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -901,14 +951,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E404"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="E332" sqref="E332"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -925,7 +977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -939,7 +991,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -953,7 +1005,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -967,7 +1019,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -981,7 +1033,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -995,7 +1047,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1009,7 +1061,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1023,7 +1075,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1037,7 +1089,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1051,7 +1103,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1065,7 +1117,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1079,7 +1131,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1096,7 +1148,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1110,7 +1162,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1127,7 +1179,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1141,7 +1193,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1155,7 +1207,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1169,7 +1221,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1183,7 +1235,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1197,7 +1249,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1211,7 +1263,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1225,7 +1277,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1239,7 +1291,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1253,7 +1305,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1267,7 +1319,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1281,7 +1333,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1295,7 +1347,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1309,7 +1361,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1323,7 +1375,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -1337,7 +1389,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -1351,7 +1403,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -1365,7 +1417,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -1379,7 +1431,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1393,7 +1445,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -1407,7 +1459,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -1424,7 +1476,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -1441,7 +1493,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -1455,7 +1507,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1469,7 +1521,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -1483,7 +1535,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -1497,7 +1549,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -1511,7 +1563,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -1528,7 +1580,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -1545,7 +1597,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1559,7 +1611,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -1573,7 +1625,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -1587,7 +1639,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -1601,7 +1653,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -1615,7 +1667,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -1629,7 +1681,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -1643,7 +1695,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -1657,7 +1709,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -1671,7 +1723,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -1685,7 +1737,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>23</v>
       </c>
@@ -1699,7 +1751,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -1713,7 +1765,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -1727,7 +1779,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -1741,7 +1793,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -1755,7 +1807,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -1769,7 +1821,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -1783,7 +1835,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>27</v>
       </c>
@@ -1797,7 +1849,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -1811,7 +1863,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>18</v>
       </c>
@@ -1825,7 +1877,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -1839,7 +1891,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>28</v>
       </c>
@@ -1853,7 +1905,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>25</v>
       </c>
@@ -1867,7 +1919,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -1881,7 +1933,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>26</v>
       </c>
@@ -1895,7 +1947,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -1909,7 +1961,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>15</v>
       </c>
@@ -1923,7 +1975,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>23</v>
       </c>
@@ -1937,7 +1989,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -1951,7 +2003,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>28</v>
       </c>
@@ -1965,7 +2017,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>27</v>
       </c>
@@ -1979,7 +2031,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -1993,7 +2045,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>25</v>
       </c>
@@ -2007,7 +2059,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>17</v>
       </c>
@@ -2021,7 +2073,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -2035,7 +2087,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>26</v>
       </c>
@@ -2049,7 +2101,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>18</v>
       </c>
@@ -2063,7 +2115,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -2077,7 +2129,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>17</v>
       </c>
@@ -2091,7 +2143,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>18</v>
       </c>
@@ -2105,7 +2157,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -2119,7 +2171,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>16</v>
       </c>
@@ -2133,7 +2185,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>21</v>
       </c>
@@ -2147,7 +2199,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -2161,7 +2213,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -2175,7 +2227,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>15</v>
       </c>
@@ -2189,7 +2241,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>24</v>
       </c>
@@ -2206,7 +2258,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>22</v>
       </c>
@@ -2220,7 +2272,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>25</v>
       </c>
@@ -2237,7 +2289,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>27</v>
       </c>
@@ -2254,7 +2306,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>28</v>
       </c>
@@ -2268,7 +2320,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>26</v>
       </c>
@@ -2282,7 +2334,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>19</v>
       </c>
@@ -2299,7 +2351,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>12</v>
       </c>
@@ -2316,7 +2368,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>11</v>
       </c>
@@ -2330,7 +2382,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -2347,7 +2399,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -2361,7 +2413,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -2375,7 +2427,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>10</v>
       </c>
@@ -2389,7 +2441,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>20</v>
       </c>
@@ -2403,7 +2455,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>12</v>
       </c>
@@ -2417,7 +2469,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>14</v>
       </c>
@@ -2431,7 +2483,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>24</v>
       </c>
@@ -2445,7 +2497,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>6</v>
       </c>
@@ -2459,7 +2511,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>8</v>
       </c>
@@ -2473,7 +2525,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>9</v>
       </c>
@@ -2487,7 +2539,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>20</v>
       </c>
@@ -2501,7 +2553,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>22</v>
       </c>
@@ -2515,7 +2567,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -2529,7 +2581,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>12</v>
       </c>
@@ -2543,7 +2595,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>9</v>
       </c>
@@ -2557,7 +2609,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>13</v>
       </c>
@@ -2571,7 +2623,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>25</v>
       </c>
@@ -2585,7 +2637,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>28</v>
       </c>
@@ -2599,7 +2651,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>26</v>
       </c>
@@ -2613,7 +2665,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>27</v>
       </c>
@@ -2627,7 +2679,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>16</v>
       </c>
@@ -2641,7 +2693,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>11</v>
       </c>
@@ -2655,7 +2707,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>24</v>
       </c>
@@ -2669,7 +2721,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -2683,7 +2735,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -2697,7 +2749,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>14</v>
       </c>
@@ -2711,7 +2763,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -2725,7 +2777,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>15</v>
       </c>
@@ -2739,7 +2791,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>23</v>
       </c>
@@ -2753,7 +2805,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>20</v>
       </c>
@@ -2767,7 +2819,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -2781,7 +2833,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -2795,7 +2847,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>10</v>
       </c>
@@ -2809,7 +2861,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>9</v>
       </c>
@@ -2823,7 +2875,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>12</v>
       </c>
@@ -2837,7 +2889,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>20</v>
       </c>
@@ -2851,7 +2903,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>23</v>
       </c>
@@ -2865,7 +2917,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>21</v>
       </c>
@@ -2882,7 +2934,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>22</v>
       </c>
@@ -2896,7 +2948,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>19</v>
       </c>
@@ -2910,7 +2962,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>23</v>
       </c>
@@ -2924,7 +2976,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>26</v>
       </c>
@@ -2938,7 +2990,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>18</v>
       </c>
@@ -2952,7 +3004,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>28</v>
       </c>
@@ -2966,7 +3018,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>17</v>
       </c>
@@ -2980,7 +3032,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>25</v>
       </c>
@@ -2994,7 +3046,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>16</v>
       </c>
@@ -3008,7 +3060,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>27</v>
       </c>
@@ -3022,7 +3074,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>5</v>
       </c>
@@ -3036,7 +3088,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>11</v>
       </c>
@@ -3050,7 +3102,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>20</v>
       </c>
@@ -3064,7 +3116,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>12</v>
       </c>
@@ -3078,7 +3130,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>11</v>
       </c>
@@ -3092,7 +3144,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>10</v>
       </c>
@@ -3109,7 +3161,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>8</v>
       </c>
@@ -3123,7 +3175,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -3137,7 +3189,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -3151,7 +3203,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>14</v>
       </c>
@@ -3168,7 +3220,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>9</v>
       </c>
@@ -3182,7 +3234,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>13</v>
       </c>
@@ -3196,7 +3248,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>6</v>
       </c>
@@ -3213,7 +3265,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>24</v>
       </c>
@@ -3227,7 +3279,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>15</v>
       </c>
@@ -3240,8 +3292,11 @@
       <c r="D163" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="164" spans="1:5">
+      <c r="E163" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>13</v>
       </c>
@@ -3258,7 +3313,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>19</v>
       </c>
@@ -3272,7 +3327,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>12</v>
       </c>
@@ -3289,7 +3344,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>11</v>
       </c>
@@ -3303,7 +3358,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>8</v>
       </c>
@@ -3317,7 +3372,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>10</v>
       </c>
@@ -3331,7 +3386,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -3345,7 +3400,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>20</v>
       </c>
@@ -3359,7 +3414,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>9</v>
       </c>
@@ -3373,7 +3428,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>14</v>
       </c>
@@ -3387,7 +3442,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>10</v>
       </c>
@@ -3401,7 +3456,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>13</v>
       </c>
@@ -3415,7 +3470,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>26</v>
       </c>
@@ -3429,7 +3484,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>17</v>
       </c>
@@ -3443,7 +3498,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>25</v>
       </c>
@@ -3457,7 +3512,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>5</v>
       </c>
@@ -3471,7 +3526,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>27</v>
       </c>
@@ -3485,7 +3540,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>18</v>
       </c>
@@ -3499,7 +3554,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>16</v>
       </c>
@@ -3513,7 +3568,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>28</v>
       </c>
@@ -3527,7 +3582,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>19</v>
       </c>
@@ -3541,7 +3596,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>20</v>
       </c>
@@ -3555,7 +3610,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>14</v>
       </c>
@@ -3569,7 +3624,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>21</v>
       </c>
@@ -3583,7 +3638,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>22</v>
       </c>
@@ -3597,7 +3652,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>22</v>
       </c>
@@ -3611,7 +3666,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>21</v>
       </c>
@@ -3625,7 +3680,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>23</v>
       </c>
@@ -3639,7 +3694,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>22</v>
       </c>
@@ -3656,7 +3711,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>21</v>
       </c>
@@ -3673,7 +3728,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>19</v>
       </c>
@@ -3687,7 +3742,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>19</v>
       </c>
@@ -3701,7 +3756,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>11</v>
       </c>
@@ -3715,7 +3770,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>26</v>
       </c>
@@ -3729,7 +3784,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>23</v>
       </c>
@@ -3743,7 +3798,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>23</v>
       </c>
@@ -3757,7 +3812,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>18</v>
       </c>
@@ -3771,7 +3826,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>17</v>
       </c>
@@ -3785,7 +3840,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>7</v>
       </c>
@@ -3799,7 +3854,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>11</v>
       </c>
@@ -3813,7 +3868,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>24</v>
       </c>
@@ -3827,7 +3882,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>10</v>
       </c>
@@ -3841,7 +3896,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>12</v>
       </c>
@@ -3855,7 +3910,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>20</v>
       </c>
@@ -3869,7 +3924,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>22</v>
       </c>
@@ -3883,7 +3938,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>21</v>
       </c>
@@ -3897,7 +3952,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>5</v>
       </c>
@@ -3911,7 +3966,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>16</v>
       </c>
@@ -3925,7 +3980,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>23</v>
       </c>
@@ -3939,7 +3994,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>13</v>
       </c>
@@ -3953,7 +4008,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>14</v>
       </c>
@@ -3967,7 +4022,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>15</v>
       </c>
@@ -3981,7 +4036,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>28</v>
       </c>
@@ -3995,7 +4050,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>27</v>
       </c>
@@ -4012,7 +4067,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>26</v>
       </c>
@@ -4026,7 +4081,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>25</v>
       </c>
@@ -4039,8 +4094,11 @@
       <c r="D219" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="220" spans="1:5">
+      <c r="E219" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>19</v>
       </c>
@@ -4054,7 +4112,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>21</v>
       </c>
@@ -4068,7 +4126,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>13</v>
       </c>
@@ -4082,7 +4140,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>14</v>
       </c>
@@ -4096,7 +4154,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>20</v>
       </c>
@@ -4110,7 +4168,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>14</v>
       </c>
@@ -4124,7 +4182,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>16</v>
       </c>
@@ -4138,7 +4196,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>17</v>
       </c>
@@ -4152,7 +4210,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>23</v>
       </c>
@@ -4166,7 +4224,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>21</v>
       </c>
@@ -4180,7 +4238,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>13</v>
       </c>
@@ -4194,7 +4252,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>15</v>
       </c>
@@ -4208,7 +4266,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>24</v>
       </c>
@@ -4222,7 +4280,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>22</v>
       </c>
@@ -4236,7 +4294,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>25</v>
       </c>
@@ -4250,7 +4308,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>18</v>
       </c>
@@ -4264,7 +4322,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>28</v>
       </c>
@@ -4278,7 +4336,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>26</v>
       </c>
@@ -4292,7 +4350,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>27</v>
       </c>
@@ -4306,7 +4364,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>19</v>
       </c>
@@ -4320,7 +4378,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>8</v>
       </c>
@@ -4334,7 +4392,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>6</v>
       </c>
@@ -4348,7 +4406,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>10</v>
       </c>
@@ -4362,7 +4420,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>22</v>
       </c>
@@ -4376,7 +4434,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>21</v>
       </c>
@@ -4390,7 +4448,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>14</v>
       </c>
@@ -4404,7 +4462,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>7</v>
       </c>
@@ -4418,7 +4476,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>8</v>
       </c>
@@ -4432,7 +4490,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>24</v>
       </c>
@@ -4449,7 +4507,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>11</v>
       </c>
@@ -4463,7 +4521,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>25</v>
       </c>
@@ -4477,7 +4535,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>16</v>
       </c>
@@ -4491,7 +4549,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>28</v>
       </c>
@@ -4505,7 +4563,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>18</v>
       </c>
@@ -4519,7 +4577,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>17</v>
       </c>
@@ -4533,7 +4591,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>27</v>
       </c>
@@ -4547,7 +4605,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>26</v>
       </c>
@@ -4561,7 +4619,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>5</v>
       </c>
@@ -4575,7 +4633,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>15</v>
       </c>
@@ -4589,7 +4647,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>5</v>
       </c>
@@ -4603,7 +4661,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>28</v>
       </c>
@@ -4617,7 +4675,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>25</v>
       </c>
@@ -4631,7 +4689,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>17</v>
       </c>
@@ -4645,7 +4703,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>27</v>
       </c>
@@ -4659,7 +4717,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>26</v>
       </c>
@@ -4673,7 +4731,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>12</v>
       </c>
@@ -4687,7 +4745,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>24</v>
       </c>
@@ -4701,7 +4759,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>11</v>
       </c>
@@ -4715,7 +4773,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>20</v>
       </c>
@@ -4729,7 +4787,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>13</v>
       </c>
@@ -4743,7 +4801,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>10</v>
       </c>
@@ -4757,7 +4815,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>14</v>
       </c>
@@ -4771,7 +4829,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>9</v>
       </c>
@@ -4785,7 +4843,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>16</v>
       </c>
@@ -4799,7 +4857,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>5</v>
       </c>
@@ -4813,7 +4871,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>27</v>
       </c>
@@ -4827,7 +4885,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>18</v>
       </c>
@@ -4841,7 +4899,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>28</v>
       </c>
@@ -4855,7 +4913,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>17</v>
       </c>
@@ -4869,7 +4927,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>25</v>
       </c>
@@ -4883,7 +4941,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>28</v>
       </c>
@@ -4897,7 +4955,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>5</v>
       </c>
@@ -4911,7 +4969,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>17</v>
       </c>
@@ -4925,7 +4983,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>27</v>
       </c>
@@ -4939,7 +4997,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>26</v>
       </c>
@@ -4953,7 +5011,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>18</v>
       </c>
@@ -4967,7 +5025,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>16</v>
       </c>
@@ -4981,7 +5039,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>25</v>
       </c>
@@ -4995,7 +5053,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>15</v>
       </c>
@@ -5009,7 +5067,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>6</v>
       </c>
@@ -5023,7 +5081,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>8</v>
       </c>
@@ -5037,7 +5095,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>9</v>
       </c>
@@ -5051,7 +5109,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>21</v>
       </c>
@@ -5065,7 +5123,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>24</v>
       </c>
@@ -5079,7 +5137,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>14</v>
       </c>
@@ -5093,7 +5151,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>20</v>
       </c>
@@ -5107,7 +5165,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>5</v>
       </c>
@@ -5121,7 +5179,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>17</v>
       </c>
@@ -5135,7 +5193,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>18</v>
       </c>
@@ -5149,7 +5207,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>19</v>
       </c>
@@ -5163,7 +5221,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>24</v>
       </c>
@@ -5177,7 +5235,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>9</v>
       </c>
@@ -5191,7 +5249,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>10</v>
       </c>
@@ -5205,7 +5263,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>8</v>
       </c>
@@ -5219,7 +5277,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>13</v>
       </c>
@@ -5233,7 +5291,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>6</v>
       </c>
@@ -5247,7 +5305,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>20</v>
       </c>
@@ -5261,7 +5319,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>12</v>
       </c>
@@ -5275,7 +5333,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>11</v>
       </c>
@@ -5289,7 +5347,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>14</v>
       </c>
@@ -5303,7 +5361,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>7</v>
       </c>
@@ -5317,7 +5375,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>15</v>
       </c>
@@ -5331,7 +5389,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>22</v>
       </c>
@@ -5345,7 +5403,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>21</v>
       </c>
@@ -5359,7 +5417,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>8</v>
       </c>
@@ -5373,7 +5431,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>9</v>
       </c>
@@ -5387,7 +5445,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>7</v>
       </c>
@@ -5401,7 +5459,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>24</v>
       </c>
@@ -5415,7 +5473,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>6</v>
       </c>
@@ -5429,7 +5487,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>18</v>
       </c>
@@ -5443,7 +5501,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>16</v>
       </c>
@@ -5457,7 +5515,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>19</v>
       </c>
@@ -5471,7 +5529,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>18</v>
       </c>
@@ -5485,7 +5543,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>16</v>
       </c>
@@ -5499,7 +5557,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>17</v>
       </c>
@@ -5513,7 +5571,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>27</v>
       </c>
@@ -5527,7 +5585,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>26</v>
       </c>
@@ -5541,7 +5599,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>25</v>
       </c>
@@ -5555,7 +5613,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>5</v>
       </c>
@@ -5569,7 +5627,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>28</v>
       </c>
@@ -5583,7 +5641,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>15</v>
       </c>
@@ -5597,7 +5655,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>23</v>
       </c>
@@ -5610,8 +5668,11 @@
       <c r="D331" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="332" spans="1:4">
+      <c r="E331" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>7</v>
       </c>
@@ -5625,7 +5686,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>8</v>
       </c>
@@ -5639,7 +5700,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>6</v>
       </c>
@@ -5653,7 +5714,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>9</v>
       </c>
@@ -5667,7 +5728,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>21</v>
       </c>
@@ -5681,7 +5742,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>23</v>
       </c>
@@ -5695,7 +5756,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>21</v>
       </c>
@@ -5709,7 +5770,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>9</v>
       </c>
@@ -5723,7 +5784,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>12</v>
       </c>
@@ -5737,7 +5798,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>10</v>
       </c>
@@ -5751,7 +5812,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>11</v>
       </c>
@@ -5765,7 +5826,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>7</v>
       </c>
@@ -5779,7 +5840,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>19</v>
       </c>
@@ -5793,7 +5854,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>15</v>
       </c>
@@ -5807,7 +5868,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>23</v>
       </c>
@@ -5821,7 +5882,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>6</v>
       </c>
@@ -5835,7 +5896,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>8</v>
       </c>
@@ -5849,7 +5910,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>23</v>
       </c>
@@ -5863,7 +5924,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>22</v>
       </c>
@@ -5880,7 +5941,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>10</v>
       </c>
@@ -5894,7 +5955,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>12</v>
       </c>
@@ -5908,7 +5969,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>14</v>
       </c>
@@ -5922,7 +5983,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>20</v>
       </c>
@@ -5936,7 +5997,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>12</v>
       </c>
@@ -5950,7 +6011,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>10</v>
       </c>
@@ -5964,7 +6025,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>24</v>
       </c>
@@ -5978,7 +6039,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>6</v>
       </c>
@@ -5992,7 +6053,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>6</v>
       </c>
@@ -6006,7 +6067,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>22</v>
       </c>
@@ -6020,7 +6081,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>12</v>
       </c>
@@ -6034,7 +6095,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>9</v>
       </c>
@@ -6048,7 +6109,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>20</v>
       </c>
@@ -6062,7 +6123,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>10</v>
       </c>
@@ -6076,7 +6137,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>24</v>
       </c>
@@ -6090,7 +6151,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>11</v>
       </c>
@@ -6104,7 +6165,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>19</v>
       </c>
@@ -6118,7 +6179,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>19</v>
       </c>
@@ -6132,7 +6193,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>23</v>
       </c>
@@ -6146,7 +6207,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>25</v>
       </c>
@@ -6160,7 +6221,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>5</v>
       </c>
@@ -6174,7 +6235,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>27</v>
       </c>
@@ -6188,7 +6249,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>26</v>
       </c>
@@ -6202,7 +6263,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>16</v>
       </c>
@@ -6216,7 +6277,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>17</v>
       </c>
@@ -6230,7 +6291,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>18</v>
       </c>
@@ -6244,7 +6305,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>28</v>
       </c>
@@ -6258,7 +6319,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>28</v>
       </c>
@@ -6272,7 +6333,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>16</v>
       </c>
@@ -6286,7 +6347,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>25</v>
       </c>
@@ -6300,7 +6361,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>27</v>
       </c>
@@ -6314,7 +6375,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>26</v>
       </c>
@@ -6328,7 +6389,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>18</v>
       </c>
@@ -6342,7 +6403,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>5</v>
       </c>
@@ -6356,7 +6417,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>17</v>
       </c>
@@ -6370,7 +6431,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>15</v>
       </c>
@@ -6384,7 +6445,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>13</v>
       </c>
@@ -6398,7 +6459,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>22</v>
       </c>
@@ -6412,7 +6473,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>21</v>
       </c>
@@ -6426,7 +6487,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>26</v>
       </c>
@@ -6440,7 +6501,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>27</v>
       </c>
@@ -6454,7 +6515,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>28</v>
       </c>
@@ -6468,7 +6529,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>25</v>
       </c>
@@ -6482,7 +6543,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>7</v>
       </c>
@@ -6496,7 +6557,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>24</v>
       </c>
@@ -6510,7 +6571,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>22</v>
       </c>
@@ -6524,7 +6585,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>19</v>
       </c>
@@ -6538,7 +6599,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>24</v>
       </c>
@@ -6552,7 +6613,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>9</v>
       </c>
@@ -6566,7 +6627,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>24</v>
       </c>
@@ -6580,7 +6641,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>7</v>
       </c>
@@ -6594,7 +6655,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>9</v>
       </c>
@@ -6608,7 +6669,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>6</v>
       </c>
@@ -6622,7 +6683,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>15</v>
       </c>

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Scripts\Divide-BiS\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1872751D-9E28-44BA-BBDC-8FA2F6DFD728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="176">
   <si>
     <t>player</t>
   </si>
@@ -547,8 +553,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -611,6 +617,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -657,7 +671,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -689,9 +703,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -723,6 +755,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -898,14 +948,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E387"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -922,7 +974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -936,7 +988,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -950,7 +1002,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -964,7 +1016,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -978,7 +1030,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -992,7 +1044,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1006,7 +1058,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1020,7 +1072,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1034,7 +1086,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1048,7 +1100,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1062,7 +1114,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1076,7 +1128,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1093,7 +1145,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1107,7 +1159,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1124,7 +1176,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1138,7 +1190,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1152,7 +1204,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1166,7 +1218,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1180,7 +1232,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1194,7 +1246,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1208,7 +1260,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1222,7 +1274,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1236,7 +1288,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1250,7 +1302,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1264,7 +1316,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1278,7 +1330,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1292,7 +1344,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1306,7 +1358,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1320,7 +1372,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -1334,7 +1386,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -1348,7 +1400,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -1362,7 +1414,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -1376,7 +1428,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1390,7 +1442,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -1404,7 +1456,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -1421,7 +1473,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -1438,7 +1490,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -1452,7 +1504,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1466,7 +1518,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -1480,7 +1532,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -1494,7 +1546,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -1508,7 +1560,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -1525,7 +1577,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1538,8 +1590,11 @@
       <c r="D44" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="E44" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -1553,7 +1608,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -1567,7 +1622,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -1581,7 +1636,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -1595,7 +1650,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -1609,7 +1664,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -1623,7 +1678,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -1637,7 +1692,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -1651,7 +1706,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -1665,7 +1720,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>23</v>
       </c>
@@ -1679,7 +1734,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -1693,7 +1748,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -1707,7 +1762,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -1721,7 +1776,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -1735,7 +1790,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -1749,7 +1804,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -1763,7 +1818,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -1777,7 +1832,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>18</v>
       </c>
@@ -1791,7 +1846,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -1805,7 +1860,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>27</v>
       </c>
@@ -1819,7 +1874,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>25</v>
       </c>
@@ -1833,7 +1888,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -1847,7 +1902,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>26</v>
       </c>
@@ -1861,7 +1916,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>19</v>
       </c>
@@ -1875,7 +1930,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -1889,7 +1944,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -1903,7 +1958,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -1917,7 +1972,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>27</v>
       </c>
@@ -1931,7 +1986,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -1945,7 +2000,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>25</v>
       </c>
@@ -1959,7 +2014,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -1973,7 +2028,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -1987,7 +2042,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>26</v>
       </c>
@@ -2001,7 +2056,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>18</v>
       </c>
@@ -2015,7 +2070,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -2029,7 +2084,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -2043,7 +2098,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>18</v>
       </c>
@@ -2057,7 +2112,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -2071,7 +2126,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>16</v>
       </c>
@@ -2084,8 +2139,11 @@
       <c r="D83" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="E83" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>21</v>
       </c>
@@ -2098,8 +2156,11 @@
       <c r="D84" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="E84" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>23</v>
       </c>
@@ -2113,7 +2174,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -2127,7 +2188,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>15</v>
       </c>
@@ -2141,7 +2202,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>24</v>
       </c>
@@ -2158,7 +2219,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>22</v>
       </c>
@@ -2172,7 +2233,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>25</v>
       </c>
@@ -2189,7 +2250,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>27</v>
       </c>
@@ -2203,7 +2264,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>26</v>
       </c>
@@ -2217,7 +2278,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -2234,7 +2295,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>12</v>
       </c>
@@ -2251,7 +2312,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -2265,7 +2326,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -2282,7 +2343,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>13</v>
       </c>
@@ -2296,7 +2357,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -2310,7 +2371,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -2324,7 +2385,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>20</v>
       </c>
@@ -2338,7 +2399,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -2352,7 +2413,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>14</v>
       </c>
@@ -2366,7 +2427,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>24</v>
       </c>
@@ -2380,7 +2441,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -2394,7 +2455,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -2408,7 +2469,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -2422,7 +2483,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>20</v>
       </c>
@@ -2436,7 +2497,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>22</v>
       </c>
@@ -2450,7 +2511,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>10</v>
       </c>
@@ -2464,7 +2525,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>12</v>
       </c>
@@ -2478,7 +2539,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -2492,7 +2553,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>13</v>
       </c>
@@ -2506,7 +2567,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>25</v>
       </c>
@@ -2520,7 +2581,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>27</v>
       </c>
@@ -2534,7 +2595,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>26</v>
       </c>
@@ -2548,7 +2609,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>16</v>
       </c>
@@ -2562,7 +2623,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>11</v>
       </c>
@@ -2576,7 +2637,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>24</v>
       </c>
@@ -2590,7 +2651,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>20</v>
       </c>
@@ -2604,7 +2665,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>8</v>
       </c>
@@ -2618,7 +2679,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>14</v>
       </c>
@@ -2632,7 +2693,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -2646,7 +2707,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>15</v>
       </c>
@@ -2660,7 +2721,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>23</v>
       </c>
@@ -2674,7 +2735,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>20</v>
       </c>
@@ -2688,7 +2749,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>11</v>
       </c>
@@ -2702,7 +2763,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>11</v>
       </c>
@@ -2716,7 +2777,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>10</v>
       </c>
@@ -2730,7 +2791,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>9</v>
       </c>
@@ -2744,7 +2805,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>12</v>
       </c>
@@ -2758,7 +2819,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>20</v>
       </c>
@@ -2772,7 +2833,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>23</v>
       </c>
@@ -2786,7 +2847,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>21</v>
       </c>
@@ -2803,7 +2864,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>22</v>
       </c>
@@ -2817,7 +2878,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>19</v>
       </c>
@@ -2831,7 +2892,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>23</v>
       </c>
@@ -2845,7 +2906,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>26</v>
       </c>
@@ -2859,7 +2920,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>18</v>
       </c>
@@ -2873,7 +2934,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>27</v>
       </c>
@@ -2887,7 +2948,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>17</v>
       </c>
@@ -2901,7 +2962,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>25</v>
       </c>
@@ -2915,7 +2976,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>16</v>
       </c>
@@ -2929,7 +2990,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -2943,7 +3004,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>11</v>
       </c>
@@ -2957,7 +3018,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>20</v>
       </c>
@@ -2971,7 +3032,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>12</v>
       </c>
@@ -2984,8 +3045,11 @@
       <c r="D146" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="147" spans="1:5">
+      <c r="E146" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>11</v>
       </c>
@@ -2998,8 +3062,11 @@
       <c r="D147" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="E147" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -3016,7 +3083,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>8</v>
       </c>
@@ -3030,7 +3097,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -3044,7 +3111,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -3058,7 +3125,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>14</v>
       </c>
@@ -3075,7 +3142,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>9</v>
       </c>
@@ -3089,7 +3156,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>13</v>
       </c>
@@ -3103,7 +3170,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>6</v>
       </c>
@@ -3120,7 +3187,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>24</v>
       </c>
@@ -3134,7 +3201,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>15</v>
       </c>
@@ -3151,7 +3218,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>13</v>
       </c>
@@ -3168,7 +3235,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>19</v>
       </c>
@@ -3182,7 +3249,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>12</v>
       </c>
@@ -3199,7 +3266,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>11</v>
       </c>
@@ -3212,8 +3279,11 @@
       <c r="D161" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="162" spans="1:4">
+      <c r="E161" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>8</v>
       </c>
@@ -3227,7 +3297,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>10</v>
       </c>
@@ -3241,7 +3311,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -3255,7 +3325,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>20</v>
       </c>
@@ -3269,7 +3339,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>9</v>
       </c>
@@ -3283,7 +3353,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>14</v>
       </c>
@@ -3297,7 +3367,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>10</v>
       </c>
@@ -3311,7 +3381,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>13</v>
       </c>
@@ -3325,7 +3395,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>26</v>
       </c>
@@ -3339,7 +3409,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>17</v>
       </c>
@@ -3353,7 +3423,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>25</v>
       </c>
@@ -3367,7 +3437,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>5</v>
       </c>
@@ -3381,7 +3451,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>18</v>
       </c>
@@ -3395,7 +3465,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>16</v>
       </c>
@@ -3409,7 +3479,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>27</v>
       </c>
@@ -3423,7 +3493,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>19</v>
       </c>
@@ -3437,7 +3507,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>20</v>
       </c>
@@ -3451,7 +3521,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>14</v>
       </c>
@@ -3465,7 +3535,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>21</v>
       </c>
@@ -3479,7 +3549,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>22</v>
       </c>
@@ -3493,7 +3563,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>22</v>
       </c>
@@ -3507,7 +3577,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>21</v>
       </c>
@@ -3521,7 +3591,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>23</v>
       </c>
@@ -3535,7 +3605,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>22</v>
       </c>
@@ -3552,7 +3622,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>21</v>
       </c>
@@ -3569,7 +3639,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>19</v>
       </c>
@@ -3583,7 +3653,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>19</v>
       </c>
@@ -3597,7 +3667,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>11</v>
       </c>
@@ -3611,7 +3681,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>26</v>
       </c>
@@ -3625,7 +3695,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>23</v>
       </c>
@@ -3639,7 +3709,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>23</v>
       </c>
@@ -3653,7 +3723,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>18</v>
       </c>
@@ -3667,7 +3737,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>17</v>
       </c>
@@ -3681,7 +3751,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>7</v>
       </c>
@@ -3695,7 +3765,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>11</v>
       </c>
@@ -3709,7 +3779,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>24</v>
       </c>
@@ -3723,7 +3793,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>10</v>
       </c>
@@ -3737,7 +3807,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>12</v>
       </c>
@@ -3751,7 +3821,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>20</v>
       </c>
@@ -3765,7 +3835,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>22</v>
       </c>
@@ -3779,7 +3849,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>21</v>
       </c>
@@ -3793,7 +3863,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>5</v>
       </c>
@@ -3807,7 +3877,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>16</v>
       </c>
@@ -3821,7 +3891,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>23</v>
       </c>
@@ -3835,7 +3905,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>13</v>
       </c>
@@ -3849,7 +3919,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>14</v>
       </c>
@@ -3862,8 +3932,11 @@
       <c r="D207" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="208" spans="1:4">
+      <c r="E207" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>15</v>
       </c>
@@ -3877,7 +3950,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>27</v>
       </c>
@@ -3891,7 +3964,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>26</v>
       </c>
@@ -3905,7 +3978,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>25</v>
       </c>
@@ -3922,7 +3995,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>19</v>
       </c>
@@ -3936,7 +4009,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>21</v>
       </c>
@@ -3950,7 +4023,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>13</v>
       </c>
@@ -3964,7 +4037,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>14</v>
       </c>
@@ -3977,8 +4050,11 @@
       <c r="D215" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="216" spans="1:5">
+      <c r="E215" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>20</v>
       </c>
@@ -3992,7 +4068,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>14</v>
       </c>
@@ -4006,7 +4082,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>16</v>
       </c>
@@ -4020,7 +4096,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>17</v>
       </c>
@@ -4034,7 +4110,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>23</v>
       </c>
@@ -4048,7 +4124,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>21</v>
       </c>
@@ -4062,7 +4138,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>13</v>
       </c>
@@ -4076,7 +4152,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>15</v>
       </c>
@@ -4090,7 +4166,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>24</v>
       </c>
@@ -4104,7 +4180,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>22</v>
       </c>
@@ -4118,7 +4194,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>25</v>
       </c>
@@ -4132,7 +4208,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>18</v>
       </c>
@@ -4146,7 +4222,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>27</v>
       </c>
@@ -4160,7 +4236,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>26</v>
       </c>
@@ -4174,7 +4250,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>19</v>
       </c>
@@ -4188,7 +4264,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>8</v>
       </c>
@@ -4202,7 +4278,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>6</v>
       </c>
@@ -4216,7 +4292,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>10</v>
       </c>
@@ -4230,7 +4306,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>22</v>
       </c>
@@ -4243,8 +4319,11 @@
       <c r="D234" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="235" spans="1:5">
+      <c r="E234" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>21</v>
       </c>
@@ -4258,7 +4337,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>14</v>
       </c>
@@ -4272,7 +4351,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>7</v>
       </c>
@@ -4286,7 +4365,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>8</v>
       </c>
@@ -4300,7 +4379,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>24</v>
       </c>
@@ -4317,7 +4396,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>11</v>
       </c>
@@ -4331,7 +4410,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>25</v>
       </c>
@@ -4345,7 +4424,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>16</v>
       </c>
@@ -4359,7 +4438,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>27</v>
       </c>
@@ -4373,7 +4452,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>18</v>
       </c>
@@ -4387,7 +4466,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>17</v>
       </c>
@@ -4401,7 +4480,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>26</v>
       </c>
@@ -4415,7 +4494,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>5</v>
       </c>
@@ -4429,7 +4508,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>15</v>
       </c>
@@ -4443,7 +4522,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>5</v>
       </c>
@@ -4457,7 +4536,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>27</v>
       </c>
@@ -4471,7 +4550,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>25</v>
       </c>
@@ -4485,7 +4564,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>17</v>
       </c>
@@ -4499,7 +4578,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>26</v>
       </c>
@@ -4513,7 +4592,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>12</v>
       </c>
@@ -4527,7 +4606,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>24</v>
       </c>
@@ -4541,7 +4620,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>11</v>
       </c>
@@ -4555,7 +4634,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>20</v>
       </c>
@@ -4569,7 +4648,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>13</v>
       </c>
@@ -4583,7 +4662,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>10</v>
       </c>
@@ -4597,7 +4676,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>14</v>
       </c>
@@ -4611,7 +4690,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>9</v>
       </c>
@@ -4625,7 +4704,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>16</v>
       </c>
@@ -4639,7 +4718,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>5</v>
       </c>
@@ -4653,7 +4732,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>18</v>
       </c>
@@ -4667,7 +4746,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>27</v>
       </c>
@@ -4681,7 +4760,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>17</v>
       </c>
@@ -4695,7 +4774,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>25</v>
       </c>
@@ -4709,7 +4788,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>27</v>
       </c>
@@ -4723,7 +4802,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>5</v>
       </c>
@@ -4737,7 +4816,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>17</v>
       </c>
@@ -4751,7 +4830,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>26</v>
       </c>
@@ -4765,7 +4844,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>18</v>
       </c>
@@ -4779,7 +4858,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>16</v>
       </c>
@@ -4793,7 +4872,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>25</v>
       </c>
@@ -4807,7 +4886,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>15</v>
       </c>
@@ -4821,7 +4900,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>6</v>
       </c>
@@ -4835,7 +4914,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>8</v>
       </c>
@@ -4849,7 +4928,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>9</v>
       </c>
@@ -4863,7 +4942,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>21</v>
       </c>
@@ -4877,7 +4956,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>24</v>
       </c>
@@ -4891,7 +4970,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>14</v>
       </c>
@@ -4905,7 +4984,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>20</v>
       </c>
@@ -4919,7 +4998,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>5</v>
       </c>
@@ -4933,7 +5012,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>17</v>
       </c>
@@ -4947,7 +5026,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>18</v>
       </c>
@@ -4961,7 +5040,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>19</v>
       </c>
@@ -4975,7 +5054,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>24</v>
       </c>
@@ -4989,7 +5068,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>9</v>
       </c>
@@ -5003,7 +5082,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>10</v>
       </c>
@@ -5017,7 +5096,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>8</v>
       </c>
@@ -5031,7 +5110,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>13</v>
       </c>
@@ -5045,7 +5124,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>6</v>
       </c>
@@ -5059,7 +5138,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>20</v>
       </c>
@@ -5073,7 +5152,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>12</v>
       </c>
@@ -5087,7 +5166,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>11</v>
       </c>
@@ -5101,7 +5180,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>14</v>
       </c>
@@ -5115,7 +5194,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>7</v>
       </c>
@@ -5129,7 +5208,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>15</v>
       </c>
@@ -5143,7 +5222,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>22</v>
       </c>
@@ -5157,7 +5236,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>21</v>
       </c>
@@ -5171,7 +5250,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>8</v>
       </c>
@@ -5185,7 +5264,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>9</v>
       </c>
@@ -5199,7 +5278,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>7</v>
       </c>
@@ -5213,7 +5292,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>24</v>
       </c>
@@ -5227,7 +5306,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>6</v>
       </c>
@@ -5241,7 +5320,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>18</v>
       </c>
@@ -5255,7 +5334,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>16</v>
       </c>
@@ -5269,7 +5348,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>19</v>
       </c>
@@ -5283,7 +5362,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>18</v>
       </c>
@@ -5297,7 +5376,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>16</v>
       </c>
@@ -5311,7 +5390,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>17</v>
       </c>
@@ -5325,7 +5404,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>26</v>
       </c>
@@ -5339,7 +5418,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>25</v>
       </c>
@@ -5353,7 +5432,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>5</v>
       </c>
@@ -5367,7 +5446,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>27</v>
       </c>
@@ -5381,7 +5460,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>15</v>
       </c>
@@ -5395,7 +5474,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>23</v>
       </c>
@@ -5412,7 +5491,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>7</v>
       </c>
@@ -5426,7 +5505,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>8</v>
       </c>
@@ -5440,7 +5519,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>6</v>
       </c>
@@ -5454,7 +5533,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>9</v>
       </c>
@@ -5468,7 +5547,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>21</v>
       </c>
@@ -5482,7 +5561,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>23</v>
       </c>
@@ -5496,7 +5575,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>21</v>
       </c>
@@ -5510,7 +5589,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>9</v>
       </c>
@@ -5524,7 +5603,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>12</v>
       </c>
@@ -5538,7 +5617,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>10</v>
       </c>
@@ -5552,7 +5631,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>11</v>
       </c>
@@ -5566,7 +5645,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>7</v>
       </c>
@@ -5580,7 +5659,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>19</v>
       </c>
@@ -5594,7 +5673,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>15</v>
       </c>
@@ -5608,7 +5687,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>23</v>
       </c>
@@ -5622,7 +5701,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>8</v>
       </c>
@@ -5636,7 +5715,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>6</v>
       </c>
@@ -5650,7 +5729,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>23</v>
       </c>
@@ -5664,7 +5743,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>22</v>
       </c>
@@ -5681,7 +5760,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>10</v>
       </c>
@@ -5695,7 +5774,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>12</v>
       </c>
@@ -5709,7 +5788,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>14</v>
       </c>
@@ -5723,7 +5802,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>20</v>
       </c>
@@ -5737,7 +5816,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>12</v>
       </c>
@@ -5751,7 +5830,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>10</v>
       </c>
@@ -5765,7 +5844,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>24</v>
       </c>
@@ -5779,7 +5858,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>6</v>
       </c>
@@ -5793,7 +5872,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>6</v>
       </c>
@@ -5807,7 +5886,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>22</v>
       </c>
@@ -5821,7 +5900,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>12</v>
       </c>
@@ -5835,7 +5914,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>9</v>
       </c>
@@ -5849,7 +5928,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>20</v>
       </c>
@@ -5863,7 +5942,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>10</v>
       </c>
@@ -5877,7 +5956,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>24</v>
       </c>
@@ -5891,7 +5970,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>11</v>
       </c>
@@ -5905,7 +5984,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>19</v>
       </c>
@@ -5919,7 +5998,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>19</v>
       </c>
@@ -5933,7 +6012,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>23</v>
       </c>
@@ -5947,7 +6026,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>25</v>
       </c>
@@ -5961,7 +6040,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>5</v>
       </c>
@@ -5975,7 +6054,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>26</v>
       </c>
@@ -5989,7 +6068,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>16</v>
       </c>
@@ -6003,7 +6082,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>17</v>
       </c>
@@ -6017,7 +6096,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>18</v>
       </c>
@@ -6031,7 +6110,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>27</v>
       </c>
@@ -6045,7 +6124,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>27</v>
       </c>
@@ -6059,7 +6138,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>16</v>
       </c>
@@ -6073,7 +6152,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>25</v>
       </c>
@@ -6087,7 +6166,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>26</v>
       </c>
@@ -6101,7 +6180,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>18</v>
       </c>
@@ -6115,7 +6194,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>5</v>
       </c>
@@ -6129,7 +6208,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>17</v>
       </c>
@@ -6143,7 +6222,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>15</v>
       </c>
@@ -6157,7 +6236,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>13</v>
       </c>
@@ -6171,7 +6250,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>22</v>
       </c>
@@ -6185,7 +6264,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>21</v>
       </c>
@@ -6199,7 +6278,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>26</v>
       </c>
@@ -6213,7 +6292,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>27</v>
       </c>
@@ -6227,7 +6306,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>25</v>
       </c>
@@ -6241,7 +6320,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>7</v>
       </c>
@@ -6255,7 +6334,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>24</v>
       </c>
@@ -6269,7 +6348,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>22</v>
       </c>
@@ -6283,7 +6362,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>19</v>
       </c>
@@ -6297,7 +6376,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>24</v>
       </c>
@@ -6311,7 +6390,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>9</v>
       </c>
@@ -6325,7 +6404,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>24</v>
       </c>
@@ -6339,7 +6418,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>7</v>
       </c>
@@ -6353,7 +6432,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>9</v>
       </c>
@@ -6367,7 +6446,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>6</v>
       </c>
@@ -6381,7 +6460,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>15</v>
       </c>

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Scripts\Divide-BiS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1872751D-9E28-44BA-BBDC-8FA2F6DFD728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5095F010-5A30-405C-9DF9-0C53367A6653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="176">
   <si>
     <t>player</t>
   </si>
@@ -951,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="E188" sqref="E188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1427,6 +1427,9 @@
       <c r="D33" t="s">
         <v>155</v>
       </c>
+      <c r="E33" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -1531,6 +1534,9 @@
       <c r="D40" t="s">
         <v>154</v>
       </c>
+      <c r="E40" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
@@ -1545,6 +1551,9 @@
       <c r="D41" t="s">
         <v>155</v>
       </c>
+      <c r="E41" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
@@ -2232,6 +2241,9 @@
       <c r="D89" t="s">
         <v>157</v>
       </c>
+      <c r="E89" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
@@ -2263,6 +2275,9 @@
       <c r="D91" t="s">
         <v>155</v>
       </c>
+      <c r="E91" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
@@ -3652,6 +3667,9 @@
       <c r="D187" t="s">
         <v>154</v>
       </c>
+      <c r="E187" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
@@ -4634,7 +4652,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>20</v>
       </c>
@@ -4648,7 +4666,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>13</v>
       </c>
@@ -4662,7 +4680,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>10</v>
       </c>
@@ -4676,7 +4694,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>14</v>
       </c>
@@ -4690,7 +4708,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>9</v>
       </c>
@@ -4704,7 +4722,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>16</v>
       </c>
@@ -4717,8 +4735,11 @@
       <c r="D262" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E262" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>5</v>
       </c>
@@ -4732,7 +4753,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>18</v>
       </c>
@@ -4746,7 +4767,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>27</v>
       </c>
@@ -4760,7 +4781,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>17</v>
       </c>
@@ -4774,7 +4795,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>25</v>
       </c>
@@ -4788,7 +4809,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>27</v>
       </c>
@@ -4802,7 +4823,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>5</v>
       </c>
@@ -4816,7 +4837,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>17</v>
       </c>
@@ -4830,7 +4851,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>26</v>
       </c>
@@ -4844,7 +4865,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>18</v>
       </c>

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Scripts\Divide-BiS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5095F010-5A30-405C-9DF9-0C53367A6653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB314AB-E933-4390-AE7C-A4B9239DE92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="185">
   <si>
     <t>player</t>
   </si>
@@ -37,6 +37,9 @@
     <t>received</t>
   </si>
   <si>
+    <t>Hølycheät</t>
+  </si>
+  <si>
     <t>Omegarone</t>
   </si>
   <si>
@@ -106,6 +109,9 @@
     <t>Pamage</t>
   </si>
   <si>
+    <t>Aesuga, Hand of the Ardent Champion</t>
+  </si>
+  <si>
     <t>Amice of Inconceivable Horror</t>
   </si>
   <si>
@@ -139,6 +145,9 @@
     <t>Boundless Gaze</t>
   </si>
   <si>
+    <t>Breastplate of the Devoted</t>
+  </si>
+  <si>
     <t>Breastplate of the Stoneshaper</t>
   </si>
   <si>
@@ -253,6 +262,9 @@
     <t>Gauntlets of Ruthless Reprisal</t>
   </si>
   <si>
+    <t>Gauntlets of the Wayward Conqueror</t>
+  </si>
+  <si>
     <t>Gauntlets of the Wayward Protector</t>
   </si>
   <si>
@@ -322,6 +334,9 @@
     <t>Legplates of the Wayward Vanquisher</t>
   </si>
   <si>
+    <t>Libram of Renewal</t>
+  </si>
+  <si>
     <t>Libram of the Sacred Shield</t>
   </si>
   <si>
@@ -343,6 +358,9 @@
     <t>Mantle of the Wayward Vanquisher</t>
   </si>
   <si>
+    <t>Meteorite Crystal</t>
+  </si>
+  <si>
     <t>Mimiron's Flight Goggles</t>
   </si>
   <si>
@@ -436,6 +454,9 @@
     <t>Sorthalis, Hammer of the Watchers</t>
   </si>
   <si>
+    <t>Soul Preserver</t>
+  </si>
+  <si>
     <t>Soul-Devouring Cinch</t>
   </si>
   <si>
@@ -463,6 +484,9 @@
     <t>Titanskin Cloak</t>
   </si>
   <si>
+    <t>Treads of Destiny</t>
+  </si>
+  <si>
     <t>Treads of the False Oracle</t>
   </si>
   <si>
@@ -539,6 +563,9 @@
   </si>
   <si>
     <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>Emblems of Conquest</t>
@@ -949,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E387"/>
+  <dimension ref="A1:E404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="E188" sqref="E188"/>
+    <sheetView tabSelected="1" topLeftCell="A383" workbookViewId="0">
+      <selection activeCell="E390" sqref="E390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -979,13 +1006,13 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>46068</v>
+        <v>46035</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -993,13 +1020,13 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>45663</v>
+        <v>46068</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1010,10 +1037,10 @@
         <v>45663</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1024,10 +1051,10 @@
         <v>45663</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1038,10 +1065,10 @@
         <v>45663</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1049,13 +1076,13 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>46048</v>
+        <v>45663</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1066,10 +1093,10 @@
         <v>46048</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1080,69 +1107,66 @@
         <v>46048</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>45241</v>
+        <v>46048</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>45241</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>45241</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B13">
-        <v>45553</v>
+        <v>45241</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>158</v>
-      </c>
-      <c r="E13" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1150,13 +1174,16 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>45467</v>
+        <v>45553</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>154</v>
+        <v>166</v>
+      </c>
+      <c r="E14" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1164,254 +1191,257 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>45151</v>
+        <v>45467</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
-      </c>
-      <c r="E15" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>45151</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>45151</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>45460</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>45460</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>45460</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
-        <v>45460</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>45460</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18">
+      <c r="B21">
         <v>45484</v>
       </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19">
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
         <v>45484</v>
       </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20">
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
         <v>45484</v>
       </c>
-      <c r="C20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21">
-        <v>45135</v>
-      </c>
-      <c r="C21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22">
-        <v>45135</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23">
-        <v>45135</v>
-      </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B24">
         <v>45135</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B25">
         <v>45135</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26">
+        <v>45135</v>
+      </c>
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27">
+        <v>45135</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>20</v>
       </c>
-      <c r="B26">
+      <c r="B28">
+        <v>45135</v>
+      </c>
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29">
         <v>45610</v>
       </c>
-      <c r="C26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27">
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30">
         <v>45610</v>
-      </c>
-      <c r="C27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28">
-        <v>45610</v>
-      </c>
-      <c r="C28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29">
-        <v>45867</v>
-      </c>
-      <c r="C29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30">
-        <v>46039</v>
       </c>
       <c r="C30" t="s">
         <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B31">
-        <v>46039</v>
+        <v>45610</v>
       </c>
       <c r="C31" t="s">
         <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B32">
-        <v>45632</v>
+        <v>45445</v>
       </c>
       <c r="C32" t="s">
         <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1419,30 +1449,27 @@
         <v>16</v>
       </c>
       <c r="B33">
-        <v>45632</v>
+        <v>45867</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>155</v>
-      </c>
-      <c r="E33" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B34">
-        <v>45632</v>
+        <v>46039</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1450,92 +1477,89 @@
         <v>23</v>
       </c>
       <c r="B35">
-        <v>45632</v>
+        <v>46039</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D35" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B36">
-        <v>45633</v>
+        <v>45632</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>154</v>
-      </c>
-      <c r="E36" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B37">
-        <v>45633</v>
+        <v>45632</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E37" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B38">
-        <v>45633</v>
+        <v>45632</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D38" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B39">
-        <v>45633</v>
+        <v>45632</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D39" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B40">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D40" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E40" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1543,274 +1567,280 @@
         <v>25</v>
       </c>
       <c r="B41">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D41" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E41" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B42">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B43">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D43" t="s">
-        <v>157</v>
-      </c>
-      <c r="E43" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B44">
         <v>45634</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D44" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E44" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B45">
         <v>45634</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D45" t="s">
-        <v>160</v>
+        <v>163</v>
+      </c>
+      <c r="E45" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B46">
-        <v>45485</v>
+        <v>45634</v>
       </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D46" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B47">
-        <v>45485</v>
+        <v>45634</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>155</v>
+        <v>165</v>
+      </c>
+      <c r="E47" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B48">
-        <v>45587</v>
+        <v>45634</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D48" t="s">
-        <v>154</v>
+        <v>167</v>
+      </c>
+      <c r="E48" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B49">
-        <v>45587</v>
+        <v>45634</v>
       </c>
       <c r="C49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D49" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B50">
-        <v>46097</v>
+        <v>45485</v>
       </c>
       <c r="C50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D50" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B51">
-        <v>46097</v>
+        <v>45485</v>
       </c>
       <c r="C51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D51" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B52">
-        <v>46097</v>
+        <v>45587</v>
       </c>
       <c r="C52" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D52" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B53">
-        <v>45443</v>
+        <v>45587</v>
       </c>
       <c r="C53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D53" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B54">
-        <v>45443</v>
+        <v>46097</v>
       </c>
       <c r="C54" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D54" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B55">
-        <v>45609</v>
+        <v>46097</v>
       </c>
       <c r="C55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D55" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B56">
-        <v>45609</v>
+        <v>46097</v>
       </c>
       <c r="C56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D56" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B57">
-        <v>45609</v>
+        <v>45443</v>
       </c>
       <c r="C57" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D57" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B58">
-        <v>45609</v>
+        <v>45443</v>
       </c>
       <c r="C58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D58" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B59">
         <v>45609</v>
       </c>
       <c r="C59" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D59" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1821,178 +1851,178 @@
         <v>45609</v>
       </c>
       <c r="C60" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D60" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B61">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C61" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D61" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B62">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C62" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D62" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B63">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C63" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D63" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B64">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C64" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D64" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B65">
         <v>45495</v>
       </c>
       <c r="C65" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D65" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B66">
         <v>45495</v>
       </c>
       <c r="C66" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D66" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B67">
         <v>45495</v>
       </c>
       <c r="C67" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D67" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B68">
         <v>45495</v>
       </c>
       <c r="C68" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D68" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B69">
-        <v>45612</v>
+        <v>45495</v>
       </c>
       <c r="C69" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D69" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B70">
-        <v>45612</v>
+        <v>45495</v>
       </c>
       <c r="C70" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D70" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B71">
-        <v>45612</v>
+        <v>45495</v>
       </c>
       <c r="C71" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D71" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B72">
-        <v>45617</v>
+        <v>45495</v>
       </c>
       <c r="C72" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D72" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -2000,435 +2030,438 @@
         <v>16</v>
       </c>
       <c r="B73">
-        <v>45617</v>
+        <v>45612</v>
       </c>
       <c r="C73" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D73" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B74">
-        <v>45617</v>
+        <v>45612</v>
       </c>
       <c r="C74" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D74" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B75">
-        <v>45617</v>
+        <v>45612</v>
       </c>
       <c r="C75" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D75" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B76">
         <v>45617</v>
       </c>
       <c r="C76" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D76" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B77">
         <v>45617</v>
       </c>
       <c r="C77" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D77" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B78">
         <v>45617</v>
       </c>
       <c r="C78" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D78" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B79">
-        <v>45250</v>
+        <v>45617</v>
       </c>
       <c r="C79" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D79" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B80">
-        <v>45497</v>
+        <v>45617</v>
       </c>
       <c r="C80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D80" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B81">
-        <v>45497</v>
+        <v>45617</v>
       </c>
       <c r="C81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D81" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B82">
-        <v>45497</v>
+        <v>45617</v>
       </c>
       <c r="C82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D82" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B83">
-        <v>45638</v>
+        <v>45250</v>
       </c>
       <c r="C83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D83" t="s">
-        <v>154</v>
-      </c>
-      <c r="E83" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B84">
-        <v>45638</v>
+        <v>45497</v>
       </c>
       <c r="C84" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D84" t="s">
-        <v>155</v>
-      </c>
-      <c r="E84" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B85">
-        <v>45638</v>
+        <v>45497</v>
       </c>
       <c r="C85" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D85" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B86">
-        <v>45639</v>
+        <v>45497</v>
       </c>
       <c r="C86" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D86" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B87">
-        <v>45639</v>
+        <v>45638</v>
       </c>
       <c r="C87" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D87" t="s">
-        <v>155</v>
+        <v>162</v>
+      </c>
+      <c r="E87" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B88">
-        <v>45639</v>
+        <v>45638</v>
       </c>
       <c r="C88" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D88" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E88" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B89">
-        <v>45639</v>
+        <v>45638</v>
       </c>
       <c r="C89" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D89" t="s">
-        <v>157</v>
-      </c>
-      <c r="E89" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B90">
-        <v>45640</v>
+        <v>45638</v>
       </c>
       <c r="C90" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D90" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E90" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B91">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="C91" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D91" t="s">
-        <v>155</v>
-      </c>
-      <c r="E91" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B92">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="C92" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D92" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B93">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="C93" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D93" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E93" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B94">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="C94" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D94" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E94" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B95">
         <v>45640</v>
       </c>
       <c r="C95" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D95" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="E95" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B96">
         <v>45640</v>
       </c>
       <c r="C96" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D96" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E96" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>27</v>
+      </c>
+      <c r="B97">
+        <v>45640</v>
+      </c>
+      <c r="C97" t="s">
+        <v>59</v>
+      </c>
+      <c r="D97" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>20</v>
+      </c>
+      <c r="B98">
+        <v>45640</v>
+      </c>
+      <c r="C98" t="s">
+        <v>59</v>
+      </c>
+      <c r="D98" t="s">
+        <v>165</v>
+      </c>
+      <c r="E98" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>13</v>
       </c>
-      <c r="B97">
-        <v>46038</v>
-      </c>
-      <c r="C97" t="s">
-        <v>57</v>
-      </c>
-      <c r="D97" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>7</v>
-      </c>
-      <c r="B98">
-        <v>46038</v>
-      </c>
-      <c r="C98" t="s">
-        <v>57</v>
-      </c>
-      <c r="D98" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>10</v>
-      </c>
       <c r="B99">
-        <v>46038</v>
+        <v>45640</v>
       </c>
       <c r="C99" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D99" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="E99" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B100">
-        <v>46038</v>
+        <v>45640</v>
       </c>
       <c r="C100" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D100" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B101">
-        <v>46038</v>
+        <v>45640</v>
       </c>
       <c r="C101" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D101" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+      <c r="E101" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>14</v>
       </c>
@@ -2436,573 +2469,573 @@
         <v>46038</v>
       </c>
       <c r="C102" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D102" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B103">
+        <v>46038</v>
+      </c>
+      <c r="C103" t="s">
+        <v>60</v>
+      </c>
+      <c r="D103" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104">
+        <v>46038</v>
+      </c>
+      <c r="C104" t="s">
+        <v>60</v>
+      </c>
+      <c r="D104" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105">
+        <v>46038</v>
+      </c>
+      <c r="C105" t="s">
+        <v>60</v>
+      </c>
+      <c r="D105" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106">
+        <v>46038</v>
+      </c>
+      <c r="C106" t="s">
+        <v>60</v>
+      </c>
+      <c r="D106" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107">
+        <v>46038</v>
+      </c>
+      <c r="C107" t="s">
+        <v>60</v>
+      </c>
+      <c r="D107" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108">
         <v>42987</v>
       </c>
-      <c r="C103" t="s">
-        <v>58</v>
-      </c>
-      <c r="D103" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>6</v>
-      </c>
-      <c r="B104">
+      <c r="C108" t="s">
+        <v>61</v>
+      </c>
+      <c r="D108" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109">
         <v>42987</v>
       </c>
-      <c r="C104" t="s">
-        <v>58</v>
-      </c>
-      <c r="D104" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>8</v>
-      </c>
-      <c r="B105">
+      <c r="C109" t="s">
+        <v>61</v>
+      </c>
+      <c r="D109" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110">
         <v>42987</v>
       </c>
-      <c r="C105" t="s">
-        <v>58</v>
-      </c>
-      <c r="D105" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>9</v>
-      </c>
-      <c r="B106">
+      <c r="C110" t="s">
+        <v>61</v>
+      </c>
+      <c r="D110" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>25</v>
+      </c>
+      <c r="B111">
         <v>42987</v>
       </c>
-      <c r="C106" t="s">
-        <v>58</v>
-      </c>
-      <c r="D106" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>20</v>
-      </c>
-      <c r="B107">
+      <c r="C111" t="s">
+        <v>61</v>
+      </c>
+      <c r="D111" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>21</v>
+      </c>
+      <c r="B112">
         <v>44253</v>
       </c>
-      <c r="C107" t="s">
-        <v>58</v>
-      </c>
-      <c r="D107" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>22</v>
-      </c>
-      <c r="B108">
-        <v>45139</v>
-      </c>
-      <c r="C108" t="s">
-        <v>59</v>
-      </c>
-      <c r="D108" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B109">
-        <v>45461</v>
-      </c>
-      <c r="C109" t="s">
-        <v>60</v>
-      </c>
-      <c r="D109" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>12</v>
-      </c>
-      <c r="B110">
-        <v>45461</v>
-      </c>
-      <c r="C110" t="s">
-        <v>60</v>
-      </c>
-      <c r="D110" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>9</v>
-      </c>
-      <c r="B111">
-        <v>45461</v>
-      </c>
-      <c r="C111" t="s">
-        <v>60</v>
-      </c>
-      <c r="D111" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>13</v>
-      </c>
-      <c r="B112">
-        <v>45461</v>
-      </c>
       <c r="C112" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D112" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B113">
-        <v>45242</v>
+        <v>45139</v>
       </c>
       <c r="C113" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D113" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B114">
-        <v>45242</v>
+        <v>45461</v>
       </c>
       <c r="C114" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D114" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B115">
-        <v>45242</v>
+        <v>45461</v>
       </c>
       <c r="C115" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D115" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B116">
-        <v>45242</v>
+        <v>45461</v>
       </c>
       <c r="C116" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D116" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B117">
-        <v>46032</v>
+        <v>45461</v>
       </c>
       <c r="C117" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D117" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B118">
-        <v>46032</v>
+        <v>45242</v>
       </c>
       <c r="C118" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D118" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B119">
-        <v>46032</v>
+        <v>45242</v>
       </c>
       <c r="C119" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D119" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B120">
-        <v>46032</v>
+        <v>45242</v>
       </c>
       <c r="C120" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D120" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B121">
-        <v>46032</v>
+        <v>45242</v>
       </c>
       <c r="C121" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D121" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B122">
         <v>46032</v>
       </c>
       <c r="C122" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D122" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B123">
-        <v>45486</v>
+        <v>46032</v>
       </c>
       <c r="C123" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D123" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B124">
-        <v>45486</v>
+        <v>46032</v>
       </c>
       <c r="C124" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D124" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B125">
-        <v>45613</v>
+        <v>46032</v>
       </c>
       <c r="C125" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D125" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B126">
-        <v>45613</v>
+        <v>46032</v>
       </c>
       <c r="C126" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D126" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B127">
-        <v>45473</v>
+        <v>46032</v>
       </c>
       <c r="C127" t="s">
         <v>65</v>
       </c>
       <c r="D127" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B128">
-        <v>45473</v>
+        <v>45486</v>
       </c>
       <c r="C128" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D128" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B129">
-        <v>45473</v>
+        <v>45486</v>
       </c>
       <c r="C129" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D129" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B130">
-        <v>45473</v>
+        <v>45486</v>
       </c>
       <c r="C130" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D130" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B131">
-        <v>45473</v>
+        <v>45613</v>
       </c>
       <c r="C131" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D131" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B132">
-        <v>45119</v>
+        <v>45613</v>
       </c>
       <c r="C132" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D132" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B133">
-        <v>45471</v>
+        <v>45473</v>
       </c>
       <c r="C133" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D133" t="s">
-        <v>154</v>
-      </c>
-      <c r="E133" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B134">
-        <v>45471</v>
+        <v>45473</v>
       </c>
       <c r="C134" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D134" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B135">
-        <v>45946</v>
+        <v>45473</v>
       </c>
       <c r="C135" t="s">
         <v>68</v>
       </c>
       <c r="D135" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B136">
-        <v>45946</v>
+        <v>45473</v>
       </c>
       <c r="C136" t="s">
         <v>68</v>
       </c>
       <c r="D136" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B137">
-        <v>45518</v>
+        <v>45473</v>
       </c>
       <c r="C137" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D137" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B138">
-        <v>45518</v>
+        <v>45119</v>
       </c>
       <c r="C138" t="s">
         <v>69</v>
       </c>
       <c r="D138" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B139">
-        <v>45518</v>
+        <v>45471</v>
       </c>
       <c r="C139" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D139" t="s">
-        <v>156</v>
+        <v>162</v>
+      </c>
+      <c r="E139" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B140">
-        <v>45518</v>
+        <v>45471</v>
       </c>
       <c r="C140" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D140" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B141">
-        <v>45518</v>
+        <v>45946</v>
       </c>
       <c r="C141" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D141" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B142">
-        <v>45518</v>
+        <v>45946</v>
       </c>
       <c r="C142" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D142" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
@@ -3010,106 +3043,97 @@
         <v>5</v>
       </c>
       <c r="B143">
-        <v>45518</v>
+        <v>45946</v>
       </c>
       <c r="C143" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D143" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B144">
-        <v>45869</v>
+        <v>45518</v>
       </c>
       <c r="C144" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D144" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B145">
-        <v>45869</v>
+        <v>45518</v>
       </c>
       <c r="C145" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D145" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B146">
-        <v>45564</v>
+        <v>45518</v>
       </c>
       <c r="C146" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D146" t="s">
-        <v>158</v>
-      </c>
-      <c r="E146" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B147">
-        <v>45564</v>
+        <v>45518</v>
       </c>
       <c r="C147" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D147" t="s">
-        <v>158</v>
-      </c>
-      <c r="E147" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B148">
-        <v>45564</v>
+        <v>45518</v>
       </c>
       <c r="C148" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D148" t="s">
-        <v>158</v>
-      </c>
-      <c r="E148" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B149">
-        <v>45459</v>
+        <v>45518</v>
       </c>
       <c r="C149" t="s">
         <v>72</v>
       </c>
       <c r="D149" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -3117,58 +3141,58 @@
         <v>6</v>
       </c>
       <c r="B150">
-        <v>45459</v>
+        <v>45518</v>
       </c>
       <c r="C150" t="s">
         <v>72</v>
       </c>
       <c r="D150" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B151">
-        <v>45459</v>
+        <v>45869</v>
       </c>
       <c r="C151" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D151" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B152">
-        <v>45454</v>
+        <v>45869</v>
       </c>
       <c r="C152" t="s">
         <v>73</v>
       </c>
       <c r="D152" t="s">
-        <v>154</v>
-      </c>
-      <c r="E152" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B153">
-        <v>42853</v>
+        <v>45564</v>
       </c>
       <c r="C153" t="s">
         <v>74</v>
       </c>
       <c r="D153" t="s">
-        <v>164</v>
+        <v>166</v>
+      </c>
+      <c r="E153" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
@@ -3176,883 +3200,889 @@
         <v>13</v>
       </c>
       <c r="B154">
-        <v>42608</v>
+        <v>45564</v>
       </c>
       <c r="C154" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D154" t="s">
-        <v>164</v>
+        <v>166</v>
+      </c>
+      <c r="E154" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B155">
-        <v>45481</v>
+        <v>45564</v>
       </c>
       <c r="C155" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D155" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="E155" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B156">
-        <v>45642</v>
+        <v>45459</v>
       </c>
       <c r="C156" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D156" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B157">
-        <v>45642</v>
+        <v>45459</v>
       </c>
       <c r="C157" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D157" t="s">
-        <v>155</v>
-      </c>
-      <c r="E157" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B158">
-        <v>45642</v>
+        <v>45459</v>
       </c>
       <c r="C158" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D158" t="s">
-        <v>156</v>
-      </c>
-      <c r="E158" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B159">
-        <v>45643</v>
+        <v>45454</v>
       </c>
       <c r="C159" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D159" t="s">
-        <v>154</v>
+        <v>162</v>
+      </c>
+      <c r="E159" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B160">
-        <v>45643</v>
+        <v>42853</v>
       </c>
       <c r="C160" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D160" t="s">
-        <v>155</v>
-      </c>
-      <c r="E160" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B161">
-        <v>45643</v>
+        <v>42608</v>
       </c>
       <c r="C161" t="s">
         <v>78</v>
       </c>
       <c r="D161" t="s">
-        <v>156</v>
-      </c>
-      <c r="E161" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B162">
-        <v>45643</v>
+        <v>45481</v>
       </c>
       <c r="C162" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D162" t="s">
-        <v>157</v>
+        <v>162</v>
+      </c>
+      <c r="E162" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B163">
-        <v>46043</v>
+        <v>45641</v>
       </c>
       <c r="C163" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D163" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B164">
-        <v>45444</v>
+        <v>45642</v>
       </c>
       <c r="C164" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D164" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B165">
-        <v>45444</v>
+        <v>45642</v>
       </c>
       <c r="C165" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D165" t="s">
-        <v>155</v>
+        <v>163</v>
+      </c>
+      <c r="E165" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B166">
-        <v>45444</v>
+        <v>45642</v>
       </c>
       <c r="C166" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D166" t="s">
-        <v>156</v>
+        <v>164</v>
+      </c>
+      <c r="E166" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B167">
-        <v>45444</v>
+        <v>45643</v>
       </c>
       <c r="C167" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D167" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B168">
-        <v>45132</v>
+        <v>45643</v>
       </c>
       <c r="C168" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D168" t="s">
-        <v>154</v>
+        <v>163</v>
+      </c>
+      <c r="E168" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B169">
-        <v>45132</v>
+        <v>45643</v>
       </c>
       <c r="C169" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D169" t="s">
-        <v>155</v>
+        <v>164</v>
+      </c>
+      <c r="E169" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B170">
-        <v>45446</v>
+        <v>45643</v>
       </c>
       <c r="C170" t="s">
         <v>82</v>
       </c>
       <c r="D170" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B171">
-        <v>45446</v>
+        <v>46043</v>
       </c>
       <c r="C171" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D171" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B172">
-        <v>45446</v>
+        <v>45444</v>
       </c>
       <c r="C172" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D172" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B173">
-        <v>45446</v>
+        <v>45444</v>
       </c>
       <c r="C173" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D173" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B174">
-        <v>45446</v>
+        <v>45444</v>
       </c>
       <c r="C174" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D174" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B175">
-        <v>45446</v>
+        <v>45444</v>
       </c>
       <c r="C175" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D175" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
+        <v>11</v>
+      </c>
+      <c r="B176">
+        <v>45132</v>
+      </c>
+      <c r="C176" t="s">
+        <v>85</v>
+      </c>
+      <c r="D176" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>14</v>
+      </c>
+      <c r="B177">
+        <v>45132</v>
+      </c>
+      <c r="C177" t="s">
+        <v>85</v>
+      </c>
+      <c r="D177" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
         <v>27</v>
       </c>
-      <c r="B176">
+      <c r="B178">
         <v>45446</v>
       </c>
-      <c r="C176" t="s">
-        <v>82</v>
-      </c>
-      <c r="D176" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
+      <c r="C178" t="s">
+        <v>86</v>
+      </c>
+      <c r="D178" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>18</v>
+      </c>
+      <c r="B179">
+        <v>45446</v>
+      </c>
+      <c r="C179" t="s">
+        <v>86</v>
+      </c>
+      <c r="D179" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>26</v>
+      </c>
+      <c r="B180">
+        <v>45446</v>
+      </c>
+      <c r="C180" t="s">
+        <v>86</v>
+      </c>
+      <c r="D180" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>6</v>
+      </c>
+      <c r="B181">
+        <v>45446</v>
+      </c>
+      <c r="C181" t="s">
+        <v>86</v>
+      </c>
+      <c r="D181" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
         <v>19</v>
       </c>
-      <c r="B177">
+      <c r="B182">
         <v>45446</v>
       </c>
-      <c r="C177" t="s">
-        <v>82</v>
-      </c>
-      <c r="D177" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>20</v>
-      </c>
-      <c r="B178">
-        <v>45244</v>
-      </c>
-      <c r="C178" t="s">
-        <v>83</v>
-      </c>
-      <c r="D178" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>14</v>
-      </c>
-      <c r="B179">
-        <v>45244</v>
-      </c>
-      <c r="C179" t="s">
-        <v>83</v>
-      </c>
-      <c r="D179" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>21</v>
-      </c>
-      <c r="B180">
-        <v>45988</v>
-      </c>
-      <c r="C180" t="s">
-        <v>84</v>
-      </c>
-      <c r="D180" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>22</v>
-      </c>
-      <c r="B181">
-        <v>45988</v>
-      </c>
-      <c r="C181" t="s">
-        <v>84</v>
-      </c>
-      <c r="D181" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>22</v>
-      </c>
-      <c r="B182">
-        <v>45487</v>
-      </c>
       <c r="C182" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D182" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B183">
-        <v>45487</v>
+        <v>45446</v>
       </c>
       <c r="C183" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D183" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B184">
-        <v>45520</v>
+        <v>45446</v>
       </c>
       <c r="C184" t="s">
         <v>86</v>
       </c>
       <c r="D184" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B185">
-        <v>45158</v>
+        <v>45446</v>
       </c>
       <c r="C185" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D185" t="s">
-        <v>154</v>
-      </c>
-      <c r="E185" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>21</v>
       </c>
       <c r="B186">
-        <v>45158</v>
+        <v>45244</v>
       </c>
       <c r="C186" t="s">
         <v>87</v>
       </c>
       <c r="D186" t="s">
-        <v>155</v>
-      </c>
-      <c r="E186" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B187">
-        <v>45886</v>
+        <v>45244</v>
       </c>
       <c r="C187" t="s">
+        <v>87</v>
+      </c>
+      <c r="D187" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>22</v>
+      </c>
+      <c r="B188">
+        <v>45988</v>
+      </c>
+      <c r="C188" t="s">
         <v>88</v>
       </c>
-      <c r="D187" t="s">
-        <v>154</v>
-      </c>
-      <c r="E187" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>19</v>
-      </c>
-      <c r="B188">
-        <v>40342</v>
-      </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>23</v>
+      </c>
+      <c r="B189">
+        <v>45988</v>
+      </c>
+      <c r="C189" t="s">
+        <v>88</v>
+      </c>
+      <c r="D189" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>23</v>
+      </c>
+      <c r="B190">
+        <v>45487</v>
+      </c>
+      <c r="C190" t="s">
         <v>89</v>
       </c>
-      <c r="D188" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
-        <v>11</v>
-      </c>
-      <c r="B189">
-        <v>40713</v>
-      </c>
-      <c r="C189" t="s">
+      <c r="D190" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>22</v>
+      </c>
+      <c r="B191">
+        <v>45487</v>
+      </c>
+      <c r="C191" t="s">
+        <v>89</v>
+      </c>
+      <c r="D191" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>24</v>
+      </c>
+      <c r="B192">
+        <v>45520</v>
+      </c>
+      <c r="C192" t="s">
         <v>90</v>
       </c>
-      <c r="D189" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>26</v>
-      </c>
-      <c r="B190">
-        <v>40321</v>
-      </c>
-      <c r="C190" t="s">
-        <v>91</v>
-      </c>
-      <c r="D190" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
-        <v>23</v>
-      </c>
-      <c r="B191">
-        <v>40432</v>
-      </c>
-      <c r="C191" t="s">
-        <v>92</v>
-      </c>
-      <c r="D191" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
-        <v>23</v>
-      </c>
-      <c r="B192">
-        <v>45271</v>
-      </c>
-      <c r="C192" t="s">
-        <v>93</v>
-      </c>
       <c r="D192" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B193">
-        <v>45488</v>
+        <v>45158</v>
       </c>
       <c r="C193" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D193" t="s">
-        <v>154</v>
+        <v>162</v>
+      </c>
+      <c r="E193" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B194">
-        <v>45488</v>
+        <v>45158</v>
       </c>
       <c r="C194" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D194" t="s">
-        <v>155</v>
+        <v>163</v>
+      </c>
+      <c r="E194" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B195">
-        <v>45536</v>
+        <v>45886</v>
       </c>
       <c r="C195" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D195" t="s">
-        <v>154</v>
+        <v>162</v>
+      </c>
+      <c r="E195" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B196">
-        <v>45536</v>
+        <v>40342</v>
       </c>
       <c r="C196" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D196" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B197">
-        <v>45536</v>
+        <v>40713</v>
       </c>
       <c r="C197" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D197" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B198">
-        <v>45536</v>
+        <v>40321</v>
       </c>
       <c r="C198" t="s">
         <v>95</v>
       </c>
       <c r="D198" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B199">
-        <v>45536</v>
+        <v>40432</v>
       </c>
       <c r="C199" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D199" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B200">
-        <v>45536</v>
+        <v>45271</v>
       </c>
       <c r="C200" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D200" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B201">
-        <v>45594</v>
+        <v>45488</v>
       </c>
       <c r="C201" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D201" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B202">
-        <v>45594</v>
+        <v>45488</v>
       </c>
       <c r="C202" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D202" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B203">
-        <v>45653</v>
+        <v>45536</v>
       </c>
       <c r="C203" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D203" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B204">
-        <v>45653</v>
+        <v>45536</v>
       </c>
       <c r="C204" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D204" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B205">
-        <v>45653</v>
+        <v>45536</v>
       </c>
       <c r="C205" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D205" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B206">
-        <v>45654</v>
+        <v>45536</v>
       </c>
       <c r="C206" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D206" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B207">
-        <v>45654</v>
+        <v>45536</v>
       </c>
       <c r="C207" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D207" t="s">
-        <v>155</v>
-      </c>
-      <c r="E207" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B208">
-        <v>45654</v>
+        <v>45536</v>
       </c>
       <c r="C208" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D208" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B209">
-        <v>45655</v>
+        <v>45594</v>
       </c>
       <c r="C209" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D209" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B210">
-        <v>45655</v>
+        <v>45594</v>
       </c>
       <c r="C210" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D210" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B211">
-        <v>45655</v>
+        <v>45653</v>
       </c>
       <c r="C211" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D211" t="s">
-        <v>156</v>
-      </c>
-      <c r="E211" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B212">
-        <v>45655</v>
+        <v>45653</v>
       </c>
       <c r="C212" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D212" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B213">
-        <v>45145</v>
+        <v>45653</v>
       </c>
       <c r="C213" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D213" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B214">
-        <v>45456</v>
+        <v>45653</v>
       </c>
       <c r="C214" t="s">
         <v>101</v>
       </c>
       <c r="D214" t="s">
-        <v>154</v>
+        <v>165</v>
+      </c>
+      <c r="E214" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
@@ -4060,663 +4090,669 @@
         <v>14</v>
       </c>
       <c r="B215">
-        <v>45498</v>
+        <v>45654</v>
       </c>
       <c r="C215" t="s">
         <v>102</v>
       </c>
       <c r="D215" t="s">
-        <v>154</v>
-      </c>
-      <c r="E215" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B216">
-        <v>45300</v>
+        <v>45654</v>
       </c>
       <c r="C216" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D216" t="s">
-        <v>154</v>
+        <v>163</v>
+      </c>
+      <c r="E216" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B217">
-        <v>45300</v>
+        <v>45654</v>
       </c>
       <c r="C217" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D217" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B218">
-        <v>45656</v>
+        <v>45655</v>
       </c>
       <c r="C218" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D218" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B219">
-        <v>45656</v>
+        <v>45655</v>
       </c>
       <c r="C219" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D219" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B220">
-        <v>45656</v>
+        <v>45655</v>
       </c>
       <c r="C220" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D220" t="s">
-        <v>156</v>
+        <v>164</v>
+      </c>
+      <c r="E220" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B221">
-        <v>45656</v>
+        <v>45655</v>
       </c>
       <c r="C221" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D221" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B222">
-        <v>45657</v>
+        <v>40705</v>
       </c>
       <c r="C222" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D222" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B223">
-        <v>45657</v>
+        <v>45145</v>
       </c>
       <c r="C223" t="s">
         <v>105</v>
       </c>
       <c r="D223" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B224">
-        <v>45657</v>
+        <v>45456</v>
       </c>
       <c r="C224" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D224" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B225">
-        <v>45657</v>
+        <v>45498</v>
       </c>
       <c r="C225" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D225" t="s">
-        <v>157</v>
+        <v>162</v>
+      </c>
+      <c r="E225" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B226">
-        <v>45658</v>
+        <v>45300</v>
       </c>
       <c r="C226" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D226" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B227">
-        <v>45658</v>
+        <v>45300</v>
       </c>
       <c r="C227" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D227" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B228">
-        <v>45658</v>
+        <v>45656</v>
       </c>
       <c r="C228" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D228" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B229">
-        <v>45658</v>
+        <v>45656</v>
       </c>
       <c r="C229" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D229" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B230">
-        <v>45658</v>
+        <v>45656</v>
       </c>
       <c r="C230" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D230" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B231">
-        <v>45658</v>
+        <v>45656</v>
       </c>
       <c r="C231" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D231" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B232">
-        <v>45658</v>
+        <v>45656</v>
       </c>
       <c r="C232" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D232" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B233">
-        <v>45993</v>
+        <v>45657</v>
       </c>
       <c r="C233" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D233" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B234">
-        <v>45111</v>
+        <v>45657</v>
       </c>
       <c r="C234" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D234" t="s">
-        <v>154</v>
-      </c>
-      <c r="E234" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B235">
-        <v>45111</v>
+        <v>45657</v>
       </c>
       <c r="C235" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D235" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B236">
-        <v>45931</v>
+        <v>45657</v>
       </c>
       <c r="C236" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D236" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B237">
-        <v>45931</v>
+        <v>45658</v>
       </c>
       <c r="C237" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D237" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B238">
-        <v>45931</v>
+        <v>45658</v>
       </c>
       <c r="C238" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D238" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B239">
-        <v>45931</v>
+        <v>45658</v>
       </c>
       <c r="C239" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D239" t="s">
-        <v>157</v>
-      </c>
-      <c r="E239" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
+        <v>27</v>
+      </c>
+      <c r="B240">
+        <v>45658</v>
+      </c>
+      <c r="C240" t="s">
+        <v>111</v>
+      </c>
+      <c r="D240" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>20</v>
+      </c>
+      <c r="B241">
+        <v>45658</v>
+      </c>
+      <c r="C241" t="s">
+        <v>111</v>
+      </c>
+      <c r="D241" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>9</v>
+      </c>
+      <c r="B242">
+        <v>45658</v>
+      </c>
+      <c r="C242" t="s">
+        <v>111</v>
+      </c>
+      <c r="D242" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>7</v>
+      </c>
+      <c r="B243">
+        <v>45658</v>
+      </c>
+      <c r="C243" t="s">
+        <v>111</v>
+      </c>
+      <c r="D243" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>5</v>
+      </c>
+      <c r="B244">
+        <v>46051</v>
+      </c>
+      <c r="C244" t="s">
+        <v>112</v>
+      </c>
+      <c r="D244" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
         <v>11</v>
       </c>
-      <c r="B240">
-        <v>45931</v>
-      </c>
-      <c r="C240" t="s">
-        <v>109</v>
-      </c>
-      <c r="D240" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
-        <v>25</v>
-      </c>
-      <c r="B241">
-        <v>46046</v>
-      </c>
-      <c r="C241" t="s">
-        <v>110</v>
-      </c>
-      <c r="D241" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
-        <v>16</v>
-      </c>
-      <c r="B242">
-        <v>46046</v>
-      </c>
-      <c r="C242" t="s">
-        <v>110</v>
-      </c>
-      <c r="D242" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
-        <v>27</v>
-      </c>
-      <c r="B243">
-        <v>46046</v>
-      </c>
-      <c r="C243" t="s">
-        <v>110</v>
-      </c>
-      <c r="D243" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
-        <v>18</v>
-      </c>
-      <c r="B244">
-        <v>46046</v>
-      </c>
-      <c r="C244" t="s">
-        <v>110</v>
-      </c>
-      <c r="D244" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
-        <v>17</v>
-      </c>
       <c r="B245">
-        <v>46046</v>
+        <v>45993</v>
       </c>
       <c r="C245" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D245" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B246">
-        <v>46046</v>
+        <v>45111</v>
       </c>
       <c r="C246" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D246" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="E246" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B247">
-        <v>46046</v>
+        <v>45111</v>
       </c>
       <c r="C247" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D247" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>15</v>
       </c>
       <c r="B248">
-        <v>46046</v>
+        <v>45931</v>
       </c>
       <c r="C248" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D248" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B249">
-        <v>45133</v>
+        <v>45931</v>
       </c>
       <c r="C249" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D249" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B250">
-        <v>45133</v>
+        <v>45931</v>
       </c>
       <c r="C250" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D250" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>25</v>
       </c>
       <c r="B251">
-        <v>45133</v>
+        <v>45931</v>
       </c>
       <c r="C251" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D251" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+      <c r="E251" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B252">
-        <v>45133</v>
+        <v>45931</v>
       </c>
       <c r="C252" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D252" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>26</v>
       </c>
       <c r="B253">
-        <v>45933</v>
+        <v>46046</v>
       </c>
       <c r="C253" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D253" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B254">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C254" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D254" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B255">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C255" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D255" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B256">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C256" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D256" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B257">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C257" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D257" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B258">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C258" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D258" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B259">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C259" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D259" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B260">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C260" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D260" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B261">
-        <v>45517</v>
+        <v>45133</v>
       </c>
       <c r="C261" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D261" t="s">
         <v>162</v>
@@ -4724,33 +4760,30 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B262">
-        <v>45294</v>
+        <v>45133</v>
       </c>
       <c r="C262" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D262" t="s">
-        <v>154</v>
-      </c>
-      <c r="E262" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B263">
-        <v>45294</v>
+        <v>45133</v>
       </c>
       <c r="C263" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D263" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
@@ -4758,13 +4791,13 @@
         <v>18</v>
       </c>
       <c r="B264">
-        <v>45294</v>
+        <v>45133</v>
       </c>
       <c r="C264" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D264" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
@@ -4772,965 +4805,971 @@
         <v>27</v>
       </c>
       <c r="B265">
-        <v>45294</v>
+        <v>45933</v>
       </c>
       <c r="C265" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D265" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B266">
-        <v>45294</v>
+        <v>45933</v>
       </c>
       <c r="C266" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D266" t="s">
-        <v>159</v>
+        <v>163</v>
+      </c>
+      <c r="E266" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B267">
-        <v>45294</v>
+        <v>45517</v>
       </c>
       <c r="C267" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D267" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B268">
-        <v>45665</v>
+        <v>45517</v>
       </c>
       <c r="C268" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D268" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B269">
-        <v>45665</v>
+        <v>45517</v>
       </c>
       <c r="C269" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D269" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B270">
-        <v>45665</v>
+        <v>45517</v>
       </c>
       <c r="C270" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D270" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B271">
-        <v>45665</v>
+        <v>45517</v>
       </c>
       <c r="C271" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D271" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B272">
-        <v>45665</v>
+        <v>45517</v>
       </c>
       <c r="C272" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D272" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B273">
-        <v>45665</v>
+        <v>45517</v>
       </c>
       <c r="C273" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D273" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B274">
-        <v>45665</v>
+        <v>45517</v>
       </c>
       <c r="C274" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D274" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B275">
-        <v>45615</v>
+        <v>45294</v>
       </c>
       <c r="C275" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D275" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="E275" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>6</v>
       </c>
       <c r="B276">
-        <v>45134</v>
+        <v>45294</v>
       </c>
       <c r="C276" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D276" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B277">
-        <v>45134</v>
+        <v>45294</v>
       </c>
       <c r="C277" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D277" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B278">
-        <v>45134</v>
+        <v>45294</v>
       </c>
       <c r="C278" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D278" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B279">
-        <v>45326</v>
+        <v>45294</v>
       </c>
       <c r="C279" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D279" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B280">
-        <v>46052</v>
+        <v>45294</v>
       </c>
       <c r="C280" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D280" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B281">
-        <v>46052</v>
+        <v>45665</v>
       </c>
       <c r="C281" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D281" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B282">
-        <v>46052</v>
+        <v>45665</v>
       </c>
       <c r="C282" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D282" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B283">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C283" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D283" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
+        <v>27</v>
+      </c>
+      <c r="B284">
+        <v>45665</v>
+      </c>
+      <c r="C284" t="s">
+        <v>121</v>
+      </c>
+      <c r="D284" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>19</v>
+      </c>
+      <c r="B285">
+        <v>45665</v>
+      </c>
+      <c r="C285" t="s">
+        <v>121</v>
+      </c>
+      <c r="D285" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
         <v>17</v>
       </c>
-      <c r="B284">
-        <v>46053</v>
-      </c>
-      <c r="C284" t="s">
-        <v>119</v>
-      </c>
-      <c r="D284" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A285" t="s">
-        <v>18</v>
-      </c>
-      <c r="B285">
-        <v>46053</v>
-      </c>
-      <c r="C285" t="s">
-        <v>119</v>
-      </c>
-      <c r="D285" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A286" t="s">
-        <v>19</v>
-      </c>
       <c r="B286">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C286" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D286" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B287">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C287" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D287" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B288">
-        <v>46053</v>
+        <v>45615</v>
       </c>
       <c r="C288" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D288" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B289">
-        <v>46053</v>
+        <v>45134</v>
       </c>
       <c r="C289" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D289" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B290">
-        <v>46053</v>
+        <v>45134</v>
       </c>
       <c r="C290" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D290" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B291">
-        <v>46053</v>
+        <v>45134</v>
       </c>
       <c r="C291" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D291" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B292">
-        <v>46053</v>
+        <v>45326</v>
       </c>
       <c r="C292" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D292" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B293">
-        <v>46053</v>
+        <v>46052</v>
       </c>
       <c r="C293" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D293" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B294">
-        <v>46053</v>
+        <v>46052</v>
       </c>
       <c r="C294" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D294" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B295">
-        <v>46053</v>
+        <v>46052</v>
       </c>
       <c r="C295" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D295" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B296">
         <v>46053</v>
       </c>
       <c r="C296" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D296" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B297">
         <v>46053</v>
       </c>
       <c r="C297" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D297" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B298">
         <v>46053</v>
       </c>
       <c r="C298" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D298" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B299">
-        <v>46021</v>
+        <v>46053</v>
       </c>
       <c r="C299" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D299" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B300">
-        <v>46021</v>
+        <v>46053</v>
       </c>
       <c r="C300" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D300" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B301">
-        <v>45599</v>
+        <v>46053</v>
       </c>
       <c r="C301" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D301" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B302">
-        <v>45599</v>
+        <v>46053</v>
       </c>
       <c r="C302" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D302" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B303">
-        <v>45599</v>
+        <v>46053</v>
       </c>
       <c r="C303" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D303" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B304">
+        <v>46053</v>
+      </c>
+      <c r="C304" t="s">
+        <v>125</v>
+      </c>
+      <c r="D304" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>7</v>
+      </c>
+      <c r="B305">
+        <v>46053</v>
+      </c>
+      <c r="C305" t="s">
+        <v>125</v>
+      </c>
+      <c r="D305" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>21</v>
+      </c>
+      <c r="B306">
+        <v>46053</v>
+      </c>
+      <c r="C306" t="s">
+        <v>125</v>
+      </c>
+      <c r="D306" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>13</v>
+      </c>
+      <c r="B307">
+        <v>46053</v>
+      </c>
+      <c r="C307" t="s">
+        <v>125</v>
+      </c>
+      <c r="D307" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>12</v>
+      </c>
+      <c r="B308">
+        <v>46053</v>
+      </c>
+      <c r="C308" t="s">
+        <v>125</v>
+      </c>
+      <c r="D308" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>15</v>
+      </c>
+      <c r="B309">
+        <v>46053</v>
+      </c>
+      <c r="C309" t="s">
+        <v>125</v>
+      </c>
+      <c r="D309" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>8</v>
+      </c>
+      <c r="B310">
+        <v>46053</v>
+      </c>
+      <c r="C310" t="s">
+        <v>125</v>
+      </c>
+      <c r="D310" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>16</v>
+      </c>
+      <c r="B311">
+        <v>46053</v>
+      </c>
+      <c r="C311" t="s">
+        <v>125</v>
+      </c>
+      <c r="D311" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>5</v>
+      </c>
+      <c r="B312">
+        <v>46053</v>
+      </c>
+      <c r="C312" t="s">
+        <v>125</v>
+      </c>
+      <c r="D312" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>23</v>
+      </c>
+      <c r="B313">
+        <v>46021</v>
+      </c>
+      <c r="C313" t="s">
+        <v>126</v>
+      </c>
+      <c r="D313" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>22</v>
+      </c>
+      <c r="B314">
+        <v>46021</v>
+      </c>
+      <c r="C314" t="s">
+        <v>126</v>
+      </c>
+      <c r="D314" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>9</v>
+      </c>
+      <c r="B315">
         <v>45599</v>
       </c>
-      <c r="C304" t="s">
-        <v>121</v>
-      </c>
-      <c r="D304" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
-        <v>6</v>
-      </c>
-      <c r="B305">
+      <c r="C315" t="s">
+        <v>127</v>
+      </c>
+      <c r="D315" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>10</v>
+      </c>
+      <c r="B316">
         <v>45599</v>
       </c>
-      <c r="C305" t="s">
-        <v>121</v>
-      </c>
-      <c r="D305" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
-        <v>18</v>
-      </c>
-      <c r="B306">
+      <c r="C316" t="s">
+        <v>127</v>
+      </c>
+      <c r="D316" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>8</v>
+      </c>
+      <c r="B317">
+        <v>45599</v>
+      </c>
+      <c r="C317" t="s">
+        <v>127</v>
+      </c>
+      <c r="D317" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>25</v>
+      </c>
+      <c r="B318">
+        <v>45599</v>
+      </c>
+      <c r="C318" t="s">
+        <v>127</v>
+      </c>
+      <c r="D318" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>7</v>
+      </c>
+      <c r="B319">
+        <v>45599</v>
+      </c>
+      <c r="C319" t="s">
+        <v>127</v>
+      </c>
+      <c r="D319" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>19</v>
+      </c>
+      <c r="B320">
         <v>45243</v>
       </c>
-      <c r="C306" t="s">
-        <v>122</v>
-      </c>
-      <c r="D306" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A307" t="s">
-        <v>16</v>
-      </c>
-      <c r="B307">
-        <v>45243</v>
-      </c>
-      <c r="C307" t="s">
-        <v>122</v>
-      </c>
-      <c r="D307" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A308" t="s">
-        <v>19</v>
-      </c>
-      <c r="B308">
-        <v>45243</v>
-      </c>
-      <c r="C308" t="s">
-        <v>122</v>
-      </c>
-      <c r="D308" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A309" t="s">
-        <v>18</v>
-      </c>
-      <c r="B309">
-        <v>45466</v>
-      </c>
-      <c r="C309" t="s">
-        <v>123</v>
-      </c>
-      <c r="D309" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A310" t="s">
-        <v>16</v>
-      </c>
-      <c r="B310">
-        <v>45466</v>
-      </c>
-      <c r="C310" t="s">
-        <v>123</v>
-      </c>
-      <c r="D310" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A311" t="s">
-        <v>17</v>
-      </c>
-      <c r="B311">
-        <v>45466</v>
-      </c>
-      <c r="C311" t="s">
-        <v>123</v>
-      </c>
-      <c r="D311" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A312" t="s">
-        <v>26</v>
-      </c>
-      <c r="B312">
-        <v>45466</v>
-      </c>
-      <c r="C312" t="s">
-        <v>123</v>
-      </c>
-      <c r="D312" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A313" t="s">
-        <v>25</v>
-      </c>
-      <c r="B313">
-        <v>45466</v>
-      </c>
-      <c r="C313" t="s">
-        <v>123</v>
-      </c>
-      <c r="D313" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A314" t="s">
-        <v>5</v>
-      </c>
-      <c r="B314">
-        <v>45466</v>
-      </c>
-      <c r="C314" t="s">
-        <v>123</v>
-      </c>
-      <c r="D314" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A315" t="s">
-        <v>27</v>
-      </c>
-      <c r="B315">
-        <v>45466</v>
-      </c>
-      <c r="C315" t="s">
-        <v>123</v>
-      </c>
-      <c r="D315" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A316" t="s">
-        <v>15</v>
-      </c>
-      <c r="B316">
-        <v>45466</v>
-      </c>
-      <c r="C316" t="s">
-        <v>123</v>
-      </c>
-      <c r="D316" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A317" t="s">
-        <v>23</v>
-      </c>
-      <c r="B317">
-        <v>45511</v>
-      </c>
-      <c r="C317" t="s">
-        <v>124</v>
-      </c>
-      <c r="D317" t="s">
-        <v>154</v>
-      </c>
-      <c r="E317" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A318" t="s">
-        <v>7</v>
-      </c>
-      <c r="B318">
-        <v>45534</v>
-      </c>
-      <c r="C318" t="s">
-        <v>125</v>
-      </c>
-      <c r="D318" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A319" t="s">
-        <v>8</v>
-      </c>
-      <c r="B319">
-        <v>45534</v>
-      </c>
-      <c r="C319" t="s">
-        <v>125</v>
-      </c>
-      <c r="D319" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A320" t="s">
-        <v>6</v>
-      </c>
-      <c r="B320">
-        <v>45534</v>
-      </c>
       <c r="C320" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D320" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B321">
-        <v>45534</v>
+        <v>45243</v>
       </c>
       <c r="C321" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D321" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B322">
-        <v>45947</v>
+        <v>45243</v>
       </c>
       <c r="C322" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D322" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B323">
-        <v>45146</v>
+        <v>45466</v>
       </c>
       <c r="C323" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D323" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B324">
-        <v>45825</v>
+        <v>45466</v>
       </c>
       <c r="C324" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D324" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B325">
-        <v>45245</v>
+        <v>45466</v>
       </c>
       <c r="C325" t="s">
         <v>129</v>
       </c>
       <c r="D325" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B326">
-        <v>45245</v>
+        <v>45466</v>
       </c>
       <c r="C326" t="s">
         <v>129</v>
       </c>
       <c r="D326" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B327">
-        <v>45245</v>
+        <v>45466</v>
       </c>
       <c r="C327" t="s">
         <v>129</v>
       </c>
       <c r="D327" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B328">
-        <v>45245</v>
+        <v>45466</v>
       </c>
       <c r="C328" t="s">
         <v>129</v>
       </c>
       <c r="D328" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B329">
-        <v>46037</v>
+        <v>45466</v>
       </c>
       <c r="C329" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D329" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B330">
-        <v>45535</v>
+        <v>45466</v>
       </c>
       <c r="C330" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D330" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B331">
-        <v>45535</v>
+        <v>45511</v>
       </c>
       <c r="C331" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D331" t="s">
-        <v>155</v>
+        <v>162</v>
+      </c>
+      <c r="E331" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B332">
-        <v>45535</v>
+        <v>45534</v>
       </c>
       <c r="C332" t="s">
         <v>131</v>
       </c>
       <c r="D332" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B333">
-        <v>40207</v>
+        <v>45534</v>
       </c>
       <c r="C333" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D333" t="s">
         <v>163</v>
@@ -5738,30 +5777,30 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B334">
-        <v>40207</v>
+        <v>45534</v>
       </c>
       <c r="C334" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D334" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B335">
-        <v>46096</v>
+        <v>45534</v>
       </c>
       <c r="C335" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D335" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
@@ -5769,730 +5808,971 @@
         <v>22</v>
       </c>
       <c r="B336">
-        <v>45247</v>
+        <v>45947</v>
       </c>
       <c r="C336" t="s">
+        <v>132</v>
+      </c>
+      <c r="D336" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>24</v>
+      </c>
+      <c r="B337">
+        <v>45146</v>
+      </c>
+      <c r="C337" t="s">
+        <v>133</v>
+      </c>
+      <c r="D337" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>22</v>
+      </c>
+      <c r="B338">
+        <v>45825</v>
+      </c>
+      <c r="C338" t="s">
         <v>134</v>
       </c>
-      <c r="D336" t="s">
-        <v>154</v>
-      </c>
-      <c r="E336" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A337" t="s">
+      <c r="D338" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
         <v>10</v>
       </c>
-      <c r="B337">
-        <v>45570</v>
-      </c>
-      <c r="C337" t="s">
-        <v>135</v>
-      </c>
-      <c r="D337" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A338" t="s">
-        <v>12</v>
-      </c>
-      <c r="B338">
-        <v>45570</v>
-      </c>
-      <c r="C338" t="s">
-        <v>135</v>
-      </c>
-      <c r="D338" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A339" t="s">
-        <v>14</v>
-      </c>
       <c r="B339">
-        <v>45570</v>
+        <v>45245</v>
       </c>
       <c r="C339" t="s">
         <v>135</v>
       </c>
       <c r="D339" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B340">
-        <v>45570</v>
+        <v>45245</v>
       </c>
       <c r="C340" t="s">
         <v>135</v>
       </c>
       <c r="D340" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
+        <v>11</v>
+      </c>
+      <c r="B341">
+        <v>45245</v>
+      </c>
+      <c r="C341" t="s">
+        <v>135</v>
+      </c>
+      <c r="D341" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
         <v>12</v>
       </c>
-      <c r="B341">
-        <v>45611</v>
-      </c>
-      <c r="C341" t="s">
-        <v>136</v>
-      </c>
-      <c r="D341" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A342" t="s">
-        <v>10</v>
-      </c>
       <c r="B342">
-        <v>45611</v>
+        <v>45245</v>
       </c>
       <c r="C342" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D342" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B343">
-        <v>45611</v>
+        <v>46037</v>
       </c>
       <c r="C343" t="s">
         <v>136</v>
       </c>
       <c r="D343" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B344">
-        <v>45442</v>
+        <v>45535</v>
       </c>
       <c r="C344" t="s">
         <v>137</v>
       </c>
       <c r="D344" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B345">
-        <v>45442</v>
+        <v>45535</v>
       </c>
       <c r="C345" t="s">
         <v>137</v>
       </c>
       <c r="D345" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B346">
-        <v>45442</v>
+        <v>45535</v>
       </c>
       <c r="C346" t="s">
         <v>137</v>
       </c>
       <c r="D346" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B347">
-        <v>46095</v>
+        <v>40207</v>
       </c>
       <c r="C347" t="s">
         <v>138</v>
       </c>
       <c r="D347" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>9</v>
       </c>
       <c r="B348">
-        <v>46095</v>
+        <v>40207</v>
       </c>
       <c r="C348" t="s">
         <v>138</v>
       </c>
       <c r="D348" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B349">
-        <v>46095</v>
+        <v>46096</v>
       </c>
       <c r="C349" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D349" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B350">
-        <v>46095</v>
+        <v>45247</v>
       </c>
       <c r="C350" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D350" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="E350" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B351">
-        <v>46095</v>
+        <v>45570</v>
       </c>
       <c r="C351" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D351" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B352">
-        <v>46095</v>
+        <v>45570</v>
       </c>
       <c r="C352" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D352" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B353">
-        <v>45703</v>
+        <v>45570</v>
       </c>
       <c r="C353" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D353" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B354">
-        <v>45616</v>
+        <v>45570</v>
       </c>
       <c r="C354" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D354" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B355">
-        <v>46050</v>
+        <v>45611</v>
       </c>
       <c r="C355" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D355" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B356">
-        <v>45620</v>
+        <v>45611</v>
       </c>
       <c r="C356" t="s">
         <v>142</v>
       </c>
       <c r="D356" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B357">
-        <v>45620</v>
+        <v>45611</v>
       </c>
       <c r="C357" t="s">
         <v>142</v>
       </c>
       <c r="D357" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B358">
-        <v>45620</v>
+        <v>45442</v>
       </c>
       <c r="C358" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D358" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B359">
-        <v>45620</v>
+        <v>45442</v>
       </c>
       <c r="C359" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D359" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B360">
-        <v>45620</v>
+        <v>45442</v>
       </c>
       <c r="C360" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D360" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B361">
-        <v>45620</v>
+        <v>37111</v>
       </c>
       <c r="C361" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D361" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B362">
-        <v>45620</v>
+        <v>46095</v>
       </c>
       <c r="C362" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D362" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B363">
-        <v>45619</v>
+        <v>46095</v>
       </c>
       <c r="C363" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D363" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B364">
-        <v>45619</v>
+        <v>46095</v>
       </c>
       <c r="C364" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D364" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B365">
-        <v>45619</v>
+        <v>46095</v>
       </c>
       <c r="C365" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D365" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B366">
-        <v>45619</v>
+        <v>46095</v>
       </c>
       <c r="C366" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D366" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B367">
-        <v>45619</v>
+        <v>46095</v>
       </c>
       <c r="C367" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D367" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B368">
-        <v>45619</v>
+        <v>45703</v>
       </c>
       <c r="C368" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D368" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B369">
-        <v>45619</v>
+        <v>45616</v>
       </c>
       <c r="C369" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D369" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B370">
-        <v>45114</v>
+        <v>46050</v>
       </c>
       <c r="C370" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D370" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B371">
-        <v>45989</v>
+        <v>45620</v>
       </c>
       <c r="C371" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D371" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B372">
-        <v>45496</v>
+        <v>45620</v>
       </c>
       <c r="C372" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D372" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B373">
-        <v>45496</v>
+        <v>45620</v>
       </c>
       <c r="C373" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D373" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B374">
-        <v>45537</v>
+        <v>45620</v>
       </c>
       <c r="C374" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D374" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B375">
-        <v>45537</v>
+        <v>45620</v>
       </c>
       <c r="C375" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D375" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B376">
-        <v>45537</v>
+        <v>45620</v>
       </c>
       <c r="C376" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D376" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B377">
-        <v>45296</v>
+        <v>45620</v>
       </c>
       <c r="C377" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D377" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B378">
-        <v>45296</v>
+        <v>45619</v>
       </c>
       <c r="C378" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D378" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B379">
-        <v>45137</v>
+        <v>45619</v>
       </c>
       <c r="C379" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D379" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B380">
-        <v>45519</v>
+        <v>45619</v>
       </c>
       <c r="C380" t="s">
         <v>150</v>
       </c>
       <c r="D380" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B381">
-        <v>45516</v>
+        <v>45619</v>
       </c>
       <c r="C381" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D381" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B382">
-        <v>45516</v>
+        <v>45619</v>
       </c>
       <c r="C382" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D382" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B383">
-        <v>45516</v>
+        <v>45619</v>
       </c>
       <c r="C383" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D383" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B384">
-        <v>45516</v>
+        <v>45619</v>
       </c>
       <c r="C384" t="s">
+        <v>150</v>
+      </c>
+      <c r="D384" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>16</v>
+      </c>
+      <c r="B385">
+        <v>45114</v>
+      </c>
+      <c r="C385" t="s">
         <v>151</v>
       </c>
-      <c r="D384" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A385" t="s">
-        <v>9</v>
-      </c>
-      <c r="B385">
-        <v>45472</v>
-      </c>
-      <c r="C385" t="s">
-        <v>152</v>
-      </c>
       <c r="D385" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B386">
-        <v>45472</v>
+        <v>45989</v>
       </c>
       <c r="C386" t="s">
         <v>152</v>
       </c>
       <c r="D386" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B387">
-        <v>45470</v>
+        <v>45496</v>
       </c>
       <c r="C387" t="s">
         <v>153</v>
       </c>
       <c r="D387" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>22</v>
+      </c>
+      <c r="B388">
+        <v>45496</v>
+      </c>
+      <c r="C388" t="s">
+        <v>153</v>
+      </c>
+      <c r="D388" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>5</v>
+      </c>
+      <c r="B389">
+        <v>45561</v>
+      </c>
+      <c r="C389" t="s">
         <v>154</v>
+      </c>
+      <c r="D389" t="s">
+        <v>166</v>
+      </c>
+      <c r="E389" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>27</v>
+      </c>
+      <c r="B390">
+        <v>45537</v>
+      </c>
+      <c r="C390" t="s">
+        <v>155</v>
+      </c>
+      <c r="D390" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>28</v>
+      </c>
+      <c r="B391">
+        <v>45537</v>
+      </c>
+      <c r="C391" t="s">
+        <v>155</v>
+      </c>
+      <c r="D391" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>26</v>
+      </c>
+      <c r="B392">
+        <v>45537</v>
+      </c>
+      <c r="C392" t="s">
+        <v>155</v>
+      </c>
+      <c r="D392" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>8</v>
+      </c>
+      <c r="B393">
+        <v>45296</v>
+      </c>
+      <c r="C393" t="s">
+        <v>156</v>
+      </c>
+      <c r="D393" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>25</v>
+      </c>
+      <c r="B394">
+        <v>45296</v>
+      </c>
+      <c r="C394" t="s">
+        <v>156</v>
+      </c>
+      <c r="D394" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>23</v>
+      </c>
+      <c r="B395">
+        <v>45137</v>
+      </c>
+      <c r="C395" t="s">
+        <v>157</v>
+      </c>
+      <c r="D395" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>20</v>
+      </c>
+      <c r="B396">
+        <v>45519</v>
+      </c>
+      <c r="C396" t="s">
+        <v>158</v>
+      </c>
+      <c r="D396" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>25</v>
+      </c>
+      <c r="B397">
+        <v>45516</v>
+      </c>
+      <c r="C397" t="s">
+        <v>159</v>
+      </c>
+      <c r="D397" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>10</v>
+      </c>
+      <c r="B398">
+        <v>45516</v>
+      </c>
+      <c r="C398" t="s">
+        <v>159</v>
+      </c>
+      <c r="D398" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>25</v>
+      </c>
+      <c r="B399">
+        <v>45516</v>
+      </c>
+      <c r="C399" t="s">
+        <v>159</v>
+      </c>
+      <c r="D399" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>8</v>
+      </c>
+      <c r="B400">
+        <v>45516</v>
+      </c>
+      <c r="C400" t="s">
+        <v>159</v>
+      </c>
+      <c r="D400" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>10</v>
+      </c>
+      <c r="B401">
+        <v>45472</v>
+      </c>
+      <c r="C401" t="s">
+        <v>160</v>
+      </c>
+      <c r="D401" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>7</v>
+      </c>
+      <c r="B402">
+        <v>45472</v>
+      </c>
+      <c r="C402" t="s">
+        <v>160</v>
+      </c>
+      <c r="D402" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>16</v>
+      </c>
+      <c r="B403">
+        <v>45470</v>
+      </c>
+      <c r="C403" t="s">
+        <v>161</v>
+      </c>
+      <c r="D403" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>5</v>
+      </c>
+      <c r="B404">
+        <v>45470</v>
+      </c>
+      <c r="C404" t="s">
+        <v>161</v>
+      </c>
+      <c r="D404" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Scripts\Divide-BiS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB314AB-E933-4390-AE7C-A4B9239DE92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30780901-4B10-470F-B9DF-7A4E97C146D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="185">
   <si>
     <t>player</t>
   </si>
@@ -978,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A383" workbookViewId="0">
-      <selection activeCell="E390" sqref="E390"/>
+    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="E232" sqref="E232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2178,6 +2178,9 @@
       <c r="D83" t="s">
         <v>162</v>
       </c>
+      <c r="E83" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
@@ -2192,6 +2195,9 @@
       <c r="D84" t="s">
         <v>162</v>
       </c>
+      <c r="E84" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
@@ -3346,6 +3352,9 @@
       <c r="D163" t="s">
         <v>162</v>
       </c>
+      <c r="E163" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
@@ -3456,6 +3465,9 @@
       <c r="D170" t="s">
         <v>165</v>
       </c>
+      <c r="E170" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
@@ -4143,6 +4155,9 @@
       <c r="D218" t="s">
         <v>162</v>
       </c>
+      <c r="E218" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
@@ -4188,6 +4203,9 @@
       <c r="D221" t="s">
         <v>165</v>
       </c>
+      <c r="E221" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
@@ -4288,6 +4306,9 @@
       </c>
       <c r="D228" t="s">
         <v>162</v>
+      </c>
+      <c r="E228" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Scripts\Divide-BiS\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B42364-7E6A-41FC-B995-DEE8C90AA12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="178">
   <si>
     <t>player</t>
   </si>
@@ -553,8 +559,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,6 +623,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -663,7 +677,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -695,9 +709,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -729,6 +761,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -904,14 +954,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E370"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -928,7 +980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -942,7 +994,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -956,7 +1008,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -970,7 +1022,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -984,7 +1036,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -998,7 +1050,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1012,7 +1064,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1026,7 +1078,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1040,7 +1092,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1054,7 +1106,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1068,7 +1120,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1082,7 +1134,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1096,7 +1148,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1113,7 +1165,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1127,7 +1179,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1144,7 +1196,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1158,7 +1210,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1172,7 +1224,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1186,7 +1238,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1200,7 +1252,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1214,7 +1266,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1228,7 +1280,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1242,7 +1294,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1256,7 +1308,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -1270,7 +1322,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1284,7 +1336,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1298,7 +1350,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1312,7 +1364,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1326,7 +1378,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1340,7 +1392,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -1354,7 +1406,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -1368,7 +1420,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -1382,7 +1434,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -1399,7 +1451,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1413,7 +1465,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -1427,7 +1479,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -1444,7 +1496,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -1461,7 +1513,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -1475,7 +1527,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -1489,7 +1541,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -1506,7 +1558,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -1523,7 +1575,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -1540,7 +1592,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1557,7 +1609,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -1571,7 +1623,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -1585,7 +1637,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -1599,7 +1651,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -1613,7 +1665,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -1627,7 +1679,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -1641,7 +1693,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1655,7 +1707,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -1669,7 +1721,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>23</v>
       </c>
@@ -1683,7 +1735,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -1697,7 +1749,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -1711,7 +1763,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -1725,7 +1777,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -1739,7 +1791,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -1753,7 +1805,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -1767,7 +1819,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -1781,7 +1833,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>18</v>
       </c>
@@ -1795,7 +1847,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -1809,7 +1861,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>26</v>
       </c>
@@ -1823,7 +1875,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>25</v>
       </c>
@@ -1837,7 +1889,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -1851,7 +1903,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -1865,7 +1917,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>23</v>
       </c>
@@ -1879,7 +1931,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>14</v>
       </c>
@@ -1893,7 +1945,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>26</v>
       </c>
@@ -1907,7 +1959,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -1921,7 +1973,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>25</v>
       </c>
@@ -1935,7 +1987,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -1949,7 +2001,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -1963,7 +2015,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>18</v>
       </c>
@@ -1977,7 +2029,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -1994,7 +2046,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -2007,11 +2059,8 @@
       <c r="D76" t="s">
         <v>156</v>
       </c>
-      <c r="E76" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>18</v>
       </c>
@@ -2025,7 +2074,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -2039,7 +2088,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>16</v>
       </c>
@@ -2056,7 +2105,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>21</v>
       </c>
@@ -2073,7 +2122,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>23</v>
       </c>
@@ -2087,7 +2136,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -2104,7 +2153,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -2118,7 +2167,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>24</v>
       </c>
@@ -2135,7 +2184,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>22</v>
       </c>
@@ -2152,7 +2201,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>25</v>
       </c>
@@ -2169,7 +2218,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>26</v>
       </c>
@@ -2186,7 +2235,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -2203,7 +2252,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>13</v>
       </c>
@@ -2220,7 +2269,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>12</v>
       </c>
@@ -2234,7 +2283,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -2251,7 +2300,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -2265,7 +2314,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -2279,7 +2328,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -2293,7 +2342,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>20</v>
       </c>
@@ -2307,7 +2356,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -2321,7 +2370,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -2335,7 +2384,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>10</v>
       </c>
@@ -2349,7 +2398,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -2363,7 +2412,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -2377,7 +2426,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>24</v>
       </c>
@@ -2391,7 +2440,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>20</v>
       </c>
@@ -2405,7 +2454,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>22</v>
       </c>
@@ -2419,7 +2468,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>11</v>
       </c>
@@ -2433,7 +2482,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>13</v>
       </c>
@@ -2447,7 +2496,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -2461,7 +2510,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>14</v>
       </c>
@@ -2475,7 +2524,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>25</v>
       </c>
@@ -2489,7 +2538,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>26</v>
       </c>
@@ -2503,7 +2552,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>16</v>
       </c>
@@ -2517,7 +2566,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>12</v>
       </c>
@@ -2531,7 +2580,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>24</v>
       </c>
@@ -2545,7 +2594,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>20</v>
       </c>
@@ -2559,7 +2608,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>9</v>
       </c>
@@ -2573,7 +2622,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>15</v>
       </c>
@@ -2587,7 +2636,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -2601,7 +2650,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>23</v>
       </c>
@@ -2615,7 +2664,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -2629,7 +2678,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>20</v>
       </c>
@@ -2643,7 +2692,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>12</v>
       </c>
@@ -2657,7 +2706,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>12</v>
       </c>
@@ -2671,7 +2720,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>11</v>
       </c>
@@ -2685,7 +2734,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -2699,7 +2748,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>13</v>
       </c>
@@ -2713,7 +2762,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>20</v>
       </c>
@@ -2727,7 +2776,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>23</v>
       </c>
@@ -2741,7 +2790,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>21</v>
       </c>
@@ -2758,7 +2807,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>22</v>
       </c>
@@ -2772,7 +2821,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>19</v>
       </c>
@@ -2786,7 +2835,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>23</v>
       </c>
@@ -2800,7 +2849,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -2814,7 +2863,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>18</v>
       </c>
@@ -2828,7 +2877,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>26</v>
       </c>
@@ -2842,7 +2891,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>17</v>
       </c>
@@ -2856,7 +2905,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>25</v>
       </c>
@@ -2870,7 +2919,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>16</v>
       </c>
@@ -2884,7 +2933,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>6</v>
       </c>
@@ -2898,7 +2947,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>12</v>
       </c>
@@ -2912,7 +2961,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>20</v>
       </c>
@@ -2926,7 +2975,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>12</v>
       </c>
@@ -2943,7 +2992,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>13</v>
       </c>
@@ -2960,7 +3009,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>11</v>
       </c>
@@ -2977,7 +3026,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>9</v>
       </c>
@@ -2991,7 +3040,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -3005,7 +3054,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>8</v>
       </c>
@@ -3019,7 +3068,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>15</v>
       </c>
@@ -3036,7 +3085,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>10</v>
       </c>
@@ -3050,7 +3099,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>14</v>
       </c>
@@ -3064,7 +3113,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -3081,7 +3130,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>5</v>
       </c>
@@ -3098,7 +3147,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>24</v>
       </c>
@@ -3112,7 +3161,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>14</v>
       </c>
@@ -3129,7 +3178,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>19</v>
       </c>
@@ -3143,7 +3192,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>13</v>
       </c>
@@ -3160,7 +3209,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>12</v>
       </c>
@@ -3177,7 +3226,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>9</v>
       </c>
@@ -3194,7 +3243,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>11</v>
       </c>
@@ -3208,7 +3257,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -3222,7 +3271,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>20</v>
       </c>
@@ -3236,7 +3285,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>10</v>
       </c>
@@ -3250,7 +3299,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>15</v>
       </c>
@@ -3264,7 +3313,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>11</v>
       </c>
@@ -3278,7 +3327,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>14</v>
       </c>
@@ -3292,7 +3341,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>17</v>
       </c>
@@ -3306,7 +3355,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>25</v>
       </c>
@@ -3320,7 +3369,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>6</v>
       </c>
@@ -3334,7 +3383,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>18</v>
       </c>
@@ -3348,7 +3397,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>16</v>
       </c>
@@ -3362,7 +3411,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>26</v>
       </c>
@@ -3376,7 +3425,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>19</v>
       </c>
@@ -3390,7 +3439,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>20</v>
       </c>
@@ -3404,7 +3453,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>15</v>
       </c>
@@ -3418,7 +3467,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>21</v>
       </c>
@@ -3432,7 +3481,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>22</v>
       </c>
@@ -3446,7 +3495,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>22</v>
       </c>
@@ -3460,7 +3509,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>21</v>
       </c>
@@ -3474,7 +3523,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>23</v>
       </c>
@@ -3488,7 +3537,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>22</v>
       </c>
@@ -3505,7 +3554,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>21</v>
       </c>
@@ -3522,7 +3571,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>19</v>
       </c>
@@ -3539,7 +3588,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>19</v>
       </c>
@@ -3553,7 +3602,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>12</v>
       </c>
@@ -3567,7 +3616,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>23</v>
       </c>
@@ -3581,7 +3630,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>23</v>
       </c>
@@ -3595,7 +3644,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>18</v>
       </c>
@@ -3609,7 +3658,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>17</v>
       </c>
@@ -3623,7 +3672,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>8</v>
       </c>
@@ -3637,7 +3686,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>12</v>
       </c>
@@ -3651,7 +3700,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>24</v>
       </c>
@@ -3665,7 +3714,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>11</v>
       </c>
@@ -3679,7 +3728,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>13</v>
       </c>
@@ -3693,7 +3742,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>20</v>
       </c>
@@ -3707,7 +3756,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>22</v>
       </c>
@@ -3721,7 +3770,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>21</v>
       </c>
@@ -3735,7 +3784,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>6</v>
       </c>
@@ -3749,7 +3798,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>16</v>
       </c>
@@ -3763,7 +3812,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>23</v>
       </c>
@@ -3777,7 +3826,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>5</v>
       </c>
@@ -3794,7 +3843,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>14</v>
       </c>
@@ -3808,7 +3857,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>15</v>
       </c>
@@ -3825,7 +3874,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>26</v>
       </c>
@@ -3842,7 +3891,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>25</v>
       </c>
@@ -3859,7 +3908,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>19</v>
       </c>
@@ -3876,7 +3925,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -3890,7 +3939,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>21</v>
       </c>
@@ -3904,7 +3953,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>14</v>
       </c>
@@ -3918,7 +3967,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>15</v>
       </c>
@@ -3935,7 +3984,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>20</v>
       </c>
@@ -3949,7 +3998,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>15</v>
       </c>
@@ -3963,7 +4012,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>16</v>
       </c>
@@ -3980,7 +4029,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>17</v>
       </c>
@@ -3994,7 +4043,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>23</v>
       </c>
@@ -4008,7 +4057,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>21</v>
       </c>
@@ -4022,7 +4071,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>5</v>
       </c>
@@ -4036,7 +4085,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>14</v>
       </c>
@@ -4050,7 +4099,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>24</v>
       </c>
@@ -4064,7 +4113,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>22</v>
       </c>
@@ -4078,7 +4127,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>25</v>
       </c>
@@ -4092,7 +4141,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>18</v>
       </c>
@@ -4106,7 +4155,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>26</v>
       </c>
@@ -4120,7 +4169,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>19</v>
       </c>
@@ -4134,7 +4183,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>9</v>
       </c>
@@ -4148,7 +4197,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>7</v>
       </c>
@@ -4162,7 +4211,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>5</v>
       </c>
@@ -4176,7 +4225,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>11</v>
       </c>
@@ -4190,7 +4239,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>22</v>
       </c>
@@ -4207,7 +4256,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>21</v>
       </c>
@@ -4221,7 +4270,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>15</v>
       </c>
@@ -4235,7 +4284,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>8</v>
       </c>
@@ -4249,7 +4298,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>9</v>
       </c>
@@ -4263,7 +4312,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>24</v>
       </c>
@@ -4280,7 +4329,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>12</v>
       </c>
@@ -4294,7 +4343,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>25</v>
       </c>
@@ -4308,7 +4357,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>16</v>
       </c>
@@ -4322,7 +4371,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>26</v>
       </c>
@@ -4336,7 +4385,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>18</v>
       </c>
@@ -4350,7 +4399,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>17</v>
       </c>
@@ -4364,7 +4413,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>6</v>
       </c>
@@ -4378,7 +4427,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>6</v>
       </c>
@@ -4392,7 +4441,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>26</v>
       </c>
@@ -4406,7 +4455,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>25</v>
       </c>
@@ -4420,7 +4469,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>17</v>
       </c>
@@ -4434,7 +4483,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>5</v>
       </c>
@@ -4451,7 +4500,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>13</v>
       </c>
@@ -4465,7 +4514,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>24</v>
       </c>
@@ -4479,7 +4528,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>12</v>
       </c>
@@ -4493,7 +4542,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>20</v>
       </c>
@@ -4507,7 +4556,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>14</v>
       </c>
@@ -4521,7 +4570,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>11</v>
       </c>
@@ -4535,7 +4584,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>15</v>
       </c>
@@ -4549,7 +4598,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>10</v>
       </c>
@@ -4563,7 +4612,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>16</v>
       </c>
@@ -4580,7 +4629,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>6</v>
       </c>
@@ -4594,7 +4643,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>18</v>
       </c>
@@ -4608,7 +4657,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>26</v>
       </c>
@@ -4622,7 +4671,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>17</v>
       </c>
@@ -4636,7 +4685,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>25</v>
       </c>
@@ -4650,7 +4699,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>26</v>
       </c>
@@ -4664,7 +4713,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>6</v>
       </c>
@@ -4678,7 +4727,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>17</v>
       </c>
@@ -4692,7 +4741,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>18</v>
       </c>
@@ -4706,7 +4755,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>16</v>
       </c>
@@ -4720,7 +4769,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>25</v>
       </c>
@@ -4734,7 +4783,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>7</v>
       </c>
@@ -4748,7 +4797,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>9</v>
       </c>
@@ -4762,7 +4811,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>10</v>
       </c>
@@ -4776,7 +4825,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>21</v>
       </c>
@@ -4790,7 +4839,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>24</v>
       </c>
@@ -4804,7 +4853,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>15</v>
       </c>
@@ -4818,7 +4867,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>20</v>
       </c>
@@ -4832,7 +4881,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>6</v>
       </c>
@@ -4846,7 +4895,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>17</v>
       </c>
@@ -4860,7 +4909,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>18</v>
       </c>
@@ -4874,7 +4923,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>19</v>
       </c>
@@ -4888,7 +4937,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>24</v>
       </c>
@@ -4902,7 +4951,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>10</v>
       </c>
@@ -4916,7 +4965,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>11</v>
       </c>
@@ -4930,7 +4979,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>9</v>
       </c>
@@ -4944,7 +4993,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>14</v>
       </c>
@@ -4958,7 +5007,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>7</v>
       </c>
@@ -4972,7 +5021,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>20</v>
       </c>
@@ -4986,7 +5035,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>13</v>
       </c>
@@ -5000,7 +5049,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>12</v>
       </c>
@@ -5014,7 +5063,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>15</v>
       </c>
@@ -5028,7 +5077,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>8</v>
       </c>
@@ -5042,7 +5091,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>5</v>
       </c>
@@ -5056,7 +5105,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>22</v>
       </c>
@@ -5070,7 +5119,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>21</v>
       </c>
@@ -5084,7 +5133,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>9</v>
       </c>
@@ -5098,7 +5147,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>10</v>
       </c>
@@ -5112,7 +5161,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>8</v>
       </c>
@@ -5126,7 +5175,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>24</v>
       </c>
@@ -5140,7 +5189,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>7</v>
       </c>
@@ -5154,7 +5203,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>18</v>
       </c>
@@ -5168,7 +5217,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>16</v>
       </c>
@@ -5182,7 +5231,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>19</v>
       </c>
@@ -5196,7 +5245,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>18</v>
       </c>
@@ -5210,7 +5259,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>16</v>
       </c>
@@ -5224,7 +5273,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>17</v>
       </c>
@@ -5238,7 +5287,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>25</v>
       </c>
@@ -5252,7 +5301,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>6</v>
       </c>
@@ -5266,7 +5315,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>26</v>
       </c>
@@ -5280,7 +5329,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>23</v>
       </c>
@@ -5297,7 +5346,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>8</v>
       </c>
@@ -5311,7 +5360,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>9</v>
       </c>
@@ -5325,7 +5374,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>7</v>
       </c>
@@ -5339,7 +5388,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>10</v>
       </c>
@@ -5353,7 +5402,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>21</v>
       </c>
@@ -5367,7 +5416,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>23</v>
       </c>
@@ -5381,7 +5430,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>21</v>
       </c>
@@ -5395,7 +5444,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>10</v>
       </c>
@@ -5409,7 +5458,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>13</v>
       </c>
@@ -5423,7 +5472,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>11</v>
       </c>
@@ -5437,7 +5486,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>12</v>
       </c>
@@ -5451,7 +5500,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>8</v>
       </c>
@@ -5465,7 +5514,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>19</v>
       </c>
@@ -5479,7 +5528,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>23</v>
       </c>
@@ -5493,7 +5542,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>7</v>
       </c>
@@ -5507,7 +5556,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>9</v>
       </c>
@@ -5521,7 +5570,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>23</v>
       </c>
@@ -5535,7 +5584,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>22</v>
       </c>
@@ -5552,7 +5601,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>11</v>
       </c>
@@ -5566,7 +5615,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>13</v>
       </c>
@@ -5580,7 +5629,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>15</v>
       </c>
@@ -5594,7 +5643,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>20</v>
       </c>
@@ -5608,7 +5657,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>13</v>
       </c>
@@ -5622,7 +5671,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>11</v>
       </c>
@@ -5636,7 +5685,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>24</v>
       </c>
@@ -5650,7 +5699,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>7</v>
       </c>
@@ -5664,7 +5713,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>7</v>
       </c>
@@ -5678,7 +5727,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>22</v>
       </c>
@@ -5692,7 +5741,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>5</v>
       </c>
@@ -5706,7 +5755,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>13</v>
       </c>
@@ -5720,7 +5769,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>10</v>
       </c>
@@ -5734,7 +5783,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>20</v>
       </c>
@@ -5748,7 +5797,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>11</v>
       </c>
@@ -5762,7 +5811,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>24</v>
       </c>
@@ -5776,7 +5825,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>12</v>
       </c>
@@ -5790,7 +5839,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>19</v>
       </c>
@@ -5804,7 +5853,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>19</v>
       </c>
@@ -5818,7 +5867,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>23</v>
       </c>
@@ -5832,7 +5881,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>25</v>
       </c>
@@ -5846,7 +5895,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>6</v>
       </c>
@@ -5860,7 +5909,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>16</v>
       </c>
@@ -5874,7 +5923,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>17</v>
       </c>
@@ -5888,7 +5937,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>18</v>
       </c>
@@ -5902,7 +5951,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>26</v>
       </c>
@@ -5916,7 +5965,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>26</v>
       </c>
@@ -5930,7 +5979,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>16</v>
       </c>
@@ -5944,7 +5993,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>25</v>
       </c>
@@ -5958,7 +6007,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>18</v>
       </c>
@@ -5972,7 +6021,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>6</v>
       </c>
@@ -5986,7 +6035,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>17</v>
       </c>
@@ -6000,7 +6049,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>14</v>
       </c>
@@ -6014,7 +6063,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>22</v>
       </c>
@@ -6028,7 +6077,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>21</v>
       </c>
@@ -6042,7 +6091,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>5</v>
       </c>
@@ -6059,7 +6108,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>26</v>
       </c>
@@ -6073,7 +6122,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>25</v>
       </c>
@@ -6087,7 +6136,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>8</v>
       </c>
@@ -6101,7 +6150,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>24</v>
       </c>
@@ -6115,7 +6164,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>22</v>
       </c>
@@ -6129,7 +6178,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>19</v>
       </c>
@@ -6143,7 +6192,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>24</v>
       </c>
@@ -6157,7 +6206,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>10</v>
       </c>
@@ -6171,7 +6220,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>24</v>
       </c>
@@ -6185,7 +6234,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>8</v>
       </c>
@@ -6199,7 +6248,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>10</v>
       </c>
@@ -6213,7 +6262,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>7</v>
       </c>
@@ -6227,7 +6276,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>5</v>
       </c>

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Scripts\Divide-BiS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B42364-7E6A-41FC-B995-DEE8C90AA12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADFF6CF-9F31-4B59-AC2D-D7B42C1E3710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="178">
   <si>
     <t>player</t>
   </si>
@@ -957,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="E231" sqref="E231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4311,6 +4311,9 @@
       <c r="D230" t="s">
         <v>158</v>
       </c>
+      <c r="E230" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Scripts\Divide-BiS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADFF6CF-9F31-4B59-AC2D-D7B42C1E3710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A5DB2A-0A59-4FEA-BE9E-6E2790940B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="178">
   <si>
     <t>player</t>
   </si>
@@ -957,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="E231" sqref="E231"/>
+    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
+      <selection activeCell="E289" sqref="E289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4283,6 +4283,9 @@
       <c r="D228" t="s">
         <v>156</v>
       </c>
+      <c r="E228" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
@@ -4912,7 +4915,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>18</v>
       </c>
@@ -4926,7 +4929,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>19</v>
       </c>
@@ -4940,7 +4943,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>24</v>
       </c>
@@ -4954,7 +4957,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>10</v>
       </c>
@@ -4968,7 +4971,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>11</v>
       </c>
@@ -4982,7 +4985,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>9</v>
       </c>
@@ -4996,7 +4999,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>14</v>
       </c>
@@ -5010,7 +5013,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>7</v>
       </c>
@@ -5024,7 +5027,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>20</v>
       </c>
@@ -5038,7 +5041,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>13</v>
       </c>
@@ -5052,7 +5055,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>12</v>
       </c>
@@ -5066,7 +5069,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>15</v>
       </c>
@@ -5080,7 +5083,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>8</v>
       </c>
@@ -5094,7 +5097,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>5</v>
       </c>
@@ -5108,7 +5111,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>22</v>
       </c>
@@ -5122,7 +5125,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>21</v>
       </c>
@@ -5134,6 +5137,9 @@
       </c>
       <c r="D288" t="s">
         <v>157</v>
+      </c>
+      <c r="E288" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
@@ -5363,7 +5369,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>9</v>
       </c>
@@ -5377,7 +5383,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>7</v>
       </c>
@@ -5391,7 +5397,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>10</v>
       </c>
@@ -5405,7 +5411,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>21</v>
       </c>
@@ -5418,8 +5424,11 @@
       <c r="D308" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E308" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>23</v>
       </c>
@@ -5433,7 +5442,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>21</v>
       </c>
@@ -5447,7 +5456,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>10</v>
       </c>
@@ -5461,7 +5470,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>13</v>
       </c>
@@ -5475,7 +5484,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>11</v>
       </c>
@@ -5489,7 +5498,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>12</v>
       </c>
@@ -5503,7 +5512,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>8</v>
       </c>
@@ -5517,7 +5526,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>19</v>
       </c>
@@ -5531,7 +5540,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>23</v>
       </c>
@@ -5545,7 +5554,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>7</v>
       </c>
@@ -5559,7 +5568,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>9</v>
       </c>
@@ -5573,7 +5582,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>23</v>
       </c>
@@ -5814,7 +5823,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>24</v>
       </c>
@@ -5828,7 +5837,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>12</v>
       </c>
@@ -5842,7 +5851,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>19</v>
       </c>
@@ -5855,8 +5864,11 @@
       <c r="D339" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E339" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>19</v>
       </c>
@@ -5870,7 +5882,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>23</v>
       </c>
@@ -5884,7 +5896,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>25</v>
       </c>
@@ -5898,7 +5910,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>6</v>
       </c>
@@ -5912,7 +5924,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>16</v>
       </c>
@@ -5926,7 +5938,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>17</v>
       </c>
@@ -5940,7 +5952,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>18</v>
       </c>
@@ -5954,7 +5966,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>26</v>
       </c>
@@ -5968,7 +5980,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>26</v>
       </c>
@@ -5982,7 +5994,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>16</v>
       </c>
@@ -5996,7 +6008,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>25</v>
       </c>
@@ -6010,7 +6022,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>18</v>
       </c>
@@ -6024,7 +6036,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>6</v>
       </c>

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Scripts\Divide-BiS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A5DB2A-0A59-4FEA-BE9E-6E2790940B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6998BC-887C-454C-A4EE-FD2B9BF520A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="178">
   <si>
     <t>player</t>
   </si>
@@ -957,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
-      <selection activeCell="E289" sqref="E289"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="E223" sqref="E223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2166,6 +2166,9 @@
       <c r="D83" t="s">
         <v>156</v>
       </c>
+      <c r="E83" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
@@ -2370,7 +2373,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -2384,7 +2387,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>10</v>
       </c>
@@ -2398,7 +2401,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -2412,7 +2415,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -2426,7 +2429,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>24</v>
       </c>
@@ -2440,7 +2443,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>20</v>
       </c>
@@ -2454,7 +2457,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>22</v>
       </c>
@@ -2467,8 +2470,11 @@
       <c r="D103" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E103" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>11</v>
       </c>
@@ -2482,7 +2488,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>13</v>
       </c>
@@ -2496,7 +2502,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -2510,7 +2516,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>14</v>
       </c>
@@ -2524,7 +2530,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>25</v>
       </c>
@@ -2538,7 +2544,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>26</v>
       </c>
@@ -2552,7 +2558,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>16</v>
       </c>
@@ -2566,7 +2572,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>12</v>
       </c>
@@ -2580,7 +2586,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>24</v>
       </c>
@@ -4196,6 +4202,9 @@
       <c r="D222" t="s">
         <v>161</v>
       </c>
+      <c r="E222" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
@@ -4269,6 +4278,9 @@
       <c r="D227" t="s">
         <v>157</v>
       </c>
+      <c r="E227" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
@@ -6277,7 +6289,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>7</v>
       </c>
@@ -6291,7 +6303,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>5</v>
       </c>
@@ -6303,6 +6315,9 @@
       </c>
       <c r="D370" t="s">
         <v>156</v>
+      </c>
+      <c r="E370" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Scripts\Divide-BiS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6998BC-887C-454C-A4EE-FD2B9BF520A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3161BDB9-0698-451D-96AD-677497A78815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="180">
   <si>
     <t>player</t>
   </si>
@@ -43,6 +43,9 @@
     <t>Omegarone</t>
   </si>
   <si>
+    <t>Lockdrak</t>
+  </si>
+  <si>
     <t>Iryastra</t>
   </si>
   <si>
@@ -514,15 +517,15 @@
     <t>7</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>P1</t>
   </si>
   <si>
     <t>PvP</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -545,6 +548,9 @@
   </si>
   <si>
     <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>Emblems of Conquest</t>
@@ -955,10 +961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E370"/>
+  <dimension ref="A1:E387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="E223" sqref="E223"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -988,10 +994,10 @@
         <v>46035</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1002,10 +1008,10 @@
         <v>46068</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1013,13 +1019,13 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>45663</v>
+        <v>46068</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1030,7 +1036,7 @@
         <v>45663</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
         <v>157</v>
@@ -1044,7 +1050,7 @@
         <v>45663</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
         <v>158</v>
@@ -1058,7 +1064,7 @@
         <v>45663</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>159</v>
@@ -1069,13 +1075,13 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>46048</v>
+        <v>45663</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1086,7 +1092,7 @@
         <v>46048</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
         <v>157</v>
@@ -1100,7 +1106,7 @@
         <v>46048</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
         <v>158</v>
@@ -1108,27 +1114,27 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>45241</v>
+        <v>46048</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>45241</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
         <v>157</v>
@@ -1136,13 +1142,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>45241</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
         <v>158</v>
@@ -1150,19 +1156,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B14">
-        <v>45553</v>
+        <v>45241</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>160</v>
-      </c>
-      <c r="E14" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1170,131 +1173,134 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>45467</v>
+        <v>45553</v>
       </c>
       <c r="C15" t="s">
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>156</v>
+        <v>161</v>
+      </c>
+      <c r="E15" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>45151</v>
+        <v>45467</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>156</v>
-      </c>
-      <c r="E16" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B17">
-        <v>45460</v>
+        <v>45151</v>
       </c>
       <c r="C17" t="s">
         <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+      <c r="E17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>45460</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B19">
-        <v>45484</v>
+        <v>45460</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B20">
         <v>45484</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21">
         <v>45484</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B22">
-        <v>45135</v>
+        <v>45484</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B23">
         <v>45135</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1302,13 +1308,13 @@
         <v>45135</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -1316,13 +1322,13 @@
         <v>45135</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1330,88 +1336,88 @@
         <v>45135</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
       <c r="B27">
-        <v>45610</v>
+        <v>45135</v>
       </c>
       <c r="C27" t="s">
         <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B28">
-        <v>45610</v>
+        <v>45135</v>
       </c>
       <c r="C28" t="s">
         <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B29">
         <v>45610</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B30">
-        <v>45445</v>
+        <v>45610</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B31">
-        <v>46039</v>
+        <v>45610</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B32">
-        <v>46039</v>
+        <v>45445</v>
       </c>
       <c r="C32" t="s">
         <v>40</v>
@@ -1422,78 +1428,81 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B33">
-        <v>45632</v>
+        <v>46039</v>
       </c>
       <c r="C33" t="s">
         <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B34">
-        <v>45632</v>
+        <v>46039</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>157</v>
-      </c>
-      <c r="E34" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B35">
         <v>45632</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+      <c r="E35" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B36">
         <v>45632</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D36" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="E36" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B37">
-        <v>45633</v>
+        <v>45632</v>
       </c>
       <c r="C37" t="s">
         <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E37" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1501,176 +1510,188 @@
         <v>24</v>
       </c>
       <c r="B38">
-        <v>45633</v>
+        <v>45632</v>
       </c>
       <c r="C38" t="s">
         <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>157</v>
-      </c>
-      <c r="E38" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B39">
-        <v>45633</v>
+        <v>45632</v>
       </c>
       <c r="C39" t="s">
         <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>158</v>
+        <v>162</v>
+      </c>
+      <c r="E39" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B40">
         <v>45633</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>159</v>
+        <v>157</v>
+      </c>
+      <c r="E40" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B41">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C41" t="s">
         <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E41" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B42">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C42" t="s">
         <v>43</v>
       </c>
       <c r="D42" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E42" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B43">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C43" t="s">
         <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>158</v>
-      </c>
-      <c r="E43" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B44">
         <v>45634</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D44" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E44" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B45">
         <v>45634</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>161</v>
+        <v>158</v>
+      </c>
+      <c r="E45" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B46">
-        <v>45485</v>
+        <v>45634</v>
       </c>
       <c r="C46" t="s">
         <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>156</v>
+        <v>159</v>
+      </c>
+      <c r="E46" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B47">
-        <v>45485</v>
+        <v>45634</v>
       </c>
       <c r="C47" t="s">
         <v>44</v>
       </c>
       <c r="D47" t="s">
-        <v>157</v>
+        <v>160</v>
+      </c>
+      <c r="E47" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B48">
-        <v>45587</v>
+        <v>45634</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D48" t="s">
-        <v>156</v>
+        <v>162</v>
+      </c>
+      <c r="E48" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B49">
-        <v>45587</v>
+        <v>45485</v>
       </c>
       <c r="C49" t="s">
         <v>45</v>
@@ -1681,24 +1702,24 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B50">
-        <v>46097</v>
+        <v>45485</v>
       </c>
       <c r="C50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D50" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B51">
-        <v>46097</v>
+        <v>45587</v>
       </c>
       <c r="C51" t="s">
         <v>46</v>
@@ -1709,10 +1730,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B52">
-        <v>46097</v>
+        <v>45587</v>
       </c>
       <c r="C52" t="s">
         <v>46</v>
@@ -1723,640 +1744,637 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B53">
-        <v>45443</v>
+        <v>46097</v>
       </c>
       <c r="C53" t="s">
         <v>47</v>
       </c>
       <c r="D53" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B54">
-        <v>45609</v>
+        <v>46097</v>
       </c>
       <c r="C54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D54" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B55">
-        <v>45609</v>
+        <v>46097</v>
       </c>
       <c r="C55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D55" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B56">
-        <v>45609</v>
+        <v>45443</v>
       </c>
       <c r="C56" t="s">
         <v>48</v>
       </c>
       <c r="D56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B57">
         <v>45609</v>
       </c>
       <c r="C57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D57" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B58">
         <v>45609</v>
       </c>
       <c r="C58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D58" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B59">
         <v>45609</v>
       </c>
       <c r="C59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D59" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B60">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C60" t="s">
         <v>49</v>
       </c>
       <c r="D60" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B61">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C61" t="s">
         <v>49</v>
       </c>
       <c r="D61" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B62">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C62" t="s">
         <v>49</v>
       </c>
       <c r="D62" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B63">
         <v>45495</v>
       </c>
       <c r="C63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D63" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B64">
         <v>45495</v>
       </c>
       <c r="C64" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D64" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B65">
         <v>45495</v>
       </c>
       <c r="C65" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D65" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B66">
         <v>45495</v>
       </c>
       <c r="C66" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D66" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B67">
-        <v>45612</v>
+        <v>45495</v>
       </c>
       <c r="C67" t="s">
         <v>50</v>
       </c>
       <c r="D67" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B68">
-        <v>45612</v>
+        <v>45495</v>
       </c>
       <c r="C68" t="s">
         <v>50</v>
       </c>
       <c r="D68" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B69">
-        <v>45617</v>
+        <v>45495</v>
       </c>
       <c r="C69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D69" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B70">
-        <v>45617</v>
+        <v>45495</v>
       </c>
       <c r="C70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D70" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B71">
-        <v>45617</v>
+        <v>45612</v>
       </c>
       <c r="C71" t="s">
         <v>51</v>
       </c>
       <c r="D71" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B72">
-        <v>45617</v>
+        <v>45612</v>
       </c>
       <c r="C72" t="s">
         <v>51</v>
       </c>
       <c r="D72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B73">
         <v>45617</v>
       </c>
       <c r="C73" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D73" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B74">
         <v>45617</v>
       </c>
       <c r="C74" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D74" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B75">
-        <v>45250</v>
+        <v>45617</v>
       </c>
       <c r="C75" t="s">
         <v>52</v>
       </c>
       <c r="D75" t="s">
-        <v>156</v>
-      </c>
-      <c r="E75" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B76">
-        <v>45497</v>
+        <v>45617</v>
       </c>
       <c r="C76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D76" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B77">
-        <v>45497</v>
+        <v>45617</v>
       </c>
       <c r="C77" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D77" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B78">
-        <v>45497</v>
+        <v>45617</v>
       </c>
       <c r="C78" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D78" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B79">
-        <v>45638</v>
+        <v>45617</v>
       </c>
       <c r="C79" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D79" t="s">
-        <v>156</v>
-      </c>
-      <c r="E79" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B80">
-        <v>45638</v>
+        <v>45250</v>
       </c>
       <c r="C80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D80" t="s">
         <v>157</v>
       </c>
       <c r="E80" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B81">
-        <v>45638</v>
+        <v>45497</v>
       </c>
       <c r="C81" t="s">
         <v>54</v>
       </c>
       <c r="D81" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B82">
-        <v>45638</v>
+        <v>45497</v>
       </c>
       <c r="C82" t="s">
         <v>54</v>
       </c>
       <c r="D82" t="s">
-        <v>159</v>
-      </c>
-      <c r="E82" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B83">
-        <v>45639</v>
+        <v>45497</v>
       </c>
       <c r="C83" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D83" t="s">
-        <v>156</v>
-      </c>
-      <c r="E83" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B84">
-        <v>45639</v>
+        <v>45497</v>
       </c>
       <c r="C84" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D84" t="s">
-        <v>157</v>
-      </c>
-      <c r="E84" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B85">
-        <v>45639</v>
+        <v>45638</v>
       </c>
       <c r="C85" t="s">
         <v>55</v>
       </c>
       <c r="D85" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E85" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B86">
-        <v>45640</v>
+        <v>45638</v>
       </c>
       <c r="C86" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D86" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E86" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B87">
-        <v>45640</v>
+        <v>45638</v>
       </c>
       <c r="C87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D87" t="s">
-        <v>157</v>
-      </c>
-      <c r="E87" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B88">
-        <v>45640</v>
+        <v>45638</v>
       </c>
       <c r="C88" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D88" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E88" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B89">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="C89" t="s">
         <v>56</v>
       </c>
       <c r="D89" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E89" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B90">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="C90" t="s">
         <v>56</v>
       </c>
       <c r="D90" t="s">
-        <v>161</v>
+        <v>158</v>
+      </c>
+      <c r="E90" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B91">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="C91" t="s">
         <v>56</v>
       </c>
       <c r="D91" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B92">
-        <v>46038</v>
+        <v>45640</v>
       </c>
       <c r="C92" t="s">
         <v>57</v>
       </c>
       <c r="D92" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="E92" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B93">
-        <v>46038</v>
+        <v>45640</v>
       </c>
       <c r="C93" t="s">
         <v>57</v>
       </c>
       <c r="D93" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="E93" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B94">
-        <v>46038</v>
+        <v>45640</v>
       </c>
       <c r="C94" t="s">
         <v>57</v>
       </c>
       <c r="D94" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="E94" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B95">
-        <v>46038</v>
+        <v>45640</v>
       </c>
       <c r="C95" t="s">
         <v>57</v>
       </c>
       <c r="D95" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="E95" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -2364,41 +2382,44 @@
         <v>13</v>
       </c>
       <c r="B96">
-        <v>46038</v>
+        <v>45640</v>
       </c>
       <c r="C96" t="s">
         <v>57</v>
       </c>
       <c r="D96" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B97">
-        <v>46038</v>
+        <v>45640</v>
       </c>
       <c r="C97" t="s">
         <v>57</v>
       </c>
       <c r="D97" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="E97" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B98">
-        <v>42987</v>
+        <v>46038</v>
       </c>
       <c r="C98" t="s">
         <v>58</v>
       </c>
       <c r="D98" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -2406,72 +2427,69 @@
         <v>9</v>
       </c>
       <c r="B99">
-        <v>42987</v>
+        <v>46038</v>
       </c>
       <c r="C99" t="s">
         <v>58</v>
       </c>
       <c r="D99" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B100">
-        <v>42987</v>
+        <v>46038</v>
       </c>
       <c r="C100" t="s">
         <v>58</v>
       </c>
       <c r="D100" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B101">
-        <v>42987</v>
+        <v>46038</v>
       </c>
       <c r="C101" t="s">
         <v>58</v>
       </c>
       <c r="D101" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B102">
-        <v>44253</v>
+        <v>46038</v>
       </c>
       <c r="C102" t="s">
         <v>58</v>
       </c>
       <c r="D102" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B103">
-        <v>45139</v>
+        <v>46038</v>
       </c>
       <c r="C103" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D103" t="s">
-        <v>156</v>
-      </c>
-      <c r="E103" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -2479,433 +2497,436 @@
         <v>11</v>
       </c>
       <c r="B104">
-        <v>45461</v>
+        <v>42987</v>
       </c>
       <c r="C104" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D104" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B105">
-        <v>45461</v>
+        <v>42987</v>
       </c>
       <c r="C105" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D105" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B106">
-        <v>45461</v>
+        <v>42987</v>
       </c>
       <c r="C106" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D106" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B107">
-        <v>45461</v>
+        <v>42987</v>
       </c>
       <c r="C107" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D107" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B108">
-        <v>45242</v>
+        <v>44253</v>
       </c>
       <c r="C108" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D108" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B109">
-        <v>45242</v>
+        <v>45139</v>
       </c>
       <c r="C109" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D109" t="s">
         <v>157</v>
+      </c>
+      <c r="E109" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B110">
-        <v>45242</v>
+        <v>45461</v>
       </c>
       <c r="C110" t="s">
         <v>61</v>
       </c>
       <c r="D110" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B111">
-        <v>46032</v>
+        <v>45461</v>
       </c>
       <c r="C111" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D111" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B112">
-        <v>46032</v>
+        <v>45461</v>
       </c>
       <c r="C112" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D112" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B113">
-        <v>46032</v>
+        <v>45461</v>
       </c>
       <c r="C113" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D113" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B114">
-        <v>46032</v>
+        <v>45242</v>
       </c>
       <c r="C114" t="s">
         <v>62</v>
       </c>
       <c r="D114" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B115">
-        <v>46032</v>
+        <v>45242</v>
       </c>
       <c r="C115" t="s">
         <v>62</v>
       </c>
       <c r="D115" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B116">
-        <v>46032</v>
+        <v>45242</v>
       </c>
       <c r="C116" t="s">
         <v>62</v>
       </c>
       <c r="D116" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B117">
-        <v>45486</v>
+        <v>46032</v>
       </c>
       <c r="C117" t="s">
         <v>63</v>
       </c>
       <c r="D117" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B118">
-        <v>45486</v>
+        <v>46032</v>
       </c>
       <c r="C118" t="s">
         <v>63</v>
       </c>
       <c r="D118" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B119">
+        <v>46032</v>
+      </c>
+      <c r="C119" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>10</v>
+      </c>
+      <c r="B120">
+        <v>46032</v>
+      </c>
+      <c r="C120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>16</v>
+      </c>
+      <c r="B121">
+        <v>46032</v>
+      </c>
+      <c r="C121" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122">
+        <v>46032</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>24</v>
+      </c>
+      <c r="B123">
+        <v>45486</v>
+      </c>
+      <c r="C123" t="s">
+        <v>64</v>
+      </c>
+      <c r="D123" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124">
+        <v>45486</v>
+      </c>
+      <c r="C124" t="s">
+        <v>64</v>
+      </c>
+      <c r="D124" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>21</v>
+      </c>
+      <c r="B125">
         <v>45613</v>
-      </c>
-      <c r="C119" t="s">
-        <v>64</v>
-      </c>
-      <c r="D119" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>12</v>
-      </c>
-      <c r="B120">
-        <v>45613</v>
-      </c>
-      <c r="C120" t="s">
-        <v>64</v>
-      </c>
-      <c r="D120" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>12</v>
-      </c>
-      <c r="B121">
-        <v>45473</v>
-      </c>
-      <c r="C121" t="s">
-        <v>65</v>
-      </c>
-      <c r="D121" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>11</v>
-      </c>
-      <c r="B122">
-        <v>45473</v>
-      </c>
-      <c r="C122" t="s">
-        <v>65</v>
-      </c>
-      <c r="D122" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>10</v>
-      </c>
-      <c r="B123">
-        <v>45473</v>
-      </c>
-      <c r="C123" t="s">
-        <v>65</v>
-      </c>
-      <c r="D123" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>13</v>
-      </c>
-      <c r="B124">
-        <v>45473</v>
-      </c>
-      <c r="C124" t="s">
-        <v>65</v>
-      </c>
-      <c r="D124" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>20</v>
-      </c>
-      <c r="B125">
-        <v>45473</v>
       </c>
       <c r="C125" t="s">
         <v>65</v>
       </c>
       <c r="D125" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B126">
-        <v>45119</v>
+        <v>45613</v>
       </c>
       <c r="C126" t="s">
+        <v>65</v>
+      </c>
+      <c r="D126" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>13</v>
+      </c>
+      <c r="B127">
+        <v>45473</v>
+      </c>
+      <c r="C127" t="s">
         <v>66</v>
       </c>
-      <c r="D126" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>21</v>
-      </c>
-      <c r="B127">
-        <v>45471</v>
-      </c>
-      <c r="C127" t="s">
-        <v>67</v>
-      </c>
       <c r="D127" t="s">
-        <v>156</v>
-      </c>
-      <c r="E127" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B128">
-        <v>45471</v>
+        <v>45473</v>
       </c>
       <c r="C128" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D128" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B129">
-        <v>45946</v>
+        <v>45473</v>
       </c>
       <c r="C129" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D129" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B130">
-        <v>45946</v>
+        <v>45473</v>
       </c>
       <c r="C130" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D130" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B131">
-        <v>45946</v>
+        <v>45473</v>
       </c>
       <c r="C131" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D131" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B132">
-        <v>45518</v>
+        <v>45119</v>
       </c>
       <c r="C132" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D132" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B133">
-        <v>45518</v>
+        <v>45471</v>
       </c>
       <c r="C133" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D133" t="s">
         <v>157</v>
+      </c>
+      <c r="E133" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B134">
-        <v>45518</v>
+        <v>45471</v>
       </c>
       <c r="C134" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D134" t="s">
         <v>158</v>
@@ -2913,137 +2934,128 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B135">
-        <v>45518</v>
+        <v>45946</v>
       </c>
       <c r="C135" t="s">
         <v>69</v>
       </c>
       <c r="D135" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B136">
-        <v>45518</v>
+        <v>45946</v>
       </c>
       <c r="C136" t="s">
         <v>69</v>
       </c>
       <c r="D136" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B137">
-        <v>45518</v>
+        <v>45946</v>
       </c>
       <c r="C137" t="s">
         <v>69</v>
       </c>
       <c r="D137" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B138">
-        <v>45869</v>
+        <v>45518</v>
       </c>
       <c r="C138" t="s">
         <v>70</v>
       </c>
       <c r="D138" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B139">
-        <v>45869</v>
+        <v>45518</v>
       </c>
       <c r="C139" t="s">
         <v>70</v>
       </c>
       <c r="D139" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B140">
-        <v>45564</v>
+        <v>45518</v>
       </c>
       <c r="C140" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D140" t="s">
-        <v>160</v>
-      </c>
-      <c r="E140" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B141">
-        <v>45564</v>
+        <v>45518</v>
       </c>
       <c r="C141" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D141" t="s">
         <v>160</v>
       </c>
-      <c r="E141" t="s">
-        <v>176</v>
-      </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B142">
-        <v>45564</v>
+        <v>45518</v>
       </c>
       <c r="C142" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D142" t="s">
-        <v>160</v>
-      </c>
-      <c r="E142" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B143">
-        <v>45459</v>
+        <v>45518</v>
       </c>
       <c r="C143" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D143" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -3051,513 +3063,519 @@
         <v>7</v>
       </c>
       <c r="B144">
-        <v>45459</v>
+        <v>45518</v>
       </c>
       <c r="C144" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D144" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B145">
-        <v>45459</v>
+        <v>45869</v>
       </c>
       <c r="C145" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D145" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B146">
-        <v>45454</v>
+        <v>45869</v>
       </c>
       <c r="C146" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D146" t="s">
-        <v>156</v>
-      </c>
-      <c r="E146" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B147">
-        <v>42853</v>
+        <v>45564</v>
       </c>
       <c r="C147" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D147" t="s">
-        <v>165</v>
+        <v>161</v>
+      </c>
+      <c r="E147" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B148">
-        <v>42608</v>
+        <v>45564</v>
       </c>
       <c r="C148" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D148" t="s">
-        <v>165</v>
+        <v>161</v>
+      </c>
+      <c r="E148" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B149">
-        <v>45481</v>
+        <v>45564</v>
       </c>
       <c r="C149" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D149" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E149" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B150">
-        <v>45641</v>
+        <v>45459</v>
       </c>
       <c r="C150" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D150" t="s">
-        <v>156</v>
-      </c>
-      <c r="E150" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B151">
-        <v>45642</v>
+        <v>45459</v>
       </c>
       <c r="C151" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D151" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B152">
-        <v>45642</v>
+        <v>45459</v>
       </c>
       <c r="C152" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D152" t="s">
-        <v>157</v>
-      </c>
-      <c r="E152" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B153">
-        <v>45643</v>
+        <v>45454</v>
       </c>
       <c r="C153" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D153" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="E153" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B154">
-        <v>45643</v>
+        <v>42853</v>
       </c>
       <c r="C154" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D154" t="s">
-        <v>157</v>
-      </c>
-      <c r="E154" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B155">
-        <v>45643</v>
+        <v>42608</v>
       </c>
       <c r="C155" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D155" t="s">
-        <v>158</v>
-      </c>
-      <c r="E155" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B156">
-        <v>45643</v>
+        <v>45481</v>
       </c>
       <c r="C156" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D156" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E156" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B157">
-        <v>46043</v>
+        <v>45641</v>
       </c>
       <c r="C157" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D157" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="E157" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B158">
-        <v>45444</v>
+        <v>45642</v>
       </c>
       <c r="C158" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D158" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B159">
-        <v>45444</v>
+        <v>45642</v>
       </c>
       <c r="C159" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D159" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="E159" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
+        <v>20</v>
+      </c>
+      <c r="B160">
+        <v>45643</v>
+      </c>
+      <c r="C160" t="s">
+        <v>80</v>
+      </c>
+      <c r="D160" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>14</v>
+      </c>
+      <c r="B161">
+        <v>45643</v>
+      </c>
+      <c r="C161" t="s">
+        <v>80</v>
+      </c>
+      <c r="D161" t="s">
+        <v>158</v>
+      </c>
+      <c r="E161" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>13</v>
+      </c>
+      <c r="B162">
+        <v>45643</v>
+      </c>
+      <c r="C162" t="s">
+        <v>80</v>
+      </c>
+      <c r="D162" t="s">
+        <v>159</v>
+      </c>
+      <c r="E162" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
         <v>10</v>
       </c>
-      <c r="B160">
+      <c r="B163">
+        <v>45643</v>
+      </c>
+      <c r="C163" t="s">
+        <v>80</v>
+      </c>
+      <c r="D163" t="s">
+        <v>160</v>
+      </c>
+      <c r="E163" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164">
+        <v>46043</v>
+      </c>
+      <c r="C164" t="s">
+        <v>81</v>
+      </c>
+      <c r="D164" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>9</v>
+      </c>
+      <c r="B165">
         <v>45444</v>
       </c>
-      <c r="C160" t="s">
-        <v>81</v>
-      </c>
-      <c r="D160" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>15</v>
-      </c>
-      <c r="B161">
+      <c r="C165" t="s">
+        <v>82</v>
+      </c>
+      <c r="D165" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>21</v>
+      </c>
+      <c r="B166">
         <v>45444</v>
       </c>
-      <c r="C161" t="s">
-        <v>81</v>
-      </c>
-      <c r="D161" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
+      <c r="C166" t="s">
+        <v>82</v>
+      </c>
+      <c r="D166" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
         <v>11</v>
       </c>
-      <c r="B162">
-        <v>45132</v>
-      </c>
-      <c r="C162" t="s">
+      <c r="B167">
+        <v>45444</v>
+      </c>
+      <c r="C167" t="s">
         <v>82</v>
-      </c>
-      <c r="D162" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>14</v>
-      </c>
-      <c r="B163">
-        <v>45132</v>
-      </c>
-      <c r="C163" t="s">
-        <v>82</v>
-      </c>
-      <c r="D163" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>17</v>
-      </c>
-      <c r="B164">
-        <v>45446</v>
-      </c>
-      <c r="C164" t="s">
-        <v>83</v>
-      </c>
-      <c r="D164" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>25</v>
-      </c>
-      <c r="B165">
-        <v>45446</v>
-      </c>
-      <c r="C165" t="s">
-        <v>83</v>
-      </c>
-      <c r="D165" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>6</v>
-      </c>
-      <c r="B166">
-        <v>45446</v>
-      </c>
-      <c r="C166" t="s">
-        <v>83</v>
-      </c>
-      <c r="D166" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>18</v>
-      </c>
-      <c r="B167">
-        <v>45446</v>
-      </c>
-      <c r="C167" t="s">
-        <v>83</v>
       </c>
       <c r="D167" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>16</v>
       </c>
       <c r="B168">
-        <v>45446</v>
+        <v>45444</v>
       </c>
       <c r="C168" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D168" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B169">
-        <v>45446</v>
+        <v>45132</v>
       </c>
       <c r="C169" t="s">
         <v>83</v>
       </c>
       <c r="D169" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B170">
-        <v>45446</v>
+        <v>45132</v>
       </c>
       <c r="C170" t="s">
         <v>83</v>
       </c>
       <c r="D170" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B171">
-        <v>45244</v>
+        <v>45446</v>
       </c>
       <c r="C171" t="s">
         <v>84</v>
       </c>
       <c r="D171" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B172">
-        <v>45244</v>
+        <v>45446</v>
       </c>
       <c r="C172" t="s">
         <v>84</v>
       </c>
       <c r="D172" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B173">
-        <v>45988</v>
+        <v>45446</v>
       </c>
       <c r="C173" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D173" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B174">
-        <v>45988</v>
+        <v>45446</v>
       </c>
       <c r="C174" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D174" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B175">
-        <v>45487</v>
+        <v>45446</v>
       </c>
       <c r="C175" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D175" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B176">
-        <v>45487</v>
+        <v>45446</v>
       </c>
       <c r="C176" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D176" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B177">
-        <v>45520</v>
+        <v>45446</v>
       </c>
       <c r="C177" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D177" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B178">
-        <v>45158</v>
+        <v>45446</v>
       </c>
       <c r="C178" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D178" t="s">
-        <v>156</v>
-      </c>
-      <c r="E178" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
@@ -3565,61 +3583,55 @@
         <v>21</v>
       </c>
       <c r="B179">
-        <v>45158</v>
+        <v>45244</v>
       </c>
       <c r="C179" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D179" t="s">
         <v>157</v>
-      </c>
-      <c r="E179" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B180">
-        <v>45886</v>
+        <v>45244</v>
       </c>
       <c r="C180" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D180" t="s">
-        <v>156</v>
-      </c>
-      <c r="E180" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B181">
-        <v>40342</v>
+        <v>45988</v>
       </c>
       <c r="C181" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D181" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B182">
-        <v>40713</v>
+        <v>45988</v>
       </c>
       <c r="C182" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D182" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
@@ -3627,226 +3639,232 @@
         <v>23</v>
       </c>
       <c r="B183">
-        <v>40432</v>
+        <v>45487</v>
       </c>
       <c r="C183" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D183" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B184">
-        <v>45271</v>
+        <v>45487</v>
       </c>
       <c r="C184" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D184" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B185">
-        <v>45488</v>
+        <v>45520</v>
       </c>
       <c r="C185" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D185" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B186">
-        <v>45488</v>
+        <v>45158</v>
       </c>
       <c r="C186" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D186" t="s">
         <v>157</v>
+      </c>
+      <c r="E186" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B187">
-        <v>45536</v>
+        <v>45158</v>
       </c>
       <c r="C187" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D187" t="s">
-        <v>156</v>
+        <v>158</v>
+      </c>
+      <c r="E187" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B188">
-        <v>45536</v>
+        <v>45886</v>
       </c>
       <c r="C188" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D188" t="s">
         <v>157</v>
+      </c>
+      <c r="E188" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B189">
-        <v>45536</v>
+        <v>40342</v>
       </c>
       <c r="C189" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D189" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B190">
-        <v>45536</v>
+        <v>40713</v>
       </c>
       <c r="C190" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D190" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B191">
-        <v>45536</v>
+        <v>40432</v>
       </c>
       <c r="C191" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D191" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B192">
-        <v>45536</v>
+        <v>45271</v>
       </c>
       <c r="C192" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D192" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B193">
-        <v>45594</v>
+        <v>45488</v>
       </c>
       <c r="C193" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D193" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B194">
-        <v>45594</v>
+        <v>45488</v>
       </c>
       <c r="C194" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D194" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B195">
-        <v>45653</v>
+        <v>45536</v>
       </c>
       <c r="C195" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D195" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B196">
-        <v>45653</v>
+        <v>45536</v>
       </c>
       <c r="C196" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D196" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B197">
-        <v>45653</v>
+        <v>45536</v>
       </c>
       <c r="C197" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D197" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B198">
-        <v>45653</v>
+        <v>45536</v>
       </c>
       <c r="C198" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D198" t="s">
-        <v>159</v>
-      </c>
-      <c r="E198" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
@@ -3854,322 +3872,325 @@
         <v>14</v>
       </c>
       <c r="B199">
-        <v>45654</v>
+        <v>45536</v>
       </c>
       <c r="C199" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D199" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B200">
-        <v>45654</v>
+        <v>45536</v>
       </c>
       <c r="C200" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D200" t="s">
-        <v>157</v>
-      </c>
-      <c r="E200" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B201">
-        <v>45655</v>
+        <v>45594</v>
       </c>
       <c r="C201" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D201" t="s">
-        <v>156</v>
-      </c>
-      <c r="E201" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B202">
-        <v>45655</v>
+        <v>45594</v>
       </c>
       <c r="C202" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D202" t="s">
-        <v>157</v>
-      </c>
-      <c r="E202" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B203">
-        <v>45655</v>
+        <v>45653</v>
       </c>
       <c r="C203" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D203" t="s">
-        <v>158</v>
-      </c>
-      <c r="E203" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B204">
-        <v>40705</v>
+        <v>45653</v>
       </c>
       <c r="C204" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D204" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B205">
-        <v>45145</v>
+        <v>45653</v>
       </c>
       <c r="C205" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D205" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B206">
-        <v>45456</v>
+        <v>45653</v>
       </c>
       <c r="C206" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D206" t="s">
-        <v>156</v>
+        <v>160</v>
+      </c>
+      <c r="E206" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B207">
-        <v>45498</v>
+        <v>45653</v>
       </c>
       <c r="C207" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D207" t="s">
-        <v>156</v>
-      </c>
-      <c r="E207" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B208">
-        <v>45300</v>
+        <v>45654</v>
       </c>
       <c r="C208" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D208" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B209">
-        <v>45300</v>
+        <v>45654</v>
       </c>
       <c r="C209" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D209" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="E209" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B210">
-        <v>45656</v>
+        <v>45655</v>
       </c>
       <c r="C210" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D210" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E210" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B211">
-        <v>45656</v>
+        <v>45655</v>
       </c>
       <c r="C211" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D211" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="E211" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B212">
-        <v>45656</v>
+        <v>45655</v>
       </c>
       <c r="C212" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D212" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="E212" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B213">
-        <v>45656</v>
+        <v>40705</v>
       </c>
       <c r="C213" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D213" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B214">
-        <v>45656</v>
+        <v>45145</v>
       </c>
       <c r="C214" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D214" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B215">
-        <v>45657</v>
+        <v>45456</v>
       </c>
       <c r="C215" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D215" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B216">
-        <v>45657</v>
+        <v>45498</v>
       </c>
       <c r="C216" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D216" t="s">
         <v>157</v>
+      </c>
+      <c r="E216" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B217">
-        <v>45657</v>
+        <v>45300</v>
       </c>
       <c r="C217" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D217" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B218">
-        <v>45658</v>
+        <v>45300</v>
       </c>
       <c r="C218" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D218" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B219">
-        <v>45658</v>
+        <v>45656</v>
       </c>
       <c r="C219" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D219" t="s">
         <v>157</v>
+      </c>
+      <c r="E219" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B220">
-        <v>45658</v>
+        <v>45656</v>
       </c>
       <c r="C220" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D220" t="s">
         <v>158</v>
@@ -4177,13 +4198,13 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B221">
-        <v>45658</v>
+        <v>45656</v>
       </c>
       <c r="C221" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D221" t="s">
         <v>159</v>
@@ -4191,30 +4212,27 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B222">
-        <v>45658</v>
+        <v>45656</v>
       </c>
       <c r="C222" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D222" t="s">
-        <v>161</v>
-      </c>
-      <c r="E222" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B223">
-        <v>45658</v>
+        <v>45656</v>
       </c>
       <c r="C223" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D223" t="s">
         <v>162</v>
@@ -4222,168 +4240,156 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B224">
-        <v>46051</v>
+        <v>45657</v>
       </c>
       <c r="C224" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D224" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B225">
-        <v>45993</v>
+        <v>45657</v>
       </c>
       <c r="C225" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D225" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B226">
-        <v>45111</v>
+        <v>45657</v>
       </c>
       <c r="C226" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D226" t="s">
-        <v>156</v>
-      </c>
-      <c r="E226" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B227">
-        <v>45111</v>
+        <v>45658</v>
       </c>
       <c r="C227" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D227" t="s">
         <v>157</v>
-      </c>
-      <c r="E227" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B228">
-        <v>45931</v>
+        <v>45658</v>
       </c>
       <c r="C228" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D228" t="s">
-        <v>156</v>
-      </c>
-      <c r="E228" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B229">
-        <v>45931</v>
+        <v>45658</v>
       </c>
       <c r="C229" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D229" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B230">
-        <v>45931</v>
+        <v>45658</v>
       </c>
       <c r="C230" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D230" t="s">
-        <v>158</v>
-      </c>
-      <c r="E230" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B231">
-        <v>45931</v>
+        <v>45658</v>
       </c>
       <c r="C231" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D231" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E231" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B232">
-        <v>45931</v>
+        <v>45658</v>
       </c>
       <c r="C232" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D232" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B233">
-        <v>46046</v>
+        <v>46051</v>
       </c>
       <c r="C233" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D233" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B234">
-        <v>46046</v>
+        <v>45993</v>
       </c>
       <c r="C234" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D234" t="s">
         <v>157</v>
@@ -4391,994 +4397,1006 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B235">
-        <v>46046</v>
+        <v>45111</v>
       </c>
       <c r="C235" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D235" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+      <c r="E235" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B236">
-        <v>46046</v>
+        <v>45111</v>
       </c>
       <c r="C236" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D236" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="E236" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B237">
-        <v>46046</v>
+        <v>45931</v>
       </c>
       <c r="C237" t="s">
         <v>112</v>
       </c>
       <c r="D237" t="s">
-        <v>161</v>
+        <v>157</v>
+      </c>
+      <c r="E237" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B238">
-        <v>46046</v>
+        <v>45931</v>
       </c>
       <c r="C238" t="s">
         <v>112</v>
       </c>
       <c r="D238" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B239">
-        <v>45133</v>
+        <v>45931</v>
       </c>
       <c r="C239" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D239" t="s">
-        <v>156</v>
+        <v>159</v>
+      </c>
+      <c r="E239" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B240">
-        <v>45133</v>
+        <v>45931</v>
       </c>
       <c r="C240" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D240" t="s">
-        <v>157</v>
+        <v>160</v>
+      </c>
+      <c r="E240" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B241">
-        <v>45133</v>
+        <v>45931</v>
       </c>
       <c r="C241" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D241" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B242">
-        <v>45133</v>
+        <v>46046</v>
       </c>
       <c r="C242" t="s">
         <v>113</v>
       </c>
       <c r="D242" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B243">
-        <v>45933</v>
+        <v>46046</v>
       </c>
       <c r="C243" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D243" t="s">
-        <v>156</v>
-      </c>
-      <c r="E243" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B244">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C244" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D244" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B245">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C245" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D245" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B246">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C246" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D246" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B247">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C247" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D247" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B248">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C248" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D248" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B249">
-        <v>45517</v>
+        <v>45133</v>
       </c>
       <c r="C249" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D249" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B250">
-        <v>45517</v>
+        <v>45133</v>
       </c>
       <c r="C250" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D250" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B251">
-        <v>45517</v>
+        <v>45133</v>
       </c>
       <c r="C251" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D251" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B252">
-        <v>45294</v>
+        <v>45133</v>
       </c>
       <c r="C252" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D252" t="s">
-        <v>156</v>
-      </c>
-      <c r="E252" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B253">
-        <v>45294</v>
+        <v>45133</v>
       </c>
       <c r="C253" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D253" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B254">
-        <v>45294</v>
+        <v>45933</v>
       </c>
       <c r="C254" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D254" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+      <c r="E254" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B255">
-        <v>45294</v>
+        <v>45517</v>
       </c>
       <c r="C255" t="s">
         <v>116</v>
       </c>
       <c r="D255" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B256">
-        <v>45294</v>
+        <v>45517</v>
       </c>
       <c r="C256" t="s">
         <v>116</v>
       </c>
       <c r="D256" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B257">
-        <v>45294</v>
+        <v>45517</v>
       </c>
       <c r="C257" t="s">
         <v>116</v>
       </c>
       <c r="D257" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>21</v>
+      </c>
+      <c r="B258">
+        <v>45517</v>
+      </c>
+      <c r="C258" t="s">
+        <v>116</v>
+      </c>
+      <c r="D258" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>15</v>
+      </c>
+      <c r="B259">
+        <v>45517</v>
+      </c>
+      <c r="C259" t="s">
+        <v>116</v>
+      </c>
+      <c r="D259" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
-        <v>26</v>
-      </c>
-      <c r="B258">
-        <v>45665</v>
-      </c>
-      <c r="C258" t="s">
-        <v>117</v>
-      </c>
-      <c r="D258" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
-        <v>6</v>
-      </c>
-      <c r="B259">
-        <v>45665</v>
-      </c>
-      <c r="C259" t="s">
-        <v>117</v>
-      </c>
-      <c r="D259" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
+        <v>12</v>
+      </c>
+      <c r="B260">
+        <v>45517</v>
+      </c>
+      <c r="C260" t="s">
+        <v>116</v>
+      </c>
+      <c r="D260" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>16</v>
+      </c>
+      <c r="B261">
+        <v>45517</v>
+      </c>
+      <c r="C261" t="s">
+        <v>116</v>
+      </c>
+      <c r="D261" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>11</v>
+      </c>
+      <c r="B262">
+        <v>45517</v>
+      </c>
+      <c r="C262" t="s">
+        <v>116</v>
+      </c>
+      <c r="D262" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
         <v>17</v>
       </c>
-      <c r="B260">
-        <v>45665</v>
-      </c>
-      <c r="C260" t="s">
-        <v>117</v>
-      </c>
-      <c r="D260" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
-        <v>18</v>
-      </c>
-      <c r="B261">
-        <v>45665</v>
-      </c>
-      <c r="C261" t="s">
-        <v>117</v>
-      </c>
-      <c r="D261" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
-        <v>16</v>
-      </c>
-      <c r="B262">
-        <v>45665</v>
-      </c>
-      <c r="C262" t="s">
-        <v>117</v>
-      </c>
-      <c r="D262" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
-        <v>25</v>
-      </c>
       <c r="B263">
-        <v>45665</v>
+        <v>45294</v>
       </c>
       <c r="C263" t="s">
         <v>117</v>
       </c>
       <c r="D263" t="s">
+        <v>157</v>
+      </c>
+      <c r="E263" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>6</v>
+      </c>
+      <c r="B264">
+        <v>45294</v>
+      </c>
+      <c r="C264" t="s">
+        <v>117</v>
+      </c>
+      <c r="D264" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>19</v>
+      </c>
+      <c r="B265">
+        <v>45294</v>
+      </c>
+      <c r="C265" t="s">
+        <v>117</v>
+      </c>
+      <c r="D265" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>27</v>
+      </c>
+      <c r="B266">
+        <v>45294</v>
+      </c>
+      <c r="C266" t="s">
+        <v>117</v>
+      </c>
+      <c r="D266" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>18</v>
+      </c>
+      <c r="B267">
+        <v>45294</v>
+      </c>
+      <c r="C267" t="s">
+        <v>117</v>
+      </c>
+      <c r="D267" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>26</v>
+      </c>
+      <c r="B268">
+        <v>45294</v>
+      </c>
+      <c r="C268" t="s">
+        <v>117</v>
+      </c>
+      <c r="D268" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
         <v>7</v>
       </c>
-      <c r="B264">
-        <v>45134</v>
-      </c>
-      <c r="C264" t="s">
+      <c r="B269">
+        <v>45294</v>
+      </c>
+      <c r="C269" t="s">
+        <v>117</v>
+      </c>
+      <c r="D269" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>27</v>
+      </c>
+      <c r="B270">
+        <v>45665</v>
+      </c>
+      <c r="C270" t="s">
         <v>118</v>
       </c>
-      <c r="D264" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
-        <v>9</v>
-      </c>
-      <c r="B265">
-        <v>45134</v>
-      </c>
-      <c r="C265" t="s">
-        <v>118</v>
-      </c>
-      <c r="D265" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
-        <v>10</v>
-      </c>
-      <c r="B266">
-        <v>45134</v>
-      </c>
-      <c r="C266" t="s">
-        <v>118</v>
-      </c>
-      <c r="D266" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
-        <v>21</v>
-      </c>
-      <c r="B267">
-        <v>45326</v>
-      </c>
-      <c r="C267" t="s">
-        <v>119</v>
-      </c>
-      <c r="D267" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
-        <v>24</v>
-      </c>
-      <c r="B268">
-        <v>46052</v>
-      </c>
-      <c r="C268" t="s">
-        <v>120</v>
-      </c>
-      <c r="D268" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
-        <v>15</v>
-      </c>
-      <c r="B269">
-        <v>46052</v>
-      </c>
-      <c r="C269" t="s">
-        <v>120</v>
-      </c>
-      <c r="D269" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
-        <v>20</v>
-      </c>
-      <c r="B270">
-        <v>46052</v>
-      </c>
-      <c r="C270" t="s">
-        <v>120</v>
-      </c>
       <c r="D270" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>6</v>
       </c>
       <c r="B271">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C271" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D271" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
+        <v>18</v>
+      </c>
+      <c r="B272">
+        <v>45665</v>
+      </c>
+      <c r="C272" t="s">
+        <v>118</v>
+      </c>
+      <c r="D272" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>19</v>
+      </c>
+      <c r="B273">
+        <v>45665</v>
+      </c>
+      <c r="C273" t="s">
+        <v>118</v>
+      </c>
+      <c r="D273" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
         <v>17</v>
       </c>
-      <c r="B272">
-        <v>46053</v>
-      </c>
-      <c r="C272" t="s">
-        <v>120</v>
-      </c>
-      <c r="D272" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A273" t="s">
-        <v>18</v>
-      </c>
-      <c r="B273">
-        <v>46053</v>
-      </c>
-      <c r="C273" t="s">
-        <v>120</v>
-      </c>
-      <c r="D273" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
-        <v>19</v>
-      </c>
       <c r="B274">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C274" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D274" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>26</v>
+      </c>
+      <c r="B275">
+        <v>45665</v>
+      </c>
+      <c r="C275" t="s">
+        <v>118</v>
+      </c>
+      <c r="D275" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>7</v>
+      </c>
+      <c r="B276">
+        <v>45665</v>
+      </c>
+      <c r="C276" t="s">
+        <v>118</v>
+      </c>
+      <c r="D276" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>8</v>
+      </c>
+      <c r="B277">
+        <v>45134</v>
+      </c>
+      <c r="C277" t="s">
+        <v>119</v>
+      </c>
+      <c r="D277" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>10</v>
+      </c>
+      <c r="B278">
+        <v>45134</v>
+      </c>
+      <c r="C278" t="s">
+        <v>119</v>
+      </c>
+      <c r="D278" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>11</v>
+      </c>
+      <c r="B279">
+        <v>45134</v>
+      </c>
+      <c r="C279" t="s">
+        <v>119</v>
+      </c>
+      <c r="D279" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
-        <v>24</v>
-      </c>
-      <c r="B275">
-        <v>46053</v>
-      </c>
-      <c r="C275" t="s">
-        <v>120</v>
-      </c>
-      <c r="D275" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
-        <v>10</v>
-      </c>
-      <c r="B276">
-        <v>46053</v>
-      </c>
-      <c r="C276" t="s">
-        <v>120</v>
-      </c>
-      <c r="D276" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A277" t="s">
-        <v>11</v>
-      </c>
-      <c r="B277">
-        <v>46053</v>
-      </c>
-      <c r="C277" t="s">
-        <v>120</v>
-      </c>
-      <c r="D277" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
-        <v>9</v>
-      </c>
-      <c r="B278">
-        <v>46053</v>
-      </c>
-      <c r="C278" t="s">
-        <v>120</v>
-      </c>
-      <c r="D278" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
-        <v>14</v>
-      </c>
-      <c r="B279">
-        <v>46053</v>
-      </c>
-      <c r="C279" t="s">
-        <v>120</v>
-      </c>
-      <c r="D279" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B280">
-        <v>46053</v>
+        <v>45326</v>
       </c>
       <c r="C280" t="s">
         <v>120</v>
       </c>
       <c r="D280" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B281">
-        <v>46053</v>
+        <v>46052</v>
       </c>
       <c r="C281" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D281" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B282">
-        <v>46053</v>
+        <v>46052</v>
       </c>
       <c r="C282" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D282" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B283">
-        <v>46053</v>
+        <v>46052</v>
       </c>
       <c r="C283" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D283" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B284">
         <v>46053</v>
       </c>
       <c r="C284" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D284" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B285">
         <v>46053</v>
       </c>
       <c r="C285" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D285" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B286">
         <v>46053</v>
       </c>
       <c r="C286" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D286" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B287">
-        <v>46021</v>
+        <v>46053</v>
       </c>
       <c r="C287" t="s">
         <v>121</v>
       </c>
       <c r="D287" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B288">
-        <v>46021</v>
+        <v>46053</v>
       </c>
       <c r="C288" t="s">
         <v>121</v>
       </c>
       <c r="D288" t="s">
-        <v>157</v>
-      </c>
-      <c r="E288" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B289">
-        <v>45599</v>
+        <v>46053</v>
       </c>
       <c r="C289" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D289" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B290">
-        <v>45599</v>
+        <v>46053</v>
       </c>
       <c r="C290" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D290" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B291">
-        <v>45599</v>
+        <v>46053</v>
       </c>
       <c r="C291" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D291" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B292">
-        <v>45599</v>
+        <v>46053</v>
       </c>
       <c r="C292" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D292" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B293">
-        <v>45599</v>
+        <v>46053</v>
       </c>
       <c r="C293" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D293" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B294">
-        <v>45243</v>
+        <v>46053</v>
       </c>
       <c r="C294" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D294" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B295">
-        <v>45243</v>
+        <v>46053</v>
       </c>
       <c r="C295" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D295" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B296">
-        <v>45243</v>
+        <v>46053</v>
       </c>
       <c r="C296" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D296" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B297">
-        <v>45466</v>
+        <v>46053</v>
       </c>
       <c r="C297" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D297" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B298">
-        <v>45466</v>
+        <v>46053</v>
       </c>
       <c r="C298" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D298" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B299">
-        <v>45466</v>
+        <v>46053</v>
       </c>
       <c r="C299" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D299" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B300">
-        <v>45466</v>
+        <v>46053</v>
       </c>
       <c r="C300" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D300" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B301">
-        <v>45466</v>
+        <v>46021</v>
       </c>
       <c r="C301" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D301" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B302">
-        <v>45466</v>
+        <v>46021</v>
       </c>
       <c r="C302" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D302" t="s">
-        <v>162</v>
+        <v>158</v>
+      </c>
+      <c r="E302" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B303">
-        <v>45511</v>
+        <v>45599</v>
       </c>
       <c r="C303" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D303" t="s">
-        <v>156</v>
-      </c>
-      <c r="E303" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B304">
-        <v>45534</v>
+        <v>45599</v>
       </c>
       <c r="C304" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D304" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
@@ -5386,198 +5404,198 @@
         <v>9</v>
       </c>
       <c r="B305">
-        <v>45534</v>
+        <v>45599</v>
       </c>
       <c r="C305" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D305" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B306">
-        <v>45534</v>
+        <v>45599</v>
       </c>
       <c r="C306" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D306" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B307">
-        <v>45534</v>
+        <v>45599</v>
       </c>
       <c r="C307" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D307" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B308">
-        <v>45947</v>
+        <v>45243</v>
       </c>
       <c r="C308" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D308" t="s">
-        <v>156</v>
-      </c>
-      <c r="E308" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B309">
-        <v>45146</v>
+        <v>45243</v>
       </c>
       <c r="C309" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D309" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B310">
-        <v>45825</v>
+        <v>45243</v>
       </c>
       <c r="C310" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D310" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B311">
-        <v>45245</v>
+        <v>45466</v>
       </c>
       <c r="C311" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D311" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B312">
-        <v>45245</v>
+        <v>45466</v>
       </c>
       <c r="C312" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D312" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B313">
-        <v>45245</v>
+        <v>45466</v>
       </c>
       <c r="C313" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D313" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B314">
-        <v>45245</v>
+        <v>45466</v>
       </c>
       <c r="C314" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D314" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B315">
-        <v>46037</v>
+        <v>45466</v>
       </c>
       <c r="C315" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D315" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B316">
-        <v>45535</v>
+        <v>45466</v>
       </c>
       <c r="C316" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D316" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B317">
-        <v>45535</v>
+        <v>45466</v>
       </c>
       <c r="C317" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D317" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B318">
-        <v>40207</v>
+        <v>45511</v>
       </c>
       <c r="C318" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D318" t="s">
-        <v>164</v>
+        <v>157</v>
+      </c>
+      <c r="E318" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
@@ -5585,44 +5603,41 @@
         <v>9</v>
       </c>
       <c r="B319">
-        <v>40207</v>
+        <v>45534</v>
       </c>
       <c r="C319" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D319" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B320">
-        <v>46096</v>
+        <v>45534</v>
       </c>
       <c r="C320" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D320" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B321">
-        <v>45247</v>
+        <v>45534</v>
       </c>
       <c r="C321" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D321" t="s">
-        <v>156</v>
-      </c>
-      <c r="E321" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
@@ -5630,122 +5645,125 @@
         <v>11</v>
       </c>
       <c r="B322">
-        <v>45570</v>
+        <v>45534</v>
       </c>
       <c r="C322" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D322" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B323">
-        <v>45570</v>
+        <v>45947</v>
       </c>
       <c r="C323" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D323" t="s">
         <v>157</v>
+      </c>
+      <c r="E323" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B324">
-        <v>45570</v>
+        <v>45146</v>
       </c>
       <c r="C324" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D324" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B325">
-        <v>45570</v>
+        <v>45825</v>
       </c>
       <c r="C325" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D325" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B326">
-        <v>45611</v>
+        <v>45245</v>
       </c>
       <c r="C326" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D326" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B327">
-        <v>45611</v>
+        <v>45245</v>
       </c>
       <c r="C327" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D327" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B328">
-        <v>45611</v>
+        <v>45245</v>
       </c>
       <c r="C328" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D328" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B329">
-        <v>45442</v>
+        <v>45245</v>
       </c>
       <c r="C329" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D329" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B330">
-        <v>45442</v>
+        <v>46037</v>
       </c>
       <c r="C330" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D330" t="s">
         <v>157</v>
@@ -5753,366 +5771,369 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B331">
-        <v>45442</v>
+        <v>45535</v>
       </c>
       <c r="C331" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D331" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B332">
-        <v>37111</v>
+        <v>45535</v>
       </c>
       <c r="C332" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D332" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B333">
-        <v>46095</v>
+        <v>40207</v>
       </c>
       <c r="C333" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D333" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B334">
-        <v>46095</v>
+        <v>40207</v>
       </c>
       <c r="C334" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D334" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B335">
-        <v>46095</v>
+        <v>46096</v>
       </c>
       <c r="C335" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D335" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
+        <v>23</v>
+      </c>
+      <c r="B336">
+        <v>45247</v>
+      </c>
+      <c r="C336" t="s">
+        <v>136</v>
+      </c>
+      <c r="D336" t="s">
+        <v>157</v>
+      </c>
+      <c r="E336" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>12</v>
+      </c>
+      <c r="B337">
+        <v>45570</v>
+      </c>
+      <c r="C337" t="s">
+        <v>137</v>
+      </c>
+      <c r="D337" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>14</v>
+      </c>
+      <c r="B338">
+        <v>45570</v>
+      </c>
+      <c r="C338" t="s">
+        <v>137</v>
+      </c>
+      <c r="D338" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>16</v>
+      </c>
+      <c r="B339">
+        <v>45570</v>
+      </c>
+      <c r="C339" t="s">
+        <v>137</v>
+      </c>
+      <c r="D339" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>21</v>
+      </c>
+      <c r="B340">
+        <v>45570</v>
+      </c>
+      <c r="C340" t="s">
+        <v>137</v>
+      </c>
+      <c r="D340" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>14</v>
+      </c>
+      <c r="B341">
+        <v>45611</v>
+      </c>
+      <c r="C341" t="s">
+        <v>138</v>
+      </c>
+      <c r="D341" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>12</v>
+      </c>
+      <c r="B342">
+        <v>45611</v>
+      </c>
+      <c r="C342" t="s">
+        <v>138</v>
+      </c>
+      <c r="D342" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>25</v>
+      </c>
+      <c r="B343">
+        <v>45611</v>
+      </c>
+      <c r="C343" t="s">
+        <v>138</v>
+      </c>
+      <c r="D343" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>8</v>
+      </c>
+      <c r="B344">
+        <v>45442</v>
+      </c>
+      <c r="C344" t="s">
+        <v>139</v>
+      </c>
+      <c r="D344" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>8</v>
+      </c>
+      <c r="B345">
+        <v>45442</v>
+      </c>
+      <c r="C345" t="s">
+        <v>139</v>
+      </c>
+      <c r="D345" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>23</v>
+      </c>
+      <c r="B346">
+        <v>45442</v>
+      </c>
+      <c r="C346" t="s">
+        <v>139</v>
+      </c>
+      <c r="D346" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>5</v>
+      </c>
+      <c r="B347">
+        <v>37111</v>
+      </c>
+      <c r="C347" t="s">
+        <v>140</v>
+      </c>
+      <c r="D347" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>14</v>
+      </c>
+      <c r="B348">
+        <v>46095</v>
+      </c>
+      <c r="C348" t="s">
+        <v>141</v>
+      </c>
+      <c r="D348" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
         <v>11</v>
       </c>
-      <c r="B336">
+      <c r="B349">
         <v>46095</v>
       </c>
-      <c r="C336" t="s">
-        <v>140</v>
-      </c>
-      <c r="D336" t="s">
+      <c r="C349" t="s">
+        <v>141</v>
+      </c>
+      <c r="D349" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>21</v>
+      </c>
+      <c r="B350">
+        <v>46095</v>
+      </c>
+      <c r="C350" t="s">
+        <v>141</v>
+      </c>
+      <c r="D350" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A337" t="s">
-        <v>24</v>
-      </c>
-      <c r="B337">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>12</v>
+      </c>
+      <c r="B351">
         <v>46095</v>
       </c>
-      <c r="C337" t="s">
-        <v>140</v>
-      </c>
-      <c r="D337" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A338" t="s">
-        <v>12</v>
-      </c>
-      <c r="B338">
+      <c r="C351" t="s">
+        <v>141</v>
+      </c>
+      <c r="D351" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>25</v>
+      </c>
+      <c r="B352">
         <v>46095</v>
       </c>
-      <c r="C338" t="s">
-        <v>140</v>
-      </c>
-      <c r="D338" t="s">
+      <c r="C352" t="s">
+        <v>141</v>
+      </c>
+      <c r="D352" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A339" t="s">
-        <v>19</v>
-      </c>
-      <c r="B339">
-        <v>45703</v>
-      </c>
-      <c r="C339" t="s">
-        <v>141</v>
-      </c>
-      <c r="D339" t="s">
-        <v>156</v>
-      </c>
-      <c r="E339" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A340" t="s">
-        <v>19</v>
-      </c>
-      <c r="B340">
-        <v>45616</v>
-      </c>
-      <c r="C340" t="s">
-        <v>142</v>
-      </c>
-      <c r="D340" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A341" t="s">
-        <v>23</v>
-      </c>
-      <c r="B341">
-        <v>46050</v>
-      </c>
-      <c r="C341" t="s">
-        <v>143</v>
-      </c>
-      <c r="D341" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A342" t="s">
-        <v>25</v>
-      </c>
-      <c r="B342">
-        <v>45620</v>
-      </c>
-      <c r="C342" t="s">
-        <v>144</v>
-      </c>
-      <c r="D342" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A343" t="s">
-        <v>6</v>
-      </c>
-      <c r="B343">
-        <v>45620</v>
-      </c>
-      <c r="C343" t="s">
-        <v>144</v>
-      </c>
-      <c r="D343" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A344" t="s">
-        <v>16</v>
-      </c>
-      <c r="B344">
-        <v>45620</v>
-      </c>
-      <c r="C344" t="s">
-        <v>144</v>
-      </c>
-      <c r="D344" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A345" t="s">
-        <v>17</v>
-      </c>
-      <c r="B345">
-        <v>45620</v>
-      </c>
-      <c r="C345" t="s">
-        <v>144</v>
-      </c>
-      <c r="D345" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A346" t="s">
-        <v>18</v>
-      </c>
-      <c r="B346">
-        <v>45620</v>
-      </c>
-      <c r="C346" t="s">
-        <v>144</v>
-      </c>
-      <c r="D346" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A347" t="s">
-        <v>26</v>
-      </c>
-      <c r="B347">
-        <v>45620</v>
-      </c>
-      <c r="C347" t="s">
-        <v>144</v>
-      </c>
-      <c r="D347" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A348" t="s">
-        <v>26</v>
-      </c>
-      <c r="B348">
-        <v>45619</v>
-      </c>
-      <c r="C348" t="s">
-        <v>145</v>
-      </c>
-      <c r="D348" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A349" t="s">
-        <v>16</v>
-      </c>
-      <c r="B349">
-        <v>45619</v>
-      </c>
-      <c r="C349" t="s">
-        <v>145</v>
-      </c>
-      <c r="D349" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A350" t="s">
-        <v>25</v>
-      </c>
-      <c r="B350">
-        <v>45619</v>
-      </c>
-      <c r="C350" t="s">
-        <v>145</v>
-      </c>
-      <c r="D350" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A351" t="s">
-        <v>18</v>
-      </c>
-      <c r="B351">
-        <v>45619</v>
-      </c>
-      <c r="C351" t="s">
-        <v>145</v>
-      </c>
-      <c r="D351" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A352" t="s">
-        <v>6</v>
-      </c>
-      <c r="B352">
-        <v>45619</v>
-      </c>
-      <c r="C352" t="s">
-        <v>145</v>
-      </c>
-      <c r="D352" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B353">
-        <v>45619</v>
+        <v>46095</v>
       </c>
       <c r="C353" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D353" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B354">
-        <v>45989</v>
+        <v>45703</v>
       </c>
       <c r="C354" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D354" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="E354" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B355">
-        <v>45496</v>
+        <v>45616</v>
       </c>
       <c r="C355" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D355" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B356">
-        <v>45496</v>
+        <v>46050</v>
       </c>
       <c r="C356" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D356" t="s">
         <v>157</v>
@@ -6120,204 +6141,442 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B357">
-        <v>45561</v>
+        <v>45620</v>
       </c>
       <c r="C357" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D357" t="s">
-        <v>160</v>
-      </c>
-      <c r="E357" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B358">
-        <v>45537</v>
+        <v>45620</v>
       </c>
       <c r="C358" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D358" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B359">
-        <v>45537</v>
+        <v>45620</v>
       </c>
       <c r="C359" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D359" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B360">
-        <v>45296</v>
+        <v>45620</v>
       </c>
       <c r="C360" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D360" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B361">
-        <v>45296</v>
+        <v>45620</v>
       </c>
       <c r="C361" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D361" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B362">
-        <v>45137</v>
+        <v>45620</v>
       </c>
       <c r="C362" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D362" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B363">
-        <v>45519</v>
+        <v>45620</v>
       </c>
       <c r="C363" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D363" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B364">
-        <v>45516</v>
+        <v>45619</v>
       </c>
       <c r="C364" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D364" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B365">
-        <v>45516</v>
+        <v>45619</v>
       </c>
       <c r="C365" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D365" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B366">
-        <v>45516</v>
+        <v>45619</v>
       </c>
       <c r="C366" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D366" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B367">
-        <v>45516</v>
+        <v>45619</v>
       </c>
       <c r="C367" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D367" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B368">
-        <v>45472</v>
+        <v>45619</v>
       </c>
       <c r="C368" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D368" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B369">
-        <v>45472</v>
+        <v>45619</v>
       </c>
       <c r="C369" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D369" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
+        <v>7</v>
+      </c>
+      <c r="B370">
+        <v>45619</v>
+      </c>
+      <c r="C370" t="s">
+        <v>146</v>
+      </c>
+      <c r="D370" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>15</v>
+      </c>
+      <c r="B371">
+        <v>45989</v>
+      </c>
+      <c r="C371" t="s">
+        <v>147</v>
+      </c>
+      <c r="D371" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>23</v>
+      </c>
+      <c r="B372">
+        <v>45496</v>
+      </c>
+      <c r="C372" t="s">
+        <v>148</v>
+      </c>
+      <c r="D372" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>22</v>
+      </c>
+      <c r="B373">
+        <v>45496</v>
+      </c>
+      <c r="C373" t="s">
+        <v>148</v>
+      </c>
+      <c r="D373" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
         <v>5</v>
       </c>
-      <c r="B370">
+      <c r="B374">
+        <v>45561</v>
+      </c>
+      <c r="C374" t="s">
+        <v>149</v>
+      </c>
+      <c r="D374" t="s">
+        <v>161</v>
+      </c>
+      <c r="E374" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>27</v>
+      </c>
+      <c r="B375">
+        <v>45537</v>
+      </c>
+      <c r="C375" t="s">
+        <v>150</v>
+      </c>
+      <c r="D375" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>26</v>
+      </c>
+      <c r="B376">
+        <v>45537</v>
+      </c>
+      <c r="C376" t="s">
+        <v>150</v>
+      </c>
+      <c r="D376" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>9</v>
+      </c>
+      <c r="B377">
+        <v>45296</v>
+      </c>
+      <c r="C377" t="s">
+        <v>151</v>
+      </c>
+      <c r="D377" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>25</v>
+      </c>
+      <c r="B378">
+        <v>45296</v>
+      </c>
+      <c r="C378" t="s">
+        <v>151</v>
+      </c>
+      <c r="D378" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>23</v>
+      </c>
+      <c r="B379">
+        <v>45137</v>
+      </c>
+      <c r="C379" t="s">
+        <v>152</v>
+      </c>
+      <c r="D379" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>20</v>
+      </c>
+      <c r="B380">
+        <v>45519</v>
+      </c>
+      <c r="C380" t="s">
+        <v>153</v>
+      </c>
+      <c r="D380" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>25</v>
+      </c>
+      <c r="B381">
+        <v>45516</v>
+      </c>
+      <c r="C381" t="s">
+        <v>154</v>
+      </c>
+      <c r="D381" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>11</v>
+      </c>
+      <c r="B382">
+        <v>45516</v>
+      </c>
+      <c r="C382" t="s">
+        <v>154</v>
+      </c>
+      <c r="D382" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>25</v>
+      </c>
+      <c r="B383">
+        <v>45516</v>
+      </c>
+      <c r="C383" t="s">
+        <v>154</v>
+      </c>
+      <c r="D383" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>9</v>
+      </c>
+      <c r="B384">
+        <v>45516</v>
+      </c>
+      <c r="C384" t="s">
+        <v>154</v>
+      </c>
+      <c r="D384" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>11</v>
+      </c>
+      <c r="B385">
+        <v>45472</v>
+      </c>
+      <c r="C385" t="s">
+        <v>155</v>
+      </c>
+      <c r="D385" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>8</v>
+      </c>
+      <c r="B386">
+        <v>45472</v>
+      </c>
+      <c r="C386" t="s">
+        <v>155</v>
+      </c>
+      <c r="D386" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>5</v>
+      </c>
+      <c r="B387">
         <v>45470</v>
       </c>
-      <c r="C370" t="s">
-        <v>155</v>
-      </c>
-      <c r="D370" t="s">
+      <c r="C387" t="s">
         <v>156</v>
       </c>
-      <c r="E370" t="s">
-        <v>176</v>
+      <c r="D387" t="s">
+        <v>157</v>
+      </c>
+      <c r="E387" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Scripts\Divide-BiS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3161BDB9-0698-451D-96AD-677497A78815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B388762-2B2E-4A60-897C-AF2B63FEF2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -963,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1550,7 +1550,7 @@
         <v>157</v>
       </c>
       <c r="E40" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1649,7 +1649,7 @@
         <v>159</v>
       </c>
       <c r="E46" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -2207,7 +2207,7 @@
         <v>157</v>
       </c>
       <c r="E85" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -2224,7 +2224,7 @@
         <v>158</v>
       </c>
       <c r="E86" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -2289,7 +2289,7 @@
         <v>158</v>
       </c>
       <c r="E90" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -2323,7 +2323,7 @@
         <v>157</v>
       </c>
       <c r="E92" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -2374,7 +2374,7 @@
         <v>160</v>
       </c>
       <c r="E95" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Scripts\Divide-BiS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B388762-2B2E-4A60-897C-AF2B63FEF2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F19F092-FE94-4672-B072-083C7EA975EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="185">
   <si>
     <t>player</t>
   </si>
@@ -58,6 +58,9 @@
     <t>Veremos</t>
   </si>
   <si>
+    <t>Dkfëîné</t>
+  </si>
+  <si>
     <t>Csamain</t>
   </si>
   <si>
@@ -427,6 +430,9 @@
     <t>Sigil of Awareness</t>
   </si>
   <si>
+    <t>Sigil of the Vengeful Heart</t>
+  </si>
+  <si>
     <t>Signet of Soft Lament</t>
   </si>
   <si>
@@ -463,6 +469,9 @@
     <t>Starwatcher's Binding</t>
   </si>
   <si>
+    <t>Strength of the Heavens</t>
+  </si>
+  <si>
     <t>Tempered Mercury Greaves</t>
   </si>
   <si>
@@ -484,6 +493,9 @@
     <t>Vestments of the Blind Denizen</t>
   </si>
   <si>
+    <t>Void Sabre</t>
+  </si>
+  <si>
     <t>Voldrethar, Dark Blade of Oblivion</t>
   </si>
   <si>
@@ -505,12 +517,12 @@
     <t>4</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>Craft</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -551,6 +563,9 @@
   </si>
   <si>
     <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
   <si>
     <t>Emblems of Conquest</t>
@@ -961,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E387"/>
+  <dimension ref="A1:E404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
+      <selection activeCell="E349" sqref="E349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -994,10 +1009,10 @@
         <v>46035</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1008,10 +1023,10 @@
         <v>46068</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1022,10 +1037,10 @@
         <v>46068</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1036,10 +1051,10 @@
         <v>45663</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1050,10 +1065,10 @@
         <v>45663</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1064,10 +1079,10 @@
         <v>45663</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1078,10 +1093,10 @@
         <v>45663</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1089,13 +1104,13 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>46048</v>
+        <v>45663</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1106,10 +1121,10 @@
         <v>46048</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1120,114 +1135,111 @@
         <v>46048</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>45241</v>
+        <v>46048</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>45241</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>45241</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B15">
-        <v>45553</v>
+        <v>45241</v>
       </c>
       <c r="C15" t="s">
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>161</v>
-      </c>
-      <c r="E15" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>45467</v>
+        <v>45241</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>45151</v>
+        <v>45553</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E17" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1235,139 +1247,142 @@
         <v>5</v>
       </c>
       <c r="B19">
-        <v>45460</v>
+        <v>45151</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>158</v>
+        <v>161</v>
+      </c>
+      <c r="E19" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B20">
-        <v>45484</v>
+        <v>45460</v>
       </c>
       <c r="C20" t="s">
         <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B21">
-        <v>45484</v>
+        <v>45460</v>
       </c>
       <c r="C21" t="s">
         <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22">
         <v>45484</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B23">
-        <v>45135</v>
+        <v>45484</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B24">
-        <v>45135</v>
+        <v>45484</v>
       </c>
       <c r="C24" t="s">
         <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B25">
         <v>45135</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26">
         <v>45135</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27">
         <v>45135</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B28">
         <v>45135</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1375,598 +1390,601 @@
         <v>21</v>
       </c>
       <c r="B29">
-        <v>45610</v>
+        <v>45135</v>
       </c>
       <c r="C29" t="s">
         <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B30">
-        <v>45610</v>
+        <v>45135</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B31">
         <v>45610</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B32">
-        <v>45445</v>
+        <v>45610</v>
       </c>
       <c r="C32" t="s">
         <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B33">
-        <v>46039</v>
+        <v>45610</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B34">
-        <v>46039</v>
+        <v>45445</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B35">
-        <v>45632</v>
+        <v>46039</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>157</v>
-      </c>
-      <c r="E35" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B36">
-        <v>45632</v>
+        <v>46039</v>
       </c>
       <c r="C36" t="s">
         <v>42</v>
       </c>
       <c r="D36" t="s">
-        <v>158</v>
-      </c>
-      <c r="E36" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B37">
         <v>45632</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D37" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E37" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B38">
         <v>45632</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D38" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="E38" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B39">
         <v>45632</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D39" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E39" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B40">
-        <v>45633</v>
+        <v>45632</v>
       </c>
       <c r="C40" t="s">
         <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>157</v>
-      </c>
-      <c r="E40" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B41">
-        <v>45633</v>
+        <v>45632</v>
       </c>
       <c r="C41" t="s">
         <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E41" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B42">
         <v>45633</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D42" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E42" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B43">
         <v>45633</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D43" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="E43" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B44">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C44" t="s">
         <v>44</v>
       </c>
       <c r="D44" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E44" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B45">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C45" t="s">
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>158</v>
-      </c>
-      <c r="E45" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B46">
         <v>45634</v>
       </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E46" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B47">
         <v>45634</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E47" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B48">
         <v>45634</v>
       </c>
       <c r="C48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D48" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E48" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B49">
-        <v>45485</v>
+        <v>45634</v>
       </c>
       <c r="C49" t="s">
         <v>45</v>
       </c>
       <c r="D49" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+      <c r="E49" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B50">
-        <v>45485</v>
+        <v>45634</v>
       </c>
       <c r="C50" t="s">
         <v>45</v>
       </c>
       <c r="D50" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+      <c r="E50" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B51">
-        <v>45587</v>
+        <v>45634</v>
       </c>
       <c r="C51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D51" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="E51" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B52">
-        <v>45587</v>
+        <v>45485</v>
       </c>
       <c r="C52" t="s">
         <v>46</v>
       </c>
       <c r="D52" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B53">
-        <v>46097</v>
+        <v>45485</v>
       </c>
       <c r="C53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D53" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B54">
-        <v>46097</v>
+        <v>45587</v>
       </c>
       <c r="C54" t="s">
         <v>47</v>
       </c>
       <c r="D54" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B55">
-        <v>46097</v>
+        <v>45587</v>
       </c>
       <c r="C55" t="s">
         <v>47</v>
       </c>
       <c r="D55" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B56">
-        <v>45443</v>
+        <v>46097</v>
       </c>
       <c r="C56" t="s">
         <v>48</v>
       </c>
       <c r="D56" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B57">
-        <v>45609</v>
+        <v>46097</v>
       </c>
       <c r="C57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D57" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B58">
-        <v>45609</v>
+        <v>46097</v>
       </c>
       <c r="C58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B59">
-        <v>45609</v>
+        <v>46097</v>
       </c>
       <c r="C59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D59" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B60">
-        <v>45609</v>
+        <v>45443</v>
       </c>
       <c r="C60" t="s">
         <v>49</v>
       </c>
       <c r="D60" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B61">
         <v>45609</v>
       </c>
       <c r="C61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D61" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B62">
         <v>45609</v>
       </c>
       <c r="C62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D62" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B63">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C63" t="s">
         <v>50</v>
       </c>
       <c r="D63" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B64">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C64" t="s">
         <v>50</v>
       </c>
       <c r="D64" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B65">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C65" t="s">
         <v>50</v>
       </c>
       <c r="D65" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B66">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C66" t="s">
         <v>50</v>
       </c>
       <c r="D66" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B67">
-        <v>45495</v>
+        <v>45609</v>
       </c>
       <c r="C67" t="s">
         <v>50</v>
       </c>
       <c r="D67" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B68">
         <v>45495</v>
       </c>
       <c r="C68" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D68" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -1974,116 +1992,116 @@
         <v>45495</v>
       </c>
       <c r="C69" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D69" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B70">
         <v>45495</v>
       </c>
       <c r="C70" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D70" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B71">
-        <v>45612</v>
+        <v>45495</v>
       </c>
       <c r="C71" t="s">
         <v>51</v>
       </c>
       <c r="D71" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B72">
-        <v>45612</v>
+        <v>45495</v>
       </c>
       <c r="C72" t="s">
         <v>51</v>
       </c>
       <c r="D72" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B73">
-        <v>45617</v>
+        <v>45495</v>
       </c>
       <c r="C73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D73" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B74">
-        <v>45617</v>
+        <v>45495</v>
       </c>
       <c r="C74" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D74" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B75">
-        <v>45617</v>
+        <v>45495</v>
       </c>
       <c r="C75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D75" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B76">
-        <v>45617</v>
+        <v>45612</v>
       </c>
       <c r="C76" t="s">
         <v>52</v>
       </c>
       <c r="D76" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B77">
-        <v>45617</v>
+        <v>45612</v>
       </c>
       <c r="C77" t="s">
         <v>52</v>
@@ -2092,91 +2110,88 @@
         <v>162</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B78">
         <v>45617</v>
       </c>
       <c r="C78" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D78" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B79">
         <v>45617</v>
       </c>
       <c r="C79" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D79" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B80">
-        <v>45250</v>
+        <v>45617</v>
       </c>
       <c r="C80" t="s">
         <v>53</v>
       </c>
       <c r="D80" t="s">
-        <v>157</v>
-      </c>
-      <c r="E80" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B81">
-        <v>45497</v>
+        <v>45617</v>
       </c>
       <c r="C81" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D81" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B82">
-        <v>45497</v>
+        <v>45617</v>
       </c>
       <c r="C82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D82" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B83">
-        <v>45497</v>
+        <v>45617</v>
       </c>
       <c r="C83" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D83" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -2184,205 +2199,193 @@
         <v>7</v>
       </c>
       <c r="B84">
-        <v>45497</v>
+        <v>45617</v>
       </c>
       <c r="C84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D84" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B85">
-        <v>45638</v>
+        <v>45250</v>
       </c>
       <c r="C85" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D85" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E85" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B86">
-        <v>45638</v>
+        <v>45250</v>
       </c>
       <c r="C86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D86" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E86" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B87">
-        <v>45638</v>
+        <v>45497</v>
       </c>
       <c r="C87" t="s">
         <v>55</v>
       </c>
       <c r="D87" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B88">
-        <v>45638</v>
+        <v>45497</v>
       </c>
       <c r="C88" t="s">
         <v>55</v>
       </c>
       <c r="D88" t="s">
-        <v>160</v>
-      </c>
-      <c r="E88" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B89">
-        <v>45639</v>
+        <v>45497</v>
       </c>
       <c r="C89" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D89" t="s">
-        <v>157</v>
-      </c>
-      <c r="E89" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B90">
-        <v>45639</v>
+        <v>45497</v>
       </c>
       <c r="C90" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D90" t="s">
-        <v>158</v>
-      </c>
-      <c r="E90" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B91">
-        <v>45639</v>
+        <v>45638</v>
       </c>
       <c r="C91" t="s">
         <v>56</v>
       </c>
       <c r="D91" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B92">
-        <v>45640</v>
+        <v>45638</v>
       </c>
       <c r="C92" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D92" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B93">
-        <v>45640</v>
+        <v>45638</v>
       </c>
       <c r="C93" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D93" t="s">
-        <v>158</v>
-      </c>
-      <c r="E93" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B94">
-        <v>45640</v>
+        <v>45638</v>
       </c>
       <c r="C94" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D94" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E94" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B95">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="C95" t="s">
         <v>57</v>
       </c>
       <c r="D95" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E95" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B96">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="C96" t="s">
         <v>57</v>
@@ -2390,13 +2393,16 @@
       <c r="D96" t="s">
         <v>162</v>
       </c>
+      <c r="E96" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B97">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="C97" t="s">
         <v>57</v>
@@ -2405,63 +2411,75 @@
         <v>163</v>
       </c>
       <c r="E97" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B98">
-        <v>46038</v>
+        <v>45640</v>
       </c>
       <c r="C98" t="s">
         <v>58</v>
       </c>
       <c r="D98" t="s">
-        <v>157</v>
+        <v>161</v>
+      </c>
+      <c r="E98" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B99">
-        <v>46038</v>
+        <v>45640</v>
       </c>
       <c r="C99" t="s">
         <v>58</v>
       </c>
       <c r="D99" t="s">
-        <v>158</v>
+        <v>162</v>
+      </c>
+      <c r="E99" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B100">
-        <v>46038</v>
+        <v>45640</v>
       </c>
       <c r="C100" t="s">
         <v>58</v>
       </c>
       <c r="D100" t="s">
-        <v>159</v>
+        <v>163</v>
+      </c>
+      <c r="E100" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B101">
-        <v>46038</v>
+        <v>45640</v>
       </c>
       <c r="C101" t="s">
         <v>58</v>
       </c>
       <c r="D101" t="s">
-        <v>160</v>
+        <v>164</v>
+      </c>
+      <c r="E101" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -2469,114 +2487,114 @@
         <v>14</v>
       </c>
       <c r="B102">
-        <v>46038</v>
+        <v>45640</v>
       </c>
       <c r="C102" t="s">
         <v>58</v>
       </c>
       <c r="D102" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B103">
-        <v>46038</v>
+        <v>45640</v>
       </c>
       <c r="C103" t="s">
         <v>58</v>
       </c>
       <c r="D103" t="s">
-        <v>163</v>
+        <v>167</v>
+      </c>
+      <c r="E103" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B104">
-        <v>42987</v>
+        <v>46038</v>
       </c>
       <c r="C104" t="s">
         <v>59</v>
       </c>
       <c r="D104" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B105">
-        <v>42987</v>
+        <v>46038</v>
       </c>
       <c r="C105" t="s">
         <v>59</v>
       </c>
       <c r="D105" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B106">
-        <v>42987</v>
+        <v>46038</v>
       </c>
       <c r="C106" t="s">
         <v>59</v>
       </c>
       <c r="D106" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B107">
-        <v>42987</v>
+        <v>46038</v>
       </c>
       <c r="C107" t="s">
         <v>59</v>
       </c>
       <c r="D107" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B108">
-        <v>44253</v>
+        <v>46038</v>
       </c>
       <c r="C108" t="s">
         <v>59</v>
       </c>
       <c r="D108" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B109">
-        <v>45139</v>
+        <v>46038</v>
       </c>
       <c r="C109" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D109" t="s">
-        <v>157</v>
-      </c>
-      <c r="E109" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -2584,304 +2602,307 @@
         <v>12</v>
       </c>
       <c r="B110">
-        <v>45461</v>
+        <v>42987</v>
       </c>
       <c r="C110" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D110" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B111">
-        <v>45461</v>
+        <v>42987</v>
       </c>
       <c r="C111" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D111" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112">
+        <v>42987</v>
+      </c>
+      <c r="C112" t="s">
+        <v>60</v>
+      </c>
+      <c r="D112" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113">
+        <v>42987</v>
+      </c>
+      <c r="C113" t="s">
+        <v>60</v>
+      </c>
+      <c r="D113" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>11</v>
       </c>
-      <c r="B112">
-        <v>45461</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="B114">
+        <v>42987</v>
+      </c>
+      <c r="C114" t="s">
+        <v>60</v>
+      </c>
+      <c r="D114" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>22</v>
+      </c>
+      <c r="B115">
+        <v>44253</v>
+      </c>
+      <c r="C115" t="s">
+        <v>60</v>
+      </c>
+      <c r="D115" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>24</v>
+      </c>
+      <c r="B116">
+        <v>45139</v>
+      </c>
+      <c r="C116" t="s">
         <v>61</v>
       </c>
-      <c r="D112" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>15</v>
-      </c>
-      <c r="B113">
-        <v>45461</v>
-      </c>
-      <c r="C113" t="s">
-        <v>61</v>
-      </c>
-      <c r="D113" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>26</v>
-      </c>
-      <c r="B114">
-        <v>45242</v>
-      </c>
-      <c r="C114" t="s">
-        <v>62</v>
-      </c>
-      <c r="D114" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>27</v>
-      </c>
-      <c r="B115">
-        <v>45242</v>
-      </c>
-      <c r="C115" t="s">
-        <v>62</v>
-      </c>
-      <c r="D115" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>17</v>
-      </c>
-      <c r="B116">
-        <v>45242</v>
-      </c>
-      <c r="C116" t="s">
-        <v>62</v>
-      </c>
       <c r="D116" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="E116" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>13</v>
       </c>
       <c r="B117">
-        <v>46032</v>
+        <v>45461</v>
       </c>
       <c r="C117" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D117" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B118">
-        <v>46032</v>
+        <v>45461</v>
       </c>
       <c r="C118" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D118" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B119">
-        <v>46032</v>
+        <v>45461</v>
       </c>
       <c r="C119" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D119" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B120">
-        <v>46032</v>
+        <v>45461</v>
       </c>
       <c r="C120" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D120" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B121">
-        <v>46032</v>
+        <v>45242</v>
       </c>
       <c r="C121" t="s">
         <v>63</v>
       </c>
       <c r="D121" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B122">
-        <v>46032</v>
+        <v>45242</v>
       </c>
       <c r="C122" t="s">
         <v>63</v>
       </c>
       <c r="D122" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>18</v>
+      </c>
+      <c r="B123">
+        <v>45242</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>24</v>
-      </c>
-      <c r="B123">
-        <v>45486</v>
-      </c>
-      <c r="C123" t="s">
-        <v>64</v>
-      </c>
-      <c r="D123" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B124">
-        <v>45486</v>
+        <v>46032</v>
       </c>
       <c r="C124" t="s">
         <v>64</v>
       </c>
       <c r="D124" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B125">
-        <v>45613</v>
+        <v>46032</v>
       </c>
       <c r="C125" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D125" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B126">
-        <v>45613</v>
+        <v>46032</v>
       </c>
       <c r="C126" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D126" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B127">
-        <v>45473</v>
+        <v>46032</v>
       </c>
       <c r="C127" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D127" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B128">
-        <v>45473</v>
+        <v>46032</v>
       </c>
       <c r="C128" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D128" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B129">
-        <v>45473</v>
+        <v>46032</v>
       </c>
       <c r="C129" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D129" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B130">
-        <v>45473</v>
+        <v>45486</v>
       </c>
       <c r="C130" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D130" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B131">
-        <v>45473</v>
+        <v>45486</v>
       </c>
       <c r="C131" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D131" t="s">
         <v>162</v>
@@ -2889,339 +2910,330 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B132">
-        <v>45119</v>
+        <v>45613</v>
       </c>
       <c r="C132" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D132" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B133">
-        <v>45471</v>
+        <v>45613</v>
       </c>
       <c r="C133" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D133" t="s">
-        <v>157</v>
-      </c>
-      <c r="E133" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B134">
-        <v>45471</v>
+        <v>45473</v>
       </c>
       <c r="C134" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D134" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B135">
-        <v>45946</v>
+        <v>45473</v>
       </c>
       <c r="C135" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D135" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B136">
-        <v>45946</v>
+        <v>45473</v>
       </c>
       <c r="C136" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D136" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B137">
-        <v>45946</v>
+        <v>45473</v>
       </c>
       <c r="C137" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D137" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B138">
-        <v>45518</v>
+        <v>45473</v>
       </c>
       <c r="C138" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D138" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B139">
-        <v>45518</v>
+        <v>45119</v>
       </c>
       <c r="C139" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D139" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B140">
-        <v>45518</v>
+        <v>45471</v>
       </c>
       <c r="C140" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D140" t="s">
-        <v>159</v>
+        <v>161</v>
+      </c>
+      <c r="E140" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B141">
-        <v>45518</v>
+        <v>45471</v>
       </c>
       <c r="C141" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D141" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B142">
-        <v>45518</v>
+        <v>45946</v>
       </c>
       <c r="C142" t="s">
         <v>70</v>
       </c>
       <c r="D142" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B143">
-        <v>45518</v>
+        <v>45946</v>
       </c>
       <c r="C143" t="s">
         <v>70</v>
       </c>
       <c r="D143" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B144">
-        <v>45518</v>
+        <v>45946</v>
       </c>
       <c r="C144" t="s">
         <v>70</v>
       </c>
       <c r="D144" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B145">
-        <v>45869</v>
+        <v>45518</v>
       </c>
       <c r="C145" t="s">
         <v>71</v>
       </c>
       <c r="D145" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B146">
-        <v>45869</v>
+        <v>45518</v>
       </c>
       <c r="C146" t="s">
         <v>71</v>
       </c>
       <c r="D146" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B147">
-        <v>45564</v>
+        <v>45518</v>
       </c>
       <c r="C147" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D147" t="s">
-        <v>161</v>
-      </c>
-      <c r="E147" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B148">
-        <v>45564</v>
+        <v>45518</v>
       </c>
       <c r="C148" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D148" t="s">
-        <v>161</v>
-      </c>
-      <c r="E148" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B149">
-        <v>45564</v>
+        <v>45518</v>
       </c>
       <c r="C149" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D149" t="s">
-        <v>161</v>
-      </c>
-      <c r="E149" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B150">
-        <v>45459</v>
+        <v>45518</v>
       </c>
       <c r="C150" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D150" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B151">
-        <v>45459</v>
+        <v>45518</v>
       </c>
       <c r="C151" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D151" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B152">
-        <v>45459</v>
+        <v>45869</v>
       </c>
       <c r="C152" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D152" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B153">
-        <v>45454</v>
+        <v>45869</v>
       </c>
       <c r="C153" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D153" t="s">
-        <v>157</v>
-      </c>
-      <c r="E153" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B154">
-        <v>42853</v>
+        <v>45564</v>
       </c>
       <c r="C154" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D154" t="s">
-        <v>167</v>
+        <v>166</v>
+      </c>
+      <c r="E154" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -3229,143 +3241,137 @@
         <v>15</v>
       </c>
       <c r="B155">
-        <v>42608</v>
+        <v>45564</v>
       </c>
       <c r="C155" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D155" t="s">
-        <v>167</v>
+        <v>166</v>
+      </c>
+      <c r="E155" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B156">
-        <v>45481</v>
+        <v>45564</v>
       </c>
       <c r="C156" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D156" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E156" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B157">
-        <v>45641</v>
+        <v>45459</v>
       </c>
       <c r="C157" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D157" t="s">
-        <v>157</v>
-      </c>
-      <c r="E157" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B158">
-        <v>45642</v>
+        <v>45459</v>
       </c>
       <c r="C158" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D158" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B159">
-        <v>45642</v>
+        <v>45459</v>
       </c>
       <c r="C159" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D159" t="s">
-        <v>158</v>
-      </c>
-      <c r="E159" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B160">
-        <v>45643</v>
+        <v>45454</v>
       </c>
       <c r="C160" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D160" t="s">
-        <v>157</v>
+        <v>161</v>
+      </c>
+      <c r="E160" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B161">
-        <v>45643</v>
+        <v>42853</v>
       </c>
       <c r="C161" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D161" t="s">
-        <v>158</v>
-      </c>
-      <c r="E161" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B162">
-        <v>45643</v>
+        <v>42608</v>
       </c>
       <c r="C162" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D162" t="s">
-        <v>159</v>
-      </c>
-      <c r="E162" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B163">
-        <v>45643</v>
+        <v>45481</v>
       </c>
       <c r="C163" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D163" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E163" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
@@ -3373,751 +3379,754 @@
         <v>12</v>
       </c>
       <c r="B164">
-        <v>46043</v>
+        <v>45481</v>
       </c>
       <c r="C164" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D164" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B165">
-        <v>45444</v>
+        <v>45641</v>
       </c>
       <c r="C165" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D165" t="s">
-        <v>157</v>
+        <v>161</v>
+      </c>
+      <c r="E165" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B166">
-        <v>45444</v>
+        <v>45642</v>
       </c>
       <c r="C166" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D166" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B167">
-        <v>45444</v>
+        <v>45642</v>
       </c>
       <c r="C167" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D167" t="s">
-        <v>159</v>
+        <v>162</v>
+      </c>
+      <c r="E167" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B168">
-        <v>45444</v>
+        <v>45643</v>
       </c>
       <c r="C168" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D168" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B169">
-        <v>45132</v>
+        <v>45643</v>
       </c>
       <c r="C169" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D169" t="s">
-        <v>157</v>
+        <v>162</v>
+      </c>
+      <c r="E169" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B170">
-        <v>45132</v>
+        <v>45643</v>
       </c>
       <c r="C170" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D170" t="s">
-        <v>158</v>
+        <v>163</v>
+      </c>
+      <c r="E170" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B171">
-        <v>45446</v>
+        <v>45643</v>
       </c>
       <c r="C171" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D171" t="s">
-        <v>157</v>
+        <v>164</v>
+      </c>
+      <c r="E171" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B172">
-        <v>45446</v>
+        <v>46043</v>
       </c>
       <c r="C172" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D172" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B173">
-        <v>45446</v>
+        <v>45444</v>
       </c>
       <c r="C173" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D173" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B174">
-        <v>45446</v>
+        <v>45444</v>
       </c>
       <c r="C174" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D174" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B175">
-        <v>45446</v>
+        <v>45444</v>
       </c>
       <c r="C175" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D175" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B176">
-        <v>45446</v>
+        <v>45444</v>
       </c>
       <c r="C176" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D176" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B177">
-        <v>45446</v>
+        <v>45132</v>
       </c>
       <c r="C177" t="s">
         <v>84</v>
       </c>
       <c r="D177" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B178">
-        <v>45446</v>
+        <v>45132</v>
       </c>
       <c r="C178" t="s">
         <v>84</v>
       </c>
       <c r="D178" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B179">
-        <v>45244</v>
+        <v>45446</v>
       </c>
       <c r="C179" t="s">
         <v>85</v>
       </c>
       <c r="D179" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B180">
-        <v>45244</v>
+        <v>45446</v>
       </c>
       <c r="C180" t="s">
         <v>85</v>
       </c>
       <c r="D180" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B181">
-        <v>45988</v>
+        <v>45446</v>
       </c>
       <c r="C181" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D181" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B182">
-        <v>45988</v>
+        <v>45446</v>
       </c>
       <c r="C182" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D182" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B183">
-        <v>45487</v>
+        <v>45446</v>
       </c>
       <c r="C183" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D183" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B184">
-        <v>45487</v>
+        <v>45446</v>
       </c>
       <c r="C184" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D184" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B185">
-        <v>45520</v>
+        <v>45446</v>
       </c>
       <c r="C185" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D185" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B186">
-        <v>45158</v>
+        <v>45446</v>
       </c>
       <c r="C186" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D186" t="s">
-        <v>157</v>
-      </c>
-      <c r="E186" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>22</v>
       </c>
       <c r="B187">
-        <v>45158</v>
+        <v>45244</v>
       </c>
       <c r="C187" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D187" t="s">
-        <v>158</v>
-      </c>
-      <c r="E187" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B188">
-        <v>45886</v>
+        <v>45244</v>
       </c>
       <c r="C188" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D188" t="s">
-        <v>157</v>
-      </c>
-      <c r="E188" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B189">
-        <v>40342</v>
+        <v>45988</v>
       </c>
       <c r="C189" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D189" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B190">
-        <v>40713</v>
+        <v>45988</v>
       </c>
       <c r="C190" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D190" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>24</v>
       </c>
       <c r="B191">
-        <v>40432</v>
+        <v>45487</v>
       </c>
       <c r="C191" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D191" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B192">
-        <v>45271</v>
+        <v>45487</v>
       </c>
       <c r="C192" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D192" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B193">
-        <v>45488</v>
+        <v>45520</v>
       </c>
       <c r="C193" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D193" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B194">
-        <v>45488</v>
+        <v>45158</v>
       </c>
       <c r="C194" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D194" t="s">
-        <v>158</v>
+        <v>161</v>
+      </c>
+      <c r="E194" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B195">
-        <v>45536</v>
+        <v>45158</v>
       </c>
       <c r="C195" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D195" t="s">
-        <v>157</v>
+        <v>162</v>
+      </c>
+      <c r="E195" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B196">
-        <v>45536</v>
+        <v>45886</v>
       </c>
       <c r="C196" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D196" t="s">
-        <v>158</v>
+        <v>161</v>
+      </c>
+      <c r="E196" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B197">
-        <v>45536</v>
+        <v>40342</v>
       </c>
       <c r="C197" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D197" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B198">
-        <v>45536</v>
+        <v>40713</v>
       </c>
       <c r="C198" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D198" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B199">
-        <v>45536</v>
+        <v>40432</v>
       </c>
       <c r="C199" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D199" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B200">
-        <v>45536</v>
+        <v>45271</v>
       </c>
       <c r="C200" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D200" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B201">
-        <v>45594</v>
+        <v>45488</v>
       </c>
       <c r="C201" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D201" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B202">
-        <v>45594</v>
+        <v>45488</v>
       </c>
       <c r="C202" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D202" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B203">
-        <v>45653</v>
+        <v>45536</v>
       </c>
       <c r="C203" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D203" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B204">
-        <v>45653</v>
+        <v>45536</v>
       </c>
       <c r="C204" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D204" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B205">
-        <v>45653</v>
+        <v>45536</v>
       </c>
       <c r="C205" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D205" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B206">
-        <v>45653</v>
+        <v>45536</v>
       </c>
       <c r="C206" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D206" t="s">
-        <v>160</v>
-      </c>
-      <c r="E206" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B207">
-        <v>45653</v>
+        <v>45536</v>
       </c>
       <c r="C207" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D207" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B208">
-        <v>45654</v>
+        <v>45536</v>
       </c>
       <c r="C208" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D208" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B209">
-        <v>45654</v>
+        <v>45594</v>
       </c>
       <c r="C209" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D209" t="s">
-        <v>158</v>
-      </c>
-      <c r="E209" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B210">
-        <v>45655</v>
+        <v>45594</v>
       </c>
       <c r="C210" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D210" t="s">
-        <v>157</v>
-      </c>
-      <c r="E210" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B211">
-        <v>45655</v>
+        <v>45653</v>
       </c>
       <c r="C211" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D211" t="s">
-        <v>158</v>
-      </c>
-      <c r="E211" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B212">
-        <v>45655</v>
+        <v>45653</v>
       </c>
       <c r="C212" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D212" t="s">
-        <v>159</v>
-      </c>
-      <c r="E212" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B213">
-        <v>40705</v>
+        <v>45653</v>
       </c>
       <c r="C213" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D213" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B214">
-        <v>45145</v>
+        <v>45653</v>
       </c>
       <c r="C214" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D214" t="s">
-        <v>157</v>
+        <v>164</v>
+      </c>
+      <c r="E214" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B215">
-        <v>45456</v>
+        <v>45653</v>
       </c>
       <c r="C215" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D215" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
@@ -4125,173 +4134,185 @@
         <v>16</v>
       </c>
       <c r="B216">
-        <v>45498</v>
+        <v>45654</v>
       </c>
       <c r="C216" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D216" t="s">
-        <v>157</v>
-      </c>
-      <c r="E216" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B217">
-        <v>45300</v>
+        <v>45654</v>
       </c>
       <c r="C217" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D217" t="s">
-        <v>157</v>
+        <v>162</v>
+      </c>
+      <c r="E217" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B218">
-        <v>45300</v>
+        <v>45655</v>
       </c>
       <c r="C218" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D218" t="s">
-        <v>158</v>
+        <v>161</v>
+      </c>
+      <c r="E218" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B219">
-        <v>45656</v>
+        <v>45655</v>
       </c>
       <c r="C219" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D219" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E219" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B220">
-        <v>45656</v>
+        <v>45655</v>
       </c>
       <c r="C220" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D220" t="s">
-        <v>158</v>
+        <v>163</v>
+      </c>
+      <c r="E220" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B221">
-        <v>45656</v>
+        <v>40705</v>
       </c>
       <c r="C221" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D221" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B222">
-        <v>45656</v>
+        <v>45145</v>
       </c>
       <c r="C222" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D222" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B223">
-        <v>45656</v>
+        <v>45456</v>
       </c>
       <c r="C223" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D223" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B224">
-        <v>45657</v>
+        <v>45498</v>
       </c>
       <c r="C224" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D224" t="s">
-        <v>157</v>
+        <v>161</v>
+      </c>
+      <c r="E224" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B225">
-        <v>45657</v>
+        <v>45300</v>
       </c>
       <c r="C225" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D225" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B226">
-        <v>45657</v>
+        <v>45300</v>
       </c>
       <c r="C226" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D226" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B227">
-        <v>45658</v>
+        <v>45656</v>
       </c>
       <c r="C227" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D227" t="s">
-        <v>157</v>
+        <v>161</v>
+      </c>
+      <c r="E227" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
@@ -4299,165 +4320,153 @@
         <v>19</v>
       </c>
       <c r="B228">
-        <v>45658</v>
+        <v>45656</v>
       </c>
       <c r="C228" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D228" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B229">
-        <v>45658</v>
+        <v>45656</v>
       </c>
       <c r="C229" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D229" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B230">
-        <v>45658</v>
+        <v>45656</v>
       </c>
       <c r="C230" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D230" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B231">
-        <v>45658</v>
+        <v>45656</v>
       </c>
       <c r="C231" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D231" t="s">
-        <v>162</v>
-      </c>
-      <c r="E231" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B232">
-        <v>45658</v>
+        <v>45657</v>
       </c>
       <c r="C232" t="s">
         <v>108</v>
       </c>
       <c r="D232" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B233">
-        <v>46051</v>
+        <v>45657</v>
       </c>
       <c r="C233" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D233" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B234">
-        <v>45993</v>
+        <v>45657</v>
       </c>
       <c r="C234" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D234" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B235">
-        <v>45111</v>
+        <v>45658</v>
       </c>
       <c r="C235" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D235" t="s">
-        <v>157</v>
-      </c>
-      <c r="E235" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B236">
-        <v>45111</v>
+        <v>45658</v>
       </c>
       <c r="C236" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D236" t="s">
-        <v>158</v>
-      </c>
-      <c r="E236" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B237">
-        <v>45931</v>
+        <v>45658</v>
       </c>
       <c r="C237" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D237" t="s">
-        <v>157</v>
-      </c>
-      <c r="E237" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B238">
-        <v>45931</v>
+        <v>45658</v>
       </c>
       <c r="C238" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D238" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
@@ -4465,187 +4474,199 @@
         <v>10</v>
       </c>
       <c r="B239">
-        <v>45931</v>
+        <v>45658</v>
       </c>
       <c r="C239" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D239" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E239" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B240">
-        <v>45931</v>
+        <v>45658</v>
       </c>
       <c r="C240" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D240" t="s">
-        <v>160</v>
-      </c>
-      <c r="E240" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B241">
-        <v>45931</v>
+        <v>45658</v>
       </c>
       <c r="C241" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D241" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B242">
-        <v>46046</v>
+        <v>46051</v>
       </c>
       <c r="C242" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D242" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B243">
-        <v>46046</v>
+        <v>45993</v>
       </c>
       <c r="C243" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D243" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B244">
-        <v>46046</v>
+        <v>45111</v>
       </c>
       <c r="C244" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D244" t="s">
-        <v>159</v>
+        <v>161</v>
+      </c>
+      <c r="E244" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B245">
-        <v>46046</v>
+        <v>45111</v>
       </c>
       <c r="C245" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D245" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="E245" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B246">
-        <v>46046</v>
+        <v>45931</v>
       </c>
       <c r="C246" t="s">
         <v>113</v>
       </c>
       <c r="D246" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="E246" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B247">
-        <v>46046</v>
+        <v>45931</v>
       </c>
       <c r="C247" t="s">
         <v>113</v>
       </c>
       <c r="D247" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B248">
-        <v>46046</v>
+        <v>45931</v>
       </c>
       <c r="C248" t="s">
         <v>113</v>
       </c>
       <c r="D248" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="E248" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B249">
-        <v>45133</v>
+        <v>45931</v>
       </c>
       <c r="C249" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D249" t="s">
-        <v>157</v>
+        <v>164</v>
+      </c>
+      <c r="E249" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B250">
-        <v>45133</v>
+        <v>45931</v>
       </c>
       <c r="C250" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D250" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B251">
-        <v>45133</v>
+        <v>46046</v>
       </c>
       <c r="C251" t="s">
         <v>114</v>
       </c>
       <c r="D251" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
@@ -4653,111 +4674,108 @@
         <v>18</v>
       </c>
       <c r="B252">
-        <v>45133</v>
+        <v>46046</v>
       </c>
       <c r="C252" t="s">
         <v>114</v>
       </c>
       <c r="D252" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B253">
-        <v>45133</v>
+        <v>46046</v>
       </c>
       <c r="C253" t="s">
         <v>114</v>
       </c>
       <c r="D253" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B254">
-        <v>45933</v>
+        <v>46046</v>
       </c>
       <c r="C254" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D254" t="s">
-        <v>157</v>
-      </c>
-      <c r="E254" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B255">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C255" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D255" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B256">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C256" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D256" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B257">
-        <v>45517</v>
+        <v>46046</v>
       </c>
       <c r="C257" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D257" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B258">
-        <v>45517</v>
+        <v>45133</v>
       </c>
       <c r="C258" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D258" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B259">
-        <v>45517</v>
+        <v>45133</v>
       </c>
       <c r="C259" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D259" t="s">
         <v>162</v>
@@ -4765,13 +4783,13 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B260">
-        <v>45517</v>
+        <v>45133</v>
       </c>
       <c r="C260" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D260" t="s">
         <v>163</v>
@@ -4779,13 +4797,13 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B261">
-        <v>45517</v>
+        <v>45133</v>
       </c>
       <c r="C261" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D261" t="s">
         <v>164</v>
@@ -4793,13 +4811,13 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B262">
-        <v>45517</v>
+        <v>45133</v>
       </c>
       <c r="C262" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D262" t="s">
         <v>165</v>
@@ -4807,131 +4825,131 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B263">
-        <v>45294</v>
+        <v>45933</v>
       </c>
       <c r="C263" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D263" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E263" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B264">
-        <v>45294</v>
+        <v>45517</v>
       </c>
       <c r="C264" t="s">
         <v>117</v>
       </c>
       <c r="D264" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B265">
-        <v>45294</v>
+        <v>45517</v>
       </c>
       <c r="C265" t="s">
         <v>117</v>
       </c>
       <c r="D265" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B266">
-        <v>45294</v>
+        <v>45517</v>
       </c>
       <c r="C266" t="s">
         <v>117</v>
       </c>
       <c r="D266" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B267">
-        <v>45294</v>
+        <v>45517</v>
       </c>
       <c r="C267" t="s">
         <v>117</v>
       </c>
       <c r="D267" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B268">
-        <v>45294</v>
+        <v>45517</v>
       </c>
       <c r="C268" t="s">
         <v>117</v>
       </c>
       <c r="D268" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B269">
-        <v>45294</v>
+        <v>45517</v>
       </c>
       <c r="C269" t="s">
         <v>117</v>
       </c>
       <c r="D269" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B270">
-        <v>45665</v>
+        <v>45517</v>
       </c>
       <c r="C270" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D270" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B271">
-        <v>45665</v>
+        <v>45517</v>
       </c>
       <c r="C271" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D271" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
@@ -4939,615 +4957,618 @@
         <v>18</v>
       </c>
       <c r="B272">
-        <v>45665</v>
+        <v>45294</v>
       </c>
       <c r="C272" t="s">
         <v>118</v>
       </c>
       <c r="D272" t="s">
-        <v>159</v>
+        <v>161</v>
+      </c>
+      <c r="E272" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B273">
-        <v>45665</v>
+        <v>45294</v>
       </c>
       <c r="C273" t="s">
         <v>118</v>
       </c>
       <c r="D273" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B274">
-        <v>45665</v>
+        <v>45294</v>
       </c>
       <c r="C274" t="s">
         <v>118</v>
       </c>
       <c r="D274" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B275">
-        <v>45665</v>
+        <v>45294</v>
       </c>
       <c r="C275" t="s">
         <v>118</v>
       </c>
       <c r="D275" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B276">
-        <v>45665</v>
+        <v>45294</v>
       </c>
       <c r="C276" t="s">
         <v>118</v>
       </c>
       <c r="D276" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B277">
-        <v>45134</v>
+        <v>45294</v>
       </c>
       <c r="C277" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D277" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B278">
-        <v>45134</v>
+        <v>45294</v>
       </c>
       <c r="C278" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D278" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B279">
-        <v>45134</v>
+        <v>45665</v>
       </c>
       <c r="C279" t="s">
         <v>119</v>
       </c>
       <c r="D279" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B280">
-        <v>45326</v>
+        <v>45665</v>
       </c>
       <c r="C280" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D280" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B281">
-        <v>46052</v>
+        <v>45665</v>
       </c>
       <c r="C281" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D281" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B282">
-        <v>46052</v>
+        <v>45665</v>
       </c>
       <c r="C282" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D282" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B283">
-        <v>46052</v>
+        <v>45665</v>
       </c>
       <c r="C283" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D283" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B284">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C284" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D284" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B285">
-        <v>46053</v>
+        <v>45665</v>
       </c>
       <c r="C285" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D285" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B286">
-        <v>46053</v>
+        <v>45134</v>
       </c>
       <c r="C286" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D286" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B287">
-        <v>46053</v>
+        <v>45134</v>
       </c>
       <c r="C287" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D287" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B288">
-        <v>46053</v>
+        <v>45134</v>
       </c>
       <c r="C288" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D288" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B289">
-        <v>46053</v>
+        <v>45134</v>
       </c>
       <c r="C289" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D289" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B290">
-        <v>46053</v>
+        <v>45326</v>
       </c>
       <c r="C290" t="s">
         <v>121</v>
       </c>
       <c r="D290" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B291">
-        <v>46053</v>
+        <v>46052</v>
       </c>
       <c r="C291" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D291" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B292">
-        <v>46053</v>
+        <v>46052</v>
       </c>
       <c r="C292" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D292" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B293">
-        <v>46053</v>
+        <v>46052</v>
       </c>
       <c r="C293" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D293" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B294">
         <v>46053</v>
       </c>
       <c r="C294" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D294" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B295">
         <v>46053</v>
       </c>
       <c r="C295" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D295" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B296">
         <v>46053</v>
       </c>
       <c r="C296" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D296" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B297">
         <v>46053</v>
       </c>
       <c r="C297" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D297" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B298">
         <v>46053</v>
       </c>
       <c r="C298" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D298" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B299">
         <v>46053</v>
       </c>
       <c r="C299" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D299" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B300">
         <v>46053</v>
       </c>
       <c r="C300" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D300" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B301">
-        <v>46021</v>
+        <v>46053</v>
       </c>
       <c r="C301" t="s">
         <v>122</v>
       </c>
       <c r="D301" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B302">
-        <v>46021</v>
+        <v>46053</v>
       </c>
       <c r="C302" t="s">
         <v>122</v>
       </c>
       <c r="D302" t="s">
-        <v>158</v>
-      </c>
-      <c r="E302" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B303">
-        <v>45599</v>
+        <v>46053</v>
       </c>
       <c r="C303" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D303" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B304">
-        <v>45599</v>
+        <v>46053</v>
       </c>
       <c r="C304" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D304" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B305">
-        <v>45599</v>
+        <v>46053</v>
       </c>
       <c r="C305" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D305" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B306">
-        <v>45599</v>
+        <v>46053</v>
       </c>
       <c r="C306" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D306" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B307">
-        <v>45599</v>
+        <v>46053</v>
       </c>
       <c r="C307" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D307" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B308">
-        <v>45243</v>
+        <v>46053</v>
       </c>
       <c r="C308" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D308" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B309">
-        <v>45243</v>
+        <v>46053</v>
       </c>
       <c r="C309" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D309" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B310">
-        <v>45243</v>
+        <v>46053</v>
       </c>
       <c r="C310" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D310" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B311">
-        <v>45466</v>
+        <v>46053</v>
       </c>
       <c r="C311" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D311" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B312">
-        <v>45466</v>
+        <v>46021</v>
       </c>
       <c r="C312" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D312" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B313">
-        <v>45466</v>
+        <v>46021</v>
       </c>
       <c r="C313" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D313" t="s">
-        <v>159</v>
+        <v>162</v>
+      </c>
+      <c r="E313" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B314">
-        <v>45466</v>
+        <v>45599</v>
       </c>
       <c r="C314" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D314" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B315">
-        <v>45466</v>
+        <v>45599</v>
       </c>
       <c r="C315" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D315" t="s">
         <v>162</v>
@@ -5555,13 +5576,13 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B316">
-        <v>45466</v>
+        <v>45599</v>
       </c>
       <c r="C316" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D316" t="s">
         <v>163</v>
@@ -5569,13 +5590,13 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B317">
-        <v>45466</v>
+        <v>45599</v>
       </c>
       <c r="C317" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D317" t="s">
         <v>164</v>
@@ -5583,260 +5604,257 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B318">
-        <v>45511</v>
+        <v>45599</v>
       </c>
       <c r="C318" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D318" t="s">
-        <v>157</v>
-      </c>
-      <c r="E318" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B319">
-        <v>45534</v>
+        <v>45599</v>
       </c>
       <c r="C319" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D319" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B320">
-        <v>45534</v>
+        <v>45243</v>
       </c>
       <c r="C320" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D320" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B321">
-        <v>45534</v>
+        <v>45243</v>
       </c>
       <c r="C321" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D321" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B322">
-        <v>45534</v>
+        <v>45243</v>
       </c>
       <c r="C322" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D322" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B323">
-        <v>45947</v>
+        <v>45466</v>
       </c>
       <c r="C323" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D323" t="s">
-        <v>157</v>
-      </c>
-      <c r="E323" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B324">
-        <v>45146</v>
+        <v>45466</v>
       </c>
       <c r="C324" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D324" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B325">
-        <v>45825</v>
+        <v>45466</v>
       </c>
       <c r="C325" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D325" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B326">
-        <v>45245</v>
+        <v>45466</v>
       </c>
       <c r="C326" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D326" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B327">
-        <v>45245</v>
+        <v>45466</v>
       </c>
       <c r="C327" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D327" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B328">
-        <v>45245</v>
+        <v>45466</v>
       </c>
       <c r="C328" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D328" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B329">
-        <v>45245</v>
+        <v>45466</v>
       </c>
       <c r="C329" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D329" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B330">
-        <v>46037</v>
+        <v>45511</v>
       </c>
       <c r="C330" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D330" t="s">
-        <v>157</v>
+        <v>161</v>
+      </c>
+      <c r="E330" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B331">
-        <v>45535</v>
+        <v>45534</v>
       </c>
       <c r="C331" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D331" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B332">
-        <v>45535</v>
+        <v>45534</v>
       </c>
       <c r="C332" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D332" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B333">
-        <v>40207</v>
+        <v>45534</v>
       </c>
       <c r="C333" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D333" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B334">
-        <v>40207</v>
+        <v>45534</v>
       </c>
       <c r="C334" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D334" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B335">
-        <v>46096</v>
+        <v>45534</v>
       </c>
       <c r="C335" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D335" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
@@ -5844,237 +5862,243 @@
         <v>23</v>
       </c>
       <c r="B336">
+        <v>45947</v>
+      </c>
+      <c r="C336" t="s">
+        <v>129</v>
+      </c>
+      <c r="D336" t="s">
+        <v>161</v>
+      </c>
+     